--- a/artfynd/A 14918-2023.xlsx
+++ b/artfynd/A 14918-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY41"/>
+  <dimension ref="A1:AY126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5535,6 +5535,9598 @@
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>111896669</v>
+      </c>
+      <c r="B42" t="n">
+        <v>85253</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>3674</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Anisspindling</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Cortinarius odorifer</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Britzelm.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>574252.2932853762</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6703469.555768683</v>
+      </c>
+      <c r="S42" t="n">
+        <v>25</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>111896625</v>
+      </c>
+      <c r="B43" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>574335.1915376212</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6703403.659053097</v>
+      </c>
+      <c r="S43" t="n">
+        <v>25</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>111886372</v>
+      </c>
+      <c r="B44" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>574261.3270212604</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6703462.833304818</v>
+      </c>
+      <c r="S44" t="n">
+        <v>25</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>111896581</v>
+      </c>
+      <c r="B45" t="n">
+        <v>99413</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>574333.7783005711</v>
+      </c>
+      <c r="R45" t="n">
+        <v>6703424.353483723</v>
+      </c>
+      <c r="S45" t="n">
+        <v>25</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>111896608</v>
+      </c>
+      <c r="B46" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>574450.5671428492</v>
+      </c>
+      <c r="R46" t="n">
+        <v>6703513.099122572</v>
+      </c>
+      <c r="S46" t="n">
+        <v>25</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>111886424</v>
+      </c>
+      <c r="B47" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>574278.5667425465</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6703465.653919976</v>
+      </c>
+      <c r="S47" t="n">
+        <v>25</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>111896624</v>
+      </c>
+      <c r="B48" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>574320.3710326073</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6703403.354864516</v>
+      </c>
+      <c r="S48" t="n">
+        <v>25</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>111896626</v>
+      </c>
+      <c r="B49" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>574356.4769687023</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6703377.944859226</v>
+      </c>
+      <c r="S49" t="n">
+        <v>25</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>111896709</v>
+      </c>
+      <c r="B50" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>574319.8910472075</v>
+      </c>
+      <c r="R50" t="n">
+        <v>6703354.496443897</v>
+      </c>
+      <c r="S50" t="n">
+        <v>25</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>111896623</v>
+      </c>
+      <c r="B51" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>574295.9517128408</v>
+      </c>
+      <c r="R51" t="n">
+        <v>6703413.21552579</v>
+      </c>
+      <c r="S51" t="n">
+        <v>25</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>111896681</v>
+      </c>
+      <c r="B52" t="n">
+        <v>88966</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>574330.7595642635</v>
+      </c>
+      <c r="R52" t="n">
+        <v>6703354.719507183</v>
+      </c>
+      <c r="S52" t="n">
+        <v>25</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>111896696</v>
+      </c>
+      <c r="B53" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>574272.5440735799</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6703373.755373025</v>
+      </c>
+      <c r="S53" t="n">
+        <v>25</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>111896651</v>
+      </c>
+      <c r="B54" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>574442.2963542459</v>
+      </c>
+      <c r="R54" t="n">
+        <v>6703458.654406736</v>
+      </c>
+      <c r="S54" t="n">
+        <v>25</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>111896697</v>
+      </c>
+      <c r="B55" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>574252.510194034</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6703386.666867712</v>
+      </c>
+      <c r="S55" t="n">
+        <v>25</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>111896703</v>
+      </c>
+      <c r="B56" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>574309.5943644949</v>
+      </c>
+      <c r="R56" t="n">
+        <v>6703519.084753582</v>
+      </c>
+      <c r="S56" t="n">
+        <v>25</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>111896706</v>
+      </c>
+      <c r="B57" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>574290.1295200255</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6703480.199912106</v>
+      </c>
+      <c r="S57" t="n">
+        <v>25</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>111896630</v>
+      </c>
+      <c r="B58" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>574436.8751361333</v>
+      </c>
+      <c r="R58" t="n">
+        <v>6703433.872390999</v>
+      </c>
+      <c r="S58" t="n">
+        <v>25</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>111896713</v>
+      </c>
+      <c r="B59" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>574333.7783005711</v>
+      </c>
+      <c r="R59" t="n">
+        <v>6703424.353483723</v>
+      </c>
+      <c r="S59" t="n">
+        <v>25</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>111896668</v>
+      </c>
+      <c r="B60" t="n">
+        <v>85089</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>3762</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Olivspindling</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Cortinarius venetus</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>574317.8180265825</v>
+      </c>
+      <c r="R60" t="n">
+        <v>6703431.427106799</v>
+      </c>
+      <c r="S60" t="n">
+        <v>25</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>111886498</v>
+      </c>
+      <c r="B61" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>574333.7396710602</v>
+      </c>
+      <c r="R61" t="n">
+        <v>6703522.540716695</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>11:21</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>11:21</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Annelie Hilmerby</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Annelie Hilmerby</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>111886738</v>
+      </c>
+      <c r="B62" t="n">
+        <v>90684</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>4368</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Hydnellum suaveolens</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>574247.2374925215</v>
+      </c>
+      <c r="R62" t="n">
+        <v>6703547.409599461</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Annelie Hilmerby</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Annelie Hilmerby</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>111896601</v>
+      </c>
+      <c r="B63" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>574287.6814794211</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6703454.985900432</v>
+      </c>
+      <c r="S63" t="n">
+        <v>25</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>111896632</v>
+      </c>
+      <c r="B64" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>574468.9496102105</v>
+      </c>
+      <c r="R64" t="n">
+        <v>6703484.36623429</v>
+      </c>
+      <c r="S64" t="n">
+        <v>25</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>111896695</v>
+      </c>
+      <c r="B65" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>574528.5483397129</v>
+      </c>
+      <c r="R65" t="n">
+        <v>6703446.119582187</v>
+      </c>
+      <c r="S65" t="n">
+        <v>25</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>111896682</v>
+      </c>
+      <c r="B66" t="n">
+        <v>88966</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>574256.1442139128</v>
+      </c>
+      <c r="R66" t="n">
+        <v>6703474.568800534</v>
+      </c>
+      <c r="S66" t="n">
+        <v>25</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>111896684</v>
+      </c>
+      <c r="B67" t="n">
+        <v>88966</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>574298.5092178418</v>
+      </c>
+      <c r="R67" t="n">
+        <v>6703457.181675683</v>
+      </c>
+      <c r="S67" t="n">
+        <v>25</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>111885842</v>
+      </c>
+      <c r="B68" t="n">
+        <v>101141</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>222002</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Underviol</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Viola mirabilis</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>574289.9628196132</v>
+      </c>
+      <c r="R68" t="n">
+        <v>6703416.053151045</v>
+      </c>
+      <c r="S68" t="n">
+        <v>25</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>111896708</v>
+      </c>
+      <c r="B69" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>574325.6696152951</v>
+      </c>
+      <c r="R69" t="n">
+        <v>6703458.23244116</v>
+      </c>
+      <c r="S69" t="n">
+        <v>25</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>111896619</v>
+      </c>
+      <c r="B70" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>574270.6945951059</v>
+      </c>
+      <c r="R70" t="n">
+        <v>6703439.835159265</v>
+      </c>
+      <c r="S70" t="n">
+        <v>25</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>111896704</v>
+      </c>
+      <c r="B71" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>574300.0179232516</v>
+      </c>
+      <c r="R71" t="n">
+        <v>6703504.086197484</v>
+      </c>
+      <c r="S71" t="n">
+        <v>25</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>111896683</v>
+      </c>
+      <c r="B72" t="n">
+        <v>88966</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>574289.1415073492</v>
+      </c>
+      <c r="R72" t="n">
+        <v>6703480.179643137</v>
+      </c>
+      <c r="S72" t="n">
+        <v>25</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>111896616</v>
+      </c>
+      <c r="B73" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>574249.2078899746</v>
+      </c>
+      <c r="R73" t="n">
+        <v>6703475.413386551</v>
+      </c>
+      <c r="S73" t="n">
+        <v>25</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>111896610</v>
+      </c>
+      <c r="B74" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>574272.2591996479</v>
+      </c>
+      <c r="R74" t="n">
+        <v>6703411.74269451</v>
+      </c>
+      <c r="S74" t="n">
+        <v>25</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>111896614</v>
+      </c>
+      <c r="B75" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>574228.885558943</v>
+      </c>
+      <c r="R75" t="n">
+        <v>6703430.096512586</v>
+      </c>
+      <c r="S75" t="n">
+        <v>25</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>111886358</v>
+      </c>
+      <c r="B76" t="n">
+        <v>101703</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>222412</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Daphne mezereum</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>574377.5537716877</v>
+      </c>
+      <c r="R76" t="n">
+        <v>6703530.841373169</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT76" t="inlineStr"/>
+      <c r="AW76" t="inlineStr">
+        <is>
+          <t>Annelie Hilmerby</t>
+        </is>
+      </c>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>Annelie Hilmerby</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>111886835</v>
+      </c>
+      <c r="B77" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>574230.0863521076</v>
+      </c>
+      <c r="R77" t="n">
+        <v>6703588.503049062</v>
+      </c>
+      <c r="S77" t="n">
+        <v>25</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT77" t="inlineStr"/>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>111896620</v>
+      </c>
+      <c r="B78" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>574292.6013405366</v>
+      </c>
+      <c r="R78" t="n">
+        <v>6703456.073649234</v>
+      </c>
+      <c r="S78" t="n">
+        <v>25</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT78" t="inlineStr"/>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>111896631</v>
+      </c>
+      <c r="B79" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>574455.6288491808</v>
+      </c>
+      <c r="R79" t="n">
+        <v>6703507.28235705</v>
+      </c>
+      <c r="S79" t="n">
+        <v>25</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX79" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>111896622</v>
+      </c>
+      <c r="B80" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>574283.0263743812</v>
+      </c>
+      <c r="R80" t="n">
+        <v>6703416.897689151</v>
+      </c>
+      <c r="S80" t="n">
+        <v>25</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT80" t="inlineStr"/>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>111896716</v>
+      </c>
+      <c r="B81" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>574337.5017077615</v>
+      </c>
+      <c r="R81" t="n">
+        <v>6703387.423688528</v>
+      </c>
+      <c r="S81" t="n">
+        <v>25</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT81" t="inlineStr"/>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>111896712</v>
+      </c>
+      <c r="B82" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>574311.7886614093</v>
+      </c>
+      <c r="R82" t="n">
+        <v>6703436.237499412</v>
+      </c>
+      <c r="S82" t="n">
+        <v>25</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT82" t="inlineStr"/>
+      <c r="AW82" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX82" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>111896627</v>
+      </c>
+      <c r="B83" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>574373.314176796</v>
+      </c>
+      <c r="R83" t="n">
+        <v>6703376.316927806</v>
+      </c>
+      <c r="S83" t="n">
+        <v>25</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT83" t="inlineStr"/>
+      <c r="AW83" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX83" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>111896590</v>
+      </c>
+      <c r="B84" t="n">
+        <v>101141</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>222002</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Underviol</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Viola mirabilis</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>574319.3829989098</v>
+      </c>
+      <c r="R84" t="n">
+        <v>6703403.334587433</v>
+      </c>
+      <c r="S84" t="n">
+        <v>25</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT84" t="inlineStr"/>
+      <c r="AW84" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX84" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>111896611</v>
+      </c>
+      <c r="B85" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>574271.5155704983</v>
+      </c>
+      <c r="R85" t="n">
+        <v>6703375.707959844</v>
+      </c>
+      <c r="S85" t="n">
+        <v>25</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT85" t="inlineStr"/>
+      <c r="AW85" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX85" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>111886848</v>
+      </c>
+      <c r="B86" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>574236.8404598181</v>
+      </c>
+      <c r="R86" t="n">
+        <v>6703596.535755535</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="AD86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT86" t="inlineStr"/>
+      <c r="AW86" t="inlineStr">
+        <is>
+          <t>Annelie Hilmerby</t>
+        </is>
+      </c>
+      <c r="AX86" t="inlineStr">
+        <is>
+          <t>Annelie Hilmerby</t>
+        </is>
+      </c>
+      <c r="AY86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>111886198</v>
+      </c>
+      <c r="B87" t="n">
+        <v>88966</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>574244.409384649</v>
+      </c>
+      <c r="R87" t="n">
+        <v>6703468.407307444</v>
+      </c>
+      <c r="S87" t="n">
+        <v>25</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT87" t="inlineStr"/>
+      <c r="AW87" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AX87" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AY87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>111896595</v>
+      </c>
+      <c r="B88" t="n">
+        <v>101703</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>222412</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Daphne mezereum</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>574247.1857444055</v>
+      </c>
+      <c r="R88" t="n">
+        <v>6703405.307550027</v>
+      </c>
+      <c r="S88" t="n">
+        <v>25</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT88" t="inlineStr"/>
+      <c r="AW88" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX88" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>111896714</v>
+      </c>
+      <c r="B89" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>574320.3710326073</v>
+      </c>
+      <c r="R89" t="n">
+        <v>6703403.354864516</v>
+      </c>
+      <c r="S89" t="n">
+        <v>25</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT89" t="inlineStr"/>
+      <c r="AW89" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX89" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>111896700</v>
+      </c>
+      <c r="B90" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>574211.4523542383</v>
+      </c>
+      <c r="R90" t="n">
+        <v>6703460.82405555</v>
+      </c>
+      <c r="S90" t="n">
+        <v>25</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT90" t="inlineStr"/>
+      <c r="AW90" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX90" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>111896648</v>
+      </c>
+      <c r="B91" t="n">
+        <v>78512</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>6456</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Skinnlav</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Leptogium saturninum</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>574527.773473482</v>
+      </c>
+      <c r="R91" t="n">
+        <v>6703435.741965486</v>
+      </c>
+      <c r="S91" t="n">
+        <v>25</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF91" t="inlineStr"/>
+      <c r="AG91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT91" t="inlineStr"/>
+      <c r="AW91" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX91" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>111896670</v>
+      </c>
+      <c r="B92" t="n">
+        <v>85253</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>3674</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Anisspindling</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Cortinarius odorifer</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Britzelm.</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>574302.4612936915</v>
+      </c>
+      <c r="R92" t="n">
+        <v>6703457.262763234</v>
+      </c>
+      <c r="S92" t="n">
+        <v>25</v>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF92" t="inlineStr"/>
+      <c r="AG92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT92" t="inlineStr"/>
+      <c r="AW92" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX92" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>111884952</v>
+      </c>
+      <c r="B93" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Kalkberget (Kalkberget), Gstr</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>574448.7809475841</v>
+      </c>
+      <c r="R93" t="n">
+        <v>6703527.864445598</v>
+      </c>
+      <c r="S93" t="n">
+        <v>25</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT93" t="inlineStr"/>
+      <c r="AW93" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AX93" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AY93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>111885762</v>
+      </c>
+      <c r="B94" t="n">
+        <v>90295</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>4740</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sotriska</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Lactarius lignyotus</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Fr.</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>574311.748177869</v>
+      </c>
+      <c r="R94" t="n">
+        <v>6703438.210316412</v>
+      </c>
+      <c r="S94" t="n">
+        <v>25</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT94" t="inlineStr"/>
+      <c r="AW94" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AX94" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AY94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>111885492</v>
+      </c>
+      <c r="B95" t="n">
+        <v>99413</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>574346.6812743739</v>
+      </c>
+      <c r="R95" t="n">
+        <v>6703445.835096321</v>
+      </c>
+      <c r="S95" t="n">
+        <v>25</v>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT95" t="inlineStr"/>
+      <c r="AW95" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AX95" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AY95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>111896618</v>
+      </c>
+      <c r="B96" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>574291.9436535498</v>
+      </c>
+      <c r="R96" t="n">
+        <v>6703488.13161656</v>
+      </c>
+      <c r="S96" t="n">
+        <v>25</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT96" t="inlineStr"/>
+      <c r="AW96" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX96" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>111896588</v>
+      </c>
+      <c r="B97" t="n">
+        <v>101141</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>222002</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Underviol</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Viola mirabilis</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>574305.4658307037</v>
+      </c>
+      <c r="R97" t="n">
+        <v>6703455.350775132</v>
+      </c>
+      <c r="S97" t="n">
+        <v>25</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT97" t="inlineStr"/>
+      <c r="AW97" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX97" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>111896617</v>
+      </c>
+      <c r="B98" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>574269.0777989432</v>
+      </c>
+      <c r="R98" t="n">
+        <v>6703494.570243312</v>
+      </c>
+      <c r="S98" t="n">
+        <v>25</v>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA98" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT98" t="inlineStr"/>
+      <c r="AW98" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX98" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>111896715</v>
+      </c>
+      <c r="B99" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>574335.2117857126</v>
+      </c>
+      <c r="R99" t="n">
+        <v>6703402.672635308</v>
+      </c>
+      <c r="S99" t="n">
+        <v>25</v>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA99" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT99" t="inlineStr"/>
+      <c r="AW99" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX99" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>111896717</v>
+      </c>
+      <c r="B100" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>574371.1760314812</v>
+      </c>
+      <c r="R100" t="n">
+        <v>6703384.167737775</v>
+      </c>
+      <c r="S100" t="n">
+        <v>25</v>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT100" t="inlineStr"/>
+      <c r="AW100" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX100" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>111896680</v>
+      </c>
+      <c r="B101" t="n">
+        <v>88966</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>574323.5395620605</v>
+      </c>
+      <c r="R101" t="n">
+        <v>6703369.373988308</v>
+      </c>
+      <c r="S101" t="n">
+        <v>25</v>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA101" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF101" t="inlineStr"/>
+      <c r="AG101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT101" t="inlineStr"/>
+      <c r="AW101" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX101" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>111896710</v>
+      </c>
+      <c r="B102" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>574289.9830554068</v>
+      </c>
+      <c r="R102" t="n">
+        <v>6703415.066736702</v>
+      </c>
+      <c r="S102" t="n">
+        <v>25</v>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA102" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT102" t="inlineStr"/>
+      <c r="AW102" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX102" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>111896701</v>
+      </c>
+      <c r="B103" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>574223.5713984326</v>
+      </c>
+      <c r="R103" t="n">
+        <v>6703448.24379926</v>
+      </c>
+      <c r="S103" t="n">
+        <v>25</v>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA103" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT103" t="inlineStr"/>
+      <c r="AW103" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX103" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>111896707</v>
+      </c>
+      <c r="B104" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>574304.4575714046</v>
+      </c>
+      <c r="R104" t="n">
+        <v>6703456.31690546</v>
+      </c>
+      <c r="S104" t="n">
+        <v>25</v>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z104" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA104" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT104" t="inlineStr"/>
+      <c r="AW104" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX104" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>111896587</v>
+      </c>
+      <c r="B105" t="n">
+        <v>101141</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>222002</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Underviol</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Viola mirabilis</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>574292.2757661514</v>
+      </c>
+      <c r="R105" t="n">
+        <v>6703496.032899947</v>
+      </c>
+      <c r="S105" t="n">
+        <v>25</v>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z105" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA105" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT105" t="inlineStr"/>
+      <c r="AW105" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX105" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>111896615</v>
+      </c>
+      <c r="B106" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>574241.4048918699</v>
+      </c>
+      <c r="R106" t="n">
+        <v>6703470.319338148</v>
+      </c>
+      <c r="S106" t="n">
+        <v>25</v>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z106" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA106" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB106" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT106" t="inlineStr"/>
+      <c r="AW106" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX106" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>111896580</v>
+      </c>
+      <c r="B107" t="n">
+        <v>99413</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>574256.1644406004</v>
+      </c>
+      <c r="R107" t="n">
+        <v>6703473.582402139</v>
+      </c>
+      <c r="S107" t="n">
+        <v>25</v>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA107" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT107" t="inlineStr"/>
+      <c r="AW107" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX107" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>111896589</v>
+      </c>
+      <c r="B108" t="n">
+        <v>101141</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>222002</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Underviol</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Viola mirabilis</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>574319.8708033765</v>
+      </c>
+      <c r="R108" t="n">
+        <v>6703355.482874738</v>
+      </c>
+      <c r="S108" t="n">
+        <v>25</v>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z108" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA108" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT108" t="inlineStr"/>
+      <c r="AW108" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX108" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>111896691</v>
+      </c>
+      <c r="B109" t="n">
+        <v>90684</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>4368</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Hydnellum suaveolens</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>574527.49941562</v>
+      </c>
+      <c r="R109" t="n">
+        <v>6703449.058466445</v>
+      </c>
+      <c r="S109" t="n">
+        <v>25</v>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA109" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT109" t="inlineStr"/>
+      <c r="AW109" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX109" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>111896602</v>
+      </c>
+      <c r="B110" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr"/>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>574317.3462017868</v>
+      </c>
+      <c r="R110" t="n">
+        <v>6703406.253286039</v>
+      </c>
+      <c r="S110" t="n">
+        <v>25</v>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA110" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB110" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT110" t="inlineStr"/>
+      <c r="AW110" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX110" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>111896607</v>
+      </c>
+      <c r="B111" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>574466.8489239614</v>
+      </c>
+      <c r="R111" t="n">
+        <v>6703514.4207107</v>
+      </c>
+      <c r="S111" t="n">
+        <v>25</v>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA111" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB111" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT111" t="inlineStr"/>
+      <c r="AW111" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX111" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111896629</v>
+      </c>
+      <c r="B112" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>574410.1934356905</v>
+      </c>
+      <c r="R112" t="n">
+        <v>6703385.462655744</v>
+      </c>
+      <c r="S112" t="n">
+        <v>25</v>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA112" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB112" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT112" t="inlineStr"/>
+      <c r="AW112" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX112" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111896671</v>
+      </c>
+      <c r="B113" t="n">
+        <v>85253</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>3674</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Anisspindling</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Cortinarius odorifer</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Britzelm.</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>574320.3305445107</v>
+      </c>
+      <c r="R113" t="n">
+        <v>6703405.327699401</v>
+      </c>
+      <c r="S113" t="n">
+        <v>25</v>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA113" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF113" t="inlineStr"/>
+      <c r="AG113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT113" t="inlineStr"/>
+      <c r="AW113" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX113" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>111896621</v>
+      </c>
+      <c r="B114" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>574319.8505595494</v>
+      </c>
+      <c r="R114" t="n">
+        <v>6703356.46930531</v>
+      </c>
+      <c r="S114" t="n">
+        <v>25</v>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z114" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA114" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB114" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT114" t="inlineStr"/>
+      <c r="AW114" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX114" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>111886329</v>
+      </c>
+      <c r="B115" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>574258.1186801053</v>
+      </c>
+      <c r="R115" t="n">
+        <v>6703498.786127698</v>
+      </c>
+      <c r="S115" t="n">
+        <v>25</v>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA115" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD115" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE115" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG115" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT115" t="inlineStr"/>
+      <c r="AW115" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AX115" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AY115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>111886713</v>
+      </c>
+      <c r="B116" t="n">
+        <v>90684</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>4368</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Hydnellum suaveolens</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>574267.3295348831</v>
+      </c>
+      <c r="R116" t="n">
+        <v>6703555.715953856</v>
+      </c>
+      <c r="S116" t="n">
+        <v>25</v>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z116" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA116" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB116" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD116" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE116" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG116" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT116" t="inlineStr"/>
+      <c r="AW116" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AX116" t="inlineStr">
+        <is>
+          <t>Patric Engfeldt</t>
+        </is>
+      </c>
+      <c r="AY116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>111896711</v>
+      </c>
+      <c r="B117" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>574304.6397298749</v>
+      </c>
+      <c r="R117" t="n">
+        <v>6703447.439264891</v>
+      </c>
+      <c r="S117" t="n">
+        <v>25</v>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA117" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB117" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD117" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE117" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG117" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT117" t="inlineStr"/>
+      <c r="AW117" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX117" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>111896685</v>
+      </c>
+      <c r="B118" t="n">
+        <v>88966</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>574341.6196639308</v>
+      </c>
+      <c r="R118" t="n">
+        <v>6703451.652109961</v>
+      </c>
+      <c r="S118" t="n">
+        <v>25</v>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z118" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA118" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB118" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD118" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE118" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG118" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT118" t="inlineStr"/>
+      <c r="AW118" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX118" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>111896702</v>
+      </c>
+      <c r="B119" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>574285.1168916271</v>
+      </c>
+      <c r="R119" t="n">
+        <v>6703507.727709529</v>
+      </c>
+      <c r="S119" t="n">
+        <v>25</v>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z119" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA119" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB119" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT119" t="inlineStr"/>
+      <c r="AW119" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX119" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>111896699</v>
+      </c>
+      <c r="B120" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>574219.1872449504</v>
+      </c>
+      <c r="R120" t="n">
+        <v>6703421.016299267</v>
+      </c>
+      <c r="S120" t="n">
+        <v>25</v>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z120" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA120" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB120" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD120" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE120" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG120" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT120" t="inlineStr"/>
+      <c r="AW120" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX120" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>111896650</v>
+      </c>
+      <c r="B121" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>Kratte masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>574250.0745535446</v>
+      </c>
+      <c r="R121" t="n">
+        <v>6703481.352027887</v>
+      </c>
+      <c r="S121" t="n">
+        <v>25</v>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z121" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA121" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB121" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT121" t="inlineStr"/>
+      <c r="AW121" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX121" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>111886390</v>
+      </c>
+      <c r="B122" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>574320.5008898397</v>
+      </c>
+      <c r="R122" t="n">
+        <v>6703541.511550271</v>
+      </c>
+      <c r="S122" t="n">
+        <v>1</v>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y122" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z122" t="inlineStr">
+        <is>
+          <t>11:12</t>
+        </is>
+      </c>
+      <c r="AA122" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB122" t="inlineStr">
+        <is>
+          <t>11:12</t>
+        </is>
+      </c>
+      <c r="AD122" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE122" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG122" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT122" t="inlineStr"/>
+      <c r="AW122" t="inlineStr">
+        <is>
+          <t>Annelie Hilmerby</t>
+        </is>
+      </c>
+      <c r="AX122" t="inlineStr">
+        <is>
+          <t>Annelie Hilmerby</t>
+        </is>
+      </c>
+      <c r="AY122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>111888262</v>
+      </c>
+      <c r="B123" t="n">
+        <v>90684</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>4368</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Hydnellum suaveolens</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>Kalkberget (Kalkberget), Gstr</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>574524.3526532104</v>
+      </c>
+      <c r="R123" t="n">
+        <v>6703457.875106505</v>
+      </c>
+      <c r="S123" t="n">
+        <v>5</v>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y123" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z123" t="inlineStr">
+        <is>
+          <t>12:55</t>
+        </is>
+      </c>
+      <c r="AA123" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB123" t="inlineStr">
+        <is>
+          <t>12:55</t>
+        </is>
+      </c>
+      <c r="AD123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT123" t="inlineStr"/>
+      <c r="AW123" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX123" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>111886310</v>
+      </c>
+      <c r="B124" t="n">
+        <v>101703</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>222412</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Daphne mezereum</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>Kalkberget (Kalkberget), Gstr</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>574524.3526532104</v>
+      </c>
+      <c r="R124" t="n">
+        <v>6703457.875106505</v>
+      </c>
+      <c r="S124" t="n">
+        <v>1</v>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y124" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z124" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+      <c r="AA124" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB124" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+      <c r="AD124" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE124" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG124" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT124" t="inlineStr"/>
+      <c r="AW124" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX124" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>111886321</v>
+      </c>
+      <c r="B125" t="n">
+        <v>99413</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>Kalkberget (Kalkberget), Gstr</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>574524.3526532104</v>
+      </c>
+      <c r="R125" t="n">
+        <v>6703457.875106505</v>
+      </c>
+      <c r="S125" t="n">
+        <v>1</v>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W125" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y125" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z125" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+      <c r="AA125" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB125" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+      <c r="AD125" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE125" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG125" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT125" t="inlineStr"/>
+      <c r="AW125" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX125" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>111885375</v>
+      </c>
+      <c r="B126" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>Kalkberget (Kalkberget), Gstr</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>574524.3526532104</v>
+      </c>
+      <c r="R126" t="n">
+        <v>6703457.875106505</v>
+      </c>
+      <c r="S126" t="n">
+        <v>1</v>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W126" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y126" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z126" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
+      <c r="AA126" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB126" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
+      <c r="AD126" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE126" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG126" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT126" t="inlineStr"/>
+      <c r="AW126" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX126" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY126" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 14918-2023.xlsx
+++ b/artfynd/A 14918-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY126"/>
+  <dimension ref="A1:AY122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5537,10 +5537,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111896669</v>
+        <v>111896648</v>
       </c>
       <c r="B42" t="n">
-        <v>85253</v>
+        <v>78512</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5553,21 +5553,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3674</v>
+        <v>6456</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>574252.2932853762</v>
+        <v>574527.773473482</v>
       </c>
       <c r="R42" t="n">
-        <v>6703469.555768683</v>
+        <v>6703435.741965486</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111896625</v>
+        <v>111896616</v>
       </c>
       <c r="B43" t="n">
         <v>90332</v>
@@ -5690,10 +5690,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>574335.1915376212</v>
+        <v>574249.2078899746</v>
       </c>
       <c r="R43" t="n">
-        <v>6703403.659053097</v>
+        <v>6703475.413386551</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5762,10 +5762,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111886372</v>
+        <v>111896602</v>
       </c>
       <c r="B44" t="n">
-        <v>90687</v>
+        <v>56543</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5774,39 +5774,46 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5964</v>
+        <v>103021</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>574261.3270212604</v>
+        <v>574317.3462017868</v>
       </c>
       <c r="R44" t="n">
-        <v>6703462.833304818</v>
+        <v>6703406.253286039</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5863,22 +5870,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111896581</v>
+        <v>111886329</v>
       </c>
       <c r="B45" t="n">
-        <v>99413</v>
+        <v>90687</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5891,34 +5898,35 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>221235</v>
+        <v>5964</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>574333.7783005711</v>
+        <v>574258.1186801053</v>
       </c>
       <c r="R45" t="n">
-        <v>6703424.353483723</v>
+        <v>6703498.786127698</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5975,22 +5983,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111896608</v>
+        <v>111885762</v>
       </c>
       <c r="B46" t="n">
-        <v>90332</v>
+        <v>90295</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6003,34 +6011,35 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4769</v>
+        <v>4740</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Sotriska</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lactarius lignyotus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>574450.5671428492</v>
+        <v>574311.748177869</v>
       </c>
       <c r="R46" t="n">
-        <v>6703513.099122572</v>
+        <v>6703438.210316412</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -6087,22 +6096,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111886424</v>
+        <v>111896717</v>
       </c>
       <c r="B47" t="n">
-        <v>88899</v>
+        <v>98535</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6111,48 +6120,38 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3286</v>
+        <v>222498</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>574278.5667425465</v>
+        <v>574371.1760314812</v>
       </c>
       <c r="R47" t="n">
-        <v>6703465.653919976</v>
+        <v>6703384.167737775</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6209,22 +6208,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111896624</v>
+        <v>111896587</v>
       </c>
       <c r="B48" t="n">
-        <v>90332</v>
+        <v>101141</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6237,21 +6236,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4769</v>
+        <v>222002</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6261,10 +6260,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>574320.3710326073</v>
+        <v>574292.2757661514</v>
       </c>
       <c r="R48" t="n">
-        <v>6703403.354864516</v>
+        <v>6703496.032899947</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6333,10 +6332,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111896626</v>
+        <v>111896713</v>
       </c>
       <c r="B49" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6349,21 +6348,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6373,10 +6372,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>574356.4769687023</v>
+        <v>574333.7783005711</v>
       </c>
       <c r="R49" t="n">
-        <v>6703377.944859226</v>
+        <v>6703424.353483723</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6445,7 +6444,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111896709</v>
+        <v>111896707</v>
       </c>
       <c r="B50" t="n">
         <v>98535</v>
@@ -6485,10 +6484,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>574319.8910472075</v>
+        <v>574304.4575714046</v>
       </c>
       <c r="R50" t="n">
-        <v>6703354.496443897</v>
+        <v>6703456.31690546</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6557,10 +6556,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111896623</v>
+        <v>111884952</v>
       </c>
       <c r="B51" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6573,34 +6572,35 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>574295.9517128408</v>
+        <v>574448.7809475841</v>
       </c>
       <c r="R51" t="n">
-        <v>6703413.21552579</v>
+        <v>6703527.864445598</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6657,22 +6657,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111896681</v>
+        <v>111896670</v>
       </c>
       <c r="B52" t="n">
-        <v>88966</v>
+        <v>85253</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6681,49 +6681,38 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5754</v>
+        <v>3674</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+          <t>Britzelm.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>574330.7595642635</v>
+        <v>574302.4612936915</v>
       </c>
       <c r="R52" t="n">
-        <v>6703354.719507183</v>
+        <v>6703457.262763234</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6793,10 +6782,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111896696</v>
+        <v>111896590</v>
       </c>
       <c r="B53" t="n">
-        <v>98535</v>
+        <v>101141</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6809,21 +6798,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6833,10 +6822,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>574272.5440735799</v>
+        <v>574319.3829989098</v>
       </c>
       <c r="R53" t="n">
-        <v>6703373.755373025</v>
+        <v>6703403.334587433</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6905,10 +6894,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111896651</v>
+        <v>111896715</v>
       </c>
       <c r="B54" t="n">
-        <v>89183</v>
+        <v>98535</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6921,21 +6910,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3215</v>
+        <v>222498</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6945,10 +6934,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>574442.2963542459</v>
+        <v>574335.2117857126</v>
       </c>
       <c r="R54" t="n">
-        <v>6703458.654406736</v>
+        <v>6703402.672635308</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -7017,10 +7006,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111896697</v>
+        <v>111896625</v>
       </c>
       <c r="B55" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7033,21 +7022,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -7057,10 +7046,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>574252.510194034</v>
+        <v>574335.1915376212</v>
       </c>
       <c r="R55" t="n">
-        <v>6703386.666867712</v>
+        <v>6703403.659053097</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -7129,7 +7118,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111896703</v>
+        <v>111896714</v>
       </c>
       <c r="B56" t="n">
         <v>98535</v>
@@ -7169,10 +7158,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>574309.5943644949</v>
+        <v>574320.3710326073</v>
       </c>
       <c r="R56" t="n">
-        <v>6703519.084753582</v>
+        <v>6703403.354864516</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7241,10 +7230,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111896706</v>
+        <v>111896632</v>
       </c>
       <c r="B57" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7257,21 +7246,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7281,10 +7270,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>574290.1295200255</v>
+        <v>574468.9496102105</v>
       </c>
       <c r="R57" t="n">
-        <v>6703480.199912106</v>
+        <v>6703484.36623429</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7353,10 +7342,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111896630</v>
+        <v>111886713</v>
       </c>
       <c r="B58" t="n">
-        <v>90332</v>
+        <v>90684</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7365,38 +7354,39 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4769</v>
+        <v>4368</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>574436.8751361333</v>
+        <v>574267.3295348831</v>
       </c>
       <c r="R58" t="n">
-        <v>6703433.872390999</v>
+        <v>6703555.715953856</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7453,22 +7443,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111896713</v>
+        <v>111896589</v>
       </c>
       <c r="B59" t="n">
-        <v>98535</v>
+        <v>101141</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7481,21 +7471,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7505,10 +7495,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>574333.7783005711</v>
+        <v>574319.8708033765</v>
       </c>
       <c r="R59" t="n">
-        <v>6703424.353483723</v>
+        <v>6703355.482874738</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7577,10 +7567,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111896668</v>
+        <v>111896682</v>
       </c>
       <c r="B60" t="n">
-        <v>85089</v>
+        <v>88966</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7589,25 +7579,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3762</v>
+        <v>5754</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7617,10 +7607,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>574317.8180265825</v>
+        <v>574256.1442139128</v>
       </c>
       <c r="R60" t="n">
-        <v>6703431.427106799</v>
+        <v>6703474.568800534</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7689,10 +7679,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111886498</v>
+        <v>111896629</v>
       </c>
       <c r="B61" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7705,38 +7695,37 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>574333.7396710602</v>
+        <v>574410.1934356905</v>
       </c>
       <c r="R61" t="n">
-        <v>6703522.540716695</v>
+        <v>6703385.462655744</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7765,7 +7754,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7775,7 +7764,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7790,22 +7779,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111886738</v>
+        <v>111896618</v>
       </c>
       <c r="B62" t="n">
-        <v>90684</v>
+        <v>90332</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7814,42 +7803,41 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4368</v>
+        <v>4769</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>574247.2374925215</v>
+        <v>574291.9436535498</v>
       </c>
       <c r="R62" t="n">
-        <v>6703547.409599461</v>
+        <v>6703488.13161656</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7878,7 +7866,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7888,7 +7876,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7903,22 +7891,22 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111896601</v>
+        <v>111886424</v>
       </c>
       <c r="B63" t="n">
-        <v>56543</v>
+        <v>88899</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7931,42 +7919,44 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>103021</v>
+        <v>3286</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>574287.6814794211</v>
+        <v>574278.5667425465</v>
       </c>
       <c r="R63" t="n">
-        <v>6703454.985900432</v>
+        <v>6703465.653919976</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -8023,22 +8013,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111896632</v>
+        <v>111896681</v>
       </c>
       <c r="B64" t="n">
-        <v>90332</v>
+        <v>88966</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8047,38 +8037,49 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>574468.9496102105</v>
+        <v>574330.7595642635</v>
       </c>
       <c r="R64" t="n">
-        <v>6703484.36623429</v>
+        <v>6703354.719507183</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -8129,6 +8130,7 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
+      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8147,10 +8149,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111896695</v>
+        <v>111896620</v>
       </c>
       <c r="B65" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8163,21 +8165,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8187,10 +8189,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>574528.5483397129</v>
+        <v>574292.6013405366</v>
       </c>
       <c r="R65" t="n">
-        <v>6703446.119582187</v>
+        <v>6703456.073649234</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8259,10 +8261,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111896682</v>
+        <v>111896651</v>
       </c>
       <c r="B66" t="n">
-        <v>88966</v>
+        <v>89183</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8271,25 +8273,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5754</v>
+        <v>3215</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8299,10 +8301,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>574256.1442139128</v>
+        <v>574442.2963542459</v>
       </c>
       <c r="R66" t="n">
-        <v>6703474.568800534</v>
+        <v>6703458.654406736</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8371,10 +8373,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111896684</v>
+        <v>111896695</v>
       </c>
       <c r="B67" t="n">
-        <v>88966</v>
+        <v>98535</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8383,25 +8385,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8411,10 +8413,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>574298.5092178418</v>
+        <v>574528.5483397129</v>
       </c>
       <c r="R67" t="n">
-        <v>6703457.181675683</v>
+        <v>6703446.119582187</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8483,10 +8485,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111885842</v>
+        <v>111896607</v>
       </c>
       <c r="B68" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8499,35 +8501,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>574289.9628196132</v>
+        <v>574466.8489239614</v>
       </c>
       <c r="R68" t="n">
-        <v>6703416.053151045</v>
+        <v>6703514.4207107</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8584,22 +8585,22 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111896708</v>
+        <v>111896627</v>
       </c>
       <c r="B69" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8612,21 +8613,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8636,10 +8637,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>574325.6696152951</v>
+        <v>574373.314176796</v>
       </c>
       <c r="R69" t="n">
-        <v>6703458.23244116</v>
+        <v>6703376.316927806</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8708,10 +8709,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111896619</v>
+        <v>111896709</v>
       </c>
       <c r="B70" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8724,21 +8725,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8748,10 +8749,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>574270.6945951059</v>
+        <v>574319.8910472075</v>
       </c>
       <c r="R70" t="n">
-        <v>6703439.835159265</v>
+        <v>6703354.496443897</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8820,10 +8821,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111896704</v>
+        <v>111896617</v>
       </c>
       <c r="B71" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8836,21 +8837,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8860,10 +8861,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>574300.0179232516</v>
+        <v>574269.0777989432</v>
       </c>
       <c r="R71" t="n">
-        <v>6703504.086197484</v>
+        <v>6703494.570243312</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8932,10 +8933,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111896683</v>
+        <v>111896706</v>
       </c>
       <c r="B72" t="n">
-        <v>88966</v>
+        <v>98535</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8944,25 +8945,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8972,10 +8973,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>574289.1415073492</v>
+        <v>574290.1295200255</v>
       </c>
       <c r="R72" t="n">
-        <v>6703480.179643137</v>
+        <v>6703480.199912106</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -9044,10 +9045,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111896616</v>
+        <v>111886835</v>
       </c>
       <c r="B73" t="n">
-        <v>90332</v>
+        <v>86223</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9056,38 +9057,39 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4769</v>
+        <v>4412</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>574249.2078899746</v>
+        <v>574230.0863521076</v>
       </c>
       <c r="R73" t="n">
-        <v>6703475.413386551</v>
+        <v>6703588.503049062</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -9119,7 +9121,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -9129,7 +9131,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9144,22 +9146,22 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111896610</v>
+        <v>111896683</v>
       </c>
       <c r="B74" t="n">
-        <v>90332</v>
+        <v>88966</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9168,25 +9170,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9196,10 +9198,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>574272.2591996479</v>
+        <v>574289.1415073492</v>
       </c>
       <c r="R74" t="n">
-        <v>6703411.74269451</v>
+        <v>6703480.179643137</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -9268,10 +9270,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111896614</v>
+        <v>111886498</v>
       </c>
       <c r="B75" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9284,37 +9286,38 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>574228.885558943</v>
+        <v>574333.7396710602</v>
       </c>
       <c r="R75" t="n">
-        <v>6703430.096512586</v>
+        <v>6703522.540716695</v>
       </c>
       <c r="S75" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9343,7 +9346,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9353,7 +9356,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9368,22 +9371,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111886358</v>
+        <v>111896631</v>
       </c>
       <c r="B76" t="n">
-        <v>101703</v>
+        <v>90332</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9396,38 +9399,37 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>222412</v>
+        <v>4769</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>574377.5537716877</v>
+        <v>574455.6288491808</v>
       </c>
       <c r="R76" t="n">
-        <v>6703530.841373169</v>
+        <v>6703507.28235705</v>
       </c>
       <c r="S76" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9456,7 +9458,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9466,7 +9468,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9481,22 +9483,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111886835</v>
+        <v>111896712</v>
       </c>
       <c r="B77" t="n">
-        <v>86223</v>
+        <v>98535</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9505,39 +9507,38 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4412</v>
+        <v>222498</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>574230.0863521076</v>
+        <v>574311.7886614093</v>
       </c>
       <c r="R77" t="n">
-        <v>6703588.503049062</v>
+        <v>6703436.237499412</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9569,7 +9570,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9579,7 +9580,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9594,22 +9595,22 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111896620</v>
+        <v>111896680</v>
       </c>
       <c r="B78" t="n">
-        <v>90332</v>
+        <v>88966</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9618,38 +9619,49 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>574292.6013405366</v>
+        <v>574323.5395620605</v>
       </c>
       <c r="R78" t="n">
-        <v>6703456.073649234</v>
+        <v>6703369.373988308</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9700,6 +9712,7 @@
       <c r="AE78" t="b">
         <v>0</v>
       </c>
+      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
       </c>
@@ -9718,7 +9731,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111896631</v>
+        <v>111896619</v>
       </c>
       <c r="B79" t="n">
         <v>90332</v>
@@ -9758,10 +9771,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>574455.6288491808</v>
+        <v>574270.6945951059</v>
       </c>
       <c r="R79" t="n">
-        <v>6703507.28235705</v>
+        <v>6703439.835159265</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9830,7 +9843,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111896622</v>
+        <v>111896608</v>
       </c>
       <c r="B80" t="n">
         <v>90332</v>
@@ -9870,10 +9883,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>574283.0263743812</v>
+        <v>574450.5671428492</v>
       </c>
       <c r="R80" t="n">
-        <v>6703416.897689151</v>
+        <v>6703513.099122572</v>
       </c>
       <c r="S80" t="n">
         <v>25</v>
@@ -9942,10 +9955,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111896716</v>
+        <v>111896684</v>
       </c>
       <c r="B81" t="n">
-        <v>98535</v>
+        <v>88966</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9954,25 +9967,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9982,10 +9995,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>574337.5017077615</v>
+        <v>574298.5092178418</v>
       </c>
       <c r="R81" t="n">
-        <v>6703387.423688528</v>
+        <v>6703457.181675683</v>
       </c>
       <c r="S81" t="n">
         <v>25</v>
@@ -10054,10 +10067,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111896712</v>
+        <v>111896691</v>
       </c>
       <c r="B82" t="n">
-        <v>98535</v>
+        <v>90684</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10066,25 +10079,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>222498</v>
+        <v>4368</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10094,10 +10107,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>574311.7886614093</v>
+        <v>574527.49941562</v>
       </c>
       <c r="R82" t="n">
-        <v>6703436.237499412</v>
+        <v>6703449.058466445</v>
       </c>
       <c r="S82" t="n">
         <v>25</v>
@@ -10166,7 +10179,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111896627</v>
+        <v>111896626</v>
       </c>
       <c r="B83" t="n">
         <v>90332</v>
@@ -10206,10 +10219,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>574373.314176796</v>
+        <v>574356.4769687023</v>
       </c>
       <c r="R83" t="n">
-        <v>6703376.316927806</v>
+        <v>6703377.944859226</v>
       </c>
       <c r="S83" t="n">
         <v>25</v>
@@ -10278,10 +10291,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111896590</v>
+        <v>111896716</v>
       </c>
       <c r="B84" t="n">
-        <v>101141</v>
+        <v>98535</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10294,21 +10307,21 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -10318,10 +10331,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>574319.3829989098</v>
+        <v>574337.5017077615</v>
       </c>
       <c r="R84" t="n">
-        <v>6703403.334587433</v>
+        <v>6703387.423688528</v>
       </c>
       <c r="S84" t="n">
         <v>25</v>
@@ -10390,10 +10403,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111896611</v>
+        <v>111886738</v>
       </c>
       <c r="B85" t="n">
-        <v>90332</v>
+        <v>90684</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10402,41 +10415,42 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4769</v>
+        <v>4368</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>574271.5155704983</v>
+        <v>574247.2374925215</v>
       </c>
       <c r="R85" t="n">
-        <v>6703375.707959844</v>
+        <v>6703547.409599461</v>
       </c>
       <c r="S85" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -10465,7 +10479,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -10475,7 +10489,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10490,22 +10504,22 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111886848</v>
+        <v>111896595</v>
       </c>
       <c r="B86" t="n">
-        <v>86223</v>
+        <v>101703</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10514,42 +10528,41 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4412</v>
+        <v>222412</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>574236.8404598181</v>
+        <v>574247.1857444055</v>
       </c>
       <c r="R86" t="n">
-        <v>6703596.535755535</v>
+        <v>6703405.307550027</v>
       </c>
       <c r="S86" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -10578,7 +10591,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -10588,7 +10601,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10603,22 +10616,22 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111886198</v>
+        <v>111896581</v>
       </c>
       <c r="B87" t="n">
-        <v>88966</v>
+        <v>99413</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10627,39 +10640,38 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>5754</v>
+        <v>221235</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>574244.409384649</v>
+        <v>574333.7783005711</v>
       </c>
       <c r="R87" t="n">
-        <v>6703468.407307444</v>
+        <v>6703424.353483723</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10716,22 +10728,22 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111896595</v>
+        <v>111896668</v>
       </c>
       <c r="B88" t="n">
-        <v>101703</v>
+        <v>85089</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10744,21 +10756,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>222412</v>
+        <v>3762</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10768,10 +10780,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>574247.1857444055</v>
+        <v>574317.8180265825</v>
       </c>
       <c r="R88" t="n">
-        <v>6703405.307550027</v>
+        <v>6703431.427106799</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10840,10 +10852,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111896714</v>
+        <v>111896610</v>
       </c>
       <c r="B89" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10856,21 +10868,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10880,10 +10892,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>574320.3710326073</v>
+        <v>574272.2591996479</v>
       </c>
       <c r="R89" t="n">
-        <v>6703403.354864516</v>
+        <v>6703411.74269451</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10952,7 +10964,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111896700</v>
+        <v>111896696</v>
       </c>
       <c r="B90" t="n">
         <v>98535</v>
@@ -10992,10 +11004,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>574211.4523542383</v>
+        <v>574272.5440735799</v>
       </c>
       <c r="R90" t="n">
-        <v>6703460.82405555</v>
+        <v>6703373.755373025</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -11064,10 +11076,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111896648</v>
+        <v>111896614</v>
       </c>
       <c r="B91" t="n">
-        <v>78512</v>
+        <v>90332</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11080,21 +11092,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6456</v>
+        <v>4769</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11104,10 +11116,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>574527.773473482</v>
+        <v>574228.885558943</v>
       </c>
       <c r="R91" t="n">
-        <v>6703435.741965486</v>
+        <v>6703430.096512586</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -11158,7 +11170,6 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
-      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
@@ -11177,10 +11188,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111896670</v>
+        <v>111886390</v>
       </c>
       <c r="B92" t="n">
-        <v>85253</v>
+        <v>98535</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11193,37 +11204,38 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3674</v>
+        <v>222498</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>574302.4612936915</v>
+        <v>574320.5008898397</v>
       </c>
       <c r="R92" t="n">
-        <v>6703457.262763234</v>
+        <v>6703541.511550271</v>
       </c>
       <c r="S92" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
@@ -11252,7 +11264,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -11262,7 +11274,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11271,29 +11283,28 @@
       <c r="AE92" t="b">
         <v>0</v>
       </c>
-      <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="b">
         <v>0</v>
       </c>
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111884952</v>
+        <v>111886198</v>
       </c>
       <c r="B93" t="n">
-        <v>98535</v>
+        <v>88966</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11302,39 +11313,39 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>574448.7809475841</v>
+        <v>574244.409384649</v>
       </c>
       <c r="R93" t="n">
-        <v>6703527.864445598</v>
+        <v>6703468.407307444</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11403,10 +11414,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111885762</v>
+        <v>111886372</v>
       </c>
       <c r="B94" t="n">
-        <v>90295</v>
+        <v>90687</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11419,21 +11430,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>4740</v>
+        <v>5964</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Sotriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Lactarius lignyotus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11444,10 +11455,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>574311.748177869</v>
+        <v>574261.3270212604</v>
       </c>
       <c r="R94" t="n">
-        <v>6703438.210316412</v>
+        <v>6703462.833304818</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11516,10 +11527,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111885492</v>
+        <v>111885842</v>
       </c>
       <c r="B95" t="n">
-        <v>99413</v>
+        <v>101141</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11532,21 +11543,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>221235</v>
+        <v>222002</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11557,10 +11568,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>574346.6812743739</v>
+        <v>574289.9628196132</v>
       </c>
       <c r="R95" t="n">
-        <v>6703445.835096321</v>
+        <v>6703416.053151045</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11629,10 +11640,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111896618</v>
+        <v>111896685</v>
       </c>
       <c r="B96" t="n">
-        <v>90332</v>
+        <v>88966</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11641,25 +11652,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11669,10 +11680,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>574291.9436535498</v>
+        <v>574341.6196639308</v>
       </c>
       <c r="R96" t="n">
-        <v>6703488.13161656</v>
+        <v>6703451.652109961</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11741,10 +11752,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111896588</v>
+        <v>111896615</v>
       </c>
       <c r="B97" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11757,21 +11768,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11781,10 +11792,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>574305.4658307037</v>
+        <v>574241.4048918699</v>
       </c>
       <c r="R97" t="n">
-        <v>6703455.350775132</v>
+        <v>6703470.319338148</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11853,10 +11864,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111896617</v>
+        <v>111896702</v>
       </c>
       <c r="B98" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11869,21 +11880,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11893,10 +11904,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>574269.0777989432</v>
+        <v>574285.1168916271</v>
       </c>
       <c r="R98" t="n">
-        <v>6703494.570243312</v>
+        <v>6703507.727709529</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11965,10 +11976,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111896715</v>
+        <v>111896611</v>
       </c>
       <c r="B99" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11981,21 +11992,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -12005,10 +12016,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>574335.2117857126</v>
+        <v>574271.5155704983</v>
       </c>
       <c r="R99" t="n">
-        <v>6703402.672635308</v>
+        <v>6703375.707959844</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -12077,7 +12088,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111896717</v>
+        <v>111896699</v>
       </c>
       <c r="B100" t="n">
         <v>98535</v>
@@ -12117,10 +12128,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>574371.1760314812</v>
+        <v>574219.1872449504</v>
       </c>
       <c r="R100" t="n">
-        <v>6703384.167737775</v>
+        <v>6703421.016299267</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -12189,10 +12200,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111896680</v>
+        <v>111896701</v>
       </c>
       <c r="B101" t="n">
-        <v>88966</v>
+        <v>98535</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12201,49 +12212,38 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>574323.5395620605</v>
+        <v>574223.5713984326</v>
       </c>
       <c r="R101" t="n">
-        <v>6703369.373988308</v>
+        <v>6703448.24379926</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -12294,7 +12294,6 @@
       <c r="AE101" t="b">
         <v>0</v>
       </c>
-      <c r="AF101" t="inlineStr"/>
       <c r="AG101" t="b">
         <v>0</v>
       </c>
@@ -12313,7 +12312,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111896710</v>
+        <v>111896703</v>
       </c>
       <c r="B102" t="n">
         <v>98535</v>
@@ -12353,10 +12352,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>574289.9830554068</v>
+        <v>574309.5943644949</v>
       </c>
       <c r="R102" t="n">
-        <v>6703415.066736702</v>
+        <v>6703519.084753582</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12425,7 +12424,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111896701</v>
+        <v>111896711</v>
       </c>
       <c r="B103" t="n">
         <v>98535</v>
@@ -12465,10 +12464,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>574223.5713984326</v>
+        <v>574304.6397298749</v>
       </c>
       <c r="R103" t="n">
-        <v>6703448.24379926</v>
+        <v>6703447.439264891</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12537,10 +12536,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111896707</v>
+        <v>111896588</v>
       </c>
       <c r="B104" t="n">
-        <v>98535</v>
+        <v>101141</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12553,21 +12552,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12577,10 +12576,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>574304.4575714046</v>
+        <v>574305.4658307037</v>
       </c>
       <c r="R104" t="n">
-        <v>6703456.31690546</v>
+        <v>6703455.350775132</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12649,10 +12648,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111896587</v>
+        <v>111896704</v>
       </c>
       <c r="B105" t="n">
-        <v>101141</v>
+        <v>98535</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12665,21 +12664,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12689,10 +12688,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>574292.2757661514</v>
+        <v>574300.0179232516</v>
       </c>
       <c r="R105" t="n">
-        <v>6703496.032899947</v>
+        <v>6703504.086197484</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12761,10 +12760,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111896615</v>
+        <v>111886848</v>
       </c>
       <c r="B106" t="n">
-        <v>90332</v>
+        <v>86223</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12773,41 +12772,42 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4769</v>
+        <v>4412</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>574241.4048918699</v>
+        <v>574236.8404598181</v>
       </c>
       <c r="R106" t="n">
-        <v>6703470.319338148</v>
+        <v>6703596.535755535</v>
       </c>
       <c r="S106" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12846,7 +12846,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12861,22 +12861,22 @@
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111896580</v>
+        <v>111886358</v>
       </c>
       <c r="B107" t="n">
-        <v>99413</v>
+        <v>101703</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12889,37 +12889,38 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>221235</v>
+        <v>222412</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>574256.1644406004</v>
+        <v>574377.5537716877</v>
       </c>
       <c r="R107" t="n">
-        <v>6703473.582402139</v>
+        <v>6703530.841373169</v>
       </c>
       <c r="S107" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T107" t="inlineStr">
         <is>
@@ -12948,7 +12949,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12958,7 +12959,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12973,22 +12974,22 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111896589</v>
+        <v>111896708</v>
       </c>
       <c r="B108" t="n">
-        <v>101141</v>
+        <v>98535</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -13001,21 +13002,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -13025,10 +13026,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>574319.8708033765</v>
+        <v>574325.6696152951</v>
       </c>
       <c r="R108" t="n">
-        <v>6703355.482874738</v>
+        <v>6703458.23244116</v>
       </c>
       <c r="S108" t="n">
         <v>25</v>
@@ -13097,10 +13098,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111896691</v>
+        <v>111896580</v>
       </c>
       <c r="B109" t="n">
-        <v>90684</v>
+        <v>99413</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13109,25 +13110,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4368</v>
+        <v>221235</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -13137,10 +13138,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>574527.49941562</v>
+        <v>574256.1644406004</v>
       </c>
       <c r="R109" t="n">
-        <v>6703449.058466445</v>
+        <v>6703473.582402139</v>
       </c>
       <c r="S109" t="n">
         <v>25</v>
@@ -13209,7 +13210,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111896602</v>
+        <v>111896601</v>
       </c>
       <c r="B110" t="n">
         <v>56543</v>
@@ -13257,10 +13258,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>574317.3462017868</v>
+        <v>574287.6814794211</v>
       </c>
       <c r="R110" t="n">
-        <v>6703406.253286039</v>
+        <v>6703454.985900432</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -13329,10 +13330,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111896607</v>
+        <v>111896650</v>
       </c>
       <c r="B111" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13345,21 +13346,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -13369,10 +13370,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>574466.8489239614</v>
+        <v>574250.0745535446</v>
       </c>
       <c r="R111" t="n">
-        <v>6703514.4207107</v>
+        <v>6703481.352027887</v>
       </c>
       <c r="S111" t="n">
         <v>25</v>
@@ -13441,10 +13442,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111896629</v>
+        <v>111885492</v>
       </c>
       <c r="B112" t="n">
-        <v>90332</v>
+        <v>99413</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13457,34 +13458,35 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>574410.1934356905</v>
+        <v>574346.6812743739</v>
       </c>
       <c r="R112" t="n">
-        <v>6703385.462655744</v>
+        <v>6703445.835096321</v>
       </c>
       <c r="S112" t="n">
         <v>25</v>
@@ -13541,22 +13543,22 @@
       <c r="AT112" t="inlineStr"/>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111896671</v>
+        <v>111896624</v>
       </c>
       <c r="B113" t="n">
-        <v>85253</v>
+        <v>90332</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13569,21 +13571,21 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3674</v>
+        <v>4769</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13593,10 +13595,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>574320.3305445107</v>
+        <v>574320.3710326073</v>
       </c>
       <c r="R113" t="n">
-        <v>6703405.327699401</v>
+        <v>6703403.354864516</v>
       </c>
       <c r="S113" t="n">
         <v>25</v>
@@ -13647,7 +13649,6 @@
       <c r="AE113" t="b">
         <v>0</v>
       </c>
-      <c r="AF113" t="inlineStr"/>
       <c r="AG113" t="b">
         <v>0</v>
       </c>
@@ -13666,7 +13667,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111896621</v>
+        <v>111896623</v>
       </c>
       <c r="B114" t="n">
         <v>90332</v>
@@ -13706,10 +13707,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>574319.8505595494</v>
+        <v>574295.9517128408</v>
       </c>
       <c r="R114" t="n">
-        <v>6703356.46930531</v>
+        <v>6703413.21552579</v>
       </c>
       <c r="S114" t="n">
         <v>25</v>
@@ -13778,10 +13779,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111886329</v>
+        <v>111896671</v>
       </c>
       <c r="B115" t="n">
-        <v>90687</v>
+        <v>85253</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13794,35 +13795,34 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>5964</v>
+        <v>3674</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>574258.1186801053</v>
+        <v>574320.3305445107</v>
       </c>
       <c r="R115" t="n">
-        <v>6703498.786127698</v>
+        <v>6703405.327699401</v>
       </c>
       <c r="S115" t="n">
         <v>25</v>
@@ -13873,28 +13873,29 @@
       <c r="AE115" t="b">
         <v>0</v>
       </c>
+      <c r="AF115" t="inlineStr"/>
       <c r="AG115" t="b">
         <v>0</v>
       </c>
       <c r="AT115" t="inlineStr"/>
       <c r="AW115" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111886713</v>
+        <v>111896710</v>
       </c>
       <c r="B116" t="n">
-        <v>90684</v>
+        <v>98535</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13903,39 +13904,38 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>4368</v>
+        <v>222498</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>574267.3295348831</v>
+        <v>574289.9830554068</v>
       </c>
       <c r="R116" t="n">
-        <v>6703555.715953856</v>
+        <v>6703415.066736702</v>
       </c>
       <c r="S116" t="n">
         <v>25</v>
@@ -13992,22 +13992,22 @@
       <c r="AT116" t="inlineStr"/>
       <c r="AW116" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111896711</v>
+        <v>111896630</v>
       </c>
       <c r="B117" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14020,21 +14020,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14044,10 +14044,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>574304.6397298749</v>
+        <v>574436.8751361333</v>
       </c>
       <c r="R117" t="n">
-        <v>6703447.439264891</v>
+        <v>6703433.872390999</v>
       </c>
       <c r="S117" t="n">
         <v>25</v>
@@ -14116,10 +14116,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111896685</v>
+        <v>111896700</v>
       </c>
       <c r="B118" t="n">
-        <v>88966</v>
+        <v>98535</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14128,25 +14128,25 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -14156,10 +14156,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>574341.6196639308</v>
+        <v>574211.4523542383</v>
       </c>
       <c r="R118" t="n">
-        <v>6703451.652109961</v>
+        <v>6703460.82405555</v>
       </c>
       <c r="S118" t="n">
         <v>25</v>
@@ -14228,7 +14228,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111896702</v>
+        <v>111896697</v>
       </c>
       <c r="B119" t="n">
         <v>98535</v>
@@ -14268,10 +14268,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>574285.1168916271</v>
+        <v>574252.510194034</v>
       </c>
       <c r="R119" t="n">
-        <v>6703507.727709529</v>
+        <v>6703386.666867712</v>
       </c>
       <c r="S119" t="n">
         <v>25</v>
@@ -14340,10 +14340,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111896699</v>
+        <v>111896669</v>
       </c>
       <c r="B120" t="n">
-        <v>98535</v>
+        <v>85253</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14356,21 +14356,21 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>222498</v>
+        <v>3674</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14380,10 +14380,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>574219.1872449504</v>
+        <v>574252.2932853762</v>
       </c>
       <c r="R120" t="n">
-        <v>6703421.016299267</v>
+        <v>6703469.555768683</v>
       </c>
       <c r="S120" t="n">
         <v>25</v>
@@ -14434,6 +14434,7 @@
       <c r="AE120" t="b">
         <v>0</v>
       </c>
+      <c r="AF120" t="inlineStr"/>
       <c r="AG120" t="b">
         <v>0</v>
       </c>
@@ -14452,10 +14453,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111896650</v>
+        <v>111896622</v>
       </c>
       <c r="B121" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14468,21 +14469,21 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -14492,10 +14493,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>574250.0745535446</v>
+        <v>574283.0263743812</v>
       </c>
       <c r="R121" t="n">
-        <v>6703481.352027887</v>
+        <v>6703416.897689151</v>
       </c>
       <c r="S121" t="n">
         <v>25</v>
@@ -14564,10 +14565,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111886390</v>
+        <v>111896621</v>
       </c>
       <c r="B122" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14580,38 +14581,37 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>574320.5008898397</v>
+        <v>574319.8505595494</v>
       </c>
       <c r="R122" t="n">
-        <v>6703541.511550271</v>
+        <v>6703356.46930531</v>
       </c>
       <c r="S122" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T122" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
       </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA122" t="inlineStr">
@@ -14650,7 +14650,7 @@
       </c>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD122" t="b">
@@ -14665,467 +14665,15 @@
       <c r="AT122" t="inlineStr"/>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>111888262</v>
-      </c>
-      <c r="B123" t="n">
-        <v>90684</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>4368</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Dofttaggsvamp</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Hydnellum suaveolens</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
-        </is>
-      </c>
-      <c r="Q123" t="n">
-        <v>574524.3526532104</v>
-      </c>
-      <c r="R123" t="n">
-        <v>6703457.875106505</v>
-      </c>
-      <c r="S123" t="n">
-        <v>5</v>
-      </c>
-      <c r="T123" t="inlineStr">
-        <is>
-          <t>Gävleborg</t>
-        </is>
-      </c>
-      <c r="U123" t="inlineStr">
-        <is>
-          <t>Hofors</t>
-        </is>
-      </c>
-      <c r="V123" t="inlineStr">
-        <is>
-          <t>Gästrikland</t>
-        </is>
-      </c>
-      <c r="W123" t="inlineStr">
-        <is>
-          <t>Torsåker</t>
-        </is>
-      </c>
-      <c r="Y123" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="Z123" t="inlineStr">
-        <is>
-          <t>12:55</t>
-        </is>
-      </c>
-      <c r="AA123" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB123" t="inlineStr">
-        <is>
-          <t>12:55</t>
-        </is>
-      </c>
-      <c r="AD123" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE123" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG123" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT123" t="inlineStr"/>
-      <c r="AW123" t="inlineStr">
-        <is>
-          <t>fanny westling</t>
-        </is>
-      </c>
-      <c r="AX123" t="inlineStr">
-        <is>
-          <t>fanny westling</t>
-        </is>
-      </c>
-      <c r="AY123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>111886310</v>
-      </c>
-      <c r="B124" t="n">
-        <v>101703</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>LC</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>222412</v>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Tibast</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Daphne mezereum</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
-        </is>
-      </c>
-      <c r="Q124" t="n">
-        <v>574524.3526532104</v>
-      </c>
-      <c r="R124" t="n">
-        <v>6703457.875106505</v>
-      </c>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>Gävleborg</t>
-        </is>
-      </c>
-      <c r="U124" t="inlineStr">
-        <is>
-          <t>Hofors</t>
-        </is>
-      </c>
-      <c r="V124" t="inlineStr">
-        <is>
-          <t>Gästrikland</t>
-        </is>
-      </c>
-      <c r="W124" t="inlineStr">
-        <is>
-          <t>Torsåker</t>
-        </is>
-      </c>
-      <c r="Y124" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="Z124" t="inlineStr">
-        <is>
-          <t>11:07</t>
-        </is>
-      </c>
-      <c r="AA124" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB124" t="inlineStr">
-        <is>
-          <t>11:07</t>
-        </is>
-      </c>
-      <c r="AD124" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE124" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG124" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT124" t="inlineStr"/>
-      <c r="AW124" t="inlineStr">
-        <is>
-          <t>fanny westling</t>
-        </is>
-      </c>
-      <c r="AX124" t="inlineStr">
-        <is>
-          <t>fanny westling</t>
-        </is>
-      </c>
-      <c r="AY124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>111886321</v>
-      </c>
-      <c r="B125" t="n">
-        <v>99413</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>LC</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>221235</v>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Vårärt</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Lathyrus vernus</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
-        </is>
-      </c>
-      <c r="Q125" t="n">
-        <v>574524.3526532104</v>
-      </c>
-      <c r="R125" t="n">
-        <v>6703457.875106505</v>
-      </c>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-      <c r="T125" t="inlineStr">
-        <is>
-          <t>Gävleborg</t>
-        </is>
-      </c>
-      <c r="U125" t="inlineStr">
-        <is>
-          <t>Hofors</t>
-        </is>
-      </c>
-      <c r="V125" t="inlineStr">
-        <is>
-          <t>Gästrikland</t>
-        </is>
-      </c>
-      <c r="W125" t="inlineStr">
-        <is>
-          <t>Torsåker</t>
-        </is>
-      </c>
-      <c r="Y125" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="Z125" t="inlineStr">
-        <is>
-          <t>11:08</t>
-        </is>
-      </c>
-      <c r="AA125" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB125" t="inlineStr">
-        <is>
-          <t>11:08</t>
-        </is>
-      </c>
-      <c r="AD125" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE125" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG125" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT125" t="inlineStr"/>
-      <c r="AW125" t="inlineStr">
-        <is>
-          <t>fanny westling</t>
-        </is>
-      </c>
-      <c r="AX125" t="inlineStr">
-        <is>
-          <t>fanny westling</t>
-        </is>
-      </c>
-      <c r="AY125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>111885375</v>
-      </c>
-      <c r="B126" t="n">
-        <v>90332</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>LC</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>4769</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Svavelriska</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Lactarius scrobiculatus</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
-        </is>
-      </c>
-      <c r="Q126" t="n">
-        <v>574524.3526532104</v>
-      </c>
-      <c r="R126" t="n">
-        <v>6703457.875106505</v>
-      </c>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-      <c r="T126" t="inlineStr">
-        <is>
-          <t>Gävleborg</t>
-        </is>
-      </c>
-      <c r="U126" t="inlineStr">
-        <is>
-          <t>Hofors</t>
-        </is>
-      </c>
-      <c r="V126" t="inlineStr">
-        <is>
-          <t>Gästrikland</t>
-        </is>
-      </c>
-      <c r="W126" t="inlineStr">
-        <is>
-          <t>Torsåker</t>
-        </is>
-      </c>
-      <c r="Y126" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="Z126" t="inlineStr">
-        <is>
-          <t>10:43</t>
-        </is>
-      </c>
-      <c r="AA126" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB126" t="inlineStr">
-        <is>
-          <t>10:43</t>
-        </is>
-      </c>
-      <c r="AD126" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE126" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG126" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT126" t="inlineStr"/>
-      <c r="AW126" t="inlineStr">
-        <is>
-          <t>fanny westling</t>
-        </is>
-      </c>
-      <c r="AX126" t="inlineStr">
-        <is>
-          <t>fanny westling</t>
-        </is>
-      </c>
-      <c r="AY126" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 14918-2023.xlsx
+++ b/artfynd/A 14918-2023.xlsx
@@ -7455,10 +7455,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111896589</v>
+        <v>111896618</v>
       </c>
       <c r="B59" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7471,21 +7471,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7495,10 +7495,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>574319.8708033765</v>
+        <v>574291.9436535498</v>
       </c>
       <c r="R59" t="n">
-        <v>6703355.482874738</v>
+        <v>6703488.13161656</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7567,10 +7567,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111896682</v>
+        <v>111896589</v>
       </c>
       <c r="B60" t="n">
-        <v>88966</v>
+        <v>101141</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7579,25 +7579,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5754</v>
+        <v>222002</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7607,10 +7607,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>574256.1442139128</v>
+        <v>574319.8708033765</v>
       </c>
       <c r="R60" t="n">
-        <v>6703474.568800534</v>
+        <v>6703355.482874738</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7679,10 +7679,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111896629</v>
+        <v>111896682</v>
       </c>
       <c r="B61" t="n">
-        <v>90332</v>
+        <v>88966</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7691,25 +7691,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7719,10 +7719,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>574410.1934356905</v>
+        <v>574256.1442139128</v>
       </c>
       <c r="R61" t="n">
-        <v>6703385.462655744</v>
+        <v>6703474.568800534</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7791,7 +7791,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111896618</v>
+        <v>111896629</v>
       </c>
       <c r="B62" t="n">
         <v>90332</v>
@@ -7831,10 +7831,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>574291.9436535498</v>
+        <v>574410.1934356905</v>
       </c>
       <c r="R62" t="n">
-        <v>6703488.13161656</v>
+        <v>6703385.462655744</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -10516,10 +10516,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111896595</v>
+        <v>111886390</v>
       </c>
       <c r="B86" t="n">
-        <v>101703</v>
+        <v>98535</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10532,37 +10532,38 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>574247.1857444055</v>
+        <v>574320.5008898397</v>
       </c>
       <c r="R86" t="n">
-        <v>6703405.307550027</v>
+        <v>6703541.511550271</v>
       </c>
       <c r="S86" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -10591,7 +10592,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -10601,7 +10602,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10616,22 +10617,22 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111896581</v>
+        <v>111886198</v>
       </c>
       <c r="B87" t="n">
-        <v>99413</v>
+        <v>88966</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10640,38 +10641,39 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>221235</v>
+        <v>5754</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>574333.7783005711</v>
+        <v>574244.409384649</v>
       </c>
       <c r="R87" t="n">
-        <v>6703424.353483723</v>
+        <v>6703468.407307444</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10728,22 +10730,22 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111896668</v>
+        <v>111886372</v>
       </c>
       <c r="B88" t="n">
-        <v>85089</v>
+        <v>90687</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10756,34 +10758,35 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>3762</v>
+        <v>5964</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>574317.8180265825</v>
+        <v>574261.3270212604</v>
       </c>
       <c r="R88" t="n">
-        <v>6703431.427106799</v>
+        <v>6703462.833304818</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10840,22 +10843,22 @@
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111896610</v>
+        <v>111885842</v>
       </c>
       <c r="B89" t="n">
-        <v>90332</v>
+        <v>101141</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10868,34 +10871,35 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4769</v>
+        <v>222002</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>574272.2591996479</v>
+        <v>574289.9628196132</v>
       </c>
       <c r="R89" t="n">
-        <v>6703411.74269451</v>
+        <v>6703416.053151045</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10952,22 +10956,22 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111896696</v>
+        <v>111896595</v>
       </c>
       <c r="B90" t="n">
-        <v>98535</v>
+        <v>101703</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10980,21 +10984,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -11004,10 +11008,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>574272.5440735799</v>
+        <v>574247.1857444055</v>
       </c>
       <c r="R90" t="n">
-        <v>6703373.755373025</v>
+        <v>6703405.307550027</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -11076,10 +11080,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111896614</v>
+        <v>111896581</v>
       </c>
       <c r="B91" t="n">
-        <v>90332</v>
+        <v>99413</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11092,21 +11096,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11116,10 +11120,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>574228.885558943</v>
+        <v>574333.7783005711</v>
       </c>
       <c r="R91" t="n">
-        <v>6703430.096512586</v>
+        <v>6703424.353483723</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -11188,10 +11192,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111886390</v>
+        <v>111896668</v>
       </c>
       <c r="B92" t="n">
-        <v>98535</v>
+        <v>85089</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11204,38 +11208,37 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>222498</v>
+        <v>3762</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>574320.5008898397</v>
+        <v>574317.8180265825</v>
       </c>
       <c r="R92" t="n">
-        <v>6703541.511550271</v>
+        <v>6703431.427106799</v>
       </c>
       <c r="S92" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
@@ -11264,7 +11267,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -11274,7 +11277,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11289,22 +11292,22 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111886198</v>
+        <v>111896610</v>
       </c>
       <c r="B93" t="n">
-        <v>88966</v>
+        <v>90332</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11313,39 +11316,38 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>574244.409384649</v>
+        <v>574272.2591996479</v>
       </c>
       <c r="R93" t="n">
-        <v>6703468.407307444</v>
+        <v>6703411.74269451</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11402,22 +11404,22 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111886372</v>
+        <v>111896696</v>
       </c>
       <c r="B94" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11430,35 +11432,34 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>574261.3270212604</v>
+        <v>574272.5440735799</v>
       </c>
       <c r="R94" t="n">
-        <v>6703462.833304818</v>
+        <v>6703373.755373025</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11515,22 +11516,22 @@
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111885842</v>
+        <v>111896614</v>
       </c>
       <c r="B95" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11543,35 +11544,34 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>574289.9628196132</v>
+        <v>574228.885558943</v>
       </c>
       <c r="R95" t="n">
-        <v>6703416.053151045</v>
+        <v>6703430.096512586</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11628,12 +11628,12 @@
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>

--- a/artfynd/A 14918-2023.xlsx
+++ b/artfynd/A 14918-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY122"/>
+  <dimension ref="A1:AY126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5537,10 +5537,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111896648</v>
+        <v>111896701</v>
       </c>
       <c r="B42" t="n">
-        <v>78512</v>
+        <v>98535</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5553,21 +5553,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6456</v>
+        <v>222498</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>574527.773473482</v>
+        <v>574223.5713984326</v>
       </c>
       <c r="R42" t="n">
-        <v>6703435.741965486</v>
+        <v>6703448.24379926</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5631,7 +5631,6 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5650,10 +5649,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111896616</v>
+        <v>111896685</v>
       </c>
       <c r="B43" t="n">
-        <v>90332</v>
+        <v>88966</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5662,25 +5661,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5690,10 +5689,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>574249.2078899746</v>
+        <v>574341.6196639308</v>
       </c>
       <c r="R43" t="n">
-        <v>6703475.413386551</v>
+        <v>6703451.652109961</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5762,10 +5761,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111896602</v>
+        <v>111896684</v>
       </c>
       <c r="B44" t="n">
-        <v>56543</v>
+        <v>88966</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5778,42 +5777,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>103021</v>
+        <v>5754</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>574317.3462017868</v>
+        <v>574298.5092178418</v>
       </c>
       <c r="R44" t="n">
-        <v>6703406.253286039</v>
+        <v>6703457.181675683</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5882,10 +5873,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111886329</v>
+        <v>111896670</v>
       </c>
       <c r="B45" t="n">
-        <v>90687</v>
+        <v>85253</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5898,35 +5889,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5964</v>
+        <v>3674</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>574258.1186801053</v>
+        <v>574302.4612936915</v>
       </c>
       <c r="R45" t="n">
-        <v>6703498.786127698</v>
+        <v>6703457.262763234</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5977,28 +5967,29 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111885762</v>
+        <v>111896587</v>
       </c>
       <c r="B46" t="n">
-        <v>90295</v>
+        <v>101141</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6011,35 +6002,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4740</v>
+        <v>222002</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sotriska</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lactarius lignyotus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>574311.748177869</v>
+        <v>574292.2757661514</v>
       </c>
       <c r="R46" t="n">
-        <v>6703438.210316412</v>
+        <v>6703496.032899947</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -6096,22 +6086,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111896717</v>
+        <v>111896618</v>
       </c>
       <c r="B47" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6124,21 +6114,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6148,10 +6138,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>574371.1760314812</v>
+        <v>574291.9436535498</v>
       </c>
       <c r="R47" t="n">
-        <v>6703384.167737775</v>
+        <v>6703488.13161656</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6220,10 +6210,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111896587</v>
+        <v>111896626</v>
       </c>
       <c r="B48" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6236,21 +6226,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6260,10 +6250,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>574292.2757661514</v>
+        <v>574356.4769687023</v>
       </c>
       <c r="R48" t="n">
-        <v>6703496.032899947</v>
+        <v>6703377.944859226</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6332,10 +6322,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111896713</v>
+        <v>111896614</v>
       </c>
       <c r="B49" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6348,21 +6338,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6372,10 +6362,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>574333.7783005711</v>
+        <v>574228.885558943</v>
       </c>
       <c r="R49" t="n">
-        <v>6703424.353483723</v>
+        <v>6703430.096512586</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6556,10 +6546,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111884952</v>
+        <v>111896623</v>
       </c>
       <c r="B51" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6572,35 +6562,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>574448.7809475841</v>
+        <v>574295.9517128408</v>
       </c>
       <c r="R51" t="n">
-        <v>6703527.864445598</v>
+        <v>6703413.21552579</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6657,22 +6646,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111896670</v>
+        <v>111886848</v>
       </c>
       <c r="B52" t="n">
-        <v>85253</v>
+        <v>86223</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6681,41 +6670,42 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3674</v>
+        <v>4412</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>574302.4612936915</v>
+        <v>574236.8404598181</v>
       </c>
       <c r="R52" t="n">
-        <v>6703457.262763234</v>
+        <v>6703596.535755535</v>
       </c>
       <c r="S52" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6744,7 +6734,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6754,7 +6744,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6763,29 +6753,28 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111896590</v>
+        <v>111896630</v>
       </c>
       <c r="B53" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6798,21 +6787,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6822,10 +6811,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>574319.3829989098</v>
+        <v>574436.8751361333</v>
       </c>
       <c r="R53" t="n">
-        <v>6703403.334587433</v>
+        <v>6703433.872390999</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6894,7 +6883,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111896715</v>
+        <v>111896704</v>
       </c>
       <c r="B54" t="n">
         <v>98535</v>
@@ -6934,10 +6923,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>574335.2117857126</v>
+        <v>574300.0179232516</v>
       </c>
       <c r="R54" t="n">
-        <v>6703402.672635308</v>
+        <v>6703504.086197484</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -7006,10 +6995,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111896625</v>
+        <v>111896714</v>
       </c>
       <c r="B55" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7022,21 +7011,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -7046,10 +7035,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>574335.1915376212</v>
+        <v>574320.3710326073</v>
       </c>
       <c r="R55" t="n">
-        <v>6703403.659053097</v>
+        <v>6703403.354864516</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -7118,10 +7107,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111896714</v>
+        <v>111896607</v>
       </c>
       <c r="B56" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7134,21 +7123,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7158,10 +7147,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>574320.3710326073</v>
+        <v>574466.8489239614</v>
       </c>
       <c r="R56" t="n">
-        <v>6703403.354864516</v>
+        <v>6703514.4207107</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7230,10 +7219,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111896632</v>
+        <v>111896708</v>
       </c>
       <c r="B57" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7246,21 +7235,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7270,10 +7259,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>574468.9496102105</v>
+        <v>574325.6696152951</v>
       </c>
       <c r="R57" t="n">
-        <v>6703484.36623429</v>
+        <v>6703458.23244116</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7342,10 +7331,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111886713</v>
+        <v>111886390</v>
       </c>
       <c r="B58" t="n">
-        <v>90684</v>
+        <v>98535</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7354,42 +7343,42 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4368</v>
+        <v>222498</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>574267.3295348831</v>
+        <v>574320.5008898397</v>
       </c>
       <c r="R58" t="n">
-        <v>6703555.715953856</v>
+        <v>6703541.511550271</v>
       </c>
       <c r="S58" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7418,7 +7407,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7428,7 +7417,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7443,22 +7432,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111896618</v>
+        <v>111886713</v>
       </c>
       <c r="B59" t="n">
-        <v>90332</v>
+        <v>90684</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7467,38 +7456,39 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4769</v>
+        <v>4368</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>574291.9436535498</v>
+        <v>574267.3295348831</v>
       </c>
       <c r="R59" t="n">
-        <v>6703488.13161656</v>
+        <v>6703555.715953856</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7555,22 +7545,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111896589</v>
+        <v>111896622</v>
       </c>
       <c r="B60" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7583,21 +7573,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7607,10 +7597,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>574319.8708033765</v>
+        <v>574283.0263743812</v>
       </c>
       <c r="R60" t="n">
-        <v>6703355.482874738</v>
+        <v>6703416.897689151</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7679,10 +7669,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111896682</v>
+        <v>111896627</v>
       </c>
       <c r="B61" t="n">
-        <v>88966</v>
+        <v>90332</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7691,25 +7681,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7719,10 +7709,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>574256.1442139128</v>
+        <v>574373.314176796</v>
       </c>
       <c r="R61" t="n">
-        <v>6703474.568800534</v>
+        <v>6703376.316927806</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7791,7 +7781,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111896629</v>
+        <v>111896617</v>
       </c>
       <c r="B62" t="n">
         <v>90332</v>
@@ -7831,10 +7821,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>574410.1934356905</v>
+        <v>574269.0777989432</v>
       </c>
       <c r="R62" t="n">
-        <v>6703385.462655744</v>
+        <v>6703494.570243312</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7903,10 +7893,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111886424</v>
+        <v>111896717</v>
       </c>
       <c r="B63" t="n">
-        <v>88899</v>
+        <v>98535</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7915,48 +7905,38 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3286</v>
+        <v>222498</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>574278.5667425465</v>
+        <v>574371.1760314812</v>
       </c>
       <c r="R63" t="n">
-        <v>6703465.653919976</v>
+        <v>6703384.167737775</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -8013,22 +7993,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111896681</v>
+        <v>111896650</v>
       </c>
       <c r="B64" t="n">
-        <v>88966</v>
+        <v>89183</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8037,49 +8017,38 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5754</v>
+        <v>3215</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>574330.7595642635</v>
+        <v>574250.0745535446</v>
       </c>
       <c r="R64" t="n">
-        <v>6703354.719507183</v>
+        <v>6703481.352027887</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -8130,7 +8099,6 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
-      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8149,10 +8117,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111896620</v>
+        <v>111886358</v>
       </c>
       <c r="B65" t="n">
-        <v>90332</v>
+        <v>101703</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8165,37 +8133,38 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>574292.6013405366</v>
+        <v>574377.5537716877</v>
       </c>
       <c r="R65" t="n">
-        <v>6703456.073649234</v>
+        <v>6703530.841373169</v>
       </c>
       <c r="S65" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8224,7 +8193,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8234,7 +8203,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8249,22 +8218,22 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111896651</v>
+        <v>111896713</v>
       </c>
       <c r="B66" t="n">
-        <v>89183</v>
+        <v>98535</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8277,21 +8246,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3215</v>
+        <v>222498</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8301,10 +8270,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>574442.2963542459</v>
+        <v>574333.7783005711</v>
       </c>
       <c r="R66" t="n">
-        <v>6703458.654406736</v>
+        <v>6703424.353483723</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8373,7 +8342,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111896695</v>
+        <v>111896712</v>
       </c>
       <c r="B67" t="n">
         <v>98535</v>
@@ -8413,10 +8382,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>574528.5483397129</v>
+        <v>574311.7886614093</v>
       </c>
       <c r="R67" t="n">
-        <v>6703446.119582187</v>
+        <v>6703436.237499412</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8485,10 +8454,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111896607</v>
+        <v>111885492</v>
       </c>
       <c r="B68" t="n">
-        <v>90332</v>
+        <v>99413</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8501,34 +8470,35 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>574466.8489239614</v>
+        <v>574346.6812743739</v>
       </c>
       <c r="R68" t="n">
-        <v>6703514.4207107</v>
+        <v>6703445.835096321</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8585,19 +8555,19 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111896627</v>
+        <v>111896610</v>
       </c>
       <c r="B69" t="n">
         <v>90332</v>
@@ -8637,10 +8607,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>574373.314176796</v>
+        <v>574272.2591996479</v>
       </c>
       <c r="R69" t="n">
-        <v>6703376.316927806</v>
+        <v>6703411.74269451</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8709,10 +8679,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111896709</v>
+        <v>111896589</v>
       </c>
       <c r="B70" t="n">
-        <v>98535</v>
+        <v>101141</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8725,21 +8695,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8749,10 +8719,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>574319.8910472075</v>
+        <v>574319.8708033765</v>
       </c>
       <c r="R70" t="n">
-        <v>6703354.496443897</v>
+        <v>6703355.482874738</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8821,10 +8791,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111896617</v>
+        <v>111896648</v>
       </c>
       <c r="B71" t="n">
-        <v>90332</v>
+        <v>78512</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8837,21 +8807,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4769</v>
+        <v>6456</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8861,10 +8831,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>574269.0777989432</v>
+        <v>574527.773473482</v>
       </c>
       <c r="R71" t="n">
-        <v>6703494.570243312</v>
+        <v>6703435.741965486</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8915,6 +8885,7 @@
       <c r="AE71" t="b">
         <v>0</v>
       </c>
+      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
       </c>
@@ -8933,10 +8904,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111896706</v>
+        <v>111896681</v>
       </c>
       <c r="B72" t="n">
-        <v>98535</v>
+        <v>88966</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8945,38 +8916,49 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>574290.1295200255</v>
+        <v>574330.7595642635</v>
       </c>
       <c r="R72" t="n">
-        <v>6703480.199912106</v>
+        <v>6703354.719507183</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -9027,6 +9009,7 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
+      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
       </c>
@@ -9045,10 +9028,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111886835</v>
+        <v>111896624</v>
       </c>
       <c r="B73" t="n">
-        <v>86223</v>
+        <v>90332</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9057,39 +9040,38 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4412</v>
+        <v>4769</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>574230.0863521076</v>
+        <v>574320.3710326073</v>
       </c>
       <c r="R73" t="n">
-        <v>6703588.503049062</v>
+        <v>6703403.354864516</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -9121,7 +9103,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -9131,7 +9113,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9146,22 +9128,22 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111896683</v>
+        <v>111896601</v>
       </c>
       <c r="B74" t="n">
-        <v>88966</v>
+        <v>56543</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9174,34 +9156,42 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5754</v>
+        <v>103021</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>574289.1415073492</v>
+        <v>574287.6814794211</v>
       </c>
       <c r="R74" t="n">
-        <v>6703480.179643137</v>
+        <v>6703454.985900432</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -9270,10 +9260,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111886498</v>
+        <v>111896616</v>
       </c>
       <c r="B75" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9286,38 +9276,37 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>574333.7396710602</v>
+        <v>574249.2078899746</v>
       </c>
       <c r="R75" t="n">
-        <v>6703522.540716695</v>
+        <v>6703475.413386551</v>
       </c>
       <c r="S75" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9346,7 +9335,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9356,7 +9345,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9371,22 +9360,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111896631</v>
+        <v>111896710</v>
       </c>
       <c r="B76" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9399,21 +9388,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9423,10 +9412,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>574455.6288491808</v>
+        <v>574289.9830554068</v>
       </c>
       <c r="R76" t="n">
-        <v>6703507.28235705</v>
+        <v>6703415.066736702</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9495,10 +9484,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111896712</v>
+        <v>111896682</v>
       </c>
       <c r="B77" t="n">
-        <v>98535</v>
+        <v>88966</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9507,25 +9496,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9535,10 +9524,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>574311.7886614093</v>
+        <v>574256.1442139128</v>
       </c>
       <c r="R77" t="n">
-        <v>6703436.237499412</v>
+        <v>6703474.568800534</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9607,10 +9596,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111896680</v>
+        <v>111896699</v>
       </c>
       <c r="B78" t="n">
-        <v>88966</v>
+        <v>98535</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9619,49 +9608,38 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>574323.5395620605</v>
+        <v>574219.1872449504</v>
       </c>
       <c r="R78" t="n">
-        <v>6703369.373988308</v>
+        <v>6703421.016299267</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9712,7 +9690,6 @@
       <c r="AE78" t="b">
         <v>0</v>
       </c>
-      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
       </c>
@@ -9731,10 +9708,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111896619</v>
+        <v>111896697</v>
       </c>
       <c r="B79" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9747,21 +9724,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9771,10 +9748,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>574270.6945951059</v>
+        <v>574252.510194034</v>
       </c>
       <c r="R79" t="n">
-        <v>6703439.835159265</v>
+        <v>6703386.666867712</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9843,10 +9820,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111896608</v>
+        <v>111896702</v>
       </c>
       <c r="B80" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9859,21 +9836,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9883,10 +9860,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>574450.5671428492</v>
+        <v>574285.1168916271</v>
       </c>
       <c r="R80" t="n">
-        <v>6703513.099122572</v>
+        <v>6703507.727709529</v>
       </c>
       <c r="S80" t="n">
         <v>25</v>
@@ -9955,10 +9932,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111896684</v>
+        <v>111896595</v>
       </c>
       <c r="B81" t="n">
-        <v>88966</v>
+        <v>101703</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9967,25 +9944,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>5754</v>
+        <v>222412</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9995,10 +9972,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>574298.5092178418</v>
+        <v>574247.1857444055</v>
       </c>
       <c r="R81" t="n">
-        <v>6703457.181675683</v>
+        <v>6703405.307550027</v>
       </c>
       <c r="S81" t="n">
         <v>25</v>
@@ -10067,10 +10044,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111896691</v>
+        <v>111896619</v>
       </c>
       <c r="B82" t="n">
-        <v>90684</v>
+        <v>90332</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10079,25 +10056,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4368</v>
+        <v>4769</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10107,10 +10084,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>574527.49941562</v>
+        <v>574270.6945951059</v>
       </c>
       <c r="R82" t="n">
-        <v>6703449.058466445</v>
+        <v>6703439.835159265</v>
       </c>
       <c r="S82" t="n">
         <v>25</v>
@@ -10179,10 +10156,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111896626</v>
+        <v>111886738</v>
       </c>
       <c r="B83" t="n">
-        <v>90332</v>
+        <v>90684</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10191,41 +10168,42 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4769</v>
+        <v>4368</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>574356.4769687023</v>
+        <v>574247.2374925215</v>
       </c>
       <c r="R83" t="n">
-        <v>6703377.944859226</v>
+        <v>6703547.409599461</v>
       </c>
       <c r="S83" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -10254,7 +10232,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -10264,7 +10242,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -10279,22 +10257,22 @@
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111896716</v>
+        <v>111896615</v>
       </c>
       <c r="B84" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10307,21 +10285,21 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -10331,10 +10309,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>574337.5017077615</v>
+        <v>574241.4048918699</v>
       </c>
       <c r="R84" t="n">
-        <v>6703387.423688528</v>
+        <v>6703470.319338148</v>
       </c>
       <c r="S84" t="n">
         <v>25</v>
@@ -10403,7 +10381,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111886738</v>
+        <v>111896691</v>
       </c>
       <c r="B85" t="n">
         <v>90684</v>
@@ -10437,20 +10415,19 @@
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>574247.2374925215</v>
+        <v>574527.49941562</v>
       </c>
       <c r="R85" t="n">
-        <v>6703547.409599461</v>
+        <v>6703449.058466445</v>
       </c>
       <c r="S85" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -10479,7 +10456,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -10489,7 +10466,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10504,22 +10481,22 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111886390</v>
+        <v>111896625</v>
       </c>
       <c r="B86" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10532,38 +10509,37 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>574320.5008898397</v>
+        <v>574335.1915376212</v>
       </c>
       <c r="R86" t="n">
-        <v>6703541.511550271</v>
+        <v>6703403.659053097</v>
       </c>
       <c r="S86" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -10592,7 +10568,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -10602,7 +10578,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10617,22 +10593,22 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111886198</v>
+        <v>111896608</v>
       </c>
       <c r="B87" t="n">
-        <v>88966</v>
+        <v>90332</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10641,39 +10617,38 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>574244.409384649</v>
+        <v>574450.5671428492</v>
       </c>
       <c r="R87" t="n">
-        <v>6703468.407307444</v>
+        <v>6703513.099122572</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10730,22 +10705,22 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111886372</v>
+        <v>111896581</v>
       </c>
       <c r="B88" t="n">
-        <v>90687</v>
+        <v>99413</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10758,35 +10733,34 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5964</v>
+        <v>221235</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>574261.3270212604</v>
+        <v>574333.7783005711</v>
       </c>
       <c r="R88" t="n">
-        <v>6703462.833304818</v>
+        <v>6703424.353483723</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10843,22 +10817,22 @@
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111885842</v>
+        <v>111896669</v>
       </c>
       <c r="B89" t="n">
-        <v>101141</v>
+        <v>85253</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10871,35 +10845,34 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>222002</v>
+        <v>3674</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>574289.9628196132</v>
+        <v>574252.2932853762</v>
       </c>
       <c r="R89" t="n">
-        <v>6703416.053151045</v>
+        <v>6703469.555768683</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10950,28 +10923,29 @@
       <c r="AE89" t="b">
         <v>0</v>
       </c>
+      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111896595</v>
+        <v>111896695</v>
       </c>
       <c r="B90" t="n">
-        <v>101703</v>
+        <v>98535</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10984,21 +10958,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -11008,10 +10982,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>574247.1857444055</v>
+        <v>574528.5483397129</v>
       </c>
       <c r="R90" t="n">
-        <v>6703405.307550027</v>
+        <v>6703446.119582187</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -11080,10 +11054,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111896581</v>
+        <v>111896683</v>
       </c>
       <c r="B91" t="n">
-        <v>99413</v>
+        <v>88966</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11092,25 +11066,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>221235</v>
+        <v>5754</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11120,10 +11094,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>574333.7783005711</v>
+        <v>574289.1415073492</v>
       </c>
       <c r="R91" t="n">
-        <v>6703424.353483723</v>
+        <v>6703480.179643137</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -11192,10 +11166,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111896668</v>
+        <v>111886424</v>
       </c>
       <c r="B92" t="n">
-        <v>85089</v>
+        <v>88899</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11204,38 +11178,48 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3762</v>
+        <v>3286</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr"/>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>574317.8180265825</v>
+        <v>574278.5667425465</v>
       </c>
       <c r="R92" t="n">
-        <v>6703431.427106799</v>
+        <v>6703465.653919976</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -11292,22 +11276,22 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111896610</v>
+        <v>111896651</v>
       </c>
       <c r="B93" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11320,21 +11304,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11344,10 +11328,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>574272.2591996479</v>
+        <v>574442.2963542459</v>
       </c>
       <c r="R93" t="n">
-        <v>6703411.74269451</v>
+        <v>6703458.654406736</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11416,10 +11400,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111896696</v>
+        <v>111896680</v>
       </c>
       <c r="B94" t="n">
-        <v>98535</v>
+        <v>88966</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11428,38 +11412,49 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>574272.5440735799</v>
+        <v>574323.5395620605</v>
       </c>
       <c r="R94" t="n">
-        <v>6703373.755373025</v>
+        <v>6703369.373988308</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11510,6 +11505,7 @@
       <c r="AE94" t="b">
         <v>0</v>
       </c>
+      <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="b">
         <v>0</v>
       </c>
@@ -11528,7 +11524,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111896614</v>
+        <v>111896611</v>
       </c>
       <c r="B95" t="n">
         <v>90332</v>
@@ -11568,10 +11564,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>574228.885558943</v>
+        <v>574271.5155704983</v>
       </c>
       <c r="R95" t="n">
-        <v>6703430.096512586</v>
+        <v>6703375.707959844</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11640,10 +11636,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111896685</v>
+        <v>111896671</v>
       </c>
       <c r="B96" t="n">
-        <v>88966</v>
+        <v>85253</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11652,25 +11648,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>5754</v>
+        <v>3674</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11680,10 +11676,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>574341.6196639308</v>
+        <v>574320.3305445107</v>
       </c>
       <c r="R96" t="n">
-        <v>6703451.652109961</v>
+        <v>6703405.327699401</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11734,6 +11730,7 @@
       <c r="AE96" t="b">
         <v>0</v>
       </c>
+      <c r="AF96" t="inlineStr"/>
       <c r="AG96" t="b">
         <v>0</v>
       </c>
@@ -11752,10 +11749,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111896615</v>
+        <v>111896700</v>
       </c>
       <c r="B97" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11768,21 +11765,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11792,10 +11789,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>574241.4048918699</v>
+        <v>574211.4523542383</v>
       </c>
       <c r="R97" t="n">
-        <v>6703470.319338148</v>
+        <v>6703460.82405555</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11864,7 +11861,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111896702</v>
+        <v>111884952</v>
       </c>
       <c r="B98" t="n">
         <v>98535</v>
@@ -11898,16 +11895,17 @@
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>574285.1168916271</v>
+        <v>574448.7809475841</v>
       </c>
       <c r="R98" t="n">
-        <v>6703507.727709529</v>
+        <v>6703527.864445598</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11964,22 +11962,22 @@
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111896611</v>
+        <v>111885842</v>
       </c>
       <c r="B99" t="n">
-        <v>90332</v>
+        <v>101141</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11992,34 +11990,35 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>4769</v>
+        <v>222002</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>574271.5155704983</v>
+        <v>574289.9628196132</v>
       </c>
       <c r="R99" t="n">
-        <v>6703375.707959844</v>
+        <v>6703416.053151045</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -12076,19 +12075,19 @@
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111896699</v>
+        <v>111896716</v>
       </c>
       <c r="B100" t="n">
         <v>98535</v>
@@ -12128,10 +12127,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>574219.1872449504</v>
+        <v>574337.5017077615</v>
       </c>
       <c r="R100" t="n">
-        <v>6703421.016299267</v>
+        <v>6703387.423688528</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -12200,7 +12199,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111896701</v>
+        <v>111896696</v>
       </c>
       <c r="B101" t="n">
         <v>98535</v>
@@ -12240,10 +12239,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>574223.5713984326</v>
+        <v>574272.5440735799</v>
       </c>
       <c r="R101" t="n">
-        <v>6703448.24379926</v>
+        <v>6703373.755373025</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -12312,10 +12311,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111896703</v>
+        <v>111896620</v>
       </c>
       <c r="B102" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12328,21 +12327,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12352,10 +12351,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>574309.5943644949</v>
+        <v>574292.6013405366</v>
       </c>
       <c r="R102" t="n">
-        <v>6703519.084753582</v>
+        <v>6703456.073649234</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12424,7 +12423,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111896711</v>
+        <v>111896715</v>
       </c>
       <c r="B103" t="n">
         <v>98535</v>
@@ -12464,10 +12463,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>574304.6397298749</v>
+        <v>574335.2117857126</v>
       </c>
       <c r="R103" t="n">
-        <v>6703447.439264891</v>
+        <v>6703402.672635308</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12536,10 +12535,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111896588</v>
+        <v>111896629</v>
       </c>
       <c r="B104" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12552,21 +12551,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12576,10 +12575,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>574305.4658307037</v>
+        <v>574410.1934356905</v>
       </c>
       <c r="R104" t="n">
-        <v>6703455.350775132</v>
+        <v>6703385.462655744</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12648,10 +12647,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111896704</v>
+        <v>111896668</v>
       </c>
       <c r="B105" t="n">
-        <v>98535</v>
+        <v>85089</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12664,21 +12663,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>222498</v>
+        <v>3762</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12688,10 +12687,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>574300.0179232516</v>
+        <v>574317.8180265825</v>
       </c>
       <c r="R105" t="n">
-        <v>6703504.086197484</v>
+        <v>6703431.427106799</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12760,10 +12759,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111886848</v>
+        <v>111896580</v>
       </c>
       <c r="B106" t="n">
-        <v>86223</v>
+        <v>99413</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12772,42 +12771,41 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4412</v>
+        <v>221235</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>574236.8404598181</v>
+        <v>574256.1644406004</v>
       </c>
       <c r="R106" t="n">
-        <v>6703596.535755535</v>
+        <v>6703473.582402139</v>
       </c>
       <c r="S106" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -12836,7 +12834,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12846,7 +12844,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12861,22 +12859,22 @@
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111886358</v>
+        <v>111896590</v>
       </c>
       <c r="B107" t="n">
-        <v>101703</v>
+        <v>101141</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12889,16 +12887,16 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>222412</v>
+        <v>222002</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -12907,20 +12905,19 @@
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>574377.5537716877</v>
+        <v>574319.3829989098</v>
       </c>
       <c r="R107" t="n">
-        <v>6703530.841373169</v>
+        <v>6703403.334587433</v>
       </c>
       <c r="S107" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T107" t="inlineStr">
         <is>
@@ -12949,7 +12946,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -12959,7 +12956,7 @@
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12974,22 +12971,22 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111896708</v>
+        <v>111886198</v>
       </c>
       <c r="B108" t="n">
-        <v>98535</v>
+        <v>88966</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12998,38 +12995,39 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>574325.6696152951</v>
+        <v>574244.409384649</v>
       </c>
       <c r="R108" t="n">
-        <v>6703458.23244116</v>
+        <v>6703468.407307444</v>
       </c>
       <c r="S108" t="n">
         <v>25</v>
@@ -13086,22 +13084,22 @@
       <c r="AT108" t="inlineStr"/>
       <c r="AW108" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111896580</v>
+        <v>111886329</v>
       </c>
       <c r="B109" t="n">
-        <v>99413</v>
+        <v>90687</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13114,34 +13112,35 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>221235</v>
+        <v>5964</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>574256.1644406004</v>
+        <v>574258.1186801053</v>
       </c>
       <c r="R109" t="n">
-        <v>6703473.582402139</v>
+        <v>6703498.786127698</v>
       </c>
       <c r="S109" t="n">
         <v>25</v>
@@ -13198,19 +13197,19 @@
       <c r="AT109" t="inlineStr"/>
       <c r="AW109" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX109" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111896601</v>
+        <v>111896602</v>
       </c>
       <c r="B110" t="n">
         <v>56543</v>
@@ -13258,10 +13257,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>574287.6814794211</v>
+        <v>574317.3462017868</v>
       </c>
       <c r="R110" t="n">
-        <v>6703454.985900432</v>
+        <v>6703406.253286039</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -13330,10 +13329,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111896650</v>
+        <v>111896632</v>
       </c>
       <c r="B111" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13346,21 +13345,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -13370,10 +13369,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>574250.0745535446</v>
+        <v>574468.9496102105</v>
       </c>
       <c r="R111" t="n">
-        <v>6703481.352027887</v>
+        <v>6703484.36623429</v>
       </c>
       <c r="S111" t="n">
         <v>25</v>
@@ -13442,10 +13441,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111885492</v>
+        <v>111886372</v>
       </c>
       <c r="B112" t="n">
-        <v>99413</v>
+        <v>90687</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13458,21 +13457,21 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>221235</v>
+        <v>5964</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -13483,10 +13482,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>574346.6812743739</v>
+        <v>574261.3270212604</v>
       </c>
       <c r="R112" t="n">
-        <v>6703445.835096321</v>
+        <v>6703462.833304818</v>
       </c>
       <c r="S112" t="n">
         <v>25</v>
@@ -13555,10 +13554,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111896624</v>
+        <v>111886835</v>
       </c>
       <c r="B113" t="n">
-        <v>90332</v>
+        <v>86223</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13567,38 +13566,39 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4769</v>
+        <v>4412</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>574320.3710326073</v>
+        <v>574230.0863521076</v>
       </c>
       <c r="R113" t="n">
-        <v>6703403.354864516</v>
+        <v>6703588.503049062</v>
       </c>
       <c r="S113" t="n">
         <v>25</v>
@@ -13630,7 +13630,7 @@
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA113" t="inlineStr">
@@ -13640,7 +13640,7 @@
       </c>
       <c r="AB113" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD113" t="b">
@@ -13655,19 +13655,19 @@
       <c r="AT113" t="inlineStr"/>
       <c r="AW113" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX113" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111896623</v>
+        <v>111896631</v>
       </c>
       <c r="B114" t="n">
         <v>90332</v>
@@ -13707,10 +13707,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>574295.9517128408</v>
+        <v>574455.6288491808</v>
       </c>
       <c r="R114" t="n">
-        <v>6703413.21552579</v>
+        <v>6703507.28235705</v>
       </c>
       <c r="S114" t="n">
         <v>25</v>
@@ -13779,10 +13779,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111896671</v>
+        <v>111886498</v>
       </c>
       <c r="B115" t="n">
-        <v>85253</v>
+        <v>98535</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13795,37 +13795,38 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>3674</v>
+        <v>222498</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>574320.3305445107</v>
+        <v>574333.7396710602</v>
       </c>
       <c r="R115" t="n">
-        <v>6703405.327699401</v>
+        <v>6703522.540716695</v>
       </c>
       <c r="S115" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T115" t="inlineStr">
         <is>
@@ -13854,7 +13855,7 @@
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA115" t="inlineStr">
@@ -13864,7 +13865,7 @@
       </c>
       <c r="AB115" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD115" t="b">
@@ -13873,29 +13874,28 @@
       <c r="AE115" t="b">
         <v>0</v>
       </c>
-      <c r="AF115" t="inlineStr"/>
       <c r="AG115" t="b">
         <v>0</v>
       </c>
       <c r="AT115" t="inlineStr"/>
       <c r="AW115" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111896710</v>
+        <v>111885762</v>
       </c>
       <c r="B116" t="n">
-        <v>98535</v>
+        <v>90295</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13908,34 +13908,35 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>222498</v>
+        <v>4740</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Sotriska</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius lignyotus</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>574289.9830554068</v>
+        <v>574311.748177869</v>
       </c>
       <c r="R116" t="n">
-        <v>6703415.066736702</v>
+        <v>6703438.210316412</v>
       </c>
       <c r="S116" t="n">
         <v>25</v>
@@ -13992,22 +13993,22 @@
       <c r="AT116" t="inlineStr"/>
       <c r="AW116" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111896630</v>
+        <v>111896588</v>
       </c>
       <c r="B117" t="n">
-        <v>90332</v>
+        <v>101141</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14020,21 +14021,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>4769</v>
+        <v>222002</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14044,10 +14045,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>574436.8751361333</v>
+        <v>574305.4658307037</v>
       </c>
       <c r="R117" t="n">
-        <v>6703433.872390999</v>
+        <v>6703455.350775132</v>
       </c>
       <c r="S117" t="n">
         <v>25</v>
@@ -14116,7 +14117,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111896700</v>
+        <v>111896706</v>
       </c>
       <c r="B118" t="n">
         <v>98535</v>
@@ -14156,10 +14157,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>574211.4523542383</v>
+        <v>574290.1295200255</v>
       </c>
       <c r="R118" t="n">
-        <v>6703460.82405555</v>
+        <v>6703480.199912106</v>
       </c>
       <c r="S118" t="n">
         <v>25</v>
@@ -14228,7 +14229,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111896697</v>
+        <v>111896711</v>
       </c>
       <c r="B119" t="n">
         <v>98535</v>
@@ -14268,10 +14269,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>574252.510194034</v>
+        <v>574304.6397298749</v>
       </c>
       <c r="R119" t="n">
-        <v>6703386.666867712</v>
+        <v>6703447.439264891</v>
       </c>
       <c r="S119" t="n">
         <v>25</v>
@@ -14340,10 +14341,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111896669</v>
+        <v>111896703</v>
       </c>
       <c r="B120" t="n">
-        <v>85253</v>
+        <v>98535</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14356,21 +14357,21 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>3674</v>
+        <v>222498</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14380,10 +14381,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>574252.2932853762</v>
+        <v>574309.5943644949</v>
       </c>
       <c r="R120" t="n">
-        <v>6703469.555768683</v>
+        <v>6703519.084753582</v>
       </c>
       <c r="S120" t="n">
         <v>25</v>
@@ -14434,7 +14435,6 @@
       <c r="AE120" t="b">
         <v>0</v>
       </c>
-      <c r="AF120" t="inlineStr"/>
       <c r="AG120" t="b">
         <v>0</v>
       </c>
@@ -14453,10 +14453,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111896622</v>
+        <v>111896709</v>
       </c>
       <c r="B121" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14469,21 +14469,21 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -14493,10 +14493,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>574283.0263743812</v>
+        <v>574319.8910472075</v>
       </c>
       <c r="R121" t="n">
-        <v>6703416.897689151</v>
+        <v>6703354.496443897</v>
       </c>
       <c r="S121" t="n">
         <v>25</v>
@@ -14675,6 +14675,458 @@
       </c>
       <c r="AY122" t="inlineStr"/>
     </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>111885073</v>
+      </c>
+      <c r="B123" t="n">
+        <v>90684</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>4368</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Hydnellum suaveolens</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>Kalkberget (Kalkberget), Gstr</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>574524.3526532104</v>
+      </c>
+      <c r="R123" t="n">
+        <v>6703457.875106505</v>
+      </c>
+      <c r="S123" t="n">
+        <v>1</v>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y123" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z123" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
+      <c r="AA123" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB123" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
+      <c r="AD123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT123" t="inlineStr"/>
+      <c r="AW123" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX123" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>111885375</v>
+      </c>
+      <c r="B124" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>Kalkberget (Kalkberget), Gstr</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>574524.3526532104</v>
+      </c>
+      <c r="R124" t="n">
+        <v>6703457.875106505</v>
+      </c>
+      <c r="S124" t="n">
+        <v>1</v>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y124" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z124" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
+      <c r="AA124" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB124" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
+      <c r="AD124" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE124" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG124" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT124" t="inlineStr"/>
+      <c r="AW124" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX124" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>111886321</v>
+      </c>
+      <c r="B125" t="n">
+        <v>99413</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>Kalkberget (Kalkberget), Gstr</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>574524.3526532104</v>
+      </c>
+      <c r="R125" t="n">
+        <v>6703457.875106505</v>
+      </c>
+      <c r="S125" t="n">
+        <v>1</v>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W125" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y125" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z125" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+      <c r="AA125" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB125" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+      <c r="AD125" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE125" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG125" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT125" t="inlineStr"/>
+      <c r="AW125" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX125" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>111886310</v>
+      </c>
+      <c r="B126" t="n">
+        <v>101703</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>222412</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Daphne mezereum</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>Kalkberget (Kalkberget), Gstr</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>574524.3526532104</v>
+      </c>
+      <c r="R126" t="n">
+        <v>6703457.875106505</v>
+      </c>
+      <c r="S126" t="n">
+        <v>1</v>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W126" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y126" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z126" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+      <c r="AA126" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB126" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+      <c r="AD126" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE126" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG126" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT126" t="inlineStr"/>
+      <c r="AW126" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AX126" t="inlineStr">
+        <is>
+          <t>fanny westling</t>
+        </is>
+      </c>
+      <c r="AY126" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 14918-2023.xlsx
+++ b/artfynd/A 14918-2023.xlsx
@@ -11974,10 +11974,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111885842</v>
+        <v>111896716</v>
       </c>
       <c r="B99" t="n">
-        <v>101141</v>
+        <v>98535</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11990,35 +11990,34 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>574289.9628196132</v>
+        <v>574337.5017077615</v>
       </c>
       <c r="R99" t="n">
-        <v>6703416.053151045</v>
+        <v>6703387.423688528</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -12075,19 +12074,19 @@
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111896716</v>
+        <v>111896696</v>
       </c>
       <c r="B100" t="n">
         <v>98535</v>
@@ -12127,10 +12126,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>574337.5017077615</v>
+        <v>574272.5440735799</v>
       </c>
       <c r="R100" t="n">
-        <v>6703387.423688528</v>
+        <v>6703373.755373025</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -12199,10 +12198,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111896696</v>
+        <v>111896620</v>
       </c>
       <c r="B101" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12215,21 +12214,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -12239,10 +12238,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>574272.5440735799</v>
+        <v>574292.6013405366</v>
       </c>
       <c r="R101" t="n">
-        <v>6703373.755373025</v>
+        <v>6703456.073649234</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -12311,10 +12310,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111896620</v>
+        <v>111896715</v>
       </c>
       <c r="B102" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12327,21 +12326,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12351,10 +12350,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>574292.6013405366</v>
+        <v>574335.2117857126</v>
       </c>
       <c r="R102" t="n">
-        <v>6703456.073649234</v>
+        <v>6703402.672635308</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12423,10 +12422,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111896715</v>
+        <v>111896629</v>
       </c>
       <c r="B103" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12439,21 +12438,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12463,10 +12462,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>574335.2117857126</v>
+        <v>574410.1934356905</v>
       </c>
       <c r="R103" t="n">
-        <v>6703402.672635308</v>
+        <v>6703385.462655744</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12535,10 +12534,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111896629</v>
+        <v>111885842</v>
       </c>
       <c r="B104" t="n">
-        <v>90332</v>
+        <v>101141</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12551,34 +12550,35 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4769</v>
+        <v>222002</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>574410.1934356905</v>
+        <v>574289.9628196132</v>
       </c>
       <c r="R104" t="n">
-        <v>6703385.462655744</v>
+        <v>6703416.053151045</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12635,12 +12635,12 @@
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr"/>

--- a/artfynd/A 14918-2023.xlsx
+++ b/artfynd/A 14918-2023.xlsx
@@ -5537,10 +5537,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111896701</v>
+        <v>111886848</v>
       </c>
       <c r="B42" t="n">
-        <v>98535</v>
+        <v>86223</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5549,41 +5549,42 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>222498</v>
+        <v>4412</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>574223.5713984326</v>
+        <v>574236.8404598181</v>
       </c>
       <c r="R42" t="n">
-        <v>6703448.24379926</v>
+        <v>6703596.535755535</v>
       </c>
       <c r="S42" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5612,7 +5613,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5622,7 +5623,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5637,19 +5638,19 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111896685</v>
+        <v>111896681</v>
       </c>
       <c r="B43" t="n">
         <v>88966</v>
@@ -5682,17 +5683,28 @@
           <t>(Bres.) Corner</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>574341.6196639308</v>
+        <v>574330.7595642635</v>
       </c>
       <c r="R43" t="n">
-        <v>6703451.652109961</v>
+        <v>6703354.719507183</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5743,6 +5755,7 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -5873,10 +5886,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111896670</v>
+        <v>111896623</v>
       </c>
       <c r="B45" t="n">
-        <v>85253</v>
+        <v>90332</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5889,21 +5902,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3674</v>
+        <v>4769</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5913,10 +5926,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>574302.4612936915</v>
+        <v>574295.9517128408</v>
       </c>
       <c r="R45" t="n">
-        <v>6703457.262763234</v>
+        <v>6703413.21552579</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5967,7 +5980,6 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -5986,10 +5998,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111896587</v>
+        <v>111896627</v>
       </c>
       <c r="B46" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6002,21 +6014,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -6026,10 +6038,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>574292.2757661514</v>
+        <v>574373.314176796</v>
       </c>
       <c r="R46" t="n">
-        <v>6703496.032899947</v>
+        <v>6703376.316927806</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -6098,10 +6110,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111896618</v>
+        <v>111896703</v>
       </c>
       <c r="B47" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6114,21 +6126,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6138,10 +6150,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>574291.9436535498</v>
+        <v>574309.5943644949</v>
       </c>
       <c r="R47" t="n">
-        <v>6703488.13161656</v>
+        <v>6703519.084753582</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6210,10 +6222,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111896626</v>
+        <v>111896648</v>
       </c>
       <c r="B48" t="n">
-        <v>90332</v>
+        <v>78512</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6226,21 +6238,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4769</v>
+        <v>6456</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6250,10 +6262,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>574356.4769687023</v>
+        <v>574527.773473482</v>
       </c>
       <c r="R48" t="n">
-        <v>6703377.944859226</v>
+        <v>6703435.741965486</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6304,6 +6316,7 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6322,10 +6335,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111896614</v>
+        <v>111896702</v>
       </c>
       <c r="B49" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6338,21 +6351,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6362,10 +6375,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>574228.885558943</v>
+        <v>574285.1168916271</v>
       </c>
       <c r="R49" t="n">
-        <v>6703430.096512586</v>
+        <v>6703507.727709529</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6434,10 +6447,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111896707</v>
+        <v>111896608</v>
       </c>
       <c r="B50" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6450,21 +6463,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6474,10 +6487,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>574304.4575714046</v>
+        <v>574450.5671428492</v>
       </c>
       <c r="R50" t="n">
-        <v>6703456.31690546</v>
+        <v>6703513.099122572</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6546,10 +6559,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111896623</v>
+        <v>111896704</v>
       </c>
       <c r="B51" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6562,21 +6575,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6586,10 +6599,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>574295.9517128408</v>
+        <v>574300.0179232516</v>
       </c>
       <c r="R51" t="n">
-        <v>6703413.21552579</v>
+        <v>6703504.086197484</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6658,10 +6671,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111886848</v>
+        <v>111896683</v>
       </c>
       <c r="B52" t="n">
-        <v>86223</v>
+        <v>88966</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6674,38 +6687,37 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4412</v>
+        <v>5754</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>574236.8404598181</v>
+        <v>574289.1415073492</v>
       </c>
       <c r="R52" t="n">
-        <v>6703596.535755535</v>
+        <v>6703480.179643137</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6734,7 +6746,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6744,7 +6756,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6759,22 +6771,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111896630</v>
+        <v>111896713</v>
       </c>
       <c r="B53" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6787,21 +6799,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6811,10 +6823,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>574436.8751361333</v>
+        <v>574333.7783005711</v>
       </c>
       <c r="R53" t="n">
-        <v>6703433.872390999</v>
+        <v>6703424.353483723</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6883,10 +6895,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111896704</v>
+        <v>111896621</v>
       </c>
       <c r="B54" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6899,21 +6911,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6923,10 +6935,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>574300.0179232516</v>
+        <v>574319.8505595494</v>
       </c>
       <c r="R54" t="n">
-        <v>6703504.086197484</v>
+        <v>6703356.46930531</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6995,7 +7007,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111896714</v>
+        <v>111886498</v>
       </c>
       <c r="B55" t="n">
         <v>98535</v>
@@ -7029,19 +7041,20 @@
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>574320.3710326073</v>
+        <v>574333.7396710602</v>
       </c>
       <c r="R55" t="n">
-        <v>6703403.354864516</v>
+        <v>6703522.540716695</v>
       </c>
       <c r="S55" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -7070,7 +7083,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -7080,7 +7093,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7095,22 +7108,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111896607</v>
+        <v>111896710</v>
       </c>
       <c r="B56" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7123,21 +7136,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7147,10 +7160,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>574466.8489239614</v>
+        <v>574289.9830554068</v>
       </c>
       <c r="R56" t="n">
-        <v>6703514.4207107</v>
+        <v>6703415.066736702</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7219,7 +7232,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111896708</v>
+        <v>111896697</v>
       </c>
       <c r="B57" t="n">
         <v>98535</v>
@@ -7259,10 +7272,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>574325.6696152951</v>
+        <v>574252.510194034</v>
       </c>
       <c r="R57" t="n">
-        <v>6703458.23244116</v>
+        <v>6703386.666867712</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7331,10 +7344,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111886390</v>
+        <v>111896611</v>
       </c>
       <c r="B58" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7347,38 +7360,37 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>574320.5008898397</v>
+        <v>574271.5155704983</v>
       </c>
       <c r="R58" t="n">
-        <v>6703541.511550271</v>
+        <v>6703375.707959844</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7407,7 +7419,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7417,7 +7429,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7432,19 +7444,19 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111886713</v>
+        <v>111886738</v>
       </c>
       <c r="B59" t="n">
         <v>90684</v>
@@ -7485,13 +7497,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>574267.3295348831</v>
+        <v>574247.2374925215</v>
       </c>
       <c r="R59" t="n">
-        <v>6703555.715953856</v>
+        <v>6703547.409599461</v>
       </c>
       <c r="S59" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7520,7 +7532,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7530,7 +7542,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7545,22 +7557,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111896622</v>
+        <v>111896717</v>
       </c>
       <c r="B60" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7573,21 +7585,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7597,10 +7609,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>574283.0263743812</v>
+        <v>574371.1760314812</v>
       </c>
       <c r="R60" t="n">
-        <v>6703416.897689151</v>
+        <v>6703384.167737775</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7669,10 +7681,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111896627</v>
+        <v>111896712</v>
       </c>
       <c r="B61" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7685,21 +7697,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7709,10 +7721,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>574373.314176796</v>
+        <v>574311.7886614093</v>
       </c>
       <c r="R61" t="n">
-        <v>6703376.316927806</v>
+        <v>6703436.237499412</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7781,10 +7793,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111896617</v>
+        <v>111896651</v>
       </c>
       <c r="B62" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7797,21 +7809,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7821,10 +7833,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>574269.0777989432</v>
+        <v>574442.2963542459</v>
       </c>
       <c r="R62" t="n">
-        <v>6703494.570243312</v>
+        <v>6703458.654406736</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7893,10 +7905,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111896717</v>
+        <v>111896671</v>
       </c>
       <c r="B63" t="n">
-        <v>98535</v>
+        <v>85253</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7909,21 +7921,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>222498</v>
+        <v>3674</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7933,10 +7945,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>574371.1760314812</v>
+        <v>574320.3305445107</v>
       </c>
       <c r="R63" t="n">
-        <v>6703384.167737775</v>
+        <v>6703405.327699401</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7987,6 +7999,7 @@
       <c r="AE63" t="b">
         <v>0</v>
       </c>
+      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
@@ -8005,10 +8018,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111896650</v>
+        <v>111896668</v>
       </c>
       <c r="B64" t="n">
-        <v>89183</v>
+        <v>85089</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8021,21 +8034,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3215</v>
+        <v>3762</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8045,10 +8058,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>574250.0745535446</v>
+        <v>574317.8180265825</v>
       </c>
       <c r="R64" t="n">
-        <v>6703481.352027887</v>
+        <v>6703431.427106799</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -8117,10 +8130,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111886358</v>
+        <v>111896630</v>
       </c>
       <c r="B65" t="n">
-        <v>101703</v>
+        <v>90332</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8133,38 +8146,37 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>222412</v>
+        <v>4769</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>574377.5537716877</v>
+        <v>574436.8751361333</v>
       </c>
       <c r="R65" t="n">
-        <v>6703530.841373169</v>
+        <v>6703433.872390999</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8193,7 +8205,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8203,7 +8215,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8218,22 +8230,22 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111896713</v>
+        <v>111885842</v>
       </c>
       <c r="B66" t="n">
-        <v>98535</v>
+        <v>101141</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8246,34 +8258,35 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>574333.7783005711</v>
+        <v>574289.9628196132</v>
       </c>
       <c r="R66" t="n">
-        <v>6703424.353483723</v>
+        <v>6703416.053151045</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8330,22 +8343,22 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111896712</v>
+        <v>111886358</v>
       </c>
       <c r="B67" t="n">
-        <v>98535</v>
+        <v>101703</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8358,37 +8371,38 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>574311.7886614093</v>
+        <v>574377.5537716877</v>
       </c>
       <c r="R67" t="n">
-        <v>6703436.237499412</v>
+        <v>6703530.841373169</v>
       </c>
       <c r="S67" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8417,7 +8431,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8427,7 +8441,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8442,22 +8456,22 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111885492</v>
+        <v>111896670</v>
       </c>
       <c r="B68" t="n">
-        <v>99413</v>
+        <v>85253</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8470,35 +8484,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>221235</v>
+        <v>3674</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>574346.6812743739</v>
+        <v>574302.4612936915</v>
       </c>
       <c r="R68" t="n">
-        <v>6703445.835096321</v>
+        <v>6703457.262763234</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8549,28 +8562,29 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
+      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111896610</v>
+        <v>111896581</v>
       </c>
       <c r="B69" t="n">
-        <v>90332</v>
+        <v>99413</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8583,21 +8597,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8607,10 +8621,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>574272.2591996479</v>
+        <v>574333.7783005711</v>
       </c>
       <c r="R69" t="n">
-        <v>6703411.74269451</v>
+        <v>6703424.353483723</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8679,10 +8693,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111896589</v>
+        <v>111896620</v>
       </c>
       <c r="B70" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8695,21 +8709,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8719,10 +8733,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>574319.8708033765</v>
+        <v>574292.6013405366</v>
       </c>
       <c r="R70" t="n">
-        <v>6703355.482874738</v>
+        <v>6703456.073649234</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8791,10 +8805,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111896648</v>
+        <v>111896696</v>
       </c>
       <c r="B71" t="n">
-        <v>78512</v>
+        <v>98535</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8807,21 +8821,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6456</v>
+        <v>222498</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8831,10 +8845,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>574527.773473482</v>
+        <v>574272.5440735799</v>
       </c>
       <c r="R71" t="n">
-        <v>6703435.741965486</v>
+        <v>6703373.755373025</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8885,7 +8899,6 @@
       <c r="AE71" t="b">
         <v>0</v>
       </c>
-      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
       </c>
@@ -8904,10 +8917,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111896681</v>
+        <v>111896707</v>
       </c>
       <c r="B72" t="n">
-        <v>88966</v>
+        <v>98535</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8916,49 +8929,38 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>574330.7595642635</v>
+        <v>574304.4575714046</v>
       </c>
       <c r="R72" t="n">
-        <v>6703354.719507183</v>
+        <v>6703456.31690546</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -9009,7 +9011,6 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
-      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
       </c>
@@ -9028,10 +9029,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111896624</v>
+        <v>111896669</v>
       </c>
       <c r="B73" t="n">
-        <v>90332</v>
+        <v>85253</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9044,21 +9045,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4769</v>
+        <v>3674</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9068,10 +9069,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>574320.3710326073</v>
+        <v>574252.2932853762</v>
       </c>
       <c r="R73" t="n">
-        <v>6703403.354864516</v>
+        <v>6703469.555768683</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -9122,6 +9123,7 @@
       <c r="AE73" t="b">
         <v>0</v>
       </c>
+      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>
@@ -9140,10 +9142,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111896601</v>
+        <v>111886372</v>
       </c>
       <c r="B74" t="n">
-        <v>56543</v>
+        <v>90687</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9152,46 +9154,39 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>103021</v>
+        <v>5964</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>574287.6814794211</v>
+        <v>574261.3270212604</v>
       </c>
       <c r="R74" t="n">
-        <v>6703454.985900432</v>
+        <v>6703462.833304818</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -9248,22 +9243,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111896616</v>
+        <v>111886713</v>
       </c>
       <c r="B75" t="n">
-        <v>90332</v>
+        <v>90684</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9272,38 +9267,39 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4769</v>
+        <v>4368</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>574249.2078899746</v>
+        <v>574267.3295348831</v>
       </c>
       <c r="R75" t="n">
-        <v>6703475.413386551</v>
+        <v>6703555.715953856</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9360,22 +9356,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111896710</v>
+        <v>111886424</v>
       </c>
       <c r="B76" t="n">
-        <v>98535</v>
+        <v>88899</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9384,38 +9380,48 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>222498</v>
+        <v>3286</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>574289.9830554068</v>
+        <v>574278.5667425465</v>
       </c>
       <c r="R76" t="n">
-        <v>6703415.066736702</v>
+        <v>6703465.653919976</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9472,22 +9478,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111896682</v>
+        <v>111896714</v>
       </c>
       <c r="B77" t="n">
-        <v>88966</v>
+        <v>98535</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9496,25 +9502,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9524,10 +9530,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>574256.1442139128</v>
+        <v>574320.3710326073</v>
       </c>
       <c r="R77" t="n">
-        <v>6703474.568800534</v>
+        <v>6703403.354864516</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9596,10 +9602,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111896699</v>
+        <v>111896632</v>
       </c>
       <c r="B78" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9612,21 +9618,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9636,10 +9642,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>574219.1872449504</v>
+        <v>574468.9496102105</v>
       </c>
       <c r="R78" t="n">
-        <v>6703421.016299267</v>
+        <v>6703484.36623429</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9708,7 +9714,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111896697</v>
+        <v>111896699</v>
       </c>
       <c r="B79" t="n">
         <v>98535</v>
@@ -9748,10 +9754,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>574252.510194034</v>
+        <v>574219.1872449504</v>
       </c>
       <c r="R79" t="n">
-        <v>6703386.666867712</v>
+        <v>6703421.016299267</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9820,10 +9826,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111896702</v>
+        <v>111896607</v>
       </c>
       <c r="B80" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9836,21 +9842,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9860,10 +9866,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>574285.1168916271</v>
+        <v>574466.8489239614</v>
       </c>
       <c r="R80" t="n">
-        <v>6703507.727709529</v>
+        <v>6703514.4207107</v>
       </c>
       <c r="S80" t="n">
         <v>25</v>
@@ -9932,10 +9938,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111896595</v>
+        <v>111896691</v>
       </c>
       <c r="B81" t="n">
-        <v>101703</v>
+        <v>90684</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9944,25 +9950,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>222412</v>
+        <v>4368</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9972,10 +9978,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>574247.1857444055</v>
+        <v>574527.49941562</v>
       </c>
       <c r="R81" t="n">
-        <v>6703405.307550027</v>
+        <v>6703449.058466445</v>
       </c>
       <c r="S81" t="n">
         <v>25</v>
@@ -10044,10 +10050,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111896619</v>
+        <v>111896590</v>
       </c>
       <c r="B82" t="n">
-        <v>90332</v>
+        <v>101141</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10060,21 +10066,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4769</v>
+        <v>222002</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10084,10 +10090,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>574270.6945951059</v>
+        <v>574319.3829989098</v>
       </c>
       <c r="R82" t="n">
-        <v>6703439.835159265</v>
+        <v>6703403.334587433</v>
       </c>
       <c r="S82" t="n">
         <v>25</v>
@@ -10156,10 +10162,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111886738</v>
+        <v>111896709</v>
       </c>
       <c r="B83" t="n">
-        <v>90684</v>
+        <v>98535</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10168,42 +10174,41 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4368</v>
+        <v>222498</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>574247.2374925215</v>
+        <v>574319.8910472075</v>
       </c>
       <c r="R83" t="n">
-        <v>6703547.409599461</v>
+        <v>6703354.496443897</v>
       </c>
       <c r="S83" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -10232,7 +10237,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -10242,7 +10247,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -10257,12 +10262,12 @@
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
@@ -10381,10 +10386,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111896691</v>
+        <v>111896715</v>
       </c>
       <c r="B85" t="n">
-        <v>90684</v>
+        <v>98535</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10393,25 +10398,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4368</v>
+        <v>222498</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10421,10 +10426,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>574527.49941562</v>
+        <v>574335.2117857126</v>
       </c>
       <c r="R85" t="n">
-        <v>6703449.058466445</v>
+        <v>6703402.672635308</v>
       </c>
       <c r="S85" t="n">
         <v>25</v>
@@ -10493,10 +10498,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111896625</v>
+        <v>111886835</v>
       </c>
       <c r="B86" t="n">
-        <v>90332</v>
+        <v>86223</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10505,38 +10510,39 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4769</v>
+        <v>4412</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>574335.1915376212</v>
+        <v>574230.0863521076</v>
       </c>
       <c r="R86" t="n">
-        <v>6703403.659053097</v>
+        <v>6703588.503049062</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -10568,7 +10574,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -10578,7 +10584,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10593,22 +10599,22 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111896608</v>
+        <v>111886390</v>
       </c>
       <c r="B87" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10621,37 +10627,38 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>574450.5671428492</v>
+        <v>574320.5008898397</v>
       </c>
       <c r="R87" t="n">
-        <v>6703513.099122572</v>
+        <v>6703541.511550271</v>
       </c>
       <c r="S87" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -10680,7 +10687,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -10690,7 +10697,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10705,22 +10712,22 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111896581</v>
+        <v>111896619</v>
       </c>
       <c r="B88" t="n">
-        <v>99413</v>
+        <v>90332</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10733,21 +10740,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>221235</v>
+        <v>4769</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10757,10 +10764,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>574333.7783005711</v>
+        <v>574270.6945951059</v>
       </c>
       <c r="R88" t="n">
-        <v>6703424.353483723</v>
+        <v>6703439.835159265</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10829,10 +10836,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111896669</v>
+        <v>111896610</v>
       </c>
       <c r="B89" t="n">
-        <v>85253</v>
+        <v>90332</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10845,21 +10852,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3674</v>
+        <v>4769</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10869,10 +10876,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>574252.2932853762</v>
+        <v>574272.2591996479</v>
       </c>
       <c r="R89" t="n">
-        <v>6703469.555768683</v>
+        <v>6703411.74269451</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10923,7 +10930,6 @@
       <c r="AE89" t="b">
         <v>0</v>
       </c>
-      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
@@ -10942,10 +10948,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111896695</v>
+        <v>111885492</v>
       </c>
       <c r="B90" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10958,34 +10964,35 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>574528.5483397129</v>
+        <v>574346.6812743739</v>
       </c>
       <c r="R90" t="n">
-        <v>6703446.119582187</v>
+        <v>6703445.835096321</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -11042,22 +11049,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111896683</v>
+        <v>111896701</v>
       </c>
       <c r="B91" t="n">
-        <v>88966</v>
+        <v>98535</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11066,25 +11073,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11094,10 +11101,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>574289.1415073492</v>
+        <v>574223.5713984326</v>
       </c>
       <c r="R91" t="n">
-        <v>6703480.179643137</v>
+        <v>6703448.24379926</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -11166,10 +11173,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111886424</v>
+        <v>111896700</v>
       </c>
       <c r="B92" t="n">
-        <v>88899</v>
+        <v>98535</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11178,48 +11185,38 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3286</v>
+        <v>222498</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>574278.5667425465</v>
+        <v>574211.4523542383</v>
       </c>
       <c r="R92" t="n">
-        <v>6703465.653919976</v>
+        <v>6703460.82405555</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -11276,22 +11273,22 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111896651</v>
+        <v>111884952</v>
       </c>
       <c r="B93" t="n">
-        <v>89183</v>
+        <v>98535</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11304,34 +11301,35 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>3215</v>
+        <v>222498</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>574442.2963542459</v>
+        <v>574448.7809475841</v>
       </c>
       <c r="R93" t="n">
-        <v>6703458.654406736</v>
+        <v>6703527.864445598</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11388,22 +11386,22 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111896680</v>
+        <v>111886329</v>
       </c>
       <c r="B94" t="n">
-        <v>88966</v>
+        <v>90687</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11412,49 +11410,39 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>5754</v>
+        <v>5964</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>574323.5395620605</v>
+        <v>574258.1186801053</v>
       </c>
       <c r="R94" t="n">
-        <v>6703369.373988308</v>
+        <v>6703498.786127698</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11505,29 +11493,28 @@
       <c r="AE94" t="b">
         <v>0</v>
       </c>
-      <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="b">
         <v>0</v>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111896611</v>
+        <v>111885762</v>
       </c>
       <c r="B95" t="n">
-        <v>90332</v>
+        <v>90295</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11540,34 +11527,35 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4769</v>
+        <v>4740</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Sotriska</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lactarius lignyotus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>574271.5155704983</v>
+        <v>574311.748177869</v>
       </c>
       <c r="R95" t="n">
-        <v>6703375.707959844</v>
+        <v>6703438.210316412</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11624,22 +11612,22 @@
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111896671</v>
+        <v>111896624</v>
       </c>
       <c r="B96" t="n">
-        <v>85253</v>
+        <v>90332</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11652,21 +11640,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>3674</v>
+        <v>4769</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11676,10 +11664,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>574320.3305445107</v>
+        <v>574320.3710326073</v>
       </c>
       <c r="R96" t="n">
-        <v>6703405.327699401</v>
+        <v>6703403.354864516</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11730,7 +11718,6 @@
       <c r="AE96" t="b">
         <v>0</v>
       </c>
-      <c r="AF96" t="inlineStr"/>
       <c r="AG96" t="b">
         <v>0</v>
       </c>
@@ -11749,10 +11736,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111896700</v>
+        <v>111896587</v>
       </c>
       <c r="B97" t="n">
-        <v>98535</v>
+        <v>101141</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11765,21 +11752,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11789,10 +11776,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>574211.4523542383</v>
+        <v>574292.2757661514</v>
       </c>
       <c r="R97" t="n">
-        <v>6703460.82405555</v>
+        <v>6703496.032899947</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11861,7 +11848,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111884952</v>
+        <v>111896711</v>
       </c>
       <c r="B98" t="n">
         <v>98535</v>
@@ -11895,17 +11882,16 @@
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>574448.7809475841</v>
+        <v>574304.6397298749</v>
       </c>
       <c r="R98" t="n">
-        <v>6703527.864445598</v>
+        <v>6703447.439264891</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11962,22 +11948,22 @@
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111896716</v>
+        <v>111896680</v>
       </c>
       <c r="B99" t="n">
-        <v>98535</v>
+        <v>88966</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11986,38 +11972,49 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>574337.5017077615</v>
+        <v>574323.5395620605</v>
       </c>
       <c r="R99" t="n">
-        <v>6703387.423688528</v>
+        <v>6703369.373988308</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -12068,6 +12065,7 @@
       <c r="AE99" t="b">
         <v>0</v>
       </c>
+      <c r="AF99" t="inlineStr"/>
       <c r="AG99" t="b">
         <v>0</v>
       </c>
@@ -12086,10 +12084,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111896696</v>
+        <v>111896622</v>
       </c>
       <c r="B100" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12102,21 +12100,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12126,10 +12124,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>574272.5440735799</v>
+        <v>574283.0263743812</v>
       </c>
       <c r="R100" t="n">
-        <v>6703373.755373025</v>
+        <v>6703416.897689151</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -12198,10 +12196,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111896620</v>
+        <v>111896588</v>
       </c>
       <c r="B101" t="n">
-        <v>90332</v>
+        <v>101141</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12214,21 +12212,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>4769</v>
+        <v>222002</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -12238,10 +12236,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>574292.6013405366</v>
+        <v>574305.4658307037</v>
       </c>
       <c r="R101" t="n">
-        <v>6703456.073649234</v>
+        <v>6703455.350775132</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -12310,10 +12308,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111896715</v>
+        <v>111896602</v>
       </c>
       <c r="B102" t="n">
-        <v>98535</v>
+        <v>56543</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12322,38 +12320,46 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>574335.2117857126</v>
+        <v>574317.3462017868</v>
       </c>
       <c r="R102" t="n">
-        <v>6703402.672635308</v>
+        <v>6703406.253286039</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12422,10 +12428,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111896629</v>
+        <v>111896595</v>
       </c>
       <c r="B103" t="n">
-        <v>90332</v>
+        <v>101703</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12438,21 +12444,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12462,10 +12468,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>574410.1934356905</v>
+        <v>574247.1857444055</v>
       </c>
       <c r="R103" t="n">
-        <v>6703385.462655744</v>
+        <v>6703405.307550027</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12534,10 +12540,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111885842</v>
+        <v>111896716</v>
       </c>
       <c r="B104" t="n">
-        <v>101141</v>
+        <v>98535</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12550,35 +12556,34 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>574289.9628196132</v>
+        <v>574337.5017077615</v>
       </c>
       <c r="R104" t="n">
-        <v>6703416.053151045</v>
+        <v>6703387.423688528</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12635,22 +12640,22 @@
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111896668</v>
+        <v>111896589</v>
       </c>
       <c r="B105" t="n">
-        <v>85089</v>
+        <v>101141</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12663,21 +12668,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>3762</v>
+        <v>222002</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12687,10 +12692,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>574317.8180265825</v>
+        <v>574319.8708033765</v>
       </c>
       <c r="R105" t="n">
-        <v>6703431.427106799</v>
+        <v>6703355.482874738</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12759,10 +12764,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111896580</v>
+        <v>111896708</v>
       </c>
       <c r="B106" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12775,21 +12780,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12799,10 +12804,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>574256.1644406004</v>
+        <v>574325.6696152951</v>
       </c>
       <c r="R106" t="n">
-        <v>6703473.582402139</v>
+        <v>6703458.23244116</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12871,10 +12876,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111896590</v>
+        <v>111896601</v>
       </c>
       <c r="B107" t="n">
-        <v>101141</v>
+        <v>56543</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12883,38 +12888,46 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>222002</v>
+        <v>103021</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>574319.3829989098</v>
+        <v>574287.6814794211</v>
       </c>
       <c r="R107" t="n">
-        <v>6703403.334587433</v>
+        <v>6703454.985900432</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12983,10 +12996,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111886198</v>
+        <v>111896650</v>
       </c>
       <c r="B108" t="n">
-        <v>88966</v>
+        <v>89183</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12995,39 +13008,38 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>5754</v>
+        <v>3215</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>574244.409384649</v>
+        <v>574250.0745535446</v>
       </c>
       <c r="R108" t="n">
-        <v>6703468.407307444</v>
+        <v>6703481.352027887</v>
       </c>
       <c r="S108" t="n">
         <v>25</v>
@@ -13084,22 +13096,22 @@
       <c r="AT108" t="inlineStr"/>
       <c r="AW108" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111886329</v>
+        <v>111886198</v>
       </c>
       <c r="B109" t="n">
-        <v>90687</v>
+        <v>88966</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13108,39 +13120,39 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>5964</v>
+        <v>5754</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>574258.1186801053</v>
+        <v>574244.409384649</v>
       </c>
       <c r="R109" t="n">
-        <v>6703498.786127698</v>
+        <v>6703468.407307444</v>
       </c>
       <c r="S109" t="n">
         <v>25</v>
@@ -13209,10 +13221,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111896602</v>
+        <v>111896626</v>
       </c>
       <c r="B110" t="n">
-        <v>56543</v>
+        <v>90332</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13221,46 +13233,38 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>103021</v>
+        <v>4769</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>574317.3462017868</v>
+        <v>574356.4769687023</v>
       </c>
       <c r="R110" t="n">
-        <v>6703406.253286039</v>
+        <v>6703377.944859226</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -13329,10 +13333,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111896632</v>
+        <v>111896682</v>
       </c>
       <c r="B111" t="n">
-        <v>90332</v>
+        <v>88966</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13341,25 +13345,25 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -13369,10 +13373,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>574468.9496102105</v>
+        <v>574256.1442139128</v>
       </c>
       <c r="R111" t="n">
-        <v>6703484.36623429</v>
+        <v>6703474.568800534</v>
       </c>
       <c r="S111" t="n">
         <v>25</v>
@@ -13441,10 +13445,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111886372</v>
+        <v>111896685</v>
       </c>
       <c r="B112" t="n">
-        <v>90687</v>
+        <v>88966</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13453,39 +13457,38 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>5964</v>
+        <v>5754</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>574261.3270212604</v>
+        <v>574341.6196639308</v>
       </c>
       <c r="R112" t="n">
-        <v>6703462.833304818</v>
+        <v>6703451.652109961</v>
       </c>
       <c r="S112" t="n">
         <v>25</v>
@@ -13542,22 +13545,22 @@
       <c r="AT112" t="inlineStr"/>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111886835</v>
+        <v>111896616</v>
       </c>
       <c r="B113" t="n">
-        <v>86223</v>
+        <v>90332</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13566,39 +13569,38 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4412</v>
+        <v>4769</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>574230.0863521076</v>
+        <v>574249.2078899746</v>
       </c>
       <c r="R113" t="n">
-        <v>6703588.503049062</v>
+        <v>6703475.413386551</v>
       </c>
       <c r="S113" t="n">
         <v>25</v>
@@ -13630,7 +13632,7 @@
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA113" t="inlineStr">
@@ -13640,7 +13642,7 @@
       </c>
       <c r="AB113" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD113" t="b">
@@ -13655,22 +13657,22 @@
       <c r="AT113" t="inlineStr"/>
       <c r="AW113" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX113" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111896631</v>
+        <v>111896580</v>
       </c>
       <c r="B114" t="n">
-        <v>90332</v>
+        <v>99413</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13683,21 +13685,21 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13707,10 +13709,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>574455.6288491808</v>
+        <v>574256.1644406004</v>
       </c>
       <c r="R114" t="n">
-        <v>6703507.28235705</v>
+        <v>6703473.582402139</v>
       </c>
       <c r="S114" t="n">
         <v>25</v>
@@ -13779,10 +13781,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111886498</v>
+        <v>111896629</v>
       </c>
       <c r="B115" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13795,38 +13797,37 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>574333.7396710602</v>
+        <v>574410.1934356905</v>
       </c>
       <c r="R115" t="n">
-        <v>6703522.540716695</v>
+        <v>6703385.462655744</v>
       </c>
       <c r="S115" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T115" t="inlineStr">
         <is>
@@ -13855,7 +13856,7 @@
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA115" t="inlineStr">
@@ -13865,7 +13866,7 @@
       </c>
       <c r="AB115" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD115" t="b">
@@ -13880,22 +13881,22 @@
       <c r="AT115" t="inlineStr"/>
       <c r="AW115" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111885762</v>
+        <v>111896614</v>
       </c>
       <c r="B116" t="n">
-        <v>90295</v>
+        <v>90332</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13908,35 +13909,34 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>4740</v>
+        <v>4769</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Sotriska</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Lactarius lignyotus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>574311.748177869</v>
+        <v>574228.885558943</v>
       </c>
       <c r="R116" t="n">
-        <v>6703438.210316412</v>
+        <v>6703430.096512586</v>
       </c>
       <c r="S116" t="n">
         <v>25</v>
@@ -13993,22 +13993,22 @@
       <c r="AT116" t="inlineStr"/>
       <c r="AW116" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111896588</v>
+        <v>111896617</v>
       </c>
       <c r="B117" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14021,21 +14021,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14045,10 +14045,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>574305.4658307037</v>
+        <v>574269.0777989432</v>
       </c>
       <c r="R117" t="n">
-        <v>6703455.350775132</v>
+        <v>6703494.570243312</v>
       </c>
       <c r="S117" t="n">
         <v>25</v>
@@ -14117,10 +14117,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111896706</v>
+        <v>111896631</v>
       </c>
       <c r="B118" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14133,21 +14133,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -14157,10 +14157,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>574290.1295200255</v>
+        <v>574455.6288491808</v>
       </c>
       <c r="R118" t="n">
-        <v>6703480.199912106</v>
+        <v>6703507.28235705</v>
       </c>
       <c r="S118" t="n">
         <v>25</v>
@@ -14229,10 +14229,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111896711</v>
+        <v>111896618</v>
       </c>
       <c r="B119" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14245,21 +14245,21 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -14269,10 +14269,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>574304.6397298749</v>
+        <v>574291.9436535498</v>
       </c>
       <c r="R119" t="n">
-        <v>6703447.439264891</v>
+        <v>6703488.13161656</v>
       </c>
       <c r="S119" t="n">
         <v>25</v>
@@ -14341,10 +14341,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111896703</v>
+        <v>111896625</v>
       </c>
       <c r="B120" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14357,21 +14357,21 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14381,10 +14381,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>574309.5943644949</v>
+        <v>574335.1915376212</v>
       </c>
       <c r="R120" t="n">
-        <v>6703519.084753582</v>
+        <v>6703403.659053097</v>
       </c>
       <c r="S120" t="n">
         <v>25</v>
@@ -14453,7 +14453,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111896709</v>
+        <v>111896695</v>
       </c>
       <c r="B121" t="n">
         <v>98535</v>
@@ -14493,10 +14493,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>574319.8910472075</v>
+        <v>574528.5483397129</v>
       </c>
       <c r="R121" t="n">
-        <v>6703354.496443897</v>
+        <v>6703446.119582187</v>
       </c>
       <c r="S121" t="n">
         <v>25</v>
@@ -14565,10 +14565,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111896621</v>
+        <v>111896706</v>
       </c>
       <c r="B122" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14581,21 +14581,21 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -14605,10 +14605,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>574319.8505595494</v>
+        <v>574290.1295200255</v>
       </c>
       <c r="R122" t="n">
-        <v>6703356.46930531</v>
+        <v>6703480.199912106</v>
       </c>
       <c r="S122" t="n">
         <v>25</v>
@@ -14790,10 +14790,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111885375</v>
+        <v>111886321</v>
       </c>
       <c r="B124" t="n">
-        <v>90332</v>
+        <v>99413</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14806,21 +14806,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14866,7 +14866,7 @@
       </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA124" t="inlineStr">
@@ -14876,7 +14876,7 @@
       </c>
       <c r="AB124" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD124" t="b">
@@ -14903,10 +14903,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111886321</v>
+        <v>111885375</v>
       </c>
       <c r="B125" t="n">
-        <v>99413</v>
+        <v>90332</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14919,21 +14919,21 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>221235</v>
+        <v>4769</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -14979,7 +14979,7 @@
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
@@ -14989,7 +14989,7 @@
       </c>
       <c r="AB125" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD125" t="b">

--- a/artfynd/A 14918-2023.xlsx
+++ b/artfynd/A 14918-2023.xlsx
@@ -7120,10 +7120,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111896710</v>
+        <v>111886738</v>
       </c>
       <c r="B56" t="n">
-        <v>98535</v>
+        <v>90684</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7132,41 +7132,42 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>222498</v>
+        <v>4368</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>574289.9830554068</v>
+        <v>574247.2374925215</v>
       </c>
       <c r="R56" t="n">
-        <v>6703415.066736702</v>
+        <v>6703547.409599461</v>
       </c>
       <c r="S56" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7195,7 +7196,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7205,7 +7206,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7220,19 +7221,19 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111896697</v>
+        <v>111896717</v>
       </c>
       <c r="B57" t="n">
         <v>98535</v>
@@ -7272,10 +7273,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>574252.510194034</v>
+        <v>574371.1760314812</v>
       </c>
       <c r="R57" t="n">
-        <v>6703386.666867712</v>
+        <v>6703384.167737775</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7344,10 +7345,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111896611</v>
+        <v>111896710</v>
       </c>
       <c r="B58" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7360,21 +7361,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7384,10 +7385,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>574271.5155704983</v>
+        <v>574289.9830554068</v>
       </c>
       <c r="R58" t="n">
-        <v>6703375.707959844</v>
+        <v>6703415.066736702</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7456,10 +7457,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111886738</v>
+        <v>111896712</v>
       </c>
       <c r="B59" t="n">
-        <v>90684</v>
+        <v>98535</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7468,42 +7469,41 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4368</v>
+        <v>222498</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>574247.2374925215</v>
+        <v>574311.7886614093</v>
       </c>
       <c r="R59" t="n">
-        <v>6703547.409599461</v>
+        <v>6703436.237499412</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7557,22 +7557,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111896717</v>
+        <v>111896651</v>
       </c>
       <c r="B60" t="n">
-        <v>98535</v>
+        <v>89183</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7585,21 +7585,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>222498</v>
+        <v>3215</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7609,10 +7609,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>574371.1760314812</v>
+        <v>574442.2963542459</v>
       </c>
       <c r="R60" t="n">
-        <v>6703384.167737775</v>
+        <v>6703458.654406736</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7681,7 +7681,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111896712</v>
+        <v>111896697</v>
       </c>
       <c r="B61" t="n">
         <v>98535</v>
@@ -7721,10 +7721,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>574311.7886614093</v>
+        <v>574252.510194034</v>
       </c>
       <c r="R61" t="n">
-        <v>6703436.237499412</v>
+        <v>6703386.666867712</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7793,10 +7793,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111896651</v>
+        <v>111896611</v>
       </c>
       <c r="B62" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7809,21 +7809,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7833,10 +7833,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>574442.2963542459</v>
+        <v>574271.5155704983</v>
       </c>
       <c r="R62" t="n">
-        <v>6703458.654406736</v>
+        <v>6703375.707959844</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -9368,10 +9368,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111886424</v>
+        <v>111896714</v>
       </c>
       <c r="B76" t="n">
-        <v>88899</v>
+        <v>98535</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9380,48 +9380,38 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>3286</v>
+        <v>222498</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>574278.5667425465</v>
+        <v>574320.3710326073</v>
       </c>
       <c r="R76" t="n">
-        <v>6703465.653919976</v>
+        <v>6703403.354864516</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9478,22 +9468,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111896714</v>
+        <v>111896632</v>
       </c>
       <c r="B77" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9506,21 +9496,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9530,10 +9520,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>574320.3710326073</v>
+        <v>574468.9496102105</v>
       </c>
       <c r="R77" t="n">
-        <v>6703403.354864516</v>
+        <v>6703484.36623429</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9602,10 +9592,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111896632</v>
+        <v>111886424</v>
       </c>
       <c r="B78" t="n">
-        <v>90332</v>
+        <v>88899</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9614,38 +9604,48 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>574468.9496102105</v>
+        <v>574278.5667425465</v>
       </c>
       <c r="R78" t="n">
-        <v>6703484.36623429</v>
+        <v>6703465.653919976</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9702,19 +9702,19 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111896699</v>
+        <v>111886390</v>
       </c>
       <c r="B79" t="n">
         <v>98535</v>
@@ -9748,19 +9748,20 @@
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>574219.1872449504</v>
+        <v>574320.5008898397</v>
       </c>
       <c r="R79" t="n">
-        <v>6703421.016299267</v>
+        <v>6703541.511550271</v>
       </c>
       <c r="S79" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -9789,7 +9790,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9799,7 +9800,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9814,22 +9815,22 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111896607</v>
+        <v>111896699</v>
       </c>
       <c r="B80" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9842,21 +9843,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9866,10 +9867,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>574466.8489239614</v>
+        <v>574219.1872449504</v>
       </c>
       <c r="R80" t="n">
-        <v>6703514.4207107</v>
+        <v>6703421.016299267</v>
       </c>
       <c r="S80" t="n">
         <v>25</v>
@@ -9938,10 +9939,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111896691</v>
+        <v>111896607</v>
       </c>
       <c r="B81" t="n">
-        <v>90684</v>
+        <v>90332</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9950,25 +9951,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4368</v>
+        <v>4769</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9978,10 +9979,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>574527.49941562</v>
+        <v>574466.8489239614</v>
       </c>
       <c r="R81" t="n">
-        <v>6703449.058466445</v>
+        <v>6703514.4207107</v>
       </c>
       <c r="S81" t="n">
         <v>25</v>
@@ -10050,10 +10051,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111896590</v>
+        <v>111896691</v>
       </c>
       <c r="B82" t="n">
-        <v>101141</v>
+        <v>90684</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10062,25 +10063,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>222002</v>
+        <v>4368</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10090,10 +10091,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>574319.3829989098</v>
+        <v>574527.49941562</v>
       </c>
       <c r="R82" t="n">
-        <v>6703403.334587433</v>
+        <v>6703449.058466445</v>
       </c>
       <c r="S82" t="n">
         <v>25</v>
@@ -10162,10 +10163,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111896709</v>
+        <v>111896590</v>
       </c>
       <c r="B83" t="n">
-        <v>98535</v>
+        <v>101141</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10178,21 +10179,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -10202,10 +10203,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>574319.8910472075</v>
+        <v>574319.3829989098</v>
       </c>
       <c r="R83" t="n">
-        <v>6703354.496443897</v>
+        <v>6703403.334587433</v>
       </c>
       <c r="S83" t="n">
         <v>25</v>
@@ -10274,10 +10275,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111896615</v>
+        <v>111896709</v>
       </c>
       <c r="B84" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10290,21 +10291,21 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -10314,10 +10315,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>574241.4048918699</v>
+        <v>574319.8910472075</v>
       </c>
       <c r="R84" t="n">
-        <v>6703470.319338148</v>
+        <v>6703354.496443897</v>
       </c>
       <c r="S84" t="n">
         <v>25</v>
@@ -10386,10 +10387,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111896715</v>
+        <v>111896615</v>
       </c>
       <c r="B85" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10402,21 +10403,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10426,10 +10427,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>574335.2117857126</v>
+        <v>574241.4048918699</v>
       </c>
       <c r="R85" t="n">
-        <v>6703402.672635308</v>
+        <v>6703470.319338148</v>
       </c>
       <c r="S85" t="n">
         <v>25</v>
@@ -10498,10 +10499,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111886835</v>
+        <v>111896715</v>
       </c>
       <c r="B86" t="n">
-        <v>86223</v>
+        <v>98535</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10510,39 +10511,38 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4412</v>
+        <v>222498</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>574230.0863521076</v>
+        <v>574335.2117857126</v>
       </c>
       <c r="R86" t="n">
-        <v>6703588.503049062</v>
+        <v>6703402.672635308</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -10574,7 +10574,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -10584,7 +10584,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10599,22 +10599,22 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111886390</v>
+        <v>111886835</v>
       </c>
       <c r="B87" t="n">
-        <v>98535</v>
+        <v>86223</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10623,42 +10623,42 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>222498</v>
+        <v>4412</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>574320.5008898397</v>
+        <v>574230.0863521076</v>
       </c>
       <c r="R87" t="n">
-        <v>6703541.511550271</v>
+        <v>6703588.503049062</v>
       </c>
       <c r="S87" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10712,12 +10712,12 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
@@ -11285,10 +11285,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111884952</v>
+        <v>111896624</v>
       </c>
       <c r="B93" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11301,35 +11301,34 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>574448.7809475841</v>
+        <v>574320.3710326073</v>
       </c>
       <c r="R93" t="n">
-        <v>6703527.864445598</v>
+        <v>6703403.354864516</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11386,22 +11385,22 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111886329</v>
+        <v>111896587</v>
       </c>
       <c r="B94" t="n">
-        <v>90687</v>
+        <v>101141</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11414,35 +11413,34 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>5964</v>
+        <v>222002</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>574258.1186801053</v>
+        <v>574292.2757661514</v>
       </c>
       <c r="R94" t="n">
-        <v>6703498.786127698</v>
+        <v>6703496.032899947</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11499,22 +11497,22 @@
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111885762</v>
+        <v>111896711</v>
       </c>
       <c r="B95" t="n">
-        <v>90295</v>
+        <v>98535</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11527,35 +11525,34 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4740</v>
+        <v>222498</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Sotriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Lactarius lignyotus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>574311.748177869</v>
+        <v>574304.6397298749</v>
       </c>
       <c r="R95" t="n">
-        <v>6703438.210316412</v>
+        <v>6703447.439264891</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11612,22 +11609,22 @@
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111896624</v>
+        <v>111896680</v>
       </c>
       <c r="B96" t="n">
-        <v>90332</v>
+        <v>88966</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11636,38 +11633,49 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>574320.3710326073</v>
+        <v>574323.5395620605</v>
       </c>
       <c r="R96" t="n">
-        <v>6703403.354864516</v>
+        <v>6703369.373988308</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11718,6 +11726,7 @@
       <c r="AE96" t="b">
         <v>0</v>
       </c>
+      <c r="AF96" t="inlineStr"/>
       <c r="AG96" t="b">
         <v>0</v>
       </c>
@@ -11736,10 +11745,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111896587</v>
+        <v>111896622</v>
       </c>
       <c r="B97" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11752,21 +11761,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11776,10 +11785,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>574292.2757661514</v>
+        <v>574283.0263743812</v>
       </c>
       <c r="R97" t="n">
-        <v>6703496.032899947</v>
+        <v>6703416.897689151</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11848,10 +11857,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111896711</v>
+        <v>111896588</v>
       </c>
       <c r="B98" t="n">
-        <v>98535</v>
+        <v>101141</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11864,21 +11873,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11888,10 +11897,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>574304.6397298749</v>
+        <v>574305.4658307037</v>
       </c>
       <c r="R98" t="n">
-        <v>6703447.439264891</v>
+        <v>6703455.350775132</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11960,10 +11969,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111896680</v>
+        <v>111896602</v>
       </c>
       <c r="B99" t="n">
-        <v>88966</v>
+        <v>56543</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11976,34 +11985,31 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>5754</v>
+        <v>103021</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="N99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
@@ -12011,10 +12017,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>574323.5395620605</v>
+        <v>574317.3462017868</v>
       </c>
       <c r="R99" t="n">
-        <v>6703369.373988308</v>
+        <v>6703406.253286039</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -12065,7 +12071,6 @@
       <c r="AE99" t="b">
         <v>0</v>
       </c>
-      <c r="AF99" t="inlineStr"/>
       <c r="AG99" t="b">
         <v>0</v>
       </c>
@@ -12084,10 +12089,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111896622</v>
+        <v>111884952</v>
       </c>
       <c r="B100" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12100,34 +12105,35 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>574283.0263743812</v>
+        <v>574448.7809475841</v>
       </c>
       <c r="R100" t="n">
-        <v>6703416.897689151</v>
+        <v>6703527.864445598</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -12184,22 +12190,22 @@
       <c r="AT100" t="inlineStr"/>
       <c r="AW100" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX100" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111896588</v>
+        <v>111886329</v>
       </c>
       <c r="B101" t="n">
-        <v>101141</v>
+        <v>90687</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12212,34 +12218,35 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>222002</v>
+        <v>5964</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>574305.4658307037</v>
+        <v>574258.1186801053</v>
       </c>
       <c r="R101" t="n">
-        <v>6703455.350775132</v>
+        <v>6703498.786127698</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -12296,22 +12303,22 @@
       <c r="AT101" t="inlineStr"/>
       <c r="AW101" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX101" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111896602</v>
+        <v>111885762</v>
       </c>
       <c r="B102" t="n">
-        <v>56543</v>
+        <v>90295</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12320,46 +12327,39 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>103021</v>
+        <v>4740</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Sotriska</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lactarius lignyotus</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>574317.3462017868</v>
+        <v>574311.748177869</v>
       </c>
       <c r="R102" t="n">
-        <v>6703406.253286039</v>
+        <v>6703438.210316412</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12416,12 +12416,12 @@
       <c r="AT102" t="inlineStr"/>
       <c r="AW102" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr"/>

--- a/artfynd/A 14918-2023.xlsx
+++ b/artfynd/A 14918-2023.xlsx
@@ -5537,10 +5537,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111886848</v>
+        <v>111896682</v>
       </c>
       <c r="B42" t="n">
-        <v>86223</v>
+        <v>88966</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5553,38 +5553,37 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4412</v>
+        <v>5754</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>574236.8404598181</v>
+        <v>574256.1442139128</v>
       </c>
       <c r="R42" t="n">
-        <v>6703596.535755535</v>
+        <v>6703474.568800534</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5613,7 +5612,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5623,7 +5622,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5638,22 +5637,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111896681</v>
+        <v>111896614</v>
       </c>
       <c r="B43" t="n">
-        <v>88966</v>
+        <v>90332</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5662,49 +5661,38 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>574330.7595642635</v>
+        <v>574228.885558943</v>
       </c>
       <c r="R43" t="n">
-        <v>6703354.719507183</v>
+        <v>6703430.096512586</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5755,7 +5743,6 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -5774,7 +5761,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111896684</v>
+        <v>111896680</v>
       </c>
       <c r="B44" t="n">
         <v>88966</v>
@@ -5807,17 +5794,28 @@
           <t>(Bres.) Corner</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>574298.5092178418</v>
+        <v>574323.5395620605</v>
       </c>
       <c r="R44" t="n">
-        <v>6703457.181675683</v>
+        <v>6703369.373988308</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5868,6 +5866,7 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -5886,10 +5885,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111896623</v>
+        <v>111896580</v>
       </c>
       <c r="B45" t="n">
-        <v>90332</v>
+        <v>99413</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5902,21 +5901,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5926,10 +5925,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>574295.9517128408</v>
+        <v>574256.1644406004</v>
       </c>
       <c r="R45" t="n">
-        <v>6703413.21552579</v>
+        <v>6703473.582402139</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5998,10 +5997,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111896627</v>
+        <v>111896700</v>
       </c>
       <c r="B46" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6014,21 +6013,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -6038,10 +6037,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>574373.314176796</v>
+        <v>574211.4523542383</v>
       </c>
       <c r="R46" t="n">
-        <v>6703376.316927806</v>
+        <v>6703460.82405555</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -6110,10 +6109,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111896703</v>
+        <v>111896631</v>
       </c>
       <c r="B47" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6126,21 +6125,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6150,10 +6149,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>574309.5943644949</v>
+        <v>574455.6288491808</v>
       </c>
       <c r="R47" t="n">
-        <v>6703519.084753582</v>
+        <v>6703507.28235705</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6222,10 +6221,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111896648</v>
+        <v>111896624</v>
       </c>
       <c r="B48" t="n">
-        <v>78512</v>
+        <v>90332</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6238,21 +6237,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6456</v>
+        <v>4769</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6262,10 +6261,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>574527.773473482</v>
+        <v>574320.3710326073</v>
       </c>
       <c r="R48" t="n">
-        <v>6703435.741965486</v>
+        <v>6703403.354864516</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6316,7 +6315,6 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6335,10 +6333,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111896702</v>
+        <v>111886372</v>
       </c>
       <c r="B49" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6351,34 +6349,35 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>574285.1168916271</v>
+        <v>574261.3270212604</v>
       </c>
       <c r="R49" t="n">
-        <v>6703507.727709529</v>
+        <v>6703462.833304818</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6435,22 +6434,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111896608</v>
+        <v>111884952</v>
       </c>
       <c r="B50" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6463,34 +6462,35 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>574450.5671428492</v>
+        <v>574448.7809475841</v>
       </c>
       <c r="R50" t="n">
-        <v>6703513.099122572</v>
+        <v>6703527.864445598</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6547,19 +6547,19 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111896704</v>
+        <v>111886390</v>
       </c>
       <c r="B51" t="n">
         <v>98535</v>
@@ -6593,19 +6593,20 @@
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>574300.0179232516</v>
+        <v>574320.5008898397</v>
       </c>
       <c r="R51" t="n">
-        <v>6703504.086197484</v>
+        <v>6703541.511550271</v>
       </c>
       <c r="S51" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6634,7 +6635,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6644,7 +6645,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6659,22 +6660,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111896683</v>
+        <v>111886848</v>
       </c>
       <c r="B52" t="n">
-        <v>88966</v>
+        <v>86223</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6687,37 +6688,38 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5754</v>
+        <v>4412</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>574289.1415073492</v>
+        <v>574236.8404598181</v>
       </c>
       <c r="R52" t="n">
-        <v>6703480.179643137</v>
+        <v>6703596.535755535</v>
       </c>
       <c r="S52" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6746,7 +6748,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6756,7 +6758,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6771,22 +6773,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111896713</v>
+        <v>111896691</v>
       </c>
       <c r="B53" t="n">
-        <v>98535</v>
+        <v>90684</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6795,25 +6797,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>222498</v>
+        <v>4368</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6823,10 +6825,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>574333.7783005711</v>
+        <v>574527.49941562</v>
       </c>
       <c r="R53" t="n">
-        <v>6703424.353483723</v>
+        <v>6703449.058466445</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6895,7 +6897,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111896621</v>
+        <v>111896608</v>
       </c>
       <c r="B54" t="n">
         <v>90332</v>
@@ -6935,10 +6937,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>574319.8505595494</v>
+        <v>574450.5671428492</v>
       </c>
       <c r="R54" t="n">
-        <v>6703356.46930531</v>
+        <v>6703513.099122572</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -7007,7 +7009,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111886498</v>
+        <v>111896695</v>
       </c>
       <c r="B55" t="n">
         <v>98535</v>
@@ -7041,20 +7043,19 @@
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>574333.7396710602</v>
+        <v>574528.5483397129</v>
       </c>
       <c r="R55" t="n">
-        <v>6703522.540716695</v>
+        <v>6703446.119582187</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -7083,7 +7084,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -7093,7 +7094,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7108,22 +7109,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111886738</v>
+        <v>111886358</v>
       </c>
       <c r="B56" t="n">
-        <v>90684</v>
+        <v>101703</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7132,39 +7133,39 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4368</v>
+        <v>222412</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>574247.2374925215</v>
+        <v>574377.5537716877</v>
       </c>
       <c r="R56" t="n">
-        <v>6703547.409599461</v>
+        <v>6703530.841373169</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -7196,7 +7197,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7206,7 +7207,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7233,7 +7234,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111896717</v>
+        <v>111896704</v>
       </c>
       <c r="B57" t="n">
         <v>98535</v>
@@ -7273,10 +7274,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>574371.1760314812</v>
+        <v>574300.0179232516</v>
       </c>
       <c r="R57" t="n">
-        <v>6703384.167737775</v>
+        <v>6703504.086197484</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7345,10 +7346,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111896710</v>
+        <v>111896607</v>
       </c>
       <c r="B58" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7361,21 +7362,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7385,10 +7386,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>574289.9830554068</v>
+        <v>574466.8489239614</v>
       </c>
       <c r="R58" t="n">
-        <v>6703415.066736702</v>
+        <v>6703514.4207107</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7457,10 +7458,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111896712</v>
+        <v>111896581</v>
       </c>
       <c r="B59" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7473,21 +7474,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7497,10 +7498,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>574311.7886614093</v>
+        <v>574333.7783005711</v>
       </c>
       <c r="R59" t="n">
-        <v>6703436.237499412</v>
+        <v>6703424.353483723</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7569,10 +7570,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111896651</v>
+        <v>111896620</v>
       </c>
       <c r="B60" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7585,21 +7586,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7609,10 +7610,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>574442.2963542459</v>
+        <v>574292.6013405366</v>
       </c>
       <c r="R60" t="n">
-        <v>6703458.654406736</v>
+        <v>6703456.073649234</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7681,10 +7682,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111896697</v>
+        <v>111896681</v>
       </c>
       <c r="B61" t="n">
-        <v>98535</v>
+        <v>88966</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7693,38 +7694,49 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>574252.510194034</v>
+        <v>574330.7595642635</v>
       </c>
       <c r="R61" t="n">
-        <v>6703386.666867712</v>
+        <v>6703354.719507183</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7775,6 +7787,7 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
+      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -7793,10 +7806,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111896611</v>
+        <v>111896708</v>
       </c>
       <c r="B62" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7809,21 +7822,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7833,10 +7846,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>574271.5155704983</v>
+        <v>574325.6696152951</v>
       </c>
       <c r="R62" t="n">
-        <v>6703375.707959844</v>
+        <v>6703458.23244116</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7905,10 +7918,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111896671</v>
+        <v>111896707</v>
       </c>
       <c r="B63" t="n">
-        <v>85253</v>
+        <v>98535</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7921,21 +7934,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3674</v>
+        <v>222498</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7945,10 +7958,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>574320.3305445107</v>
+        <v>574304.4575714046</v>
       </c>
       <c r="R63" t="n">
-        <v>6703405.327699401</v>
+        <v>6703456.31690546</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7999,7 +8012,6 @@
       <c r="AE63" t="b">
         <v>0</v>
       </c>
-      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
@@ -8018,10 +8030,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111896668</v>
+        <v>111896683</v>
       </c>
       <c r="B64" t="n">
-        <v>85089</v>
+        <v>88966</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8030,25 +8042,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3762</v>
+        <v>5754</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8058,10 +8070,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>574317.8180265825</v>
+        <v>574289.1415073492</v>
       </c>
       <c r="R64" t="n">
-        <v>6703431.427106799</v>
+        <v>6703480.179643137</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -8130,10 +8142,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111896630</v>
+        <v>111896717</v>
       </c>
       <c r="B65" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8146,21 +8158,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8170,10 +8182,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>574436.8751361333</v>
+        <v>574371.1760314812</v>
       </c>
       <c r="R65" t="n">
-        <v>6703433.872390999</v>
+        <v>6703384.167737775</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8242,10 +8254,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111885842</v>
+        <v>111886713</v>
       </c>
       <c r="B66" t="n">
-        <v>101141</v>
+        <v>90684</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8254,39 +8266,39 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>222002</v>
+        <v>4368</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>574289.9628196132</v>
+        <v>574267.3295348831</v>
       </c>
       <c r="R66" t="n">
-        <v>6703416.053151045</v>
+        <v>6703555.715953856</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8355,10 +8367,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111886358</v>
+        <v>111896668</v>
       </c>
       <c r="B67" t="n">
-        <v>101703</v>
+        <v>85089</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8371,38 +8383,37 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>222412</v>
+        <v>3762</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>574377.5537716877</v>
+        <v>574317.8180265825</v>
       </c>
       <c r="R67" t="n">
-        <v>6703530.841373169</v>
+        <v>6703431.427106799</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8431,7 +8442,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8441,7 +8452,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8456,12 +8467,12 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
@@ -8581,10 +8592,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111896581</v>
+        <v>111896703</v>
       </c>
       <c r="B69" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8597,21 +8608,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8621,10 +8632,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>574333.7783005711</v>
+        <v>574309.5943644949</v>
       </c>
       <c r="R69" t="n">
-        <v>6703424.353483723</v>
+        <v>6703519.084753582</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8693,10 +8704,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111896620</v>
+        <v>111896602</v>
       </c>
       <c r="B70" t="n">
-        <v>90332</v>
+        <v>56543</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8705,38 +8716,46 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4769</v>
+        <v>103021</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>574292.6013405366</v>
+        <v>574317.3462017868</v>
       </c>
       <c r="R70" t="n">
-        <v>6703456.073649234</v>
+        <v>6703406.253286039</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8805,10 +8824,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111896696</v>
+        <v>111896627</v>
       </c>
       <c r="B71" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8821,21 +8840,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8845,10 +8864,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>574272.5440735799</v>
+        <v>574373.314176796</v>
       </c>
       <c r="R71" t="n">
-        <v>6703373.755373025</v>
+        <v>6703376.316927806</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8917,10 +8936,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111896707</v>
+        <v>111896615</v>
       </c>
       <c r="B72" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8933,21 +8952,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8957,10 +8976,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>574304.4575714046</v>
+        <v>574241.4048918699</v>
       </c>
       <c r="R72" t="n">
-        <v>6703456.31690546</v>
+        <v>6703470.319338148</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -9029,10 +9048,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111896669</v>
+        <v>111896706</v>
       </c>
       <c r="B73" t="n">
-        <v>85253</v>
+        <v>98535</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9045,21 +9064,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3674</v>
+        <v>222498</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9069,10 +9088,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>574252.2932853762</v>
+        <v>574290.1295200255</v>
       </c>
       <c r="R73" t="n">
-        <v>6703469.555768683</v>
+        <v>6703480.199912106</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -9123,7 +9142,6 @@
       <c r="AE73" t="b">
         <v>0</v>
       </c>
-      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>
@@ -9142,10 +9160,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111886372</v>
+        <v>111896648</v>
       </c>
       <c r="B74" t="n">
-        <v>90687</v>
+        <v>78512</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9158,35 +9176,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5964</v>
+        <v>6456</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>574261.3270212604</v>
+        <v>574527.773473482</v>
       </c>
       <c r="R74" t="n">
-        <v>6703462.833304818</v>
+        <v>6703435.741965486</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -9237,28 +9254,29 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111886713</v>
+        <v>111896697</v>
       </c>
       <c r="B75" t="n">
-        <v>90684</v>
+        <v>98535</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9267,39 +9285,38 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4368</v>
+        <v>222498</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>574267.3295348831</v>
+        <v>574252.510194034</v>
       </c>
       <c r="R75" t="n">
-        <v>6703555.715953856</v>
+        <v>6703386.666867712</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9356,22 +9373,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111896714</v>
+        <v>111896618</v>
       </c>
       <c r="B76" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9384,21 +9401,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9408,10 +9425,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>574320.3710326073</v>
+        <v>574291.9436535498</v>
       </c>
       <c r="R76" t="n">
-        <v>6703403.354864516</v>
+        <v>6703488.13161656</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9480,7 +9497,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111896632</v>
+        <v>111896619</v>
       </c>
       <c r="B77" t="n">
         <v>90332</v>
@@ -9520,10 +9537,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>574468.9496102105</v>
+        <v>574270.6945951059</v>
       </c>
       <c r="R77" t="n">
-        <v>6703484.36623429</v>
+        <v>6703439.835159265</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9592,10 +9609,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111886424</v>
+        <v>111896651</v>
       </c>
       <c r="B78" t="n">
-        <v>88899</v>
+        <v>89183</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9604,48 +9621,38 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3286</v>
+        <v>3215</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>574278.5667425465</v>
+        <v>574442.2963542459</v>
       </c>
       <c r="R78" t="n">
-        <v>6703465.653919976</v>
+        <v>6703458.654406736</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9702,22 +9709,22 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111886390</v>
+        <v>111896685</v>
       </c>
       <c r="B79" t="n">
-        <v>98535</v>
+        <v>88966</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9726,42 +9733,41 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>574320.5008898397</v>
+        <v>574341.6196639308</v>
       </c>
       <c r="R79" t="n">
-        <v>6703541.511550271</v>
+        <v>6703451.652109961</v>
       </c>
       <c r="S79" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -9790,7 +9796,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9800,7 +9806,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9815,22 +9821,22 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111896699</v>
+        <v>111896669</v>
       </c>
       <c r="B80" t="n">
-        <v>98535</v>
+        <v>85253</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9843,21 +9849,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>222498</v>
+        <v>3674</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9867,10 +9873,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>574219.1872449504</v>
+        <v>574252.2932853762</v>
       </c>
       <c r="R80" t="n">
-        <v>6703421.016299267</v>
+        <v>6703469.555768683</v>
       </c>
       <c r="S80" t="n">
         <v>25</v>
@@ -9921,6 +9927,7 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
+      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -9939,10 +9946,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111896607</v>
+        <v>111896702</v>
       </c>
       <c r="B81" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9955,21 +9962,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9979,10 +9986,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>574466.8489239614</v>
+        <v>574285.1168916271</v>
       </c>
       <c r="R81" t="n">
-        <v>6703514.4207107</v>
+        <v>6703507.727709529</v>
       </c>
       <c r="S81" t="n">
         <v>25</v>
@@ -10051,10 +10058,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111896691</v>
+        <v>111896588</v>
       </c>
       <c r="B82" t="n">
-        <v>90684</v>
+        <v>101141</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10063,25 +10070,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4368</v>
+        <v>222002</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10091,10 +10098,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>574527.49941562</v>
+        <v>574305.4658307037</v>
       </c>
       <c r="R82" t="n">
-        <v>6703449.058466445</v>
+        <v>6703455.350775132</v>
       </c>
       <c r="S82" t="n">
         <v>25</v>
@@ -10163,10 +10170,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111896590</v>
+        <v>111896715</v>
       </c>
       <c r="B83" t="n">
-        <v>101141</v>
+        <v>98535</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10179,21 +10186,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -10203,10 +10210,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>574319.3829989098</v>
+        <v>574335.2117857126</v>
       </c>
       <c r="R83" t="n">
-        <v>6703403.334587433</v>
+        <v>6703402.672635308</v>
       </c>
       <c r="S83" t="n">
         <v>25</v>
@@ -10275,10 +10282,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111896709</v>
+        <v>111896632</v>
       </c>
       <c r="B84" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10291,21 +10298,21 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -10315,10 +10322,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>574319.8910472075</v>
+        <v>574468.9496102105</v>
       </c>
       <c r="R84" t="n">
-        <v>6703354.496443897</v>
+        <v>6703484.36623429</v>
       </c>
       <c r="S84" t="n">
         <v>25</v>
@@ -10387,7 +10394,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111896615</v>
+        <v>111896623</v>
       </c>
       <c r="B85" t="n">
         <v>90332</v>
@@ -10427,10 +10434,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>574241.4048918699</v>
+        <v>574295.9517128408</v>
       </c>
       <c r="R85" t="n">
-        <v>6703470.319338148</v>
+        <v>6703413.21552579</v>
       </c>
       <c r="S85" t="n">
         <v>25</v>
@@ -10499,10 +10506,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111896715</v>
+        <v>111886835</v>
       </c>
       <c r="B86" t="n">
-        <v>98535</v>
+        <v>86223</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10511,38 +10518,39 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>222498</v>
+        <v>4412</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>574335.2117857126</v>
+        <v>574230.0863521076</v>
       </c>
       <c r="R86" t="n">
-        <v>6703402.672635308</v>
+        <v>6703588.503049062</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -10574,7 +10582,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -10584,7 +10592,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10599,22 +10607,22 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111886835</v>
+        <v>111896713</v>
       </c>
       <c r="B87" t="n">
-        <v>86223</v>
+        <v>98535</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10623,39 +10631,38 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4412</v>
+        <v>222498</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>574230.0863521076</v>
+        <v>574333.7783005711</v>
       </c>
       <c r="R87" t="n">
-        <v>6703588.503049062</v>
+        <v>6703424.353483723</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10687,7 +10694,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -10697,7 +10704,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10712,22 +10719,22 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111896619</v>
+        <v>111896601</v>
       </c>
       <c r="B88" t="n">
-        <v>90332</v>
+        <v>56543</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10736,38 +10743,46 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>4769</v>
+        <v>103021</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>574270.6945951059</v>
+        <v>574287.6814794211</v>
       </c>
       <c r="R88" t="n">
-        <v>6703439.835159265</v>
+        <v>6703454.985900432</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10836,7 +10851,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111896610</v>
+        <v>111896616</v>
       </c>
       <c r="B89" t="n">
         <v>90332</v>
@@ -10876,10 +10891,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>574272.2591996479</v>
+        <v>574249.2078899746</v>
       </c>
       <c r="R89" t="n">
-        <v>6703411.74269451</v>
+        <v>6703475.413386551</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10948,10 +10963,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111885492</v>
+        <v>111896590</v>
       </c>
       <c r="B90" t="n">
-        <v>99413</v>
+        <v>101141</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10964,35 +10979,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>221235</v>
+        <v>222002</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>574346.6812743739</v>
+        <v>574319.3829989098</v>
       </c>
       <c r="R90" t="n">
-        <v>6703445.835096321</v>
+        <v>6703403.334587433</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -11049,22 +11063,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111896701</v>
+        <v>111886198</v>
       </c>
       <c r="B91" t="n">
-        <v>98535</v>
+        <v>88966</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11073,38 +11087,39 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>574223.5713984326</v>
+        <v>574244.409384649</v>
       </c>
       <c r="R91" t="n">
-        <v>6703448.24379926</v>
+        <v>6703468.407307444</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -11161,19 +11176,19 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111896700</v>
+        <v>111896701</v>
       </c>
       <c r="B92" t="n">
         <v>98535</v>
@@ -11213,10 +11228,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>574211.4523542383</v>
+        <v>574223.5713984326</v>
       </c>
       <c r="R92" t="n">
-        <v>6703460.82405555</v>
+        <v>6703448.24379926</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -11285,10 +11300,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111896624</v>
+        <v>111896684</v>
       </c>
       <c r="B93" t="n">
-        <v>90332</v>
+        <v>88966</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11297,25 +11312,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11325,10 +11340,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>574320.3710326073</v>
+        <v>574298.5092178418</v>
       </c>
       <c r="R93" t="n">
-        <v>6703403.354864516</v>
+        <v>6703457.181675683</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11397,10 +11412,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111896587</v>
+        <v>111896611</v>
       </c>
       <c r="B94" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11413,21 +11428,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11437,10 +11452,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>574292.2757661514</v>
+        <v>574271.5155704983</v>
       </c>
       <c r="R94" t="n">
-        <v>6703496.032899947</v>
+        <v>6703375.707959844</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11509,7 +11524,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111896711</v>
+        <v>111896716</v>
       </c>
       <c r="B95" t="n">
         <v>98535</v>
@@ -11549,10 +11564,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>574304.6397298749</v>
+        <v>574337.5017077615</v>
       </c>
       <c r="R95" t="n">
-        <v>6703447.439264891</v>
+        <v>6703387.423688528</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11621,10 +11636,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111896680</v>
+        <v>111896714</v>
       </c>
       <c r="B96" t="n">
-        <v>88966</v>
+        <v>98535</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11633,49 +11648,38 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>574323.5395620605</v>
+        <v>574320.3710326073</v>
       </c>
       <c r="R96" t="n">
-        <v>6703369.373988308</v>
+        <v>6703403.354864516</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11726,7 +11730,6 @@
       <c r="AE96" t="b">
         <v>0</v>
       </c>
-      <c r="AF96" t="inlineStr"/>
       <c r="AG96" t="b">
         <v>0</v>
       </c>
@@ -11745,10 +11748,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111896622</v>
+        <v>111896671</v>
       </c>
       <c r="B97" t="n">
-        <v>90332</v>
+        <v>85253</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11761,21 +11764,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>4769</v>
+        <v>3674</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11785,10 +11788,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>574283.0263743812</v>
+        <v>574320.3305445107</v>
       </c>
       <c r="R97" t="n">
-        <v>6703416.897689151</v>
+        <v>6703405.327699401</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11839,6 +11842,7 @@
       <c r="AE97" t="b">
         <v>0</v>
       </c>
+      <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="b">
         <v>0</v>
       </c>
@@ -11857,10 +11861,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111896588</v>
+        <v>111896650</v>
       </c>
       <c r="B98" t="n">
-        <v>101141</v>
+        <v>89183</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11873,21 +11877,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>222002</v>
+        <v>3215</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11897,10 +11901,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>574305.4658307037</v>
+        <v>574250.0745535446</v>
       </c>
       <c r="R98" t="n">
-        <v>6703455.350775132</v>
+        <v>6703481.352027887</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11969,10 +11973,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111896602</v>
+        <v>111896617</v>
       </c>
       <c r="B99" t="n">
-        <v>56543</v>
+        <v>90332</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11981,46 +11985,38 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>103021</v>
+        <v>4769</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>574317.3462017868</v>
+        <v>574269.0777989432</v>
       </c>
       <c r="R99" t="n">
-        <v>6703406.253286039</v>
+        <v>6703494.570243312</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -12089,10 +12085,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111884952</v>
+        <v>111896589</v>
       </c>
       <c r="B100" t="n">
-        <v>98535</v>
+        <v>101141</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12105,35 +12101,34 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>574448.7809475841</v>
+        <v>574319.8708033765</v>
       </c>
       <c r="R100" t="n">
-        <v>6703527.864445598</v>
+        <v>6703355.482874738</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -12190,22 +12185,22 @@
       <c r="AT100" t="inlineStr"/>
       <c r="AW100" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX100" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111886329</v>
+        <v>111896621</v>
       </c>
       <c r="B101" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12218,35 +12213,34 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>574258.1186801053</v>
+        <v>574319.8505595494</v>
       </c>
       <c r="R101" t="n">
-        <v>6703498.786127698</v>
+        <v>6703356.46930531</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -12303,22 +12297,22 @@
       <c r="AT101" t="inlineStr"/>
       <c r="AW101" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX101" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111885762</v>
+        <v>111896630</v>
       </c>
       <c r="B102" t="n">
-        <v>90295</v>
+        <v>90332</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12331,35 +12325,34 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>4740</v>
+        <v>4769</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Sotriska</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Lactarius lignyotus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>574311.748177869</v>
+        <v>574436.8751361333</v>
       </c>
       <c r="R102" t="n">
-        <v>6703438.210316412</v>
+        <v>6703433.872390999</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12416,22 +12409,22 @@
       <c r="AT102" t="inlineStr"/>
       <c r="AW102" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111896595</v>
+        <v>111886329</v>
       </c>
       <c r="B103" t="n">
-        <v>101703</v>
+        <v>90687</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12444,34 +12437,35 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>222412</v>
+        <v>5964</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>574247.1857444055</v>
+        <v>574258.1186801053</v>
       </c>
       <c r="R103" t="n">
-        <v>6703405.307550027</v>
+        <v>6703498.786127698</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12528,19 +12522,19 @@
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111896716</v>
+        <v>111886498</v>
       </c>
       <c r="B104" t="n">
         <v>98535</v>
@@ -12574,19 +12568,20 @@
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>574337.5017077615</v>
+        <v>574333.7396710602</v>
       </c>
       <c r="R104" t="n">
-        <v>6703387.423688528</v>
+        <v>6703522.540716695</v>
       </c>
       <c r="S104" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -12615,7 +12610,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12625,7 +12620,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12640,22 +12635,22 @@
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111896589</v>
+        <v>111896610</v>
       </c>
       <c r="B105" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12668,21 +12663,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12692,10 +12687,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>574319.8708033765</v>
+        <v>574272.2591996479</v>
       </c>
       <c r="R105" t="n">
-        <v>6703355.482874738</v>
+        <v>6703411.74269451</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12764,7 +12759,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111896708</v>
+        <v>111896709</v>
       </c>
       <c r="B106" t="n">
         <v>98535</v>
@@ -12804,10 +12799,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>574325.6696152951</v>
+        <v>574319.8910472075</v>
       </c>
       <c r="R106" t="n">
-        <v>6703458.23244116</v>
+        <v>6703354.496443897</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12876,10 +12871,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111896601</v>
+        <v>111885762</v>
       </c>
       <c r="B107" t="n">
-        <v>56543</v>
+        <v>90295</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12888,46 +12883,39 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>103021</v>
+        <v>4740</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Sotriska</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lactarius lignyotus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>574287.6814794211</v>
+        <v>574311.748177869</v>
       </c>
       <c r="R107" t="n">
-        <v>6703454.985900432</v>
+        <v>6703438.210316412</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12984,22 +12972,22 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111896650</v>
+        <v>111885842</v>
       </c>
       <c r="B108" t="n">
-        <v>89183</v>
+        <v>101141</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -13012,34 +13000,35 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3215</v>
+        <v>222002</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>574250.0745535446</v>
+        <v>574289.9628196132</v>
       </c>
       <c r="R108" t="n">
-        <v>6703481.352027887</v>
+        <v>6703416.053151045</v>
       </c>
       <c r="S108" t="n">
         <v>25</v>
@@ -13096,22 +13085,22 @@
       <c r="AT108" t="inlineStr"/>
       <c r="AW108" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111886198</v>
+        <v>111896712</v>
       </c>
       <c r="B109" t="n">
-        <v>88966</v>
+        <v>98535</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13120,39 +13109,38 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>574244.409384649</v>
+        <v>574311.7886614093</v>
       </c>
       <c r="R109" t="n">
-        <v>6703468.407307444</v>
+        <v>6703436.237499412</v>
       </c>
       <c r="S109" t="n">
         <v>25</v>
@@ -13209,22 +13197,22 @@
       <c r="AT109" t="inlineStr"/>
       <c r="AW109" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX109" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111896626</v>
+        <v>111896699</v>
       </c>
       <c r="B110" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13237,21 +13225,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -13261,10 +13249,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>574356.4769687023</v>
+        <v>574219.1872449504</v>
       </c>
       <c r="R110" t="n">
-        <v>6703377.944859226</v>
+        <v>6703421.016299267</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -13333,10 +13321,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111896682</v>
+        <v>111896626</v>
       </c>
       <c r="B111" t="n">
-        <v>88966</v>
+        <v>90332</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13345,25 +13333,25 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -13373,10 +13361,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>574256.1442139128</v>
+        <v>574356.4769687023</v>
       </c>
       <c r="R111" t="n">
-        <v>6703474.568800534</v>
+        <v>6703377.944859226</v>
       </c>
       <c r="S111" t="n">
         <v>25</v>
@@ -13445,10 +13433,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111896685</v>
+        <v>111896629</v>
       </c>
       <c r="B112" t="n">
-        <v>88966</v>
+        <v>90332</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13457,25 +13445,25 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -13485,10 +13473,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>574341.6196639308</v>
+        <v>574410.1934356905</v>
       </c>
       <c r="R112" t="n">
-        <v>6703451.652109961</v>
+        <v>6703385.462655744</v>
       </c>
       <c r="S112" t="n">
         <v>25</v>
@@ -13557,10 +13545,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111896616</v>
+        <v>111886738</v>
       </c>
       <c r="B113" t="n">
-        <v>90332</v>
+        <v>90684</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13569,41 +13557,42 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4769</v>
+        <v>4368</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>574249.2078899746</v>
+        <v>574247.2374925215</v>
       </c>
       <c r="R113" t="n">
-        <v>6703475.413386551</v>
+        <v>6703547.409599461</v>
       </c>
       <c r="S113" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T113" t="inlineStr">
         <is>
@@ -13632,7 +13621,7 @@
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA113" t="inlineStr">
@@ -13642,7 +13631,7 @@
       </c>
       <c r="AB113" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD113" t="b">
@@ -13657,22 +13646,22 @@
       <c r="AT113" t="inlineStr"/>
       <c r="AW113" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX113" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111896580</v>
+        <v>111886424</v>
       </c>
       <c r="B114" t="n">
-        <v>99413</v>
+        <v>88899</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13681,38 +13670,48 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>221235</v>
+        <v>3286</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr"/>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>574256.1644406004</v>
+        <v>574278.5667425465</v>
       </c>
       <c r="R114" t="n">
-        <v>6703473.582402139</v>
+        <v>6703465.653919976</v>
       </c>
       <c r="S114" t="n">
         <v>25</v>
@@ -13769,22 +13768,22 @@
       <c r="AT114" t="inlineStr"/>
       <c r="AW114" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX114" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111896629</v>
+        <v>111896710</v>
       </c>
       <c r="B115" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13797,21 +13796,21 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13821,10 +13820,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>574410.1934356905</v>
+        <v>574289.9830554068</v>
       </c>
       <c r="R115" t="n">
-        <v>6703385.462655744</v>
+        <v>6703415.066736702</v>
       </c>
       <c r="S115" t="n">
         <v>25</v>
@@ -13893,7 +13892,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111896614</v>
+        <v>111896622</v>
       </c>
       <c r="B116" t="n">
         <v>90332</v>
@@ -13933,10 +13932,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>574228.885558943</v>
+        <v>574283.0263743812</v>
       </c>
       <c r="R116" t="n">
-        <v>6703430.096512586</v>
+        <v>6703416.897689151</v>
       </c>
       <c r="S116" t="n">
         <v>25</v>
@@ -14005,10 +14004,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111896617</v>
+        <v>111896595</v>
       </c>
       <c r="B117" t="n">
-        <v>90332</v>
+        <v>101703</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14021,21 +14020,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14045,10 +14044,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>574269.0777989432</v>
+        <v>574247.1857444055</v>
       </c>
       <c r="R117" t="n">
-        <v>6703494.570243312</v>
+        <v>6703405.307550027</v>
       </c>
       <c r="S117" t="n">
         <v>25</v>
@@ -14117,10 +14116,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111896631</v>
+        <v>111896587</v>
       </c>
       <c r="B118" t="n">
-        <v>90332</v>
+        <v>101141</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14133,21 +14132,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4769</v>
+        <v>222002</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -14157,10 +14156,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>574455.6288491808</v>
+        <v>574292.2757661514</v>
       </c>
       <c r="R118" t="n">
-        <v>6703507.28235705</v>
+        <v>6703496.032899947</v>
       </c>
       <c r="S118" t="n">
         <v>25</v>
@@ -14229,10 +14228,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111896618</v>
+        <v>111896696</v>
       </c>
       <c r="B119" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14245,21 +14244,21 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -14269,10 +14268,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>574291.9436535498</v>
+        <v>574272.5440735799</v>
       </c>
       <c r="R119" t="n">
-        <v>6703488.13161656</v>
+        <v>6703373.755373025</v>
       </c>
       <c r="S119" t="n">
         <v>25</v>
@@ -14341,10 +14340,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111896625</v>
+        <v>111896711</v>
       </c>
       <c r="B120" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14357,21 +14356,21 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14381,10 +14380,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>574335.1915376212</v>
+        <v>574304.6397298749</v>
       </c>
       <c r="R120" t="n">
-        <v>6703403.659053097</v>
+        <v>6703447.439264891</v>
       </c>
       <c r="S120" t="n">
         <v>25</v>
@@ -14453,10 +14452,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111896695</v>
+        <v>111896625</v>
       </c>
       <c r="B121" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14469,21 +14468,21 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -14493,10 +14492,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>574528.5483397129</v>
+        <v>574335.1915376212</v>
       </c>
       <c r="R121" t="n">
-        <v>6703446.119582187</v>
+        <v>6703403.659053097</v>
       </c>
       <c r="S121" t="n">
         <v>25</v>
@@ -14565,10 +14564,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111896706</v>
+        <v>111885492</v>
       </c>
       <c r="B122" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14581,34 +14580,35 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>574290.1295200255</v>
+        <v>574346.6812743739</v>
       </c>
       <c r="R122" t="n">
-        <v>6703480.199912106</v>
+        <v>6703445.835096321</v>
       </c>
       <c r="S122" t="n">
         <v>25</v>
@@ -14665,22 +14665,22 @@
       <c r="AT122" t="inlineStr"/>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111885073</v>
+        <v>111885375</v>
       </c>
       <c r="B123" t="n">
-        <v>90684</v>
+        <v>90332</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14689,25 +14689,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>4368</v>
+        <v>4769</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14790,10 +14790,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111886321</v>
+        <v>111885073</v>
       </c>
       <c r="B124" t="n">
-        <v>99413</v>
+        <v>90684</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14802,25 +14802,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>221235</v>
+        <v>4368</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14866,7 +14866,7 @@
       </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA124" t="inlineStr">
@@ -14876,7 +14876,7 @@
       </c>
       <c r="AB124" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD124" t="b">
@@ -14903,10 +14903,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111885375</v>
+        <v>111886310</v>
       </c>
       <c r="B125" t="n">
-        <v>90332</v>
+        <v>101703</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14919,21 +14919,21 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -14979,7 +14979,7 @@
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
@@ -14989,7 +14989,7 @@
       </c>
       <c r="AB125" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD125" t="b">
@@ -15016,10 +15016,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111886310</v>
+        <v>111886321</v>
       </c>
       <c r="B126" t="n">
-        <v>101703</v>
+        <v>99413</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -15032,21 +15032,21 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>222412</v>
+        <v>221235</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -15092,7 +15092,7 @@
       </c>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
@@ -15102,7 +15102,7 @@
       </c>
       <c r="AB126" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD126" t="b">

--- a/artfynd/A 14918-2023.xlsx
+++ b/artfynd/A 14918-2023.xlsx
@@ -5537,10 +5537,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111896682</v>
+        <v>111896601</v>
       </c>
       <c r="B42" t="n">
-        <v>88966</v>
+        <v>56543</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5553,34 +5553,42 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5754</v>
+        <v>103021</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>574256.1442139128</v>
+        <v>574287.6814794211</v>
       </c>
       <c r="R42" t="n">
-        <v>6703474.568800534</v>
+        <v>6703454.985900432</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5649,7 +5657,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111896614</v>
+        <v>111896615</v>
       </c>
       <c r="B43" t="n">
         <v>90332</v>
@@ -5689,10 +5697,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>574228.885558943</v>
+        <v>574241.4048918699</v>
       </c>
       <c r="R43" t="n">
-        <v>6703430.096512586</v>
+        <v>6703470.319338148</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5761,10 +5769,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111896680</v>
+        <v>111896709</v>
       </c>
       <c r="B44" t="n">
-        <v>88966</v>
+        <v>98535</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5773,49 +5781,38 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>574323.5395620605</v>
+        <v>574319.8910472075</v>
       </c>
       <c r="R44" t="n">
-        <v>6703369.373988308</v>
+        <v>6703354.496443897</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5866,7 +5863,6 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -5885,10 +5881,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111896580</v>
+        <v>111896701</v>
       </c>
       <c r="B45" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5901,21 +5897,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5925,10 +5921,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>574256.1644406004</v>
+        <v>574223.5713984326</v>
       </c>
       <c r="R45" t="n">
-        <v>6703473.582402139</v>
+        <v>6703448.24379926</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5997,7 +5993,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111896700</v>
+        <v>111896704</v>
       </c>
       <c r="B46" t="n">
         <v>98535</v>
@@ -6037,10 +6033,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>574211.4523542383</v>
+        <v>574300.0179232516</v>
       </c>
       <c r="R46" t="n">
-        <v>6703460.82405555</v>
+        <v>6703504.086197484</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -6109,10 +6105,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111896631</v>
+        <v>111896685</v>
       </c>
       <c r="B47" t="n">
-        <v>90332</v>
+        <v>88966</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6121,25 +6117,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6149,10 +6145,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>574455.6288491808</v>
+        <v>574341.6196639308</v>
       </c>
       <c r="R47" t="n">
-        <v>6703507.28235705</v>
+        <v>6703451.652109961</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6221,10 +6217,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111896624</v>
+        <v>111896669</v>
       </c>
       <c r="B48" t="n">
-        <v>90332</v>
+        <v>85253</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6237,21 +6233,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4769</v>
+        <v>3674</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6261,10 +6257,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>574320.3710326073</v>
+        <v>574252.2932853762</v>
       </c>
       <c r="R48" t="n">
-        <v>6703403.354864516</v>
+        <v>6703469.555768683</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6315,6 +6311,7 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6333,10 +6330,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111886372</v>
+        <v>111886738</v>
       </c>
       <c r="B49" t="n">
-        <v>90687</v>
+        <v>90684</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6345,42 +6342,42 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5964</v>
+        <v>4368</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>574261.3270212604</v>
+        <v>574247.2374925215</v>
       </c>
       <c r="R49" t="n">
-        <v>6703462.833304818</v>
+        <v>6703547.409599461</v>
       </c>
       <c r="S49" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6409,7 +6406,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6419,7 +6416,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6434,22 +6431,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111884952</v>
+        <v>111886198</v>
       </c>
       <c r="B50" t="n">
-        <v>98535</v>
+        <v>88966</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6458,39 +6455,39 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>574448.7809475841</v>
+        <v>574244.409384649</v>
       </c>
       <c r="R50" t="n">
-        <v>6703527.864445598</v>
+        <v>6703468.407307444</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6559,7 +6556,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111886390</v>
+        <v>111896700</v>
       </c>
       <c r="B51" t="n">
         <v>98535</v>
@@ -6593,20 +6590,19 @@
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>574320.5008898397</v>
+        <v>574211.4523542383</v>
       </c>
       <c r="R51" t="n">
-        <v>6703541.511550271</v>
+        <v>6703460.82405555</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6635,7 +6631,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6645,7 +6641,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6660,22 +6656,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111886848</v>
+        <v>111896682</v>
       </c>
       <c r="B52" t="n">
-        <v>86223</v>
+        <v>88966</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6688,38 +6684,37 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4412</v>
+        <v>5754</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>574236.8404598181</v>
+        <v>574256.1442139128</v>
       </c>
       <c r="R52" t="n">
-        <v>6703596.535755535</v>
+        <v>6703474.568800534</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6748,7 +6743,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6758,7 +6753,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6773,22 +6768,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111896691</v>
+        <v>111896626</v>
       </c>
       <c r="B53" t="n">
-        <v>90684</v>
+        <v>90332</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6797,25 +6792,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4368</v>
+        <v>4769</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6825,10 +6820,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>574527.49941562</v>
+        <v>574356.4769687023</v>
       </c>
       <c r="R53" t="n">
-        <v>6703449.058466445</v>
+        <v>6703377.944859226</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6897,7 +6892,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111896608</v>
+        <v>111896624</v>
       </c>
       <c r="B54" t="n">
         <v>90332</v>
@@ -6937,10 +6932,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>574450.5671428492</v>
+        <v>574320.3710326073</v>
       </c>
       <c r="R54" t="n">
-        <v>6703513.099122572</v>
+        <v>6703403.354864516</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -7009,7 +7004,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111896695</v>
+        <v>111884952</v>
       </c>
       <c r="B55" t="n">
         <v>98535</v>
@@ -7043,16 +7038,17 @@
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>574528.5483397129</v>
+        <v>574448.7809475841</v>
       </c>
       <c r="R55" t="n">
-        <v>6703446.119582187</v>
+        <v>6703527.864445598</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -7109,22 +7105,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111886358</v>
+        <v>111896712</v>
       </c>
       <c r="B56" t="n">
-        <v>101703</v>
+        <v>98535</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7137,38 +7133,37 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>574377.5537716877</v>
+        <v>574311.7886614093</v>
       </c>
       <c r="R56" t="n">
-        <v>6703530.841373169</v>
+        <v>6703436.237499412</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7197,7 +7192,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7207,7 +7202,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7222,22 +7217,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111896704</v>
+        <v>111886329</v>
       </c>
       <c r="B57" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7250,34 +7245,35 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>574300.0179232516</v>
+        <v>574258.1186801053</v>
       </c>
       <c r="R57" t="n">
-        <v>6703504.086197484</v>
+        <v>6703498.786127698</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7334,22 +7330,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111896607</v>
+        <v>111885842</v>
       </c>
       <c r="B58" t="n">
-        <v>90332</v>
+        <v>101141</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7362,34 +7358,35 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4769</v>
+        <v>222002</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>574466.8489239614</v>
+        <v>574289.9628196132</v>
       </c>
       <c r="R58" t="n">
-        <v>6703514.4207107</v>
+        <v>6703416.053151045</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7446,22 +7443,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111896581</v>
+        <v>111886498</v>
       </c>
       <c r="B59" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7474,37 +7471,38 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>574333.7783005711</v>
+        <v>574333.7396710602</v>
       </c>
       <c r="R59" t="n">
-        <v>6703424.353483723</v>
+        <v>6703522.540716695</v>
       </c>
       <c r="S59" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7533,7 +7531,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7543,7 +7541,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7558,22 +7556,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111896620</v>
+        <v>111896580</v>
       </c>
       <c r="B60" t="n">
-        <v>90332</v>
+        <v>99413</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7586,21 +7584,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7610,10 +7608,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>574292.6013405366</v>
+        <v>574256.1644406004</v>
       </c>
       <c r="R60" t="n">
-        <v>6703456.073649234</v>
+        <v>6703473.582402139</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7682,10 +7680,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111896681</v>
+        <v>111896614</v>
       </c>
       <c r="B61" t="n">
-        <v>88966</v>
+        <v>90332</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7694,49 +7692,38 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>574330.7595642635</v>
+        <v>574228.885558943</v>
       </c>
       <c r="R61" t="n">
-        <v>6703354.719507183</v>
+        <v>6703430.096512586</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7787,7 +7774,6 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
-      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -7806,10 +7792,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111896708</v>
+        <v>111886424</v>
       </c>
       <c r="B62" t="n">
-        <v>98535</v>
+        <v>88899</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7818,38 +7804,48 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>222498</v>
+        <v>3286</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>574325.6696152951</v>
+        <v>574278.5667425465</v>
       </c>
       <c r="R62" t="n">
-        <v>6703458.23244116</v>
+        <v>6703465.653919976</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7906,22 +7902,22 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111896707</v>
+        <v>111896581</v>
       </c>
       <c r="B63" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7934,21 +7930,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7958,10 +7954,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>574304.4575714046</v>
+        <v>574333.7783005711</v>
       </c>
       <c r="R63" t="n">
-        <v>6703456.31690546</v>
+        <v>6703424.353483723</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -8030,10 +8026,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111896683</v>
+        <v>111896696</v>
       </c>
       <c r="B64" t="n">
-        <v>88966</v>
+        <v>98535</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8042,25 +8038,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8070,10 +8066,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>574289.1415073492</v>
+        <v>574272.5440735799</v>
       </c>
       <c r="R64" t="n">
-        <v>6703480.179643137</v>
+        <v>6703373.755373025</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -8142,10 +8138,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111896717</v>
+        <v>111896618</v>
       </c>
       <c r="B65" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8158,21 +8154,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8182,10 +8178,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>574371.1760314812</v>
+        <v>574291.9436535498</v>
       </c>
       <c r="R65" t="n">
-        <v>6703384.167737775</v>
+        <v>6703488.13161656</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8254,10 +8250,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111886713</v>
+        <v>111896670</v>
       </c>
       <c r="B66" t="n">
-        <v>90684</v>
+        <v>85253</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8266,39 +8262,38 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4368</v>
+        <v>3674</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>574267.3295348831</v>
+        <v>574302.4612936915</v>
       </c>
       <c r="R66" t="n">
-        <v>6703555.715953856</v>
+        <v>6703457.262763234</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8349,28 +8344,29 @@
       <c r="AE66" t="b">
         <v>0</v>
       </c>
+      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
       </c>
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111896668</v>
+        <v>111896707</v>
       </c>
       <c r="B67" t="n">
-        <v>85089</v>
+        <v>98535</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8383,21 +8379,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3762</v>
+        <v>222498</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8407,10 +8403,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>574317.8180265825</v>
+        <v>574304.4575714046</v>
       </c>
       <c r="R67" t="n">
-        <v>6703431.427106799</v>
+        <v>6703456.31690546</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8479,10 +8475,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111896670</v>
+        <v>111896714</v>
       </c>
       <c r="B68" t="n">
-        <v>85253</v>
+        <v>98535</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8495,21 +8491,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3674</v>
+        <v>222498</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8519,10 +8515,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>574302.4612936915</v>
+        <v>574320.3710326073</v>
       </c>
       <c r="R68" t="n">
-        <v>6703457.262763234</v>
+        <v>6703403.354864516</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8573,7 +8569,6 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
-      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
@@ -8592,7 +8587,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111896703</v>
+        <v>111896699</v>
       </c>
       <c r="B69" t="n">
         <v>98535</v>
@@ -8632,10 +8627,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>574309.5943644949</v>
+        <v>574219.1872449504</v>
       </c>
       <c r="R69" t="n">
-        <v>6703519.084753582</v>
+        <v>6703421.016299267</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8704,10 +8699,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111896602</v>
+        <v>111896607</v>
       </c>
       <c r="B70" t="n">
-        <v>56543</v>
+        <v>90332</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8716,46 +8711,38 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>103021</v>
+        <v>4769</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>574317.3462017868</v>
+        <v>574466.8489239614</v>
       </c>
       <c r="R70" t="n">
-        <v>6703406.253286039</v>
+        <v>6703514.4207107</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8824,7 +8811,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111896627</v>
+        <v>111896610</v>
       </c>
       <c r="B71" t="n">
         <v>90332</v>
@@ -8864,10 +8851,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>574373.314176796</v>
+        <v>574272.2591996479</v>
       </c>
       <c r="R71" t="n">
-        <v>6703376.316927806</v>
+        <v>6703411.74269451</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8936,10 +8923,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111896615</v>
+        <v>111896668</v>
       </c>
       <c r="B72" t="n">
-        <v>90332</v>
+        <v>85089</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8952,21 +8939,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4769</v>
+        <v>3762</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8976,10 +8963,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>574241.4048918699</v>
+        <v>574317.8180265825</v>
       </c>
       <c r="R72" t="n">
-        <v>6703470.319338148</v>
+        <v>6703431.427106799</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -9048,10 +9035,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111896706</v>
+        <v>111896623</v>
       </c>
       <c r="B73" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9064,21 +9051,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9088,10 +9075,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>574290.1295200255</v>
+        <v>574295.9517128408</v>
       </c>
       <c r="R73" t="n">
-        <v>6703480.199912106</v>
+        <v>6703413.21552579</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -9160,10 +9147,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111896648</v>
+        <v>111896691</v>
       </c>
       <c r="B74" t="n">
-        <v>78512</v>
+        <v>90684</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9172,25 +9159,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6456</v>
+        <v>4368</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9200,10 +9187,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>574527.773473482</v>
+        <v>574527.49941562</v>
       </c>
       <c r="R74" t="n">
-        <v>6703435.741965486</v>
+        <v>6703449.058466445</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -9254,7 +9241,6 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
-      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -9273,10 +9259,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111896697</v>
+        <v>111886848</v>
       </c>
       <c r="B75" t="n">
-        <v>98535</v>
+        <v>86223</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9285,41 +9271,42 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>222498</v>
+        <v>4412</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>574252.510194034</v>
+        <v>574236.8404598181</v>
       </c>
       <c r="R75" t="n">
-        <v>6703386.666867712</v>
+        <v>6703596.535755535</v>
       </c>
       <c r="S75" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9348,7 +9335,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9358,7 +9345,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9373,22 +9360,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111896618</v>
+        <v>111886372</v>
       </c>
       <c r="B76" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9401,34 +9388,35 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>574291.9436535498</v>
+        <v>574261.3270212604</v>
       </c>
       <c r="R76" t="n">
-        <v>6703488.13161656</v>
+        <v>6703462.833304818</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9485,22 +9473,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111896619</v>
+        <v>111885762</v>
       </c>
       <c r="B77" t="n">
-        <v>90332</v>
+        <v>90295</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9513,34 +9501,35 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4769</v>
+        <v>4740</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Sotriska</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lactarius lignyotus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>574270.6945951059</v>
+        <v>574311.748177869</v>
       </c>
       <c r="R77" t="n">
-        <v>6703439.835159265</v>
+        <v>6703438.210316412</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9597,22 +9586,22 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111896651</v>
+        <v>111886358</v>
       </c>
       <c r="B78" t="n">
-        <v>89183</v>
+        <v>101703</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9625,37 +9614,38 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3215</v>
+        <v>222412</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>574442.2963542459</v>
+        <v>574377.5537716877</v>
       </c>
       <c r="R78" t="n">
-        <v>6703458.654406736</v>
+        <v>6703530.841373169</v>
       </c>
       <c r="S78" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9684,7 +9674,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9694,7 +9684,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9709,19 +9699,19 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111896685</v>
+        <v>111896683</v>
       </c>
       <c r="B79" t="n">
         <v>88966</v>
@@ -9761,10 +9751,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>574341.6196639308</v>
+        <v>574289.1415073492</v>
       </c>
       <c r="R79" t="n">
-        <v>6703451.652109961</v>
+        <v>6703480.179643137</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9833,10 +9823,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111896669</v>
+        <v>111896711</v>
       </c>
       <c r="B80" t="n">
-        <v>85253</v>
+        <v>98535</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9849,21 +9839,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>3674</v>
+        <v>222498</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9873,10 +9863,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>574252.2932853762</v>
+        <v>574304.6397298749</v>
       </c>
       <c r="R80" t="n">
-        <v>6703469.555768683</v>
+        <v>6703447.439264891</v>
       </c>
       <c r="S80" t="n">
         <v>25</v>
@@ -9927,7 +9917,6 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
-      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -9946,10 +9935,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111896702</v>
+        <v>111896616</v>
       </c>
       <c r="B81" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9962,21 +9951,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9986,10 +9975,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>574285.1168916271</v>
+        <v>574249.2078899746</v>
       </c>
       <c r="R81" t="n">
-        <v>6703507.727709529</v>
+        <v>6703475.413386551</v>
       </c>
       <c r="S81" t="n">
         <v>25</v>
@@ -10058,10 +10047,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111896588</v>
+        <v>111885492</v>
       </c>
       <c r="B82" t="n">
-        <v>101141</v>
+        <v>99413</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10074,34 +10063,35 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>222002</v>
+        <v>221235</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>574305.4658307037</v>
+        <v>574346.6812743739</v>
       </c>
       <c r="R82" t="n">
-        <v>6703455.350775132</v>
+        <v>6703445.835096321</v>
       </c>
       <c r="S82" t="n">
         <v>25</v>
@@ -10158,22 +10148,22 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111896715</v>
+        <v>111896611</v>
       </c>
       <c r="B83" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10186,21 +10176,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -10210,10 +10200,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>574335.2117857126</v>
+        <v>574271.5155704983</v>
       </c>
       <c r="R83" t="n">
-        <v>6703402.672635308</v>
+        <v>6703375.707959844</v>
       </c>
       <c r="S83" t="n">
         <v>25</v>
@@ -10282,10 +10272,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111896632</v>
+        <v>111896595</v>
       </c>
       <c r="B84" t="n">
-        <v>90332</v>
+        <v>101703</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10298,21 +10288,21 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -10322,10 +10312,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>574468.9496102105</v>
+        <v>574247.1857444055</v>
       </c>
       <c r="R84" t="n">
-        <v>6703484.36623429</v>
+        <v>6703405.307550027</v>
       </c>
       <c r="S84" t="n">
         <v>25</v>
@@ -10394,10 +10384,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111896623</v>
+        <v>111896695</v>
       </c>
       <c r="B85" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10410,21 +10400,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10434,10 +10424,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>574295.9517128408</v>
+        <v>574528.5483397129</v>
       </c>
       <c r="R85" t="n">
-        <v>6703413.21552579</v>
+        <v>6703446.119582187</v>
       </c>
       <c r="S85" t="n">
         <v>25</v>
@@ -10506,10 +10496,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111886835</v>
+        <v>111896651</v>
       </c>
       <c r="B86" t="n">
-        <v>86223</v>
+        <v>89183</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10518,39 +10508,38 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4412</v>
+        <v>3215</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>574230.0863521076</v>
+        <v>574442.2963542459</v>
       </c>
       <c r="R86" t="n">
-        <v>6703588.503049062</v>
+        <v>6703458.654406736</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -10582,7 +10571,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -10592,7 +10581,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10607,12 +10596,12 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
@@ -10731,10 +10720,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111896601</v>
+        <v>111896697</v>
       </c>
       <c r="B88" t="n">
-        <v>56543</v>
+        <v>98535</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10743,46 +10732,38 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>103021</v>
+        <v>222498</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>574287.6814794211</v>
+        <v>574252.510194034</v>
       </c>
       <c r="R88" t="n">
-        <v>6703454.985900432</v>
+        <v>6703386.666867712</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10851,10 +10832,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111896616</v>
+        <v>111896602</v>
       </c>
       <c r="B89" t="n">
-        <v>90332</v>
+        <v>56543</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10863,38 +10844,46 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4769</v>
+        <v>103021</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>574249.2078899746</v>
+        <v>574317.3462017868</v>
       </c>
       <c r="R89" t="n">
-        <v>6703475.413386551</v>
+        <v>6703406.253286039</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10963,10 +10952,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111896590</v>
+        <v>111896631</v>
       </c>
       <c r="B90" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10979,21 +10968,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -11003,10 +10992,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>574319.3829989098</v>
+        <v>574455.6288491808</v>
       </c>
       <c r="R90" t="n">
-        <v>6703403.334587433</v>
+        <v>6703507.28235705</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -11075,10 +11064,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111886198</v>
+        <v>111896620</v>
       </c>
       <c r="B91" t="n">
-        <v>88966</v>
+        <v>90332</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11087,39 +11076,38 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>574244.409384649</v>
+        <v>574292.6013405366</v>
       </c>
       <c r="R91" t="n">
-        <v>6703468.407307444</v>
+        <v>6703456.073649234</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -11176,22 +11164,22 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111896701</v>
+        <v>111896684</v>
       </c>
       <c r="B92" t="n">
-        <v>98535</v>
+        <v>88966</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11200,25 +11188,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -11228,10 +11216,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>574223.5713984326</v>
+        <v>574298.5092178418</v>
       </c>
       <c r="R92" t="n">
-        <v>6703448.24379926</v>
+        <v>6703457.181675683</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -11300,10 +11288,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111896684</v>
+        <v>111896671</v>
       </c>
       <c r="B93" t="n">
-        <v>88966</v>
+        <v>85253</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11312,25 +11300,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>5754</v>
+        <v>3674</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11340,10 +11328,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>574298.5092178418</v>
+        <v>574320.3305445107</v>
       </c>
       <c r="R93" t="n">
-        <v>6703457.181675683</v>
+        <v>6703405.327699401</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11394,6 +11382,7 @@
       <c r="AE93" t="b">
         <v>0</v>
       </c>
+      <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="b">
         <v>0</v>
       </c>
@@ -11412,10 +11401,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111896611</v>
+        <v>111896717</v>
       </c>
       <c r="B94" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11428,21 +11417,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11452,10 +11441,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>574271.5155704983</v>
+        <v>574371.1760314812</v>
       </c>
       <c r="R94" t="n">
-        <v>6703375.707959844</v>
+        <v>6703384.167737775</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11524,10 +11513,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111896716</v>
+        <v>111896590</v>
       </c>
       <c r="B95" t="n">
-        <v>98535</v>
+        <v>101141</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11540,21 +11529,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11564,10 +11553,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>574337.5017077615</v>
+        <v>574319.3829989098</v>
       </c>
       <c r="R95" t="n">
-        <v>6703387.423688528</v>
+        <v>6703403.334587433</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11636,10 +11625,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111896714</v>
+        <v>111886713</v>
       </c>
       <c r="B96" t="n">
-        <v>98535</v>
+        <v>90684</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11648,38 +11637,39 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>222498</v>
+        <v>4368</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>574320.3710326073</v>
+        <v>574267.3295348831</v>
       </c>
       <c r="R96" t="n">
-        <v>6703403.354864516</v>
+        <v>6703555.715953856</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11736,22 +11726,22 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111896671</v>
+        <v>111896588</v>
       </c>
       <c r="B97" t="n">
-        <v>85253</v>
+        <v>101141</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11764,21 +11754,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>3674</v>
+        <v>222002</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11788,10 +11778,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>574320.3305445107</v>
+        <v>574305.4658307037</v>
       </c>
       <c r="R97" t="n">
-        <v>6703405.327699401</v>
+        <v>6703455.350775132</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11842,7 +11832,6 @@
       <c r="AE97" t="b">
         <v>0</v>
       </c>
-      <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="b">
         <v>0</v>
       </c>
@@ -11861,10 +11850,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111896650</v>
+        <v>111896629</v>
       </c>
       <c r="B98" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11877,21 +11866,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11901,10 +11890,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>574250.0745535446</v>
+        <v>574410.1934356905</v>
       </c>
       <c r="R98" t="n">
-        <v>6703481.352027887</v>
+        <v>6703385.462655744</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11973,10 +11962,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111896617</v>
+        <v>111886835</v>
       </c>
       <c r="B99" t="n">
-        <v>90332</v>
+        <v>86223</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11985,38 +11974,39 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>4769</v>
+        <v>4412</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>574269.0777989432</v>
+        <v>574230.0863521076</v>
       </c>
       <c r="R99" t="n">
-        <v>6703494.570243312</v>
+        <v>6703588.503049062</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -12048,7 +12038,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12058,7 +12048,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12073,22 +12063,22 @@
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111896589</v>
+        <v>111896608</v>
       </c>
       <c r="B100" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12101,21 +12091,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12125,10 +12115,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>574319.8708033765</v>
+        <v>574450.5671428492</v>
       </c>
       <c r="R100" t="n">
-        <v>6703355.482874738</v>
+        <v>6703513.099122572</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -12197,10 +12187,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111896621</v>
+        <v>111896648</v>
       </c>
       <c r="B101" t="n">
-        <v>90332</v>
+        <v>78512</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12213,21 +12203,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>4769</v>
+        <v>6456</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -12237,10 +12227,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>574319.8505595494</v>
+        <v>574527.773473482</v>
       </c>
       <c r="R101" t="n">
-        <v>6703356.46930531</v>
+        <v>6703435.741965486</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -12291,6 +12281,7 @@
       <c r="AE101" t="b">
         <v>0</v>
       </c>
+      <c r="AF101" t="inlineStr"/>
       <c r="AG101" t="b">
         <v>0</v>
       </c>
@@ -12421,10 +12412,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111886329</v>
+        <v>111896622</v>
       </c>
       <c r="B103" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12437,35 +12428,34 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>574258.1186801053</v>
+        <v>574283.0263743812</v>
       </c>
       <c r="R103" t="n">
-        <v>6703498.786127698</v>
+        <v>6703416.897689151</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12522,19 +12512,19 @@
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111886498</v>
+        <v>111896703</v>
       </c>
       <c r="B104" t="n">
         <v>98535</v>
@@ -12568,20 +12558,19 @@
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>574333.7396710602</v>
+        <v>574309.5943644949</v>
       </c>
       <c r="R104" t="n">
-        <v>6703522.540716695</v>
+        <v>6703519.084753582</v>
       </c>
       <c r="S104" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -12610,7 +12599,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12620,7 +12609,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12635,22 +12624,22 @@
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111896610</v>
+        <v>111896650</v>
       </c>
       <c r="B105" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12663,21 +12652,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12687,10 +12676,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>574272.2591996479</v>
+        <v>574250.0745535446</v>
       </c>
       <c r="R105" t="n">
-        <v>6703411.74269451</v>
+        <v>6703481.352027887</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12759,10 +12748,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111896709</v>
+        <v>111896627</v>
       </c>
       <c r="B106" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12775,21 +12764,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12799,10 +12788,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>574319.8910472075</v>
+        <v>574373.314176796</v>
       </c>
       <c r="R106" t="n">
-        <v>6703354.496443897</v>
+        <v>6703376.316927806</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12871,10 +12860,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111885762</v>
+        <v>111896625</v>
       </c>
       <c r="B107" t="n">
-        <v>90295</v>
+        <v>90332</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12887,35 +12876,34 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4740</v>
+        <v>4769</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Sotriska</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Lactarius lignyotus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>574311.748177869</v>
+        <v>574335.1915376212</v>
       </c>
       <c r="R107" t="n">
-        <v>6703438.210316412</v>
+        <v>6703403.659053097</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12972,22 +12960,22 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111885842</v>
+        <v>111896716</v>
       </c>
       <c r="B108" t="n">
-        <v>101141</v>
+        <v>98535</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -13000,35 +12988,34 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>574289.9628196132</v>
+        <v>574337.5017077615</v>
       </c>
       <c r="R108" t="n">
-        <v>6703416.053151045</v>
+        <v>6703387.423688528</v>
       </c>
       <c r="S108" t="n">
         <v>25</v>
@@ -13085,22 +13072,22 @@
       <c r="AT108" t="inlineStr"/>
       <c r="AW108" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111896712</v>
+        <v>111896621</v>
       </c>
       <c r="B109" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13113,21 +13100,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -13137,10 +13124,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>574311.7886614093</v>
+        <v>574319.8505595494</v>
       </c>
       <c r="R109" t="n">
-        <v>6703436.237499412</v>
+        <v>6703356.46930531</v>
       </c>
       <c r="S109" t="n">
         <v>25</v>
@@ -13209,10 +13196,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111896699</v>
+        <v>111896680</v>
       </c>
       <c r="B110" t="n">
-        <v>98535</v>
+        <v>88966</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13221,38 +13208,49 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>574219.1872449504</v>
+        <v>574323.5395620605</v>
       </c>
       <c r="R110" t="n">
-        <v>6703421.016299267</v>
+        <v>6703369.373988308</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -13303,6 +13301,7 @@
       <c r="AE110" t="b">
         <v>0</v>
       </c>
+      <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="b">
         <v>0</v>
       </c>
@@ -13321,10 +13320,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111896626</v>
+        <v>111896708</v>
       </c>
       <c r="B111" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13337,21 +13336,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -13361,10 +13360,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>574356.4769687023</v>
+        <v>574325.6696152951</v>
       </c>
       <c r="R111" t="n">
-        <v>6703377.944859226</v>
+        <v>6703458.23244116</v>
       </c>
       <c r="S111" t="n">
         <v>25</v>
@@ -13433,10 +13432,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111896629</v>
+        <v>111896587</v>
       </c>
       <c r="B112" t="n">
-        <v>90332</v>
+        <v>101141</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13449,21 +13448,21 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4769</v>
+        <v>222002</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -13473,10 +13472,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>574410.1934356905</v>
+        <v>574292.2757661514</v>
       </c>
       <c r="R112" t="n">
-        <v>6703385.462655744</v>
+        <v>6703496.032899947</v>
       </c>
       <c r="S112" t="n">
         <v>25</v>
@@ -13545,10 +13544,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111886738</v>
+        <v>111896632</v>
       </c>
       <c r="B113" t="n">
-        <v>90684</v>
+        <v>90332</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13557,42 +13556,41 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4368</v>
+        <v>4769</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>574247.2374925215</v>
+        <v>574468.9496102105</v>
       </c>
       <c r="R113" t="n">
-        <v>6703547.409599461</v>
+        <v>6703484.36623429</v>
       </c>
       <c r="S113" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T113" t="inlineStr">
         <is>
@@ -13621,7 +13619,7 @@
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA113" t="inlineStr">
@@ -13631,7 +13629,7 @@
       </c>
       <c r="AB113" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD113" t="b">
@@ -13646,22 +13644,22 @@
       <c r="AT113" t="inlineStr"/>
       <c r="AW113" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX113" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111886424</v>
+        <v>111896619</v>
       </c>
       <c r="B114" t="n">
-        <v>88899</v>
+        <v>90332</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13670,48 +13668,38 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>574278.5667425465</v>
+        <v>574270.6945951059</v>
       </c>
       <c r="R114" t="n">
-        <v>6703465.653919976</v>
+        <v>6703439.835159265</v>
       </c>
       <c r="S114" t="n">
         <v>25</v>
@@ -13768,22 +13756,22 @@
       <c r="AT114" t="inlineStr"/>
       <c r="AW114" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX114" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111896710</v>
+        <v>111896681</v>
       </c>
       <c r="B115" t="n">
-        <v>98535</v>
+        <v>88966</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13792,38 +13780,49 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>574289.9830554068</v>
+        <v>574330.7595642635</v>
       </c>
       <c r="R115" t="n">
-        <v>6703415.066736702</v>
+        <v>6703354.719507183</v>
       </c>
       <c r="S115" t="n">
         <v>25</v>
@@ -13874,6 +13873,7 @@
       <c r="AE115" t="b">
         <v>0</v>
       </c>
+      <c r="AF115" t="inlineStr"/>
       <c r="AG115" t="b">
         <v>0</v>
       </c>
@@ -13892,7 +13892,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111896622</v>
+        <v>111896617</v>
       </c>
       <c r="B116" t="n">
         <v>90332</v>
@@ -13932,10 +13932,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>574283.0263743812</v>
+        <v>574269.0777989432</v>
       </c>
       <c r="R116" t="n">
-        <v>6703416.897689151</v>
+        <v>6703494.570243312</v>
       </c>
       <c r="S116" t="n">
         <v>25</v>
@@ -14004,10 +14004,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111896595</v>
+        <v>111896710</v>
       </c>
       <c r="B117" t="n">
-        <v>101703</v>
+        <v>98535</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14020,21 +14020,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14044,10 +14044,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>574247.1857444055</v>
+        <v>574289.9830554068</v>
       </c>
       <c r="R117" t="n">
-        <v>6703405.307550027</v>
+        <v>6703415.066736702</v>
       </c>
       <c r="S117" t="n">
         <v>25</v>
@@ -14116,10 +14116,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111896587</v>
+        <v>111886390</v>
       </c>
       <c r="B118" t="n">
-        <v>101141</v>
+        <v>98535</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14132,37 +14132,38 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>574292.2757661514</v>
+        <v>574320.5008898397</v>
       </c>
       <c r="R118" t="n">
-        <v>6703496.032899947</v>
+        <v>6703541.511550271</v>
       </c>
       <c r="S118" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T118" t="inlineStr">
         <is>
@@ -14191,7 +14192,7 @@
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA118" t="inlineStr">
@@ -14201,7 +14202,7 @@
       </c>
       <c r="AB118" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AD118" t="b">
@@ -14216,22 +14217,22 @@
       <c r="AT118" t="inlineStr"/>
       <c r="AW118" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX118" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111896696</v>
+        <v>111896589</v>
       </c>
       <c r="B119" t="n">
-        <v>98535</v>
+        <v>101141</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14244,21 +14245,21 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -14268,10 +14269,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>574272.5440735799</v>
+        <v>574319.8708033765</v>
       </c>
       <c r="R119" t="n">
-        <v>6703373.755373025</v>
+        <v>6703355.482874738</v>
       </c>
       <c r="S119" t="n">
         <v>25</v>
@@ -14340,7 +14341,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111896711</v>
+        <v>111896706</v>
       </c>
       <c r="B120" t="n">
         <v>98535</v>
@@ -14380,10 +14381,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>574304.6397298749</v>
+        <v>574290.1295200255</v>
       </c>
       <c r="R120" t="n">
-        <v>6703447.439264891</v>
+        <v>6703480.199912106</v>
       </c>
       <c r="S120" t="n">
         <v>25</v>
@@ -14452,10 +14453,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111896625</v>
+        <v>111896702</v>
       </c>
       <c r="B121" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14468,21 +14469,21 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -14492,10 +14493,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>574335.1915376212</v>
+        <v>574285.1168916271</v>
       </c>
       <c r="R121" t="n">
-        <v>6703403.659053097</v>
+        <v>6703507.727709529</v>
       </c>
       <c r="S121" t="n">
         <v>25</v>
@@ -14564,10 +14565,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111885492</v>
+        <v>111896715</v>
       </c>
       <c r="B122" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14580,35 +14581,34 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>574346.6812743739</v>
+        <v>574335.2117857126</v>
       </c>
       <c r="R122" t="n">
-        <v>6703445.835096321</v>
+        <v>6703402.672635308</v>
       </c>
       <c r="S122" t="n">
         <v>25</v>
@@ -14665,22 +14665,22 @@
       <c r="AT122" t="inlineStr"/>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111885375</v>
+        <v>111886310</v>
       </c>
       <c r="B123" t="n">
-        <v>90332</v>
+        <v>101703</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14693,21 +14693,21 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14753,7 +14753,7 @@
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA123" t="inlineStr">
@@ -14763,7 +14763,7 @@
       </c>
       <c r="AB123" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD123" t="b">
@@ -14790,10 +14790,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111885073</v>
+        <v>111885375</v>
       </c>
       <c r="B124" t="n">
-        <v>90684</v>
+        <v>90332</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14802,25 +14802,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>4368</v>
+        <v>4769</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14903,10 +14903,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111886310</v>
+        <v>111885073</v>
       </c>
       <c r="B125" t="n">
-        <v>101703</v>
+        <v>90684</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14915,25 +14915,25 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>222412</v>
+        <v>4368</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -14979,7 +14979,7 @@
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
@@ -14989,7 +14989,7 @@
       </c>
       <c r="AB125" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD125" t="b">

--- a/artfynd/A 14918-2023.xlsx
+++ b/artfynd/A 14918-2023.xlsx
@@ -6330,10 +6330,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111886738</v>
+        <v>111886198</v>
       </c>
       <c r="B49" t="n">
-        <v>90684</v>
+        <v>88966</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6346,38 +6346,38 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4368</v>
+        <v>5754</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>574247.2374925215</v>
+        <v>574244.409384649</v>
       </c>
       <c r="R49" t="n">
-        <v>6703547.409599461</v>
+        <v>6703468.407307444</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6431,22 +6431,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111886198</v>
+        <v>111886738</v>
       </c>
       <c r="B50" t="n">
-        <v>88966</v>
+        <v>90684</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6459,38 +6459,38 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5754</v>
+        <v>4368</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>574244.409384649</v>
+        <v>574247.2374925215</v>
       </c>
       <c r="R50" t="n">
-        <v>6703468.407307444</v>
+        <v>6703547.409599461</v>
       </c>
       <c r="S50" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6544,12 +6544,12 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111896712</v>
+        <v>111886498</v>
       </c>
       <c r="B56" t="n">
         <v>98535</v>
@@ -7151,19 +7151,20 @@
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>574311.7886614093</v>
+        <v>574333.7396710602</v>
       </c>
       <c r="R56" t="n">
-        <v>6703436.237499412</v>
+        <v>6703522.540716695</v>
       </c>
       <c r="S56" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7192,7 +7193,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7202,7 +7203,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7217,22 +7218,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111886329</v>
+        <v>111896580</v>
       </c>
       <c r="B57" t="n">
-        <v>90687</v>
+        <v>99413</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7245,35 +7246,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5964</v>
+        <v>221235</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>574258.1186801053</v>
+        <v>574256.1644406004</v>
       </c>
       <c r="R57" t="n">
-        <v>6703498.786127698</v>
+        <v>6703473.582402139</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7330,22 +7330,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111885842</v>
+        <v>111896712</v>
       </c>
       <c r="B58" t="n">
-        <v>101141</v>
+        <v>98535</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7358,35 +7358,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>574289.9628196132</v>
+        <v>574311.7886614093</v>
       </c>
       <c r="R58" t="n">
-        <v>6703416.053151045</v>
+        <v>6703436.237499412</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7443,22 +7442,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111886498</v>
+        <v>111896614</v>
       </c>
       <c r="B59" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7471,38 +7470,37 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>574333.7396710602</v>
+        <v>574228.885558943</v>
       </c>
       <c r="R59" t="n">
-        <v>6703522.540716695</v>
+        <v>6703430.096512586</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7531,7 +7529,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7541,7 +7539,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7556,22 +7554,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111896580</v>
+        <v>111886424</v>
       </c>
       <c r="B60" t="n">
-        <v>99413</v>
+        <v>88899</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7580,38 +7578,48 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>221235</v>
+        <v>3286</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>574256.1644406004</v>
+        <v>574278.5667425465</v>
       </c>
       <c r="R60" t="n">
-        <v>6703473.582402139</v>
+        <v>6703465.653919976</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7668,22 +7676,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111896614</v>
+        <v>111886329</v>
       </c>
       <c r="B61" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7696,34 +7704,35 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>574228.885558943</v>
+        <v>574258.1186801053</v>
       </c>
       <c r="R61" t="n">
-        <v>6703430.096512586</v>
+        <v>6703498.786127698</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7780,22 +7789,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111886424</v>
+        <v>111885842</v>
       </c>
       <c r="B62" t="n">
-        <v>88899</v>
+        <v>101141</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7804,37 +7813,28 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3286</v>
+        <v>222002</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7842,10 +7842,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>574278.5667425465</v>
+        <v>574289.9628196132</v>
       </c>
       <c r="R62" t="n">
-        <v>6703465.653919976</v>
+        <v>6703416.053151045</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -8699,10 +8699,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111896607</v>
+        <v>111886848</v>
       </c>
       <c r="B70" t="n">
-        <v>90332</v>
+        <v>86223</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8711,41 +8711,42 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4769</v>
+        <v>4412</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>574466.8489239614</v>
+        <v>574236.8404598181</v>
       </c>
       <c r="R70" t="n">
-        <v>6703514.4207107</v>
+        <v>6703596.535755535</v>
       </c>
       <c r="S70" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -8774,7 +8775,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8784,7 +8785,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8799,22 +8800,22 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111896610</v>
+        <v>111896668</v>
       </c>
       <c r="B71" t="n">
-        <v>90332</v>
+        <v>85089</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8827,21 +8828,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4769</v>
+        <v>3762</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8851,10 +8852,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>574272.2591996479</v>
+        <v>574317.8180265825</v>
       </c>
       <c r="R71" t="n">
-        <v>6703411.74269451</v>
+        <v>6703431.427106799</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8923,10 +8924,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111896668</v>
+        <v>111896623</v>
       </c>
       <c r="B72" t="n">
-        <v>85089</v>
+        <v>90332</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8939,21 +8940,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3762</v>
+        <v>4769</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8963,10 +8964,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>574317.8180265825</v>
+        <v>574295.9517128408</v>
       </c>
       <c r="R72" t="n">
-        <v>6703431.427106799</v>
+        <v>6703413.21552579</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -9035,10 +9036,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111896623</v>
+        <v>111896691</v>
       </c>
       <c r="B73" t="n">
-        <v>90332</v>
+        <v>90684</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9047,25 +9048,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4769</v>
+        <v>4368</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9075,10 +9076,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>574295.9517128408</v>
+        <v>574527.49941562</v>
       </c>
       <c r="R73" t="n">
-        <v>6703413.21552579</v>
+        <v>6703449.058466445</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -9147,10 +9148,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111896691</v>
+        <v>111886372</v>
       </c>
       <c r="B74" t="n">
-        <v>90684</v>
+        <v>90687</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9159,38 +9160,39 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4368</v>
+        <v>5964</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>574527.49941562</v>
+        <v>574261.3270212604</v>
       </c>
       <c r="R74" t="n">
-        <v>6703449.058466445</v>
+        <v>6703462.833304818</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -9247,22 +9249,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111886848</v>
+        <v>111885762</v>
       </c>
       <c r="B75" t="n">
-        <v>86223</v>
+        <v>90295</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9271,42 +9273,42 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4412</v>
+        <v>4740</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Sotriska</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lactarius lignyotus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>574236.8404598181</v>
+        <v>574311.748177869</v>
       </c>
       <c r="R75" t="n">
-        <v>6703596.535755535</v>
+        <v>6703438.210316412</v>
       </c>
       <c r="S75" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9335,7 +9337,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9345,7 +9347,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9360,22 +9362,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111886372</v>
+        <v>111896607</v>
       </c>
       <c r="B76" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9388,35 +9390,34 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>574261.3270212604</v>
+        <v>574466.8489239614</v>
       </c>
       <c r="R76" t="n">
-        <v>6703462.833304818</v>
+        <v>6703514.4207107</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9473,22 +9474,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111885762</v>
+        <v>111896610</v>
       </c>
       <c r="B77" t="n">
-        <v>90295</v>
+        <v>90332</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9501,35 +9502,34 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4740</v>
+        <v>4769</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Sotriska</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lactarius lignyotus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>574311.748177869</v>
+        <v>574272.2591996479</v>
       </c>
       <c r="R77" t="n">
-        <v>6703438.210316412</v>
+        <v>6703411.74269451</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9586,12 +9586,12 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
@@ -11625,10 +11625,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111886713</v>
+        <v>111896588</v>
       </c>
       <c r="B96" t="n">
-        <v>90684</v>
+        <v>101141</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11637,39 +11637,38 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>4368</v>
+        <v>222002</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>574267.3295348831</v>
+        <v>574305.4658307037</v>
       </c>
       <c r="R96" t="n">
-        <v>6703555.715953856</v>
+        <v>6703455.350775132</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11726,22 +11725,22 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111896588</v>
+        <v>111896629</v>
       </c>
       <c r="B97" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11754,21 +11753,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11778,10 +11777,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>574305.4658307037</v>
+        <v>574410.1934356905</v>
       </c>
       <c r="R97" t="n">
-        <v>6703455.350775132</v>
+        <v>6703385.462655744</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11850,10 +11849,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111896629</v>
+        <v>111886713</v>
       </c>
       <c r="B98" t="n">
-        <v>90332</v>
+        <v>90684</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11862,38 +11861,39 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4769</v>
+        <v>4368</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>574410.1934356905</v>
+        <v>574267.3295348831</v>
       </c>
       <c r="R98" t="n">
-        <v>6703385.462655744</v>
+        <v>6703555.715953856</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11950,12 +11950,12 @@
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>

--- a/artfynd/A 14918-2023.xlsx
+++ b/artfynd/A 14918-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY171"/>
+  <dimension ref="A1:AY174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111886390</v>
+        <v>111896696</v>
       </c>
       <c r="B42" t="n">
         <v>98535</v>
@@ -5571,20 +5571,19 @@
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>574320.5008898397</v>
+        <v>574272.5440735799</v>
       </c>
       <c r="R42" t="n">
-        <v>6703541.511550271</v>
+        <v>6703373.755373025</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5613,7 +5612,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5623,7 +5622,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5638,22 +5637,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111886848</v>
+        <v>111896703</v>
       </c>
       <c r="B43" t="n">
-        <v>86223</v>
+        <v>98535</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5662,42 +5661,41 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4412</v>
+        <v>222498</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>574236.8404598181</v>
+        <v>574309.5943644949</v>
       </c>
       <c r="R43" t="n">
-        <v>6703596.535755535</v>
+        <v>6703519.084753582</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5726,7 +5724,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5736,7 +5734,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5751,22 +5749,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111896696</v>
+        <v>111896614</v>
       </c>
       <c r="B44" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5779,21 +5777,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5803,10 +5801,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>574272.5440735799</v>
+        <v>574228.885558943</v>
       </c>
       <c r="R44" t="n">
-        <v>6703373.755373025</v>
+        <v>6703430.096512586</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5875,7 +5873,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111896703</v>
+        <v>111886390</v>
       </c>
       <c r="B45" t="n">
         <v>98535</v>
@@ -5909,19 +5907,20 @@
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>574309.5943644949</v>
+        <v>574320.5008898397</v>
       </c>
       <c r="R45" t="n">
-        <v>6703519.084753582</v>
+        <v>6703541.511550271</v>
       </c>
       <c r="S45" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5950,7 +5949,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5960,7 +5959,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5975,22 +5974,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111896614</v>
+        <v>111886848</v>
       </c>
       <c r="B46" t="n">
-        <v>90332</v>
+        <v>86223</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5999,41 +5998,42 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4769</v>
+        <v>4412</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>574228.885558943</v>
+        <v>574236.8404598181</v>
       </c>
       <c r="R46" t="n">
-        <v>6703430.096512586</v>
+        <v>6703596.535755535</v>
       </c>
       <c r="S46" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6087,12 +6087,12 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
@@ -12985,10 +12985,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111896648</v>
+        <v>111885492</v>
       </c>
       <c r="B108" t="n">
-        <v>78512</v>
+        <v>99413</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -13001,34 +13001,35 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6456</v>
+        <v>221235</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>574527.773473482</v>
+        <v>574346.6812743739</v>
       </c>
       <c r="R108" t="n">
-        <v>6703435.741965486</v>
+        <v>6703445.835096321</v>
       </c>
       <c r="S108" t="n">
         <v>25</v>
@@ -13079,29 +13080,28 @@
       <c r="AE108" t="b">
         <v>0</v>
       </c>
-      <c r="AF108" t="inlineStr"/>
       <c r="AG108" t="b">
         <v>0</v>
       </c>
       <c r="AT108" t="inlineStr"/>
       <c r="AW108" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111896717</v>
+        <v>111885762</v>
       </c>
       <c r="B109" t="n">
-        <v>98535</v>
+        <v>90295</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13114,34 +13114,35 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>222498</v>
+        <v>4740</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Sotriska</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius lignyotus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>574371.1760314812</v>
+        <v>574311.748177869</v>
       </c>
       <c r="R109" t="n">
-        <v>6703384.167737775</v>
+        <v>6703438.210316412</v>
       </c>
       <c r="S109" t="n">
         <v>25</v>
@@ -13198,22 +13199,22 @@
       <c r="AT109" t="inlineStr"/>
       <c r="AW109" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX109" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111896651</v>
+        <v>111896648</v>
       </c>
       <c r="B110" t="n">
-        <v>89183</v>
+        <v>78512</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13226,21 +13227,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3215</v>
+        <v>6456</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -13250,10 +13251,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>574442.2963542459</v>
+        <v>574527.773473482</v>
       </c>
       <c r="R110" t="n">
-        <v>6703458.654406736</v>
+        <v>6703435.741965486</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -13304,6 +13305,7 @@
       <c r="AE110" t="b">
         <v>0</v>
       </c>
+      <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="b">
         <v>0</v>
       </c>
@@ -13322,10 +13324,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111885492</v>
+        <v>111896717</v>
       </c>
       <c r="B111" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13338,35 +13340,34 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>574346.6812743739</v>
+        <v>574371.1760314812</v>
       </c>
       <c r="R111" t="n">
-        <v>6703445.835096321</v>
+        <v>6703384.167737775</v>
       </c>
       <c r="S111" t="n">
         <v>25</v>
@@ -13423,22 +13424,22 @@
       <c r="AT111" t="inlineStr"/>
       <c r="AW111" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111885762</v>
+        <v>111896651</v>
       </c>
       <c r="B112" t="n">
-        <v>90295</v>
+        <v>89183</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13451,35 +13452,34 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4740</v>
+        <v>3215</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Sotriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Lactarius lignyotus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>574311.748177869</v>
+        <v>574442.2963542459</v>
       </c>
       <c r="R112" t="n">
-        <v>6703438.210316412</v>
+        <v>6703458.654406736</v>
       </c>
       <c r="S112" t="n">
         <v>25</v>
@@ -13536,12 +13536,12 @@
       <c r="AT112" t="inlineStr"/>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr"/>
@@ -20208,6 +20208,363 @@
       </c>
       <c r="AY171" t="inlineStr"/>
     </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>112214964</v>
+      </c>
+      <c r="B172" t="n">
+        <v>85313</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>3739</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Persiljespindling</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Cortinarius sulfurinus</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Quél.</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>Kratte Masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>574526</v>
+      </c>
+      <c r="R172" t="n">
+        <v>6703440</v>
+      </c>
+      <c r="S172" t="n">
+        <v>25</v>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W172" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y172" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA172" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AC172" t="inlineStr">
+        <is>
+          <t>Växte tillsammans med gran och några aspar. Rikligt med dofttaggsvamp intill.</t>
+        </is>
+      </c>
+      <c r="AD172" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE172" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF172" t="inlineStr"/>
+      <c r="AG172" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT172" t="inlineStr"/>
+      <c r="AW172" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
+      </c>
+      <c r="AX172" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
+      </c>
+      <c r="AY172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>112215073</v>
+      </c>
+      <c r="B173" t="n">
+        <v>85290</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>6003295</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Odörspindling</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Cortinarius russeoides</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>M.M.Moser</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>Kratte Masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>574312</v>
+      </c>
+      <c r="R173" t="n">
+        <v>6703375</v>
+      </c>
+      <c r="S173" t="n">
+        <v>25</v>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W173" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y173" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA173" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AC173" t="inlineStr">
+        <is>
+          <t>Växte inom några meter ifrån Koppartaggsvamp.</t>
+        </is>
+      </c>
+      <c r="AD173" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE173" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF173" t="inlineStr"/>
+      <c r="AG173" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT173" t="inlineStr"/>
+      <c r="AW173" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
+      </c>
+      <c r="AX173" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
+      </c>
+      <c r="AY173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>112215002</v>
+      </c>
+      <c r="B174" t="n">
+        <v>87992</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>1593</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Lakritsmusseron</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Tricholoma apium</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Jul.Schäff.</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>Kratte Masugn, Gstr</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>574226</v>
+      </c>
+      <c r="R174" t="n">
+        <v>6703548</v>
+      </c>
+      <c r="S174" t="n">
+        <v>100</v>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W174" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y174" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA174" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AC174" t="inlineStr">
+        <is>
+          <t>Väldigt annorlunda lokal och växtplats för en lakritsmusseron. Mestadels gran men det växte tallar i närheten också. Kalkbarrskog för övrigt och denna växte precis intill en läderdoftande fingersvamp. Fortfarande under mossan. Fruktkroppen hade den tydliga doften lakritsmusseron brukar ha.</t>
+        </is>
+      </c>
+      <c r="AD174" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE174" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF174" t="inlineStr"/>
+      <c r="AG174" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT174" t="inlineStr"/>
+      <c r="AW174" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
+      </c>
+      <c r="AX174" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
+      </c>
+      <c r="AY174" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 14918-2023.xlsx
+++ b/artfynd/A 14918-2023.xlsx
@@ -5464,10 +5464,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>574438.1295007153</v>
+        <v>574438</v>
       </c>
       <c r="R41" t="n">
-        <v>6703396.891996095</v>
+        <v>6703397</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5497,19 +5497,9 @@
           <t>2023-07-26</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-07-26</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5537,10 +5527,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111896696</v>
+        <v>111896683</v>
       </c>
       <c r="B42" t="n">
-        <v>98535</v>
+        <v>88966</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5549,25 +5539,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5577,10 +5567,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>574272.5440735799</v>
+        <v>574289</v>
       </c>
       <c r="R42" t="n">
-        <v>6703373.755373025</v>
+        <v>6703480</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5610,19 +5600,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5649,10 +5629,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111896703</v>
+        <v>111896601</v>
       </c>
       <c r="B43" t="n">
-        <v>98535</v>
+        <v>56543</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5661,38 +5641,46 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>574309.5943644949</v>
+        <v>574288</v>
       </c>
       <c r="R43" t="n">
-        <v>6703519.084753582</v>
+        <v>6703455</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5722,19 +5710,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5761,10 +5739,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111896614</v>
+        <v>111884952</v>
       </c>
       <c r="B44" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5777,34 +5755,35 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>574228.885558943</v>
+        <v>574449</v>
       </c>
       <c r="R44" t="n">
-        <v>6703430.096512586</v>
+        <v>6703528</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5834,19 +5813,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5861,19 +5830,19 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111886390</v>
+        <v>111896708</v>
       </c>
       <c r="B45" t="n">
         <v>98535</v>
@@ -5907,20 +5876,19 @@
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>574320.5008898397</v>
+        <v>574326</v>
       </c>
       <c r="R45" t="n">
-        <v>6703541.511550271</v>
+        <v>6703458</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5947,19 +5915,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>11:12</t>
-        </is>
-      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>11:12</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5974,22 +5932,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111886848</v>
+        <v>111896713</v>
       </c>
       <c r="B46" t="n">
-        <v>86223</v>
+        <v>98535</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5998,42 +5956,41 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4412</v>
+        <v>222498</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>574236.8404598181</v>
+        <v>574334</v>
       </c>
       <c r="R46" t="n">
-        <v>6703596.535755535</v>
+        <v>6703424</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -6060,19 +6017,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>11:42</t>
-        </is>
-      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>11:42</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6087,19 +6034,19 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111886498</v>
+        <v>111896695</v>
       </c>
       <c r="B47" t="n">
         <v>98535</v>
@@ -6133,20 +6080,19 @@
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>574333.7396710602</v>
+        <v>574529</v>
       </c>
       <c r="R47" t="n">
-        <v>6703522.540716695</v>
+        <v>6703446</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6173,19 +6119,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>11:21</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>11:21</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6200,19 +6136,19 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111896702</v>
+        <v>111896717</v>
       </c>
       <c r="B48" t="n">
         <v>98535</v>
@@ -6252,10 +6188,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>574285.1168916271</v>
+        <v>574371</v>
       </c>
       <c r="R48" t="n">
-        <v>6703507.727709529</v>
+        <v>6703384</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6285,19 +6221,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6324,10 +6250,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111896683</v>
+        <v>111896632</v>
       </c>
       <c r="B49" t="n">
-        <v>88966</v>
+        <v>90332</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6336,25 +6262,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6364,10 +6290,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>574289.1415073492</v>
+        <v>574469</v>
       </c>
       <c r="R49" t="n">
-        <v>6703480.179643137</v>
+        <v>6703484</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6397,19 +6323,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6436,10 +6352,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111896700</v>
+        <v>111896602</v>
       </c>
       <c r="B50" t="n">
-        <v>98535</v>
+        <v>56543</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6448,38 +6364,46 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>574211.4523542383</v>
+        <v>574317</v>
       </c>
       <c r="R50" t="n">
-        <v>6703460.82405555</v>
+        <v>6703406</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6509,19 +6433,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6548,10 +6462,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111896712</v>
+        <v>111896618</v>
       </c>
       <c r="B51" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6564,21 +6478,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6588,10 +6502,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>574311.7886614093</v>
+        <v>574292</v>
       </c>
       <c r="R51" t="n">
-        <v>6703436.237499412</v>
+        <v>6703488</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6621,19 +6535,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6660,10 +6564,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111896714</v>
+        <v>111896617</v>
       </c>
       <c r="B52" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6676,21 +6580,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6700,10 +6604,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>574320.3710326073</v>
+        <v>574269</v>
       </c>
       <c r="R52" t="n">
-        <v>6703403.354864516</v>
+        <v>6703495</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6733,19 +6637,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA52" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6772,10 +6666,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111884952</v>
+        <v>111896626</v>
       </c>
       <c r="B53" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6788,35 +6682,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>574448.7809475841</v>
+        <v>574356</v>
       </c>
       <c r="R53" t="n">
-        <v>6703527.864445598</v>
+        <v>6703378</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6846,19 +6739,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6873,22 +6756,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111886713</v>
+        <v>111896697</v>
       </c>
       <c r="B54" t="n">
-        <v>90684</v>
+        <v>98535</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6897,39 +6780,38 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4368</v>
+        <v>222498</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>574267.3295348831</v>
+        <v>574253</v>
       </c>
       <c r="R54" t="n">
-        <v>6703555.715953856</v>
+        <v>6703387</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6959,19 +6841,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6986,22 +6858,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111896625</v>
+        <v>111896700</v>
       </c>
       <c r="B55" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7014,21 +6886,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -7038,10 +6910,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>574335.1915376212</v>
+        <v>574211</v>
       </c>
       <c r="R55" t="n">
-        <v>6703403.659053097</v>
+        <v>6703461</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -7071,19 +6943,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA55" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7110,10 +6972,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111896671</v>
+        <v>111896684</v>
       </c>
       <c r="B56" t="n">
-        <v>85253</v>
+        <v>88966</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7122,25 +6984,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3674</v>
+        <v>5754</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7150,10 +7012,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>574320.3305445107</v>
+        <v>574299</v>
       </c>
       <c r="R56" t="n">
-        <v>6703405.327699401</v>
+        <v>6703457</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7183,28 +7045,17 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -7223,10 +7074,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111896713</v>
+        <v>111885842</v>
       </c>
       <c r="B57" t="n">
-        <v>98535</v>
+        <v>101141</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7239,34 +7090,35 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>574333.7783005711</v>
+        <v>574290</v>
       </c>
       <c r="R57" t="n">
-        <v>6703424.353483723</v>
+        <v>6703416</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7296,19 +7148,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7323,22 +7165,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111896685</v>
+        <v>111896621</v>
       </c>
       <c r="B58" t="n">
-        <v>88966</v>
+        <v>90332</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7347,25 +7189,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7375,10 +7217,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>574341.6196639308</v>
+        <v>574320</v>
       </c>
       <c r="R58" t="n">
-        <v>6703451.652109961</v>
+        <v>6703356</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7408,19 +7250,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7447,10 +7279,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111896611</v>
+        <v>111896691</v>
       </c>
       <c r="B59" t="n">
-        <v>90332</v>
+        <v>90684</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7459,25 +7291,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4769</v>
+        <v>4368</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7487,10 +7319,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>574271.5155704983</v>
+        <v>574527</v>
       </c>
       <c r="R59" t="n">
-        <v>6703375.707959844</v>
+        <v>6703449</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7520,19 +7352,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA59" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7559,10 +7381,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111896708</v>
+        <v>111896669</v>
       </c>
       <c r="B60" t="n">
-        <v>98535</v>
+        <v>85253</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7575,21 +7397,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>222498</v>
+        <v>3674</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7599,10 +7421,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>574325.6696152951</v>
+        <v>574252</v>
       </c>
       <c r="R60" t="n">
-        <v>6703458.23244116</v>
+        <v>6703470</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7632,27 +7454,18 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -7671,7 +7484,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111896626</v>
+        <v>111896629</v>
       </c>
       <c r="B61" t="n">
         <v>90332</v>
@@ -7711,10 +7524,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>574356.4769687023</v>
+        <v>574410</v>
       </c>
       <c r="R61" t="n">
-        <v>6703377.944859226</v>
+        <v>6703385</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7744,19 +7557,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7783,10 +7586,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111886372</v>
+        <v>111896625</v>
       </c>
       <c r="B62" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7799,35 +7602,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>574261.3270212604</v>
+        <v>574335</v>
       </c>
       <c r="R62" t="n">
-        <v>6703462.833304818</v>
+        <v>6703404</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7857,19 +7659,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA62" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7884,19 +7676,19 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111896706</v>
+        <v>111896704</v>
       </c>
       <c r="B63" t="n">
         <v>98535</v>
@@ -7936,10 +7728,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>574290.1295200255</v>
+        <v>574300</v>
       </c>
       <c r="R63" t="n">
-        <v>6703480.199912106</v>
+        <v>6703504</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7969,19 +7761,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA63" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8008,10 +7790,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111896619</v>
+        <v>111886848</v>
       </c>
       <c r="B64" t="n">
-        <v>90332</v>
+        <v>86223</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8020,41 +7802,42 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4769</v>
+        <v>4412</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>574270.6945951059</v>
+        <v>574237</v>
       </c>
       <c r="R64" t="n">
-        <v>6703439.835159265</v>
+        <v>6703597</v>
       </c>
       <c r="S64" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8083,7 +7866,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -8093,7 +7876,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8108,22 +7891,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111896684</v>
+        <v>111886372</v>
       </c>
       <c r="B65" t="n">
-        <v>88966</v>
+        <v>90687</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8132,38 +7915,39 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5754</v>
+        <v>5964</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>574298.5092178418</v>
+        <v>574261</v>
       </c>
       <c r="R65" t="n">
-        <v>6703457.181675683</v>
+        <v>6703463</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -8193,19 +7977,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA65" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8220,22 +7994,22 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111896602</v>
+        <v>111896671</v>
       </c>
       <c r="B66" t="n">
-        <v>56543</v>
+        <v>85253</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8244,46 +8018,38 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>103021</v>
+        <v>3674</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>574317.3462017868</v>
+        <v>574320</v>
       </c>
       <c r="R66" t="n">
-        <v>6703406.253286039</v>
+        <v>6703405</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8313,27 +8079,18 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA66" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD66" t="b">
         <v>0</v>
       </c>
       <c r="AE66" t="b">
         <v>0</v>
       </c>
+      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
       </c>
@@ -8352,10 +8109,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111896704</v>
+        <v>111896631</v>
       </c>
       <c r="B67" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8368,21 +8125,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8392,10 +8149,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>574300.0179232516</v>
+        <v>574456</v>
       </c>
       <c r="R67" t="n">
-        <v>6703504.086197484</v>
+        <v>6703507</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8425,19 +8182,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA67" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8464,10 +8211,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111896701</v>
+        <v>111896670</v>
       </c>
       <c r="B68" t="n">
-        <v>98535</v>
+        <v>85253</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8480,21 +8227,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>222498</v>
+        <v>3674</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8504,10 +8251,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>574223.5713984326</v>
+        <v>574302</v>
       </c>
       <c r="R68" t="n">
-        <v>6703448.24379926</v>
+        <v>6703457</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8537,27 +8284,18 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA68" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD68" t="b">
         <v>0</v>
       </c>
       <c r="AE68" t="b">
         <v>0</v>
       </c>
+      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
@@ -8576,10 +8314,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111896615</v>
+        <v>111896588</v>
       </c>
       <c r="B69" t="n">
-        <v>90332</v>
+        <v>101141</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8592,21 +8330,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4769</v>
+        <v>222002</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8616,10 +8354,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>574241.4048918699</v>
+        <v>574305</v>
       </c>
       <c r="R69" t="n">
-        <v>6703470.319338148</v>
+        <v>6703455</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8649,19 +8387,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA69" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8688,10 +8416,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111896691</v>
+        <v>111886498</v>
       </c>
       <c r="B70" t="n">
-        <v>90684</v>
+        <v>98535</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8700,41 +8428,42 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4368</v>
+        <v>222498</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>574527.49941562</v>
+        <v>574334</v>
       </c>
       <c r="R70" t="n">
-        <v>6703449.058466445</v>
+        <v>6703523</v>
       </c>
       <c r="S70" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -8763,7 +8492,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8773,7 +8502,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8788,22 +8517,22 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111896589</v>
+        <v>111896699</v>
       </c>
       <c r="B71" t="n">
-        <v>101141</v>
+        <v>98535</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8816,21 +8545,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8840,10 +8569,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>574319.8708033765</v>
+        <v>574219</v>
       </c>
       <c r="R71" t="n">
-        <v>6703355.482874738</v>
+        <v>6703421</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8873,19 +8602,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA71" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8912,7 +8631,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111896618</v>
+        <v>111896623</v>
       </c>
       <c r="B72" t="n">
         <v>90332</v>
@@ -8952,10 +8671,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>574291.9436535498</v>
+        <v>574296</v>
       </c>
       <c r="R72" t="n">
-        <v>6703488.13161656</v>
+        <v>6703413</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8985,19 +8704,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA72" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB72" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9024,7 +8733,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111896707</v>
+        <v>111896706</v>
       </c>
       <c r="B73" t="n">
         <v>98535</v>
@@ -9064,10 +8773,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>574304.4575714046</v>
+        <v>574290</v>
       </c>
       <c r="R73" t="n">
-        <v>6703456.31690546</v>
+        <v>6703480</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -9097,19 +8806,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA73" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB73" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9136,10 +8835,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111896607</v>
+        <v>111886329</v>
       </c>
       <c r="B74" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9152,34 +8851,35 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>574466.8489239614</v>
+        <v>574258</v>
       </c>
       <c r="R74" t="n">
-        <v>6703514.4207107</v>
+        <v>6703499</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -9209,19 +8909,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA74" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB74" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9236,22 +8926,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111896709</v>
+        <v>111896608</v>
       </c>
       <c r="B75" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9264,21 +8954,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9288,10 +8978,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>574319.8910472075</v>
+        <v>574451</v>
       </c>
       <c r="R75" t="n">
-        <v>6703354.496443897</v>
+        <v>6703513</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9321,19 +9011,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA75" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB75" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9360,10 +9040,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111896682</v>
+        <v>111896624</v>
       </c>
       <c r="B76" t="n">
-        <v>88966</v>
+        <v>90332</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9372,25 +9052,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9400,10 +9080,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>574256.1442139128</v>
+        <v>574320</v>
       </c>
       <c r="R76" t="n">
-        <v>6703474.568800534</v>
+        <v>6703403</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9433,19 +9113,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA76" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB76" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9472,7 +9142,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111896715</v>
+        <v>111886390</v>
       </c>
       <c r="B77" t="n">
         <v>98535</v>
@@ -9506,19 +9176,20 @@
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>574335.2117857126</v>
+        <v>574321</v>
       </c>
       <c r="R77" t="n">
-        <v>6703402.672635308</v>
+        <v>6703542</v>
       </c>
       <c r="S77" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9547,7 +9218,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9557,7 +9228,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9572,22 +9243,22 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111896711</v>
+        <v>111896580</v>
       </c>
       <c r="B78" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9600,21 +9271,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9624,10 +9295,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>574304.6397298749</v>
+        <v>574256</v>
       </c>
       <c r="R78" t="n">
-        <v>6703447.439264891</v>
+        <v>6703474</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9657,19 +9328,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA78" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB78" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9696,10 +9357,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111896616</v>
+        <v>111885492</v>
       </c>
       <c r="B79" t="n">
-        <v>90332</v>
+        <v>99413</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9712,34 +9373,35 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>574249.2078899746</v>
+        <v>574347</v>
       </c>
       <c r="R79" t="n">
-        <v>6703475.413386551</v>
+        <v>6703446</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9769,19 +9431,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA79" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB79" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9796,22 +9448,22 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111896680</v>
+        <v>111896648</v>
       </c>
       <c r="B80" t="n">
-        <v>88966</v>
+        <v>78512</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9820,49 +9472,38 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5754</v>
+        <v>6456</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>574323.5395620605</v>
+        <v>574528</v>
       </c>
       <c r="R80" t="n">
-        <v>6703369.373988308</v>
+        <v>6703436</v>
       </c>
       <c r="S80" t="n">
         <v>25</v>
@@ -9892,19 +9533,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA80" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB80" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9932,10 +9563,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111896624</v>
+        <v>111886738</v>
       </c>
       <c r="B81" t="n">
-        <v>90332</v>
+        <v>90684</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9944,41 +9575,42 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4769</v>
+        <v>4368</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>574320.3710326073</v>
+        <v>574247</v>
       </c>
       <c r="R81" t="n">
-        <v>6703403.354864516</v>
+        <v>6703547</v>
       </c>
       <c r="S81" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -10007,7 +9639,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -10017,7 +9649,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -10032,22 +9664,22 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111886358</v>
+        <v>111896589</v>
       </c>
       <c r="B82" t="n">
-        <v>101703</v>
+        <v>101141</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10060,16 +9692,16 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>222412</v>
+        <v>222002</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -10078,20 +9710,19 @@
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>574377.5537716877</v>
+        <v>574320</v>
       </c>
       <c r="R82" t="n">
-        <v>6703530.841373169</v>
+        <v>6703355</v>
       </c>
       <c r="S82" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -10118,19 +9749,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AA82" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB82" t="inlineStr">
-        <is>
-          <t>11:10</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -10145,12 +9766,12 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
@@ -10198,10 +9819,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>574230.0863521076</v>
+        <v>574230</v>
       </c>
       <c r="R83" t="n">
-        <v>6703588.503049062</v>
+        <v>6703589</v>
       </c>
       <c r="S83" t="n">
         <v>25</v>
@@ -10270,10 +9891,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111886424</v>
+        <v>111896703</v>
       </c>
       <c r="B84" t="n">
-        <v>88899</v>
+        <v>98535</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10282,48 +9903,38 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>3286</v>
+        <v>222498</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>574278.5667425465</v>
+        <v>574310</v>
       </c>
       <c r="R84" t="n">
-        <v>6703465.653919976</v>
+        <v>6703519</v>
       </c>
       <c r="S84" t="n">
         <v>25</v>
@@ -10353,19 +9964,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA84" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB84" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -10380,22 +9981,22 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111896650</v>
+        <v>111886358</v>
       </c>
       <c r="B85" t="n">
-        <v>89183</v>
+        <v>101703</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10408,37 +10009,38 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>3215</v>
+        <v>222412</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>574250.0745535446</v>
+        <v>574378</v>
       </c>
       <c r="R85" t="n">
-        <v>6703481.352027887</v>
+        <v>6703531</v>
       </c>
       <c r="S85" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -10467,7 +10069,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
@@ -10477,7 +10079,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10492,19 +10094,19 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111896627</v>
+        <v>111896607</v>
       </c>
       <c r="B86" t="n">
         <v>90332</v>
@@ -10544,10 +10146,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>574373.314176796</v>
+        <v>574467</v>
       </c>
       <c r="R86" t="n">
-        <v>6703376.316927806</v>
+        <v>6703514</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -10577,19 +10179,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z86" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA86" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB86" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10616,10 +10208,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111896681</v>
+        <v>111896595</v>
       </c>
       <c r="B87" t="n">
-        <v>88966</v>
+        <v>101703</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10628,49 +10220,38 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>5754</v>
+        <v>222412</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>574330.7595642635</v>
+        <v>574247</v>
       </c>
       <c r="R87" t="n">
-        <v>6703354.719507183</v>
+        <v>6703405</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10700,28 +10281,17 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA87" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB87" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD87" t="b">
         <v>0</v>
       </c>
       <c r="AE87" t="b">
         <v>0</v>
       </c>
-      <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="b">
         <v>0</v>
       </c>
@@ -10740,7 +10310,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111896608</v>
+        <v>111896627</v>
       </c>
       <c r="B88" t="n">
         <v>90332</v>
@@ -10780,10 +10350,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>574450.5671428492</v>
+        <v>574373</v>
       </c>
       <c r="R88" t="n">
-        <v>6703513.099122572</v>
+        <v>6703376</v>
       </c>
       <c r="S88" t="n">
         <v>25</v>
@@ -10813,19 +10383,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA88" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB88" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10852,10 +10412,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111896632</v>
+        <v>111896668</v>
       </c>
       <c r="B89" t="n">
-        <v>90332</v>
+        <v>85089</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10868,21 +10428,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4769</v>
+        <v>3762</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10892,10 +10452,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>574468.9496102105</v>
+        <v>574318</v>
       </c>
       <c r="R89" t="n">
-        <v>6703484.36623429</v>
+        <v>6703431</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10925,19 +10485,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA89" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB89" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10964,10 +10514,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111896631</v>
+        <v>111896696</v>
       </c>
       <c r="B90" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10980,21 +10530,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -11004,10 +10554,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>574455.6288491808</v>
+        <v>574273</v>
       </c>
       <c r="R90" t="n">
-        <v>6703507.28235705</v>
+        <v>6703374</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -11037,19 +10587,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA90" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB90" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -11076,10 +10616,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111896668</v>
+        <v>111896587</v>
       </c>
       <c r="B91" t="n">
-        <v>85089</v>
+        <v>101141</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11092,21 +10632,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>3762</v>
+        <v>222002</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11116,10 +10656,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>574317.8180265825</v>
+        <v>574292</v>
       </c>
       <c r="R91" t="n">
-        <v>6703431.427106799</v>
+        <v>6703496</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -11149,19 +10689,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z91" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA91" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB91" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11188,10 +10718,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111896623</v>
+        <v>111896716</v>
       </c>
       <c r="B92" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11204,21 +10734,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -11228,10 +10758,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>574295.9517128408</v>
+        <v>574338</v>
       </c>
       <c r="R92" t="n">
-        <v>6703413.21552579</v>
+        <v>6703387</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -11261,19 +10791,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z92" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA92" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB92" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11300,10 +10820,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111896587</v>
+        <v>111896712</v>
       </c>
       <c r="B93" t="n">
-        <v>101141</v>
+        <v>98535</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11316,21 +10836,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11340,10 +10860,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>574292.2757661514</v>
+        <v>574312</v>
       </c>
       <c r="R93" t="n">
-        <v>6703496.032899947</v>
+        <v>6703436</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11373,19 +10893,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z93" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA93" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB93" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11412,7 +10922,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111896710</v>
+        <v>111896709</v>
       </c>
       <c r="B94" t="n">
         <v>98535</v>
@@ -11452,10 +10962,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>574289.9830554068</v>
+        <v>574320</v>
       </c>
       <c r="R94" t="n">
-        <v>6703415.066736702</v>
+        <v>6703354</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11485,19 +10995,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA94" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB94" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11524,7 +11024,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111896610</v>
+        <v>111896611</v>
       </c>
       <c r="B95" t="n">
         <v>90332</v>
@@ -11564,10 +11064,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>574272.2591996479</v>
+        <v>574272</v>
       </c>
       <c r="R95" t="n">
-        <v>6703411.74269451</v>
+        <v>6703376</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11597,19 +11097,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z95" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA95" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB95" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11636,10 +11126,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111886738</v>
+        <v>111896616</v>
       </c>
       <c r="B96" t="n">
-        <v>90684</v>
+        <v>90332</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11648,42 +11138,41 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>4368</v>
+        <v>4769</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>574247.2374925215</v>
+        <v>574249</v>
       </c>
       <c r="R96" t="n">
-        <v>6703547.409599461</v>
+        <v>6703475</v>
       </c>
       <c r="S96" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -11710,19 +11199,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z96" t="inlineStr">
-        <is>
-          <t>11:36</t>
-        </is>
-      </c>
       <c r="AA96" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB96" t="inlineStr">
-        <is>
-          <t>11:36</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11737,22 +11216,22 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111886329</v>
+        <v>111896702</v>
       </c>
       <c r="B97" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11765,35 +11244,34 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>574258.1186801053</v>
+        <v>574285</v>
       </c>
       <c r="R97" t="n">
-        <v>6703498.786127698</v>
+        <v>6703508</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11823,19 +11301,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z97" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA97" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB97" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11850,22 +11318,22 @@
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111885842</v>
+        <v>111896614</v>
       </c>
       <c r="B98" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11878,35 +11346,34 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>574289.9628196132</v>
+        <v>574229</v>
       </c>
       <c r="R98" t="n">
-        <v>6703416.053151045</v>
+        <v>6703430</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11936,19 +11403,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z98" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA98" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB98" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11963,22 +11420,22 @@
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111896670</v>
+        <v>111896650</v>
       </c>
       <c r="B99" t="n">
-        <v>85253</v>
+        <v>89183</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11991,21 +11448,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3674</v>
+        <v>3215</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -12015,10 +11472,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>574302.4612936915</v>
+        <v>574250</v>
       </c>
       <c r="R99" t="n">
-        <v>6703457.262763234</v>
+        <v>6703481</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -12048,28 +11505,17 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z99" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA99" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB99" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD99" t="b">
         <v>0</v>
       </c>
       <c r="AE99" t="b">
         <v>0</v>
       </c>
-      <c r="AF99" t="inlineStr"/>
       <c r="AG99" t="b">
         <v>0</v>
       </c>
@@ -12088,10 +11534,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111896630</v>
+        <v>111896651</v>
       </c>
       <c r="B100" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12104,21 +11550,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12128,10 +11574,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>574436.8751361333</v>
+        <v>574442</v>
       </c>
       <c r="R100" t="n">
-        <v>6703433.872390999</v>
+        <v>6703459</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -12161,19 +11607,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z100" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA100" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB100" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12200,10 +11636,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111896622</v>
+        <v>111896682</v>
       </c>
       <c r="B101" t="n">
-        <v>90332</v>
+        <v>88966</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12212,25 +11648,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -12240,10 +11676,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>574283.0263743812</v>
+        <v>574256</v>
       </c>
       <c r="R101" t="n">
-        <v>6703416.897689151</v>
+        <v>6703475</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -12273,19 +11709,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z101" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA101" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB101" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12312,10 +11738,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111896699</v>
+        <v>111896630</v>
       </c>
       <c r="B102" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12328,21 +11754,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12352,10 +11778,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>574219.1872449504</v>
+        <v>574437</v>
       </c>
       <c r="R102" t="n">
-        <v>6703421.016299267</v>
+        <v>6703434</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12385,19 +11811,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA102" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB102" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12424,10 +11840,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111896588</v>
+        <v>111896620</v>
       </c>
       <c r="B103" t="n">
-        <v>101141</v>
+        <v>90332</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12440,21 +11856,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12464,10 +11880,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>574305.4658307037</v>
+        <v>574293</v>
       </c>
       <c r="R103" t="n">
-        <v>6703455.350775132</v>
+        <v>6703456</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12497,19 +11913,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA103" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB103" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12536,10 +11942,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111896716</v>
+        <v>111896590</v>
       </c>
       <c r="B104" t="n">
-        <v>98535</v>
+        <v>101141</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12552,21 +11958,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12576,10 +11982,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>574337.5017077615</v>
+        <v>574319</v>
       </c>
       <c r="R104" t="n">
-        <v>6703387.423688528</v>
+        <v>6703403</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12609,19 +12015,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA104" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB104" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12648,10 +12044,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111896590</v>
+        <v>111886713</v>
       </c>
       <c r="B105" t="n">
-        <v>101141</v>
+        <v>90684</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12660,38 +12056,39 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>222002</v>
+        <v>4368</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>574319.3829989098</v>
+        <v>574267</v>
       </c>
       <c r="R105" t="n">
-        <v>6703403.334587433</v>
+        <v>6703556</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12721,19 +12118,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA105" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB105" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12748,22 +12135,22 @@
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111896629</v>
+        <v>111886424</v>
       </c>
       <c r="B106" t="n">
-        <v>90332</v>
+        <v>88899</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12772,38 +12159,48 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr"/>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>574410.1934356905</v>
+        <v>574279</v>
       </c>
       <c r="R106" t="n">
-        <v>6703385.462655744</v>
+        <v>6703466</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12833,19 +12230,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z106" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA106" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB106" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12860,22 +12247,22 @@
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111896669</v>
+        <v>111896581</v>
       </c>
       <c r="B107" t="n">
-        <v>85253</v>
+        <v>99413</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12888,21 +12275,21 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3674</v>
+        <v>221235</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12912,10 +12299,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>574252.2932853762</v>
+        <v>574334</v>
       </c>
       <c r="R107" t="n">
-        <v>6703469.555768683</v>
+        <v>6703424</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12945,28 +12332,17 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z107" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA107" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB107" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD107" t="b">
         <v>0</v>
       </c>
       <c r="AE107" t="b">
         <v>0</v>
       </c>
-      <c r="AF107" t="inlineStr"/>
       <c r="AG107" t="b">
         <v>0</v>
       </c>
@@ -12985,10 +12361,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111885492</v>
+        <v>111896701</v>
       </c>
       <c r="B108" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -13001,35 +12377,34 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>574346.6812743739</v>
+        <v>574224</v>
       </c>
       <c r="R108" t="n">
-        <v>6703445.835096321</v>
+        <v>6703448</v>
       </c>
       <c r="S108" t="n">
         <v>25</v>
@@ -13059,19 +12434,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z108" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA108" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB108" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -13086,22 +12451,22 @@
       <c r="AT108" t="inlineStr"/>
       <c r="AW108" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111885762</v>
+        <v>111896711</v>
       </c>
       <c r="B109" t="n">
-        <v>90295</v>
+        <v>98535</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13114,35 +12479,34 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4740</v>
+        <v>222498</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Sotriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Lactarius lignyotus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>574311.748177869</v>
+        <v>574305</v>
       </c>
       <c r="R109" t="n">
-        <v>6703438.210316412</v>
+        <v>6703447</v>
       </c>
       <c r="S109" t="n">
         <v>25</v>
@@ -13172,19 +12536,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z109" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA109" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB109" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -13199,22 +12553,22 @@
       <c r="AT109" t="inlineStr"/>
       <c r="AW109" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX109" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111896648</v>
+        <v>111896714</v>
       </c>
       <c r="B110" t="n">
-        <v>78512</v>
+        <v>98535</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13227,21 +12581,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6456</v>
+        <v>222498</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -13251,10 +12605,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>574527.773473482</v>
+        <v>574320</v>
       </c>
       <c r="R110" t="n">
-        <v>6703435.741965486</v>
+        <v>6703403</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -13284,28 +12638,17 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA110" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB110" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD110" t="b">
         <v>0</v>
       </c>
       <c r="AE110" t="b">
         <v>0</v>
       </c>
-      <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="b">
         <v>0</v>
       </c>
@@ -13324,10 +12667,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111896717</v>
+        <v>111896615</v>
       </c>
       <c r="B111" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13340,21 +12683,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -13364,10 +12707,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>574371.1760314812</v>
+        <v>574241</v>
       </c>
       <c r="R111" t="n">
-        <v>6703384.167737775</v>
+        <v>6703470</v>
       </c>
       <c r="S111" t="n">
         <v>25</v>
@@ -13397,19 +12740,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z111" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA111" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB111" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -13436,10 +12769,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111896651</v>
+        <v>111896622</v>
       </c>
       <c r="B112" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13452,21 +12785,21 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -13476,10 +12809,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>574442.2963542459</v>
+        <v>574283</v>
       </c>
       <c r="R112" t="n">
-        <v>6703458.654406736</v>
+        <v>6703417</v>
       </c>
       <c r="S112" t="n">
         <v>25</v>
@@ -13509,19 +12842,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z112" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA112" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB112" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD112" t="b">
@@ -13548,10 +12871,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111886198</v>
+        <v>111896707</v>
       </c>
       <c r="B113" t="n">
-        <v>88966</v>
+        <v>98535</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13560,39 +12883,38 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>574244.409384649</v>
+        <v>574304</v>
       </c>
       <c r="R113" t="n">
-        <v>6703468.407307444</v>
+        <v>6703456</v>
       </c>
       <c r="S113" t="n">
         <v>25</v>
@@ -13622,19 +12944,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA113" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB113" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD113" t="b">
@@ -13649,22 +12961,22 @@
       <c r="AT113" t="inlineStr"/>
       <c r="AW113" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX113" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111896580</v>
+        <v>111896681</v>
       </c>
       <c r="B114" t="n">
-        <v>99413</v>
+        <v>88966</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13673,38 +12985,49 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>221235</v>
+        <v>5754</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>574256.1644406004</v>
+        <v>574331</v>
       </c>
       <c r="R114" t="n">
-        <v>6703473.582402139</v>
+        <v>6703355</v>
       </c>
       <c r="S114" t="n">
         <v>25</v>
@@ -13734,27 +13057,18 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z114" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA114" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB114" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD114" t="b">
         <v>0</v>
       </c>
       <c r="AE114" t="b">
         <v>0</v>
       </c>
+      <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="b">
         <v>0</v>
       </c>
@@ -13773,10 +13087,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111896581</v>
+        <v>111885762</v>
       </c>
       <c r="B115" t="n">
-        <v>99413</v>
+        <v>90295</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13789,34 +13103,35 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>221235</v>
+        <v>4740</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Sotriska</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lactarius lignyotus</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>574333.7783005711</v>
+        <v>574312</v>
       </c>
       <c r="R115" t="n">
-        <v>6703424.353483723</v>
+        <v>6703438</v>
       </c>
       <c r="S115" t="n">
         <v>25</v>
@@ -13846,19 +13161,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z115" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA115" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB115" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD115" t="b">
@@ -13873,22 +13178,22 @@
       <c r="AT115" t="inlineStr"/>
       <c r="AW115" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111896695</v>
+        <v>111896685</v>
       </c>
       <c r="B116" t="n">
-        <v>98535</v>
+        <v>88966</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13897,25 +13202,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -13925,10 +13230,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>574528.5483397129</v>
+        <v>574342</v>
       </c>
       <c r="R116" t="n">
-        <v>6703446.119582187</v>
+        <v>6703452</v>
       </c>
       <c r="S116" t="n">
         <v>25</v>
@@ -13958,19 +13263,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z116" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA116" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB116" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD116" t="b">
@@ -13997,10 +13292,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111896601</v>
+        <v>111896610</v>
       </c>
       <c r="B117" t="n">
-        <v>56543</v>
+        <v>90332</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14009,46 +13304,38 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>103021</v>
+        <v>4769</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>574287.6814794211</v>
+        <v>574272</v>
       </c>
       <c r="R117" t="n">
-        <v>6703454.985900432</v>
+        <v>6703412</v>
       </c>
       <c r="S117" t="n">
         <v>25</v>
@@ -14078,19 +13365,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA117" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB117" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD117" t="b">
@@ -14117,10 +13394,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111896620</v>
+        <v>111896710</v>
       </c>
       <c r="B118" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14133,21 +13410,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -14157,10 +13434,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>574292.6013405366</v>
+        <v>574290</v>
       </c>
       <c r="R118" t="n">
-        <v>6703456.073649234</v>
+        <v>6703415</v>
       </c>
       <c r="S118" t="n">
         <v>25</v>
@@ -14190,19 +13467,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z118" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA118" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB118" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD118" t="b">
@@ -14229,10 +13496,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111896595</v>
+        <v>111896715</v>
       </c>
       <c r="B119" t="n">
-        <v>101703</v>
+        <v>98535</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14245,21 +13512,21 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -14269,10 +13536,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>574247.1857444055</v>
+        <v>574335</v>
       </c>
       <c r="R119" t="n">
-        <v>6703405.307550027</v>
+        <v>6703403</v>
       </c>
       <c r="S119" t="n">
         <v>25</v>
@@ -14302,19 +13569,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z119" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA119" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB119" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD119" t="b">
@@ -14341,7 +13598,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111896617</v>
+        <v>111896619</v>
       </c>
       <c r="B120" t="n">
         <v>90332</v>
@@ -14381,10 +13638,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>574269.0777989432</v>
+        <v>574271</v>
       </c>
       <c r="R120" t="n">
-        <v>6703494.570243312</v>
+        <v>6703440</v>
       </c>
       <c r="S120" t="n">
         <v>25</v>
@@ -14414,19 +13671,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z120" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA120" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB120" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD120" t="b">
@@ -14453,10 +13700,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111896621</v>
+        <v>111886198</v>
       </c>
       <c r="B121" t="n">
-        <v>90332</v>
+        <v>88966</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14465,38 +13712,39 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>574319.8505595494</v>
+        <v>574244</v>
       </c>
       <c r="R121" t="n">
-        <v>6703356.46930531</v>
+        <v>6703468</v>
       </c>
       <c r="S121" t="n">
         <v>25</v>
@@ -14526,19 +13774,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z121" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA121" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB121" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD121" t="b">
@@ -14553,22 +13791,22 @@
       <c r="AT121" t="inlineStr"/>
       <c r="AW121" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX121" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111896697</v>
+        <v>111896680</v>
       </c>
       <c r="B122" t="n">
-        <v>98535</v>
+        <v>88966</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14577,38 +13815,49 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>574252.510194034</v>
+        <v>574324</v>
       </c>
       <c r="R122" t="n">
-        <v>6703386.666867712</v>
+        <v>6703369</v>
       </c>
       <c r="S122" t="n">
         <v>25</v>
@@ -14638,27 +13887,18 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z122" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA122" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB122" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD122" t="b">
         <v>0</v>
       </c>
       <c r="AE122" t="b">
         <v>0</v>
       </c>
+      <c r="AF122" t="inlineStr"/>
       <c r="AG122" t="b">
         <v>0</v>
       </c>
@@ -14677,10 +13917,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111886310</v>
+        <v>111885073</v>
       </c>
       <c r="B123" t="n">
-        <v>101703</v>
+        <v>90684</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14689,25 +13929,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>222412</v>
+        <v>4368</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14718,10 +13958,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>574524.3526532104</v>
+        <v>574524</v>
       </c>
       <c r="R123" t="n">
-        <v>6703457.875106505</v>
+        <v>6703458</v>
       </c>
       <c r="S123" t="n">
         <v>1</v>
@@ -14753,7 +13993,7 @@
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA123" t="inlineStr">
@@ -14763,7 +14003,7 @@
       </c>
       <c r="AB123" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD123" t="b">
@@ -14790,10 +14030,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111885073</v>
+        <v>111885375</v>
       </c>
       <c r="B124" t="n">
-        <v>90684</v>
+        <v>90332</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14802,25 +14042,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>4368</v>
+        <v>4769</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14831,10 +14071,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>574524.3526532104</v>
+        <v>574524</v>
       </c>
       <c r="R124" t="n">
-        <v>6703457.875106505</v>
+        <v>6703458</v>
       </c>
       <c r="S124" t="n">
         <v>1</v>
@@ -14944,10 +14184,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>574524.3526532104</v>
+        <v>574524</v>
       </c>
       <c r="R125" t="n">
-        <v>6703457.875106505</v>
+        <v>6703458</v>
       </c>
       <c r="S125" t="n">
         <v>1</v>
@@ -15016,10 +14256,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111885375</v>
+        <v>111886310</v>
       </c>
       <c r="B126" t="n">
-        <v>90332</v>
+        <v>101703</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -15032,21 +14272,21 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -15057,10 +14297,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>574524.3526532104</v>
+        <v>574524</v>
       </c>
       <c r="R126" t="n">
-        <v>6703457.875106505</v>
+        <v>6703458</v>
       </c>
       <c r="S126" t="n">
         <v>1</v>
@@ -15092,7 +14332,7 @@
       </c>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
@@ -15102,7 +14342,7 @@
       </c>
       <c r="AB126" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD126" t="b">
@@ -15129,10 +14369,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>112204500</v>
+        <v>112204524</v>
       </c>
       <c r="B127" t="n">
-        <v>94134</v>
+        <v>98446</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15141,25 +14381,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>53</v>
+        <v>222771</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -15169,10 +14409,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>574269.5685146837</v>
+        <v>574284</v>
       </c>
       <c r="R127" t="n">
-        <v>6703542.933566672</v>
+        <v>6703462</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -15202,19 +14442,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z127" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA127" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB127" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -15241,7 +14471,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>112204515</v>
+        <v>112204520</v>
       </c>
       <c r="B128" t="n">
         <v>90332</v>
@@ -15281,10 +14511,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>574282.6604460762</v>
+        <v>574432</v>
       </c>
       <c r="R128" t="n">
-        <v>6703458.83017432</v>
+        <v>6703353</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -15314,19 +14544,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z128" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA128" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB128" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD128" t="b">
@@ -15353,10 +14573,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>112204559</v>
+        <v>112204532</v>
       </c>
       <c r="B129" t="n">
-        <v>85253</v>
+        <v>90658</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15365,25 +14585,25 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>3674</v>
+        <v>4361</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -15393,10 +14613,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>574274.4831700509</v>
+        <v>574168</v>
       </c>
       <c r="R129" t="n">
-        <v>6703471.98445757</v>
+        <v>6703580</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -15426,19 +14646,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z129" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA129" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB129" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD129" t="b">
@@ -15465,10 +14675,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>112204557</v>
+        <v>112204526</v>
       </c>
       <c r="B130" t="n">
-        <v>98535</v>
+        <v>93069</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15481,21 +14691,21 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>222498</v>
+        <v>2813</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -15505,10 +14715,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>574370.7248198281</v>
+        <v>574344</v>
       </c>
       <c r="R130" t="n">
-        <v>6703358.007142943</v>
+        <v>6703368</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -15538,19 +14748,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z130" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA130" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB130" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD130" t="b">
@@ -15577,10 +14777,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>112204497</v>
+        <v>112204503</v>
       </c>
       <c r="B131" t="n">
-        <v>99413</v>
+        <v>101141</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -15593,21 +14793,21 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>221235</v>
+        <v>222002</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -15617,10 +14817,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>574347.3062476972</v>
+        <v>574318</v>
       </c>
       <c r="R131" t="n">
-        <v>6703559.824081828</v>
+        <v>6703402</v>
       </c>
       <c r="S131" t="n">
         <v>15</v>
@@ -15650,19 +14850,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z131" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA131" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB131" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD131" t="b">
@@ -15689,10 +14879,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>112204509</v>
+        <v>112204517</v>
       </c>
       <c r="B132" t="n">
-        <v>4711</v>
+        <v>90332</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -15705,43 +14895,34 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>100299</v>
+        <v>4769</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>574303.5955128628</v>
+        <v>574383</v>
       </c>
       <c r="R132" t="n">
-        <v>6703522.415461906</v>
+        <v>6703344</v>
       </c>
       <c r="S132" t="n">
         <v>15</v>
@@ -15771,28 +14952,17 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z132" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA132" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB132" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD132" t="b">
         <v>0</v>
       </c>
       <c r="AE132" t="b">
         <v>0</v>
       </c>
-      <c r="AF132" t="inlineStr"/>
       <c r="AG132" t="b">
         <v>0</v>
       </c>
@@ -15811,10 +14981,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>112204542</v>
+        <v>112204548</v>
       </c>
       <c r="B133" t="n">
-        <v>88966</v>
+        <v>90684</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -15827,45 +14997,34 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>5754</v>
+        <v>4368</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="N133" t="inlineStr"/>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>574343.8168030245</v>
+        <v>574278</v>
       </c>
       <c r="R133" t="n">
-        <v>6703344.625630431</v>
+        <v>6703560</v>
       </c>
       <c r="S133" t="n">
         <v>15</v>
@@ -15895,28 +15054,17 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z133" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA133" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB133" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD133" t="b">
         <v>0</v>
       </c>
       <c r="AE133" t="b">
         <v>0</v>
       </c>
-      <c r="AF133" t="inlineStr"/>
       <c r="AG133" t="b">
         <v>0</v>
       </c>
@@ -15935,10 +15083,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>112204535</v>
+        <v>112204528</v>
       </c>
       <c r="B134" t="n">
-        <v>93057</v>
+        <v>78512</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -15951,21 +15099,21 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2809</v>
+        <v>6456</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -15975,10 +15123,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>574347.7871166773</v>
+        <v>574534</v>
       </c>
       <c r="R134" t="n">
-        <v>6703367.898026479</v>
+        <v>6703436</v>
       </c>
       <c r="S134" t="n">
         <v>15</v>
@@ -16008,19 +15156,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z134" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA134" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB134" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD134" t="b">
@@ -16047,10 +15185,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>112204558</v>
+        <v>112204535</v>
       </c>
       <c r="B135" t="n">
-        <v>85253</v>
+        <v>93057</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -16063,21 +15201,21 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>3674</v>
+        <v>2809</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -16087,10 +15225,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>574268.2516301526</v>
+        <v>574348</v>
       </c>
       <c r="R135" t="n">
-        <v>6703486.658828637</v>
+        <v>6703368</v>
       </c>
       <c r="S135" t="n">
         <v>15</v>
@@ -16120,19 +15258,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z135" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA135" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB135" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD135" t="b">
@@ -16159,10 +15287,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>112204547</v>
+        <v>112204513</v>
       </c>
       <c r="B136" t="n">
-        <v>90684</v>
+        <v>90332</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -16171,25 +15299,25 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>4368</v>
+        <v>4769</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -16199,10 +15327,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>574347.1847377245</v>
+        <v>574350</v>
       </c>
       <c r="R136" t="n">
-        <v>6703565.742328658</v>
+        <v>6703560</v>
       </c>
       <c r="S136" t="n">
         <v>15</v>
@@ -16232,19 +15360,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z136" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA136" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB136" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD136" t="b">
@@ -16271,10 +15389,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>112204505</v>
+        <v>112204552</v>
       </c>
       <c r="B137" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16283,25 +15401,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -16311,10 +15429,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>574432.586502844</v>
+        <v>574303</v>
       </c>
       <c r="R137" t="n">
-        <v>6703378.028122345</v>
+        <v>6703521</v>
       </c>
       <c r="S137" t="n">
         <v>15</v>
@@ -16344,19 +15462,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z137" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA137" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB137" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD137" t="b">
@@ -16383,7 +15491,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>112204513</v>
+        <v>112204512</v>
       </c>
       <c r="B138" t="n">
         <v>90332</v>
@@ -16423,10 +15531,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>574350.2702208358</v>
+        <v>574381</v>
       </c>
       <c r="R138" t="n">
-        <v>6703559.884937584</v>
+        <v>6703524</v>
       </c>
       <c r="S138" t="n">
         <v>15</v>
@@ -16456,19 +15564,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z138" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA138" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB138" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD138" t="b">
@@ -16495,10 +15593,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>112204527</v>
+        <v>112205319</v>
       </c>
       <c r="B139" t="n">
-        <v>93069</v>
+        <v>85189</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -16507,38 +15605,39 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>2813</v>
+        <v>445</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Kopparspindling</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Cortinarius cupreorufus</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>Brandrud</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
-          <t>Kratte Masugn, Gstr</t>
+          <t>Kratte masugn (Kratte masugn), Gstr</t>
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>574434.3395584478</v>
+        <v>574311</v>
       </c>
       <c r="R139" t="n">
-        <v>6703388.919394823</v>
+        <v>6703374</v>
       </c>
       <c r="S139" t="n">
         <v>15</v>
@@ -16570,7 +15669,7 @@
       </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:32</t>
         </is>
       </c>
       <c r="AA139" t="inlineStr">
@@ -16580,7 +15679,7 @@
       </c>
       <c r="AB139" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:32</t>
         </is>
       </c>
       <c r="AD139" t="b">
@@ -16607,10 +15706,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>112204562</v>
+        <v>112204549</v>
       </c>
       <c r="B140" t="n">
-        <v>85253</v>
+        <v>90684</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -16619,25 +15718,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3674</v>
+        <v>4368</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -16647,10 +15746,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>574315.945123781</v>
+        <v>574526</v>
       </c>
       <c r="R140" t="n">
-        <v>6703402.277201912</v>
+        <v>6703440</v>
       </c>
       <c r="S140" t="n">
         <v>15</v>
@@ -16680,19 +15779,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z140" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA140" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB140" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD140" t="b">
@@ -16719,10 +15808,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>112204502</v>
+        <v>112204558</v>
       </c>
       <c r="B141" t="n">
-        <v>101141</v>
+        <v>85253</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -16735,21 +15824,21 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>222002</v>
+        <v>3674</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -16759,10 +15848,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>574289.8818764758</v>
+        <v>574268</v>
       </c>
       <c r="R141" t="n">
-        <v>6703419.998805733</v>
+        <v>6703487</v>
       </c>
       <c r="S141" t="n">
         <v>15</v>
@@ -16792,19 +15881,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z141" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA141" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB141" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD141" t="b">
@@ -16831,10 +15910,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>112204516</v>
+        <v>112204502</v>
       </c>
       <c r="B142" t="n">
-        <v>90332</v>
+        <v>101141</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -16847,21 +15926,21 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>4769</v>
+        <v>222002</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -16871,10 +15950,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>574335.4547631016</v>
+        <v>574290</v>
       </c>
       <c r="R142" t="n">
-        <v>6703390.835600958</v>
+        <v>6703420</v>
       </c>
       <c r="S142" t="n">
         <v>15</v>
@@ -16904,19 +15983,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z142" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA142" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB142" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD142" t="b">
@@ -16943,10 +16012,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>112204503</v>
+        <v>112204557</v>
       </c>
       <c r="B143" t="n">
-        <v>101141</v>
+        <v>98535</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -16959,21 +16028,21 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -16983,10 +16052,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>574318.4152087236</v>
+        <v>574371</v>
       </c>
       <c r="R143" t="n">
-        <v>6703402.327892771</v>
+        <v>6703358</v>
       </c>
       <c r="S143" t="n">
         <v>15</v>
@@ -17016,19 +16085,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z143" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA143" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB143" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD143" t="b">
@@ -17055,10 +16114,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>112204512</v>
+        <v>112204537</v>
       </c>
       <c r="B144" t="n">
-        <v>90332</v>
+        <v>88956</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -17067,25 +16126,25 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>4769</v>
+        <v>5747</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -17095,10 +16154,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>574380.6595934794</v>
+        <v>574226</v>
       </c>
       <c r="R144" t="n">
-        <v>6703523.997564653</v>
+        <v>6703548</v>
       </c>
       <c r="S144" t="n">
         <v>15</v>
@@ -17128,19 +16187,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z144" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA144" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB144" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD144" t="b">
@@ -17167,10 +16216,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>112204548</v>
+        <v>112204515</v>
       </c>
       <c r="B145" t="n">
-        <v>90684</v>
+        <v>90332</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -17179,25 +16228,25 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>4368</v>
+        <v>4769</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -17207,10 +16256,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>574278.1165156383</v>
+        <v>574283</v>
       </c>
       <c r="R145" t="n">
-        <v>6703559.884366055</v>
+        <v>6703459</v>
       </c>
       <c r="S145" t="n">
         <v>15</v>
@@ -17240,19 +16289,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z145" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA145" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB145" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD145" t="b">
@@ -17279,10 +16318,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>112204524</v>
+        <v>112204516</v>
       </c>
       <c r="B146" t="n">
-        <v>98446</v>
+        <v>90332</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -17295,21 +16334,21 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>222771</v>
+        <v>4769</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -17319,10 +16358,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>574283.5877621344</v>
+        <v>574335</v>
       </c>
       <c r="R146" t="n">
-        <v>6703461.809648006</v>
+        <v>6703391</v>
       </c>
       <c r="S146" t="n">
         <v>15</v>
@@ -17352,19 +16391,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z146" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA146" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB146" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD146" t="b">
@@ -17440,10 +16469,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>574257.1765477085</v>
+        <v>574257</v>
       </c>
       <c r="R147" t="n">
-        <v>6703568.829392605</v>
+        <v>6703569</v>
       </c>
       <c r="S147" t="n">
         <v>15</v>
@@ -17473,19 +16502,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z147" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA147" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB147" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD147" t="b">
@@ -17513,10 +16532,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>112204528</v>
+        <v>112204546</v>
       </c>
       <c r="B148" t="n">
-        <v>78512</v>
+        <v>90687</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -17529,21 +16548,21 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>6456</v>
+        <v>5964</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -17553,10 +16572,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>574533.7016248112</v>
+        <v>574312</v>
       </c>
       <c r="R148" t="n">
-        <v>6703435.863973525</v>
+        <v>6703559</v>
       </c>
       <c r="S148" t="n">
         <v>15</v>
@@ -17586,19 +16605,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z148" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA148" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB148" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD148" t="b">
@@ -17625,10 +16634,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>112204506</v>
+        <v>112204496</v>
       </c>
       <c r="B149" t="n">
-        <v>56398</v>
+        <v>99413</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -17637,46 +16646,38 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>100109</v>
+        <v>221235</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>574248.2254867789</v>
+        <v>574374</v>
       </c>
       <c r="R149" t="n">
-        <v>6703547.429857117</v>
+        <v>6703549</v>
       </c>
       <c r="S149" t="n">
         <v>15</v>
@@ -17706,19 +16707,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z149" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA149" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB149" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD149" t="b">
@@ -17745,10 +16736,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>112204532</v>
+        <v>112204507</v>
       </c>
       <c r="B150" t="n">
-        <v>90658</v>
+        <v>101703</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -17757,25 +16748,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>4361</v>
+        <v>222412</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -17785,10 +16776,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>574167.9848346282</v>
+        <v>574348</v>
       </c>
       <c r="R150" t="n">
-        <v>6703580.323071256</v>
+        <v>6703560</v>
       </c>
       <c r="S150" t="n">
         <v>15</v>
@@ -17818,19 +16809,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z150" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA150" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB150" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD150" t="b">
@@ -17857,10 +16838,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>112204529</v>
+        <v>112204556</v>
       </c>
       <c r="B151" t="n">
-        <v>90678</v>
+        <v>98535</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -17873,21 +16854,21 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>4366</v>
+        <v>222498</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -17897,10 +16878,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>574203.0518140288</v>
+        <v>574348</v>
       </c>
       <c r="R151" t="n">
-        <v>6703509.005579688</v>
+        <v>6703560</v>
       </c>
       <c r="S151" t="n">
         <v>15</v>
@@ -17930,19 +16911,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z151" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA151" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB151" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD151" t="b">
@@ -17969,10 +16940,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>112205319</v>
+        <v>112204536</v>
       </c>
       <c r="B152" t="n">
-        <v>85189</v>
+        <v>93057</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -17981,39 +16952,38 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>445</v>
+        <v>2809</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Kopparspindling</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Cortinarius cupreorufus</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Brandrud</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
         <is>
-          <t>Kratte masugn (Kratte masugn), Gstr</t>
+          <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>574310.6039170384</v>
+        <v>574433</v>
       </c>
       <c r="R152" t="n">
-        <v>6703373.549315579</v>
+        <v>6703384</v>
       </c>
       <c r="S152" t="n">
         <v>15</v>
@@ -18043,19 +17013,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z152" t="inlineStr">
-        <is>
-          <t>10:32</t>
-        </is>
-      </c>
       <c r="AA152" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB152" t="inlineStr">
-        <is>
-          <t>10:32</t>
         </is>
       </c>
       <c r="AD152" t="b">
@@ -18082,10 +17042,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>112204556</v>
+        <v>112204559</v>
       </c>
       <c r="B153" t="n">
-        <v>98535</v>
+        <v>85253</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -18098,21 +17058,21 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>222498</v>
+        <v>3674</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
@@ -18122,10 +17082,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>574348.2942387473</v>
+        <v>574274</v>
       </c>
       <c r="R153" t="n">
-        <v>6703559.844366811</v>
+        <v>6703472</v>
       </c>
       <c r="S153" t="n">
         <v>15</v>
@@ -18155,19 +17115,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z153" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA153" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB153" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD153" t="b">
@@ -18194,10 +17144,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>112204534</v>
+        <v>112204543</v>
       </c>
       <c r="B154" t="n">
-        <v>85089</v>
+        <v>88966</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18206,25 +17156,25 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>3762</v>
+        <v>5754</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
@@ -18234,10 +17184,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>574275.4711849366</v>
+        <v>574373</v>
       </c>
       <c r="R154" t="n">
-        <v>6703472.004722524</v>
+        <v>6703547</v>
       </c>
       <c r="S154" t="n">
         <v>15</v>
@@ -18267,19 +17217,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z154" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA154" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB154" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD154" t="b">
@@ -18306,10 +17246,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>112204560</v>
+        <v>112204500</v>
       </c>
       <c r="B155" t="n">
-        <v>85253</v>
+        <v>94134</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18318,25 +17258,25 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>3674</v>
+        <v>53</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -18346,10 +17286,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>574297.765871224</v>
+        <v>574270</v>
       </c>
       <c r="R155" t="n">
-        <v>6703421.147378758</v>
+        <v>6703543</v>
       </c>
       <c r="S155" t="n">
         <v>15</v>
@@ -18379,19 +17319,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z155" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA155" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB155" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD155" t="b">
@@ -18418,10 +17348,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>112204536</v>
+        <v>112204562</v>
       </c>
       <c r="B156" t="n">
-        <v>93057</v>
+        <v>85253</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18434,21 +17364,21 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2809</v>
+        <v>3674</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -18458,10 +17388,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>574433.4528946612</v>
+        <v>574316</v>
       </c>
       <c r="R156" t="n">
-        <v>6703383.966974144</v>
+        <v>6703402</v>
       </c>
       <c r="S156" t="n">
         <v>15</v>
@@ -18491,19 +17421,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z156" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA156" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB156" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD156" t="b">
@@ -18530,10 +17450,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>112204496</v>
+        <v>112204527</v>
       </c>
       <c r="B157" t="n">
-        <v>99413</v>
+        <v>93069</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18546,21 +17466,21 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>221235</v>
+        <v>2813</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -18570,10 +17490,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>574374.2149827908</v>
+        <v>574434</v>
       </c>
       <c r="R157" t="n">
-        <v>6703549.028538773</v>
+        <v>6703389</v>
       </c>
       <c r="S157" t="n">
         <v>15</v>
@@ -18603,19 +17523,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z157" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA157" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB157" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD157" t="b">
@@ -18642,10 +17552,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>112204494</v>
+        <v>112204542</v>
       </c>
       <c r="B158" t="n">
-        <v>90662</v>
+        <v>88966</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -18654,38 +17564,49 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>4363</v>
+        <v>5754</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>574214.6640032032</v>
+        <v>574344</v>
       </c>
       <c r="R158" t="n">
-        <v>6703545.261679877</v>
+        <v>6703345</v>
       </c>
       <c r="S158" t="n">
         <v>15</v>
@@ -18715,27 +17636,18 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z158" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA158" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB158" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD158" t="b">
         <v>0</v>
       </c>
       <c r="AE158" t="b">
         <v>0</v>
       </c>
+      <c r="AF158" t="inlineStr"/>
       <c r="AG158" t="b">
         <v>0</v>
       </c>
@@ -18754,10 +17666,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>112204517</v>
+        <v>112204561</v>
       </c>
       <c r="B159" t="n">
-        <v>90332</v>
+        <v>85253</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -18770,21 +17682,21 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>4769</v>
+        <v>3674</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -18794,10 +17706,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>574382.8650266619</v>
+        <v>574311</v>
       </c>
       <c r="R159" t="n">
-        <v>6703344.440605646</v>
+        <v>6703416</v>
       </c>
       <c r="S159" t="n">
         <v>15</v>
@@ -18827,19 +17739,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z159" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA159" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB159" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD159" t="b">
@@ -18866,10 +17768,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>112204519</v>
+        <v>112204509</v>
       </c>
       <c r="B160" t="n">
-        <v>90332</v>
+        <v>4711</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -18882,34 +17784,43 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>4769</v>
+        <v>100299</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr"/>
       <c r="P160" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>574415.9140206763</v>
+        <v>574304</v>
       </c>
       <c r="R160" t="n">
-        <v>6703347.586694749</v>
+        <v>6703522</v>
       </c>
       <c r="S160" t="n">
         <v>15</v>
@@ -18939,27 +17850,18 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z160" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA160" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB160" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD160" t="b">
         <v>0</v>
       </c>
       <c r="AE160" t="b">
         <v>0</v>
       </c>
+      <c r="AF160" t="inlineStr"/>
       <c r="AG160" t="b">
         <v>0</v>
       </c>
@@ -18978,10 +17880,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>112204546</v>
+        <v>112204506</v>
       </c>
       <c r="B161" t="n">
-        <v>90687</v>
+        <v>56398</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -18990,38 +17892,46 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>5964</v>
+        <v>100109</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr"/>
       <c r="P161" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>574312.2325629962</v>
+        <v>574248</v>
       </c>
       <c r="R161" t="n">
-        <v>6703559.104139631</v>
+        <v>6703547</v>
       </c>
       <c r="S161" t="n">
         <v>15</v>
@@ -19051,19 +17961,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z161" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA161" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB161" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD161" t="b">
@@ -19090,10 +17990,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>112204552</v>
+        <v>112204505</v>
       </c>
       <c r="B162" t="n">
-        <v>5113</v>
+        <v>89405</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -19102,25 +18002,25 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I162" t="inlineStr"/>
@@ -19130,10 +18030,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>574302.627751112</v>
+        <v>574433</v>
       </c>
       <c r="R162" t="n">
-        <v>6703521.408803696</v>
+        <v>6703378</v>
       </c>
       <c r="S162" t="n">
         <v>15</v>
@@ -19163,19 +18063,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z162" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA162" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB162" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD162" t="b">
@@ -19202,10 +18092,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>112204537</v>
+        <v>112204521</v>
       </c>
       <c r="B163" t="n">
-        <v>88956</v>
+        <v>90332</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -19214,25 +18104,25 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>5747</v>
+        <v>4769</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I163" t="inlineStr"/>
@@ -19242,10 +18132,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>574226.4592841531</v>
+        <v>574423</v>
       </c>
       <c r="R163" t="n">
-        <v>6703548.463818482</v>
+        <v>6703376</v>
       </c>
       <c r="S163" t="n">
         <v>15</v>
@@ -19275,19 +18165,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z163" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA163" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB163" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD163" t="b">
@@ -19314,10 +18194,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>112204520</v>
+        <v>112204534</v>
       </c>
       <c r="B164" t="n">
-        <v>90332</v>
+        <v>85089</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -19330,21 +18210,21 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>4769</v>
+        <v>3762</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I164" t="inlineStr"/>
@@ -19354,10 +18234,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>574431.6214341687</v>
+        <v>574275</v>
       </c>
       <c r="R164" t="n">
-        <v>6703352.843741677</v>
+        <v>6703472</v>
       </c>
       <c r="S164" t="n">
         <v>15</v>
@@ -19387,19 +18267,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z164" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA164" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB164" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD164" t="b">
@@ -19426,10 +18296,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>112204561</v>
+        <v>112204519</v>
       </c>
       <c r="B165" t="n">
-        <v>85253</v>
+        <v>90332</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -19442,21 +18312,21 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>3674</v>
+        <v>4769</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
@@ -19466,10 +18336,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>574311.2257091174</v>
+        <v>574416</v>
       </c>
       <c r="R165" t="n">
-        <v>6703415.502581363</v>
+        <v>6703348</v>
       </c>
       <c r="S165" t="n">
         <v>15</v>
@@ -19499,19 +18369,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z165" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA165" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB165" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD165" t="b">
@@ -19538,7 +18398,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>112204549</v>
+        <v>112204547</v>
       </c>
       <c r="B166" t="n">
         <v>90684</v>
@@ -19578,10 +18438,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>574525.7060727349</v>
+        <v>574347</v>
       </c>
       <c r="R166" t="n">
-        <v>6703440.140137407</v>
+        <v>6703566</v>
       </c>
       <c r="S166" t="n">
         <v>15</v>
@@ -19611,19 +18471,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z166" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA166" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB166" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD166" t="b">
@@ -19650,10 +18500,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>112204526</v>
+        <v>112204522</v>
       </c>
       <c r="B167" t="n">
-        <v>93069</v>
+        <v>90709</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -19662,25 +18512,25 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>2813</v>
+        <v>5448</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
@@ -19690,10 +18540,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>574343.8349429696</v>
+        <v>574380</v>
       </c>
       <c r="R167" t="n">
-        <v>6703367.816890103</v>
+        <v>6703524</v>
       </c>
       <c r="S167" t="n">
         <v>15</v>
@@ -19723,19 +18573,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z167" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA167" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB167" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD167" t="b">
@@ -19762,10 +18602,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>112204543</v>
+        <v>112204560</v>
       </c>
       <c r="B168" t="n">
-        <v>88966</v>
+        <v>85253</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -19774,25 +18614,25 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>5754</v>
+        <v>3674</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I168" t="inlineStr"/>
@@ -19802,10 +18642,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>574373.2675061799</v>
+        <v>574298</v>
       </c>
       <c r="R168" t="n">
-        <v>6703547.035489688</v>
+        <v>6703421</v>
       </c>
       <c r="S168" t="n">
         <v>15</v>
@@ -19835,19 +18675,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z168" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA168" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB168" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD168" t="b">
@@ -19874,10 +18704,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>112204522</v>
+        <v>112204529</v>
       </c>
       <c r="B169" t="n">
-        <v>90709</v>
+        <v>90678</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -19886,25 +18716,25 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>5448</v>
+        <v>4366</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
@@ -19914,10 +18744,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>574379.6715925899</v>
+        <v>574203</v>
       </c>
       <c r="R169" t="n">
-        <v>6703523.977270904</v>
+        <v>6703509</v>
       </c>
       <c r="S169" t="n">
         <v>15</v>
@@ -19947,19 +18777,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z169" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA169" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB169" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD169" t="b">
@@ -19986,10 +18806,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>112204507</v>
+        <v>112204494</v>
       </c>
       <c r="B170" t="n">
-        <v>101703</v>
+        <v>90662</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -20002,21 +18822,21 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>222412</v>
+        <v>4363</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
@@ -20026,10 +18846,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>574348.2942387473</v>
+        <v>574215</v>
       </c>
       <c r="R170" t="n">
-        <v>6703559.844366811</v>
+        <v>6703545</v>
       </c>
       <c r="S170" t="n">
         <v>15</v>
@@ -20059,19 +18879,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z170" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA170" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB170" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD170" t="b">
@@ -20098,10 +18908,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>112204521</v>
+        <v>112204497</v>
       </c>
       <c r="B171" t="n">
-        <v>90332</v>
+        <v>99413</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -20114,21 +18924,21 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
@@ -20138,10 +18948,10 @@
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>574423.2406590362</v>
+        <v>574347</v>
       </c>
       <c r="R171" t="n">
-        <v>6703375.862360338</v>
+        <v>6703560</v>
       </c>
       <c r="S171" t="n">
         <v>15</v>
@@ -20171,19 +18981,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z171" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA171" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB171" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD171" t="b">
@@ -20210,10 +19010,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>112214964</v>
+        <v>112215073</v>
       </c>
       <c r="B172" t="n">
-        <v>85313</v>
+        <v>85290</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -20226,26 +19026,26 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>3739</v>
+        <v>6003295</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Odörspindling</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Cortinarius russeoides</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>M.M.Moser</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -20261,10 +19061,10 @@
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>574526</v>
+        <v>574312</v>
       </c>
       <c r="R172" t="n">
-        <v>6703440</v>
+        <v>6703375</v>
       </c>
       <c r="S172" t="n">
         <v>25</v>
@@ -20301,7 +19101,7 @@
       </c>
       <c r="AC172" t="inlineStr">
         <is>
-          <t>Växte tillsammans med gran och några aspar. Rikligt med dofttaggsvamp intill.</t>
+          <t>Växte inom några meter ifrån Koppartaggsvamp.</t>
         </is>
       </c>
       <c r="AD172" t="b">
@@ -20329,10 +19129,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>112215073</v>
+        <v>112214964</v>
       </c>
       <c r="B173" t="n">
-        <v>85290</v>
+        <v>85313</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -20345,26 +19145,26 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>6003295</v>
+        <v>3739</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Odörspindling</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Cortinarius russeoides</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>M.M.Moser</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -20380,10 +19180,10 @@
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>574312</v>
+        <v>574526</v>
       </c>
       <c r="R173" t="n">
-        <v>6703375</v>
+        <v>6703440</v>
       </c>
       <c r="S173" t="n">
         <v>25</v>
@@ -20420,7 +19220,7 @@
       </c>
       <c r="AC173" t="inlineStr">
         <is>
-          <t>Växte inom några meter ifrån Koppartaggsvamp.</t>
+          <t>Växte tillsammans med gran och några aspar. Rikligt med dofttaggsvamp intill.</t>
         </is>
       </c>
       <c r="AD173" t="b">

--- a/artfynd/A 14918-2023.xlsx
+++ b/artfynd/A 14918-2023.xlsx
@@ -5527,10 +5527,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111896683</v>
+        <v>111896602</v>
       </c>
       <c r="B42" t="n">
-        <v>88966</v>
+        <v>56575</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5543,34 +5543,42 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5754</v>
+        <v>103021</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>574289</v>
+        <v>574317</v>
       </c>
       <c r="R42" t="n">
-        <v>6703480</v>
+        <v>6703406</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5629,10 +5637,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111896601</v>
+        <v>111896651</v>
       </c>
       <c r="B43" t="n">
-        <v>56543</v>
+        <v>89317</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5641,46 +5649,38 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>103021</v>
+        <v>3215</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>574288</v>
+        <v>574442</v>
       </c>
       <c r="R43" t="n">
-        <v>6703455</v>
+        <v>6703459</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5739,10 +5739,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111884952</v>
+        <v>111896626</v>
       </c>
       <c r="B44" t="n">
-        <v>98535</v>
+        <v>90466</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5755,35 +5755,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>574449</v>
+        <v>574356</v>
       </c>
       <c r="R44" t="n">
-        <v>6703528</v>
+        <v>6703378</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5830,22 +5829,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111896708</v>
+        <v>111896668</v>
       </c>
       <c r="B45" t="n">
-        <v>98535</v>
+        <v>85210</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5858,21 +5857,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>222498</v>
+        <v>3762</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5882,10 +5881,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>574326</v>
+        <v>574318</v>
       </c>
       <c r="R45" t="n">
-        <v>6703458</v>
+        <v>6703431</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5944,10 +5943,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111896713</v>
+        <v>111896624</v>
       </c>
       <c r="B46" t="n">
-        <v>98535</v>
+        <v>90466</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5960,21 +5959,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5984,10 +5983,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>574334</v>
+        <v>574320</v>
       </c>
       <c r="R46" t="n">
-        <v>6703424</v>
+        <v>6703403</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -6046,10 +6045,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111896695</v>
+        <v>111896669</v>
       </c>
       <c r="B47" t="n">
-        <v>98535</v>
+        <v>85374</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6062,21 +6061,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>222498</v>
+        <v>3674</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6086,10 +6085,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>574529</v>
+        <v>574252</v>
       </c>
       <c r="R47" t="n">
-        <v>6703446</v>
+        <v>6703470</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -6130,6 +6129,7 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6148,10 +6148,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111896717</v>
+        <v>111896595</v>
       </c>
       <c r="B48" t="n">
-        <v>98535</v>
+        <v>102166</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6164,21 +6164,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6188,10 +6188,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>574371</v>
+        <v>574247</v>
       </c>
       <c r="R48" t="n">
-        <v>6703384</v>
+        <v>6703405</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6250,10 +6250,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111896632</v>
+        <v>111896691</v>
       </c>
       <c r="B49" t="n">
-        <v>90332</v>
+        <v>90818</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6262,25 +6262,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4769</v>
+        <v>4368</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6290,10 +6290,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>574469</v>
+        <v>574527</v>
       </c>
       <c r="R49" t="n">
-        <v>6703484</v>
+        <v>6703449</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6352,10 +6352,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111896602</v>
+        <v>111896623</v>
       </c>
       <c r="B50" t="n">
-        <v>56543</v>
+        <v>90466</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6364,46 +6364,38 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>103021</v>
+        <v>4769</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>574317</v>
+        <v>574296</v>
       </c>
       <c r="R50" t="n">
-        <v>6703406</v>
+        <v>6703413</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6462,10 +6454,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111896618</v>
+        <v>111896713</v>
       </c>
       <c r="B51" t="n">
-        <v>90332</v>
+        <v>98961</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6478,21 +6470,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6502,10 +6494,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>574292</v>
+        <v>574334</v>
       </c>
       <c r="R51" t="n">
-        <v>6703488</v>
+        <v>6703424</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6564,10 +6556,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111896617</v>
+        <v>111896714</v>
       </c>
       <c r="B52" t="n">
-        <v>90332</v>
+        <v>98961</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6580,21 +6572,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6604,10 +6596,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>574269</v>
+        <v>574320</v>
       </c>
       <c r="R52" t="n">
-        <v>6703495</v>
+        <v>6703403</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6666,10 +6658,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111896626</v>
+        <v>111896684</v>
       </c>
       <c r="B53" t="n">
-        <v>90332</v>
+        <v>89100</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6678,25 +6670,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6706,10 +6698,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>574356</v>
+        <v>574299</v>
       </c>
       <c r="R53" t="n">
-        <v>6703378</v>
+        <v>6703457</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6768,10 +6760,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111896697</v>
+        <v>111885492</v>
       </c>
       <c r="B54" t="n">
-        <v>98535</v>
+        <v>99850</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6784,34 +6776,35 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>574253</v>
+        <v>574347</v>
       </c>
       <c r="R54" t="n">
-        <v>6703387</v>
+        <v>6703446</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6858,22 +6851,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111896700</v>
+        <v>111896711</v>
       </c>
       <c r="B55" t="n">
-        <v>98535</v>
+        <v>98961</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6910,10 +6903,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>574211</v>
+        <v>574305</v>
       </c>
       <c r="R55" t="n">
-        <v>6703461</v>
+        <v>6703447</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6972,10 +6965,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111896684</v>
+        <v>111886835</v>
       </c>
       <c r="B56" t="n">
-        <v>88966</v>
+        <v>86357</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6988,34 +6981,35 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5754</v>
+        <v>4412</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>574299</v>
+        <v>574230</v>
       </c>
       <c r="R56" t="n">
-        <v>6703457</v>
+        <v>6703589</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7045,9 +7039,19 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7062,22 +7066,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111885842</v>
+        <v>111896707</v>
       </c>
       <c r="B57" t="n">
-        <v>101141</v>
+        <v>98961</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7090,35 +7094,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>574290</v>
+        <v>574304</v>
       </c>
       <c r="R57" t="n">
-        <v>6703416</v>
+        <v>6703456</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7165,22 +7168,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111896621</v>
+        <v>111896581</v>
       </c>
       <c r="B58" t="n">
-        <v>90332</v>
+        <v>99850</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7193,21 +7196,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7217,10 +7220,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>574320</v>
+        <v>574334</v>
       </c>
       <c r="R58" t="n">
-        <v>6703356</v>
+        <v>6703424</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7279,10 +7282,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111896691</v>
+        <v>111896706</v>
       </c>
       <c r="B59" t="n">
-        <v>90684</v>
+        <v>98961</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7291,25 +7294,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4368</v>
+        <v>222498</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7319,10 +7322,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>574527</v>
+        <v>574290</v>
       </c>
       <c r="R59" t="n">
-        <v>6703449</v>
+        <v>6703480</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7381,10 +7384,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111896669</v>
+        <v>111886498</v>
       </c>
       <c r="B60" t="n">
-        <v>85253</v>
+        <v>98961</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7397,37 +7400,38 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3674</v>
+        <v>222498</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>574252</v>
+        <v>574334</v>
       </c>
       <c r="R60" t="n">
-        <v>6703470</v>
+        <v>6703523</v>
       </c>
       <c r="S60" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7454,40 +7458,49 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>11:21</t>
+        </is>
+      </c>
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>11:21</t>
+        </is>
+      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
       <c r="AE60" t="b">
         <v>0</v>
       </c>
-      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111896629</v>
+        <v>111896716</v>
       </c>
       <c r="B61" t="n">
-        <v>90332</v>
+        <v>98961</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7500,21 +7513,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7524,10 +7537,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>574410</v>
+        <v>574338</v>
       </c>
       <c r="R61" t="n">
-        <v>6703385</v>
+        <v>6703387</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7586,10 +7599,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111896625</v>
+        <v>111885842</v>
       </c>
       <c r="B62" t="n">
-        <v>90332</v>
+        <v>101581</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7602,34 +7615,35 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4769</v>
+        <v>222002</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>574335</v>
+        <v>574290</v>
       </c>
       <c r="R62" t="n">
-        <v>6703404</v>
+        <v>6703416</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7676,12 +7690,12 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
@@ -7691,7 +7705,7 @@
         <v>111896704</v>
       </c>
       <c r="B63" t="n">
-        <v>98535</v>
+        <v>98961</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7790,10 +7804,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111886848</v>
+        <v>111896630</v>
       </c>
       <c r="B64" t="n">
-        <v>86223</v>
+        <v>90466</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7802,42 +7816,41 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4412</v>
+        <v>4769</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>574237</v>
+        <v>574437</v>
       </c>
       <c r="R64" t="n">
-        <v>6703597</v>
+        <v>6703434</v>
       </c>
       <c r="S64" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -7864,19 +7877,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>11:42</t>
-        </is>
-      </c>
       <c r="AA64" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>11:42</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7891,22 +7894,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111886372</v>
+        <v>111896622</v>
       </c>
       <c r="B65" t="n">
-        <v>90687</v>
+        <v>90466</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7919,35 +7922,34 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>574261</v>
+        <v>574283</v>
       </c>
       <c r="R65" t="n">
-        <v>6703463</v>
+        <v>6703417</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -7994,22 +7996,22 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111896671</v>
+        <v>111896712</v>
       </c>
       <c r="B66" t="n">
-        <v>85253</v>
+        <v>98961</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8022,21 +8024,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3674</v>
+        <v>222498</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8046,10 +8048,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>574320</v>
+        <v>574312</v>
       </c>
       <c r="R66" t="n">
-        <v>6703405</v>
+        <v>6703436</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8090,7 +8092,6 @@
       <c r="AE66" t="b">
         <v>0</v>
       </c>
-      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
       </c>
@@ -8109,10 +8110,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111896631</v>
+        <v>111896627</v>
       </c>
       <c r="B67" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8149,10 +8150,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>574456</v>
+        <v>574373</v>
       </c>
       <c r="R67" t="n">
-        <v>6703507</v>
+        <v>6703376</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8211,10 +8212,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111896670</v>
+        <v>111896650</v>
       </c>
       <c r="B68" t="n">
-        <v>85253</v>
+        <v>89317</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8227,21 +8228,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3674</v>
+        <v>3215</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8251,10 +8252,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>574302</v>
+        <v>574250</v>
       </c>
       <c r="R68" t="n">
-        <v>6703457</v>
+        <v>6703481</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8295,7 +8296,6 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
-      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
@@ -8314,10 +8314,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111896588</v>
+        <v>111896709</v>
       </c>
       <c r="B69" t="n">
-        <v>101141</v>
+        <v>98961</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8330,21 +8330,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8354,10 +8354,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>574305</v>
+        <v>574320</v>
       </c>
       <c r="R69" t="n">
-        <v>6703455</v>
+        <v>6703354</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8416,10 +8416,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111886498</v>
+        <v>111896685</v>
       </c>
       <c r="B70" t="n">
-        <v>98535</v>
+        <v>89100</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8428,42 +8428,41 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>574334</v>
+        <v>574342</v>
       </c>
       <c r="R70" t="n">
-        <v>6703523</v>
+        <v>6703452</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -8490,19 +8489,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>11:21</t>
-        </is>
-      </c>
       <c r="AA70" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>11:21</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8517,22 +8506,22 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111896699</v>
+        <v>111896682</v>
       </c>
       <c r="B71" t="n">
-        <v>98535</v>
+        <v>89100</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8541,25 +8530,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8569,10 +8558,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>574219</v>
+        <v>574256</v>
       </c>
       <c r="R71" t="n">
-        <v>6703421</v>
+        <v>6703475</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8631,10 +8620,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111896623</v>
+        <v>111885762</v>
       </c>
       <c r="B72" t="n">
-        <v>90332</v>
+        <v>90429</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8647,34 +8636,35 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4769</v>
+        <v>4740</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Sotriska</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lactarius lignyotus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>574296</v>
+        <v>574312</v>
       </c>
       <c r="R72" t="n">
-        <v>6703413</v>
+        <v>6703438</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8721,22 +8711,22 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111896706</v>
+        <v>111896590</v>
       </c>
       <c r="B73" t="n">
-        <v>98535</v>
+        <v>101581</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8749,21 +8739,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8773,10 +8763,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>574290</v>
+        <v>574319</v>
       </c>
       <c r="R73" t="n">
-        <v>6703480</v>
+        <v>6703403</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -8835,10 +8825,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111886329</v>
+        <v>111896610</v>
       </c>
       <c r="B74" t="n">
-        <v>90687</v>
+        <v>90466</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8851,35 +8841,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>574258</v>
+        <v>574272</v>
       </c>
       <c r="R74" t="n">
-        <v>6703499</v>
+        <v>6703412</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -8926,22 +8915,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111896608</v>
+        <v>111896708</v>
       </c>
       <c r="B75" t="n">
-        <v>90332</v>
+        <v>98961</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8954,21 +8943,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8978,10 +8967,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>574451</v>
+        <v>574326</v>
       </c>
       <c r="R75" t="n">
-        <v>6703513</v>
+        <v>6703458</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9040,10 +9029,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111896624</v>
+        <v>111896632</v>
       </c>
       <c r="B76" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9080,10 +9069,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>574320</v>
+        <v>574469</v>
       </c>
       <c r="R76" t="n">
-        <v>6703403</v>
+        <v>6703484</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9142,10 +9131,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111886390</v>
+        <v>111896621</v>
       </c>
       <c r="B77" t="n">
-        <v>98535</v>
+        <v>90466</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9158,38 +9147,37 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>574321</v>
+        <v>574320</v>
       </c>
       <c r="R77" t="n">
-        <v>6703542</v>
+        <v>6703356</v>
       </c>
       <c r="S77" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9216,19 +9204,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>11:12</t>
-        </is>
-      </c>
       <c r="AA77" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB77" t="inlineStr">
-        <is>
-          <t>11:12</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9243,22 +9221,22 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111896580</v>
+        <v>111896629</v>
       </c>
       <c r="B78" t="n">
-        <v>99413</v>
+        <v>90466</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9271,21 +9249,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>221235</v>
+        <v>4769</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9295,10 +9273,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>574256</v>
+        <v>574410</v>
       </c>
       <c r="R78" t="n">
-        <v>6703474</v>
+        <v>6703385</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9357,10 +9335,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111885492</v>
+        <v>111896631</v>
       </c>
       <c r="B79" t="n">
-        <v>99413</v>
+        <v>90466</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9373,35 +9351,34 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>221235</v>
+        <v>4769</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>574347</v>
+        <v>574456</v>
       </c>
       <c r="R79" t="n">
-        <v>6703446</v>
+        <v>6703507</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9448,22 +9425,22 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111896648</v>
+        <v>111896717</v>
       </c>
       <c r="B80" t="n">
-        <v>78512</v>
+        <v>98961</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9476,21 +9453,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6456</v>
+        <v>222498</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9500,10 +9477,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>574528</v>
+        <v>574371</v>
       </c>
       <c r="R80" t="n">
-        <v>6703436</v>
+        <v>6703384</v>
       </c>
       <c r="S80" t="n">
         <v>25</v>
@@ -9544,7 +9521,6 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
-      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -9563,10 +9539,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111886738</v>
+        <v>111896699</v>
       </c>
       <c r="B81" t="n">
-        <v>90684</v>
+        <v>98961</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9575,42 +9551,41 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4368</v>
+        <v>222498</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>574247</v>
+        <v>574219</v>
       </c>
       <c r="R81" t="n">
-        <v>6703547</v>
+        <v>6703421</v>
       </c>
       <c r="S81" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -9637,19 +9612,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>11:36</t>
-        </is>
-      </c>
       <c r="AA81" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB81" t="inlineStr">
-        <is>
-          <t>11:36</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9664,22 +9629,22 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111896589</v>
+        <v>111896671</v>
       </c>
       <c r="B82" t="n">
-        <v>101141</v>
+        <v>85374</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9692,21 +9657,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>222002</v>
+        <v>3674</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9719,7 +9684,7 @@
         <v>574320</v>
       </c>
       <c r="R82" t="n">
-        <v>6703355</v>
+        <v>6703405</v>
       </c>
       <c r="S82" t="n">
         <v>25</v>
@@ -9760,6 +9725,7 @@
       <c r="AE82" t="b">
         <v>0</v>
       </c>
+      <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="b">
         <v>0</v>
       </c>
@@ -9778,10 +9744,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111886835</v>
+        <v>111886738</v>
       </c>
       <c r="B83" t="n">
-        <v>86223</v>
+        <v>90818</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9794,21 +9760,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4412</v>
+        <v>4368</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9819,13 +9785,13 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>574230</v>
+        <v>574247</v>
       </c>
       <c r="R83" t="n">
-        <v>6703589</v>
+        <v>6703547</v>
       </c>
       <c r="S83" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -9854,7 +9820,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -9864,7 +9830,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9879,22 +9845,22 @@
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111896703</v>
+        <v>111886358</v>
       </c>
       <c r="B84" t="n">
-        <v>98535</v>
+        <v>102166</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9907,37 +9873,38 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>574310</v>
+        <v>574378</v>
       </c>
       <c r="R84" t="n">
-        <v>6703519</v>
+        <v>6703531</v>
       </c>
       <c r="S84" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
@@ -9964,9 +9931,19 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
       <c r="AA84" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9981,22 +9958,22 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111886358</v>
+        <v>111896588</v>
       </c>
       <c r="B85" t="n">
-        <v>101703</v>
+        <v>101581</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10009,16 +9986,16 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>222412</v>
+        <v>222002</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -10027,20 +10004,19 @@
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>574378</v>
+        <v>574305</v>
       </c>
       <c r="R85" t="n">
-        <v>6703531</v>
+        <v>6703455</v>
       </c>
       <c r="S85" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -10067,19 +10043,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AA85" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB85" t="inlineStr">
-        <is>
-          <t>11:10</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10094,22 +10060,22 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111896607</v>
+        <v>111896697</v>
       </c>
       <c r="B86" t="n">
-        <v>90332</v>
+        <v>98961</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10122,21 +10088,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10146,10 +10112,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>574467</v>
+        <v>574253</v>
       </c>
       <c r="R86" t="n">
-        <v>6703514</v>
+        <v>6703387</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -10208,10 +10174,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111896595</v>
+        <v>111896625</v>
       </c>
       <c r="B87" t="n">
-        <v>101703</v>
+        <v>90466</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10224,21 +10190,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>222412</v>
+        <v>4769</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10248,10 +10214,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>574247</v>
+        <v>574335</v>
       </c>
       <c r="R87" t="n">
-        <v>6703405</v>
+        <v>6703404</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10310,10 +10276,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111896627</v>
+        <v>111886848</v>
       </c>
       <c r="B88" t="n">
-        <v>90332</v>
+        <v>86357</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10322,41 +10288,42 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>4769</v>
+        <v>4412</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>574373</v>
+        <v>574237</v>
       </c>
       <c r="R88" t="n">
-        <v>6703376</v>
+        <v>6703597</v>
       </c>
       <c r="S88" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -10383,9 +10350,19 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>11:42</t>
+        </is>
+      </c>
       <c r="AA88" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10400,22 +10377,22 @@
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111896668</v>
+        <v>111896683</v>
       </c>
       <c r="B89" t="n">
-        <v>85089</v>
+        <v>89100</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10424,25 +10401,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3762</v>
+        <v>5754</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10452,10 +10429,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>574318</v>
+        <v>574289</v>
       </c>
       <c r="R89" t="n">
-        <v>6703431</v>
+        <v>6703480</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10514,10 +10491,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111896696</v>
+        <v>111896702</v>
       </c>
       <c r="B90" t="n">
-        <v>98535</v>
+        <v>98961</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10554,10 +10531,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>574273</v>
+        <v>574285</v>
       </c>
       <c r="R90" t="n">
-        <v>6703374</v>
+        <v>6703508</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -10616,10 +10593,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111896587</v>
+        <v>111896680</v>
       </c>
       <c r="B91" t="n">
-        <v>101141</v>
+        <v>89100</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10628,38 +10605,49 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>222002</v>
+        <v>5754</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>574292</v>
+        <v>574324</v>
       </c>
       <c r="R91" t="n">
-        <v>6703496</v>
+        <v>6703369</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -10700,6 +10688,7 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
+      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
@@ -10718,10 +10707,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111896716</v>
+        <v>111886424</v>
       </c>
       <c r="B92" t="n">
-        <v>98535</v>
+        <v>89033</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10730,38 +10719,48 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>222498</v>
+        <v>3286</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr"/>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>574338</v>
+        <v>574279</v>
       </c>
       <c r="R92" t="n">
-        <v>6703387</v>
+        <v>6703466</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -10808,22 +10807,22 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111896712</v>
+        <v>111884952</v>
       </c>
       <c r="B93" t="n">
-        <v>98535</v>
+        <v>98961</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10854,16 +10853,17 @@
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>574312</v>
+        <v>574449</v>
       </c>
       <c r="R93" t="n">
-        <v>6703436</v>
+        <v>6703528</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -10910,22 +10910,22 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111896709</v>
+        <v>111896607</v>
       </c>
       <c r="B94" t="n">
-        <v>98535</v>
+        <v>90466</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -10938,21 +10938,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10962,10 +10962,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>574320</v>
+        <v>574467</v>
       </c>
       <c r="R94" t="n">
-        <v>6703354</v>
+        <v>6703514</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11024,10 +11024,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111896611</v>
+        <v>111896618</v>
       </c>
       <c r="B95" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11064,10 +11064,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>574272</v>
+        <v>574292</v>
       </c>
       <c r="R95" t="n">
-        <v>6703376</v>
+        <v>6703488</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11126,10 +11126,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111896616</v>
+        <v>111896620</v>
       </c>
       <c r="B96" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11166,10 +11166,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>574249</v>
+        <v>574293</v>
       </c>
       <c r="R96" t="n">
-        <v>6703475</v>
+        <v>6703456</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11228,10 +11228,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111896702</v>
+        <v>111896616</v>
       </c>
       <c r="B97" t="n">
-        <v>98535</v>
+        <v>90466</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11244,21 +11244,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11268,10 +11268,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>574285</v>
+        <v>574249</v>
       </c>
       <c r="R97" t="n">
-        <v>6703508</v>
+        <v>6703475</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11330,10 +11330,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111896614</v>
+        <v>111896710</v>
       </c>
       <c r="B98" t="n">
-        <v>90332</v>
+        <v>98961</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11346,21 +11346,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11370,10 +11370,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>574229</v>
+        <v>574290</v>
       </c>
       <c r="R98" t="n">
-        <v>6703430</v>
+        <v>6703415</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11432,10 +11432,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111896650</v>
+        <v>111886713</v>
       </c>
       <c r="B99" t="n">
-        <v>89183</v>
+        <v>90818</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11444,38 +11444,39 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3215</v>
+        <v>4368</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>574250</v>
+        <v>574267</v>
       </c>
       <c r="R99" t="n">
-        <v>6703481</v>
+        <v>6703556</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -11522,22 +11523,22 @@
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111896651</v>
+        <v>111896715</v>
       </c>
       <c r="B100" t="n">
-        <v>89183</v>
+        <v>98961</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11550,21 +11551,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3215</v>
+        <v>222498</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11574,10 +11575,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>574442</v>
+        <v>574335</v>
       </c>
       <c r="R100" t="n">
-        <v>6703459</v>
+        <v>6703403</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -11636,10 +11637,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111896682</v>
+        <v>111886390</v>
       </c>
       <c r="B101" t="n">
-        <v>88966</v>
+        <v>98961</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11648,41 +11649,42 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>574256</v>
+        <v>574321</v>
       </c>
       <c r="R101" t="n">
-        <v>6703475</v>
+        <v>6703542</v>
       </c>
       <c r="S101" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -11709,9 +11711,19 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>11:12</t>
+        </is>
+      </c>
       <c r="AA101" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11726,22 +11738,22 @@
       <c r="AT101" t="inlineStr"/>
       <c r="AW101" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX101" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111896630</v>
+        <v>111896580</v>
       </c>
       <c r="B102" t="n">
-        <v>90332</v>
+        <v>99850</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11754,21 +11766,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11778,10 +11790,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>574437</v>
+        <v>574256</v>
       </c>
       <c r="R102" t="n">
-        <v>6703434</v>
+        <v>6703474</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -11840,10 +11852,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111896620</v>
+        <v>111896608</v>
       </c>
       <c r="B103" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -11880,10 +11892,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>574293</v>
+        <v>574451</v>
       </c>
       <c r="R103" t="n">
-        <v>6703456</v>
+        <v>6703513</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -11942,10 +11954,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111896590</v>
+        <v>111896587</v>
       </c>
       <c r="B104" t="n">
-        <v>101141</v>
+        <v>101581</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -11982,10 +11994,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>574319</v>
+        <v>574292</v>
       </c>
       <c r="R104" t="n">
-        <v>6703403</v>
+        <v>6703496</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12044,10 +12056,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111886713</v>
+        <v>111896696</v>
       </c>
       <c r="B105" t="n">
-        <v>90684</v>
+        <v>98961</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12056,39 +12068,38 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>4368</v>
+        <v>222498</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>574267</v>
+        <v>574273</v>
       </c>
       <c r="R105" t="n">
-        <v>6703556</v>
+        <v>6703374</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12135,22 +12146,22 @@
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111886424</v>
+        <v>111896617</v>
       </c>
       <c r="B106" t="n">
-        <v>88899</v>
+        <v>90466</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12159,48 +12170,38 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>574279</v>
+        <v>574269</v>
       </c>
       <c r="R106" t="n">
-        <v>6703466</v>
+        <v>6703495</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12247,22 +12248,22 @@
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111896581</v>
+        <v>111886198</v>
       </c>
       <c r="B107" t="n">
-        <v>99413</v>
+        <v>89100</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12271,38 +12272,39 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>221235</v>
+        <v>5754</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>574334</v>
+        <v>574244</v>
       </c>
       <c r="R107" t="n">
-        <v>6703424</v>
+        <v>6703468</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12349,22 +12351,22 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111896701</v>
+        <v>111896601</v>
       </c>
       <c r="B108" t="n">
-        <v>98535</v>
+        <v>56575</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12373,38 +12375,46 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>574224</v>
+        <v>574288</v>
       </c>
       <c r="R108" t="n">
-        <v>6703448</v>
+        <v>6703455</v>
       </c>
       <c r="S108" t="n">
         <v>25</v>
@@ -12463,10 +12473,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111896711</v>
+        <v>111896614</v>
       </c>
       <c r="B109" t="n">
-        <v>98535</v>
+        <v>90466</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12479,21 +12489,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12503,10 +12513,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>574305</v>
+        <v>574229</v>
       </c>
       <c r="R109" t="n">
-        <v>6703447</v>
+        <v>6703430</v>
       </c>
       <c r="S109" t="n">
         <v>25</v>
@@ -12565,10 +12575,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111896714</v>
+        <v>111896703</v>
       </c>
       <c r="B110" t="n">
-        <v>98535</v>
+        <v>98961</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12605,10 +12615,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>574320</v>
+        <v>574310</v>
       </c>
       <c r="R110" t="n">
-        <v>6703403</v>
+        <v>6703519</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -12667,10 +12677,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111896615</v>
+        <v>111896648</v>
       </c>
       <c r="B111" t="n">
-        <v>90332</v>
+        <v>78633</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12683,21 +12693,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>4769</v>
+        <v>6456</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -12707,10 +12717,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>574241</v>
+        <v>574528</v>
       </c>
       <c r="R111" t="n">
-        <v>6703470</v>
+        <v>6703436</v>
       </c>
       <c r="S111" t="n">
         <v>25</v>
@@ -12751,6 +12761,7 @@
       <c r="AE111" t="b">
         <v>0</v>
       </c>
+      <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="b">
         <v>0</v>
       </c>
@@ -12769,10 +12780,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111896622</v>
+        <v>111896619</v>
       </c>
       <c r="B112" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -12809,10 +12820,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>574283</v>
+        <v>574271</v>
       </c>
       <c r="R112" t="n">
-        <v>6703417</v>
+        <v>6703440</v>
       </c>
       <c r="S112" t="n">
         <v>25</v>
@@ -12871,10 +12882,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111896707</v>
+        <v>111886329</v>
       </c>
       <c r="B113" t="n">
-        <v>98535</v>
+        <v>90821</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -12887,34 +12898,35 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>574304</v>
+        <v>574258</v>
       </c>
       <c r="R113" t="n">
-        <v>6703456</v>
+        <v>6703499</v>
       </c>
       <c r="S113" t="n">
         <v>25</v>
@@ -12961,22 +12973,22 @@
       <c r="AT113" t="inlineStr"/>
       <c r="AW113" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX113" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111896681</v>
+        <v>111896611</v>
       </c>
       <c r="B114" t="n">
-        <v>88966</v>
+        <v>90466</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -12985,49 +12997,38 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>574331</v>
+        <v>574272</v>
       </c>
       <c r="R114" t="n">
-        <v>6703355</v>
+        <v>6703376</v>
       </c>
       <c r="S114" t="n">
         <v>25</v>
@@ -13068,7 +13069,6 @@
       <c r="AE114" t="b">
         <v>0</v>
       </c>
-      <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="b">
         <v>0</v>
       </c>
@@ -13087,10 +13087,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111885762</v>
+        <v>111896700</v>
       </c>
       <c r="B115" t="n">
-        <v>90295</v>
+        <v>98961</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13103,35 +13103,34 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>4740</v>
+        <v>222498</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Sotriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Lactarius lignyotus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>574312</v>
+        <v>574211</v>
       </c>
       <c r="R115" t="n">
-        <v>6703438</v>
+        <v>6703461</v>
       </c>
       <c r="S115" t="n">
         <v>25</v>
@@ -13178,22 +13177,22 @@
       <c r="AT115" t="inlineStr"/>
       <c r="AW115" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111896685</v>
+        <v>111886372</v>
       </c>
       <c r="B116" t="n">
-        <v>88966</v>
+        <v>90821</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13202,38 +13201,39 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>5754</v>
+        <v>5964</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>574342</v>
+        <v>574261</v>
       </c>
       <c r="R116" t="n">
-        <v>6703452</v>
+        <v>6703463</v>
       </c>
       <c r="S116" t="n">
         <v>25</v>
@@ -13280,22 +13280,22 @@
       <c r="AT116" t="inlineStr"/>
       <c r="AW116" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111896610</v>
+        <v>111896670</v>
       </c>
       <c r="B117" t="n">
-        <v>90332</v>
+        <v>85374</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13308,21 +13308,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>4769</v>
+        <v>3674</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -13332,10 +13332,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>574272</v>
+        <v>574302</v>
       </c>
       <c r="R117" t="n">
-        <v>6703412</v>
+        <v>6703457</v>
       </c>
       <c r="S117" t="n">
         <v>25</v>
@@ -13376,6 +13376,7 @@
       <c r="AE117" t="b">
         <v>0</v>
       </c>
+      <c r="AF117" t="inlineStr"/>
       <c r="AG117" t="b">
         <v>0</v>
       </c>
@@ -13394,10 +13395,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111896710</v>
+        <v>111896701</v>
       </c>
       <c r="B118" t="n">
-        <v>98535</v>
+        <v>98961</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -13434,10 +13435,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>574290</v>
+        <v>574224</v>
       </c>
       <c r="R118" t="n">
-        <v>6703415</v>
+        <v>6703448</v>
       </c>
       <c r="S118" t="n">
         <v>25</v>
@@ -13496,10 +13497,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111896715</v>
+        <v>111896695</v>
       </c>
       <c r="B119" t="n">
-        <v>98535</v>
+        <v>98961</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -13536,10 +13537,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>574335</v>
+        <v>574529</v>
       </c>
       <c r="R119" t="n">
-        <v>6703403</v>
+        <v>6703446</v>
       </c>
       <c r="S119" t="n">
         <v>25</v>
@@ -13598,10 +13599,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111896619</v>
+        <v>111896615</v>
       </c>
       <c r="B120" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -13638,10 +13639,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>574271</v>
+        <v>574241</v>
       </c>
       <c r="R120" t="n">
-        <v>6703440</v>
+        <v>6703470</v>
       </c>
       <c r="S120" t="n">
         <v>25</v>
@@ -13700,10 +13701,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111886198</v>
+        <v>111896589</v>
       </c>
       <c r="B121" t="n">
-        <v>88966</v>
+        <v>101581</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -13712,39 +13713,38 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>5754</v>
+        <v>222002</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>574244</v>
+        <v>574320</v>
       </c>
       <c r="R121" t="n">
-        <v>6703468</v>
+        <v>6703355</v>
       </c>
       <c r="S121" t="n">
         <v>25</v>
@@ -13791,22 +13791,22 @@
       <c r="AT121" t="inlineStr"/>
       <c r="AW121" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX121" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111896680</v>
+        <v>111896681</v>
       </c>
       <c r="B122" t="n">
-        <v>88966</v>
+        <v>89100</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -13854,10 +13854,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>574324</v>
+        <v>574331</v>
       </c>
       <c r="R122" t="n">
-        <v>6703369</v>
+        <v>6703355</v>
       </c>
       <c r="S122" t="n">
         <v>25</v>
@@ -13917,10 +13917,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111885073</v>
+        <v>111886321</v>
       </c>
       <c r="B123" t="n">
-        <v>90684</v>
+        <v>99850</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -13929,25 +13929,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>4368</v>
+        <v>221235</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA123" t="inlineStr">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="AB123" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD123" t="b">
@@ -14030,10 +14030,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111885375</v>
+        <v>111886310</v>
       </c>
       <c r="B124" t="n">
-        <v>90332</v>
+        <v>102166</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14046,21 +14046,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14106,7 +14106,7 @@
       </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA124" t="inlineStr">
@@ -14116,7 +14116,7 @@
       </c>
       <c r="AB124" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD124" t="b">
@@ -14143,10 +14143,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111886321</v>
+        <v>111885375</v>
       </c>
       <c r="B125" t="n">
-        <v>99413</v>
+        <v>90466</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14159,21 +14159,21 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>221235</v>
+        <v>4769</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -14219,7 +14219,7 @@
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
@@ -14229,7 +14229,7 @@
       </c>
       <c r="AB125" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD125" t="b">
@@ -14256,10 +14256,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111886310</v>
+        <v>111885073</v>
       </c>
       <c r="B126" t="n">
-        <v>101703</v>
+        <v>90818</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -14268,25 +14268,25 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>222412</v>
+        <v>4368</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
       </c>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
@@ -14342,7 +14342,7 @@
       </c>
       <c r="AB126" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD126" t="b">
@@ -14369,10 +14369,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>112204524</v>
+        <v>112204532</v>
       </c>
       <c r="B127" t="n">
-        <v>98446</v>
+        <v>90792</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -14381,25 +14381,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>222771</v>
+        <v>4361</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -14409,10 +14409,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>574284</v>
+        <v>574168</v>
       </c>
       <c r="R127" t="n">
-        <v>6703462</v>
+        <v>6703580</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14474,7 +14474,7 @@
         <v>112204520</v>
       </c>
       <c r="B128" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -14573,10 +14573,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>112204532</v>
+        <v>112204548</v>
       </c>
       <c r="B129" t="n">
-        <v>90658</v>
+        <v>90818</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -14589,21 +14589,21 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4361</v>
+        <v>4368</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -14613,10 +14613,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>574168</v>
+        <v>574278</v>
       </c>
       <c r="R129" t="n">
-        <v>6703580</v>
+        <v>6703560</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -14675,10 +14675,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>112204526</v>
+        <v>112204506</v>
       </c>
       <c r="B130" t="n">
-        <v>93069</v>
+        <v>56430</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -14687,38 +14687,46 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2813</v>
+        <v>100109</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>574344</v>
+        <v>574248</v>
       </c>
       <c r="R130" t="n">
-        <v>6703368</v>
+        <v>6703547</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -14777,10 +14785,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>112204503</v>
+        <v>112204524</v>
       </c>
       <c r="B131" t="n">
-        <v>101141</v>
+        <v>98872</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -14793,16 +14801,16 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>222002</v>
+        <v>222771</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -14817,10 +14825,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>574318</v>
+        <v>574284</v>
       </c>
       <c r="R131" t="n">
-        <v>6703402</v>
+        <v>6703462</v>
       </c>
       <c r="S131" t="n">
         <v>15</v>
@@ -14879,10 +14887,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>112204517</v>
+        <v>112204534</v>
       </c>
       <c r="B132" t="n">
-        <v>90332</v>
+        <v>85210</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -14895,21 +14903,21 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>4769</v>
+        <v>3762</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -14919,10 +14927,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>574383</v>
+        <v>574275</v>
       </c>
       <c r="R132" t="n">
-        <v>6703344</v>
+        <v>6703472</v>
       </c>
       <c r="S132" t="n">
         <v>15</v>
@@ -14981,10 +14989,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>112204548</v>
+        <v>112204496</v>
       </c>
       <c r="B133" t="n">
-        <v>90684</v>
+        <v>99850</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -14993,25 +15001,25 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>4368</v>
+        <v>221235</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -15021,10 +15029,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>574278</v>
+        <v>574374</v>
       </c>
       <c r="R133" t="n">
-        <v>6703560</v>
+        <v>6703549</v>
       </c>
       <c r="S133" t="n">
         <v>15</v>
@@ -15083,10 +15091,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>112204528</v>
+        <v>112204562</v>
       </c>
       <c r="B134" t="n">
-        <v>78512</v>
+        <v>85374</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -15099,21 +15107,21 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>6456</v>
+        <v>3674</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -15123,10 +15131,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>574534</v>
+        <v>574316</v>
       </c>
       <c r="R134" t="n">
-        <v>6703436</v>
+        <v>6703402</v>
       </c>
       <c r="S134" t="n">
         <v>15</v>
@@ -15185,10 +15193,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>112204535</v>
+        <v>112204542</v>
       </c>
       <c r="B135" t="n">
-        <v>93057</v>
+        <v>89100</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -15197,38 +15205,49 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2809</v>
+        <v>5754</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>574348</v>
+        <v>574344</v>
       </c>
       <c r="R135" t="n">
-        <v>6703368</v>
+        <v>6703345</v>
       </c>
       <c r="S135" t="n">
         <v>15</v>
@@ -15269,6 +15288,7 @@
       <c r="AE135" t="b">
         <v>0</v>
       </c>
+      <c r="AF135" t="inlineStr"/>
       <c r="AG135" t="b">
         <v>0</v>
       </c>
@@ -15287,10 +15307,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>112204513</v>
+        <v>112204535</v>
       </c>
       <c r="B136" t="n">
-        <v>90332</v>
+        <v>93206</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -15303,21 +15323,21 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>4769</v>
+        <v>2809</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -15327,10 +15347,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>574350</v>
+        <v>574348</v>
       </c>
       <c r="R136" t="n">
-        <v>6703560</v>
+        <v>6703368</v>
       </c>
       <c r="S136" t="n">
         <v>15</v>
@@ -15389,10 +15409,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>112204552</v>
+        <v>112204507</v>
       </c>
       <c r="B137" t="n">
-        <v>5113</v>
+        <v>102166</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -15405,21 +15425,21 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>100526</v>
+        <v>222412</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -15429,10 +15449,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>574303</v>
+        <v>574348</v>
       </c>
       <c r="R137" t="n">
-        <v>6703521</v>
+        <v>6703560</v>
       </c>
       <c r="S137" t="n">
         <v>15</v>
@@ -15494,7 +15514,7 @@
         <v>112204512</v>
       </c>
       <c r="B138" t="n">
-        <v>90332</v>
+        <v>90466</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -15593,10 +15613,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>112205319</v>
+        <v>112204509</v>
       </c>
       <c r="B139" t="n">
-        <v>85189</v>
+        <v>4711</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -15605,39 +15625,47 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>445</v>
+        <v>100299</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Kopparspindling</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Cortinarius cupreorufus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Brandrud</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
-          <t>Kratte masugn (Kratte masugn), Gstr</t>
+          <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>574311</v>
+        <v>574304</v>
       </c>
       <c r="R139" t="n">
-        <v>6703374</v>
+        <v>6703522</v>
       </c>
       <c r="S139" t="n">
         <v>15</v>
@@ -15667,27 +15695,18 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z139" t="inlineStr">
-        <is>
-          <t>10:32</t>
-        </is>
-      </c>
       <c r="AA139" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB139" t="inlineStr">
-        <is>
-          <t>10:32</t>
-        </is>
-      </c>
       <c r="AD139" t="b">
         <v>0</v>
       </c>
       <c r="AE139" t="b">
         <v>0</v>
       </c>
+      <c r="AF139" t="inlineStr"/>
       <c r="AG139" t="b">
         <v>0</v>
       </c>
@@ -15706,10 +15725,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>112204549</v>
+        <v>112204527</v>
       </c>
       <c r="B140" t="n">
-        <v>90684</v>
+        <v>93218</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -15718,25 +15737,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4368</v>
+        <v>2813</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -15746,10 +15765,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>574526</v>
+        <v>574434</v>
       </c>
       <c r="R140" t="n">
-        <v>6703440</v>
+        <v>6703389</v>
       </c>
       <c r="S140" t="n">
         <v>15</v>
@@ -15808,10 +15827,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>112204558</v>
+        <v>112204543</v>
       </c>
       <c r="B141" t="n">
-        <v>85253</v>
+        <v>89100</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -15820,25 +15839,25 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>3674</v>
+        <v>5754</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -15848,10 +15867,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>574268</v>
+        <v>574373</v>
       </c>
       <c r="R141" t="n">
-        <v>6703487</v>
+        <v>6703547</v>
       </c>
       <c r="S141" t="n">
         <v>15</v>
@@ -15910,10 +15929,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>112204502</v>
+        <v>112204500</v>
       </c>
       <c r="B142" t="n">
-        <v>101141</v>
+        <v>94287</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -15922,25 +15941,25 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>222002</v>
+        <v>53</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -15950,10 +15969,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>574290</v>
+        <v>574270</v>
       </c>
       <c r="R142" t="n">
-        <v>6703420</v>
+        <v>6703543</v>
       </c>
       <c r="S142" t="n">
         <v>15</v>
@@ -16012,10 +16031,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>112204557</v>
+        <v>112204505</v>
       </c>
       <c r="B143" t="n">
-        <v>98535</v>
+        <v>89539</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -16024,25 +16043,25 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -16052,10 +16071,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>574371</v>
+        <v>574433</v>
       </c>
       <c r="R143" t="n">
-        <v>6703358</v>
+        <v>6703378</v>
       </c>
       <c r="S143" t="n">
         <v>15</v>
@@ -16114,10 +16133,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>112204537</v>
+        <v>112204515</v>
       </c>
       <c r="B144" t="n">
-        <v>88956</v>
+        <v>90466</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -16126,25 +16145,25 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>5747</v>
+        <v>4769</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -16154,10 +16173,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>574226</v>
+        <v>574283</v>
       </c>
       <c r="R144" t="n">
-        <v>6703548</v>
+        <v>6703459</v>
       </c>
       <c r="S144" t="n">
         <v>15</v>
@@ -16216,10 +16235,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>112204515</v>
+        <v>112204528</v>
       </c>
       <c r="B145" t="n">
-        <v>90332</v>
+        <v>78633</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -16232,21 +16251,21 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>4769</v>
+        <v>6456</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -16256,10 +16275,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>574283</v>
+        <v>574534</v>
       </c>
       <c r="R145" t="n">
-        <v>6703459</v>
+        <v>6703436</v>
       </c>
       <c r="S145" t="n">
         <v>15</v>
@@ -16318,10 +16337,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>112204516</v>
+        <v>112204557</v>
       </c>
       <c r="B146" t="n">
-        <v>90332</v>
+        <v>98961</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -16334,21 +16353,21 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -16358,10 +16377,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>574335</v>
+        <v>574371</v>
       </c>
       <c r="R146" t="n">
-        <v>6703391</v>
+        <v>6703358</v>
       </c>
       <c r="S146" t="n">
         <v>15</v>
@@ -16420,10 +16439,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>112204499</v>
+        <v>112204519</v>
       </c>
       <c r="B147" t="n">
-        <v>5135</v>
+        <v>90466</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -16436,43 +16455,34 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>105930</v>
+        <v>4769</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>574257</v>
+        <v>574416</v>
       </c>
       <c r="R147" t="n">
-        <v>6703569</v>
+        <v>6703348</v>
       </c>
       <c r="S147" t="n">
         <v>15</v>
@@ -16513,7 +16523,6 @@
       <c r="AE147" t="b">
         <v>0</v>
       </c>
-      <c r="AF147" t="inlineStr"/>
       <c r="AG147" t="b">
         <v>0</v>
       </c>
@@ -16532,10 +16541,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>112204546</v>
+        <v>112204536</v>
       </c>
       <c r="B148" t="n">
-        <v>90687</v>
+        <v>93206</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -16548,21 +16557,21 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>5964</v>
+        <v>2809</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -16572,10 +16581,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>574312</v>
+        <v>574433</v>
       </c>
       <c r="R148" t="n">
-        <v>6703559</v>
+        <v>6703384</v>
       </c>
       <c r="S148" t="n">
         <v>15</v>
@@ -16634,10 +16643,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>112204496</v>
+        <v>112204547</v>
       </c>
       <c r="B149" t="n">
-        <v>99413</v>
+        <v>90818</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -16646,25 +16655,25 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>221235</v>
+        <v>4368</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -16674,10 +16683,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>574374</v>
+        <v>574347</v>
       </c>
       <c r="R149" t="n">
-        <v>6703549</v>
+        <v>6703566</v>
       </c>
       <c r="S149" t="n">
         <v>15</v>
@@ -16736,10 +16745,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>112204507</v>
+        <v>112204522</v>
       </c>
       <c r="B150" t="n">
-        <v>101703</v>
+        <v>90843</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -16748,25 +16757,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>222412</v>
+        <v>5448</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -16776,10 +16785,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>574348</v>
+        <v>574380</v>
       </c>
       <c r="R150" t="n">
-        <v>6703560</v>
+        <v>6703524</v>
       </c>
       <c r="S150" t="n">
         <v>15</v>
@@ -16838,10 +16847,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>112204556</v>
+        <v>112204513</v>
       </c>
       <c r="B151" t="n">
-        <v>98535</v>
+        <v>90466</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -16854,21 +16863,21 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -16878,7 +16887,7 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>574348</v>
+        <v>574350</v>
       </c>
       <c r="R151" t="n">
         <v>6703560</v>
@@ -16940,10 +16949,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>112204536</v>
+        <v>112204556</v>
       </c>
       <c r="B152" t="n">
-        <v>93057</v>
+        <v>98961</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -16956,21 +16965,21 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>2809</v>
+        <v>222498</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -16980,10 +16989,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>574433</v>
+        <v>574348</v>
       </c>
       <c r="R152" t="n">
-        <v>6703384</v>
+        <v>6703560</v>
       </c>
       <c r="S152" t="n">
         <v>15</v>
@@ -17042,10 +17051,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>112204559</v>
+        <v>112204560</v>
       </c>
       <c r="B153" t="n">
-        <v>85253</v>
+        <v>85374</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -17082,10 +17091,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>574274</v>
+        <v>574298</v>
       </c>
       <c r="R153" t="n">
-        <v>6703472</v>
+        <v>6703421</v>
       </c>
       <c r="S153" t="n">
         <v>15</v>
@@ -17144,10 +17153,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>112204543</v>
+        <v>112204499</v>
       </c>
       <c r="B154" t="n">
-        <v>88966</v>
+        <v>5135</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -17156,38 +17165,47 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>5754</v>
+        <v>105930</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr"/>
       <c r="P154" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>574373</v>
+        <v>574257</v>
       </c>
       <c r="R154" t="n">
-        <v>6703547</v>
+        <v>6703569</v>
       </c>
       <c r="S154" t="n">
         <v>15</v>
@@ -17228,6 +17246,7 @@
       <c r="AE154" t="b">
         <v>0</v>
       </c>
+      <c r="AF154" t="inlineStr"/>
       <c r="AG154" t="b">
         <v>0</v>
       </c>
@@ -17246,10 +17265,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>112204500</v>
+        <v>112204526</v>
       </c>
       <c r="B155" t="n">
-        <v>94134</v>
+        <v>93218</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -17258,25 +17277,25 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>53</v>
+        <v>2813</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -17286,10 +17305,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>574270</v>
+        <v>574344</v>
       </c>
       <c r="R155" t="n">
-        <v>6703543</v>
+        <v>6703368</v>
       </c>
       <c r="S155" t="n">
         <v>15</v>
@@ -17348,10 +17367,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>112204562</v>
+        <v>112204558</v>
       </c>
       <c r="B156" t="n">
-        <v>85253</v>
+        <v>85374</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -17388,10 +17407,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>574316</v>
+        <v>574268</v>
       </c>
       <c r="R156" t="n">
-        <v>6703402</v>
+        <v>6703487</v>
       </c>
       <c r="S156" t="n">
         <v>15</v>
@@ -17450,10 +17469,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>112204527</v>
+        <v>112204502</v>
       </c>
       <c r="B157" t="n">
-        <v>93069</v>
+        <v>101581</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -17466,21 +17485,21 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>2813</v>
+        <v>222002</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -17490,10 +17509,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>574434</v>
+        <v>574290</v>
       </c>
       <c r="R157" t="n">
-        <v>6703389</v>
+        <v>6703420</v>
       </c>
       <c r="S157" t="n">
         <v>15</v>
@@ -17552,10 +17571,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>112204542</v>
+        <v>112204494</v>
       </c>
       <c r="B158" t="n">
-        <v>88966</v>
+        <v>90796</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -17564,49 +17583,38 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>5754</v>
+        <v>4363</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="N158" t="inlineStr"/>
+          <t>(Pers.) Banker</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>574344</v>
+        <v>574215</v>
       </c>
       <c r="R158" t="n">
-        <v>6703345</v>
+        <v>6703545</v>
       </c>
       <c r="S158" t="n">
         <v>15</v>
@@ -17647,7 +17655,6 @@
       <c r="AE158" t="b">
         <v>0</v>
       </c>
-      <c r="AF158" t="inlineStr"/>
       <c r="AG158" t="b">
         <v>0</v>
       </c>
@@ -17666,10 +17673,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>112204561</v>
+        <v>112204517</v>
       </c>
       <c r="B159" t="n">
-        <v>85253</v>
+        <v>90466</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -17682,21 +17689,21 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>3674</v>
+        <v>4769</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -17706,10 +17713,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>574311</v>
+        <v>574383</v>
       </c>
       <c r="R159" t="n">
-        <v>6703416</v>
+        <v>6703344</v>
       </c>
       <c r="S159" t="n">
         <v>15</v>
@@ -17768,10 +17775,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>112204509</v>
+        <v>112204521</v>
       </c>
       <c r="B160" t="n">
-        <v>4711</v>
+        <v>90466</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -17784,43 +17791,34 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>100299</v>
+        <v>4769</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N160" t="inlineStr"/>
       <c r="P160" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>574304</v>
+        <v>574423</v>
       </c>
       <c r="R160" t="n">
-        <v>6703522</v>
+        <v>6703376</v>
       </c>
       <c r="S160" t="n">
         <v>15</v>
@@ -17861,7 +17859,6 @@
       <c r="AE160" t="b">
         <v>0</v>
       </c>
-      <c r="AF160" t="inlineStr"/>
       <c r="AG160" t="b">
         <v>0</v>
       </c>
@@ -17880,10 +17877,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>112204506</v>
+        <v>112204546</v>
       </c>
       <c r="B161" t="n">
-        <v>56398</v>
+        <v>90821</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -17892,46 +17889,38 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>100109</v>
+        <v>5964</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N161" t="inlineStr"/>
       <c r="P161" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>574248</v>
+        <v>574312</v>
       </c>
       <c r="R161" t="n">
-        <v>6703547</v>
+        <v>6703559</v>
       </c>
       <c r="S161" t="n">
         <v>15</v>
@@ -17990,10 +17979,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>112204505</v>
+        <v>112204537</v>
       </c>
       <c r="B162" t="n">
-        <v>89405</v>
+        <v>89090</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -18002,25 +17991,25 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1202</v>
+        <v>5747</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I162" t="inlineStr"/>
@@ -18030,10 +18019,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>574433</v>
+        <v>574226</v>
       </c>
       <c r="R162" t="n">
-        <v>6703378</v>
+        <v>6703548</v>
       </c>
       <c r="S162" t="n">
         <v>15</v>
@@ -18092,10 +18081,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>112204521</v>
+        <v>112205319</v>
       </c>
       <c r="B163" t="n">
-        <v>90332</v>
+        <v>85310</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -18104,38 +18093,39 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>4769</v>
+        <v>445</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Kopparspindling</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius cupreorufus</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Brandrud</t>
         </is>
       </c>
       <c r="I163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="P163" t="inlineStr">
         <is>
-          <t>Kratte Masugn, Gstr</t>
+          <t>Kratte masugn (Kratte masugn), Gstr</t>
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>574423</v>
+        <v>574311</v>
       </c>
       <c r="R163" t="n">
-        <v>6703376</v>
+        <v>6703374</v>
       </c>
       <c r="S163" t="n">
         <v>15</v>
@@ -18165,9 +18155,19 @@
           <t>2023-09-18</t>
         </is>
       </c>
+      <c r="Z163" t="inlineStr">
+        <is>
+          <t>10:32</t>
+        </is>
+      </c>
       <c r="AA163" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB163" t="inlineStr">
+        <is>
+          <t>10:32</t>
         </is>
       </c>
       <c r="AD163" t="b">
@@ -18194,10 +18194,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>112204534</v>
+        <v>112204559</v>
       </c>
       <c r="B164" t="n">
-        <v>85089</v>
+        <v>85374</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -18210,21 +18210,21 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>3762</v>
+        <v>3674</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I164" t="inlineStr"/>
@@ -18234,7 +18234,7 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>574275</v>
+        <v>574274</v>
       </c>
       <c r="R164" t="n">
         <v>6703472</v>
@@ -18296,10 +18296,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>112204519</v>
+        <v>112204503</v>
       </c>
       <c r="B165" t="n">
-        <v>90332</v>
+        <v>101581</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -18312,21 +18312,21 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>4769</v>
+        <v>222002</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
@@ -18336,10 +18336,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>574416</v>
+        <v>574318</v>
       </c>
       <c r="R165" t="n">
-        <v>6703348</v>
+        <v>6703402</v>
       </c>
       <c r="S165" t="n">
         <v>15</v>
@@ -18398,10 +18398,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>112204547</v>
+        <v>112204549</v>
       </c>
       <c r="B166" t="n">
-        <v>90684</v>
+        <v>90818</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -18438,10 +18438,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>574347</v>
+        <v>574526</v>
       </c>
       <c r="R166" t="n">
-        <v>6703566</v>
+        <v>6703440</v>
       </c>
       <c r="S166" t="n">
         <v>15</v>
@@ -18500,10 +18500,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>112204522</v>
+        <v>112204516</v>
       </c>
       <c r="B167" t="n">
-        <v>90709</v>
+        <v>90466</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -18512,25 +18512,25 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>5448</v>
+        <v>4769</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
@@ -18540,10 +18540,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>574380</v>
+        <v>574335</v>
       </c>
       <c r="R167" t="n">
-        <v>6703524</v>
+        <v>6703391</v>
       </c>
       <c r="S167" t="n">
         <v>15</v>
@@ -18602,10 +18602,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>112204560</v>
+        <v>112204497</v>
       </c>
       <c r="B168" t="n">
-        <v>85253</v>
+        <v>99850</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -18618,21 +18618,21 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>3674</v>
+        <v>221235</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I168" t="inlineStr"/>
@@ -18642,10 +18642,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>574298</v>
+        <v>574347</v>
       </c>
       <c r="R168" t="n">
-        <v>6703421</v>
+        <v>6703560</v>
       </c>
       <c r="S168" t="n">
         <v>15</v>
@@ -18704,10 +18704,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>112204529</v>
+        <v>112204561</v>
       </c>
       <c r="B169" t="n">
-        <v>90678</v>
+        <v>85374</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -18720,21 +18720,21 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>4366</v>
+        <v>3674</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
@@ -18744,10 +18744,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>574203</v>
+        <v>574311</v>
       </c>
       <c r="R169" t="n">
-        <v>6703509</v>
+        <v>6703416</v>
       </c>
       <c r="S169" t="n">
         <v>15</v>
@@ -18806,10 +18806,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>112204494</v>
+        <v>112204552</v>
       </c>
       <c r="B170" t="n">
-        <v>90662</v>
+        <v>5113</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -18822,21 +18822,21 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>4363</v>
+        <v>100526</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
@@ -18846,10 +18846,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>574215</v>
+        <v>574303</v>
       </c>
       <c r="R170" t="n">
-        <v>6703545</v>
+        <v>6703521</v>
       </c>
       <c r="S170" t="n">
         <v>15</v>
@@ -18908,10 +18908,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>112204497</v>
+        <v>112204529</v>
       </c>
       <c r="B171" t="n">
-        <v>99413</v>
+        <v>90812</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -18924,21 +18924,21 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>221235</v>
+        <v>4366</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
@@ -18948,10 +18948,10 @@
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>574347</v>
+        <v>574203</v>
       </c>
       <c r="R171" t="n">
-        <v>6703560</v>
+        <v>6703509</v>
       </c>
       <c r="S171" t="n">
         <v>15</v>
@@ -19013,7 +19013,7 @@
         <v>112215073</v>
       </c>
       <c r="B172" t="n">
-        <v>85290</v>
+        <v>85411</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -19129,10 +19129,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>112214964</v>
+        <v>112215002</v>
       </c>
       <c r="B173" t="n">
-        <v>85313</v>
+        <v>88126</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -19141,30 +19141,30 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3739</v>
+        <v>1593</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Lakritsmusseron</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Tricholoma apium</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>Jul.Schäff.</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -19180,13 +19180,13 @@
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>574526</v>
+        <v>574226</v>
       </c>
       <c r="R173" t="n">
-        <v>6703440</v>
+        <v>6703548</v>
       </c>
       <c r="S173" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T173" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
       </c>
       <c r="AC173" t="inlineStr">
         <is>
-          <t>Växte tillsammans med gran och några aspar. Rikligt med dofttaggsvamp intill.</t>
+          <t>Väldigt annorlunda lokal och växtplats för en lakritsmusseron. Mestadels gran men det växte tallar i närheten också. Kalkbarrskog för övrigt och denna växte precis intill en läderdoftande fingersvamp. Fortfarande under mossan. Fruktkroppen hade den tydliga doften lakritsmusseron brukar ha.</t>
         </is>
       </c>
       <c r="AD173" t="b">
@@ -19248,10 +19248,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>112215002</v>
+        <v>112214964</v>
       </c>
       <c r="B174" t="n">
-        <v>87992</v>
+        <v>85434</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -19260,30 +19260,30 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1593</v>
+        <v>3739</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Lakritsmusseron</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Tricholoma apium</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Jul.Schäff.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -19299,13 +19299,13 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>574226</v>
+        <v>574526</v>
       </c>
       <c r="R174" t="n">
-        <v>6703548</v>
+        <v>6703440</v>
       </c>
       <c r="S174" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T174" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
       </c>
       <c r="AC174" t="inlineStr">
         <is>
-          <t>Väldigt annorlunda lokal och växtplats för en lakritsmusseron. Mestadels gran men det växte tallar i närheten också. Kalkbarrskog för övrigt och denna växte precis intill en läderdoftande fingersvamp. Fortfarande under mossan. Fruktkroppen hade den tydliga doften lakritsmusseron brukar ha.</t>
+          <t>Växte tillsammans med gran och några aspar. Rikligt med dofttaggsvamp intill.</t>
         </is>
       </c>
       <c r="AD174" t="b">

--- a/artfynd/A 14918-2023.xlsx
+++ b/artfynd/A 14918-2023.xlsx
@@ -6148,10 +6148,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111896595</v>
+        <v>111896684</v>
       </c>
       <c r="B48" t="n">
-        <v>102166</v>
+        <v>89100</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6160,25 +6160,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222412</v>
+        <v>5754</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6188,10 +6188,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>574247</v>
+        <v>574299</v>
       </c>
       <c r="R48" t="n">
-        <v>6703405</v>
+        <v>6703457</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6250,10 +6250,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111896691</v>
+        <v>111896595</v>
       </c>
       <c r="B49" t="n">
-        <v>90818</v>
+        <v>102166</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6262,25 +6262,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4368</v>
+        <v>222412</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6290,10 +6290,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>574527</v>
+        <v>574247</v>
       </c>
       <c r="R49" t="n">
-        <v>6703449</v>
+        <v>6703405</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6352,10 +6352,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111896623</v>
+        <v>111896691</v>
       </c>
       <c r="B50" t="n">
-        <v>90466</v>
+        <v>90818</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6364,25 +6364,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4769</v>
+        <v>4368</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6392,10 +6392,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>574296</v>
+        <v>574527</v>
       </c>
       <c r="R50" t="n">
-        <v>6703413</v>
+        <v>6703449</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6454,10 +6454,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111896713</v>
+        <v>111896623</v>
       </c>
       <c r="B51" t="n">
-        <v>98961</v>
+        <v>90466</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6470,21 +6470,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6494,10 +6494,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>574334</v>
+        <v>574296</v>
       </c>
       <c r="R51" t="n">
-        <v>6703424</v>
+        <v>6703413</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111896714</v>
+        <v>111896713</v>
       </c>
       <c r="B52" t="n">
         <v>98961</v>
@@ -6596,10 +6596,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>574320</v>
+        <v>574334</v>
       </c>
       <c r="R52" t="n">
-        <v>6703403</v>
+        <v>6703424</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6658,10 +6658,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111896684</v>
+        <v>111896714</v>
       </c>
       <c r="B53" t="n">
-        <v>89100</v>
+        <v>98961</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6670,25 +6670,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6698,10 +6698,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>574299</v>
+        <v>574320</v>
       </c>
       <c r="R53" t="n">
-        <v>6703457</v>
+        <v>6703403</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111896707</v>
+        <v>111886498</v>
       </c>
       <c r="B57" t="n">
         <v>98961</v>
@@ -7112,19 +7112,20 @@
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>574304</v>
+        <v>574334</v>
       </c>
       <c r="R57" t="n">
-        <v>6703456</v>
+        <v>6703523</v>
       </c>
       <c r="S57" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7151,9 +7152,19 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>11:21</t>
+        </is>
+      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7168,12 +7179,12 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
@@ -7282,7 +7293,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111896706</v>
+        <v>111896716</v>
       </c>
       <c r="B59" t="n">
         <v>98961</v>
@@ -7322,10 +7333,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>574290</v>
+        <v>574338</v>
       </c>
       <c r="R59" t="n">
-        <v>6703480</v>
+        <v>6703387</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7384,7 +7395,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111886498</v>
+        <v>111896707</v>
       </c>
       <c r="B60" t="n">
         <v>98961</v>
@@ -7418,20 +7429,19 @@
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>574334</v>
+        <v>574304</v>
       </c>
       <c r="R60" t="n">
-        <v>6703523</v>
+        <v>6703456</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7458,19 +7468,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>11:21</t>
-        </is>
-      </c>
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>11:21</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7485,19 +7485,19 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111896716</v>
+        <v>111896706</v>
       </c>
       <c r="B61" t="n">
         <v>98961</v>
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>574338</v>
+        <v>574290</v>
       </c>
       <c r="R61" t="n">
-        <v>6703387</v>
+        <v>6703480</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -9857,10 +9857,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111886358</v>
+        <v>111896588</v>
       </c>
       <c r="B84" t="n">
-        <v>102166</v>
+        <v>101581</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9873,16 +9873,16 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>222412</v>
+        <v>222002</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -9891,20 +9891,19 @@
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>574378</v>
+        <v>574305</v>
       </c>
       <c r="R84" t="n">
-        <v>6703531</v>
+        <v>6703455</v>
       </c>
       <c r="S84" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
@@ -9931,19 +9930,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AA84" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB84" t="inlineStr">
-        <is>
-          <t>11:10</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9958,22 +9947,22 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111896588</v>
+        <v>111886358</v>
       </c>
       <c r="B85" t="n">
-        <v>101581</v>
+        <v>102166</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9986,16 +9975,16 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>222002</v>
+        <v>222412</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -10004,19 +9993,20 @@
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>574305</v>
+        <v>574378</v>
       </c>
       <c r="R85" t="n">
-        <v>6703455</v>
+        <v>6703531</v>
       </c>
       <c r="S85" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -10043,9 +10033,19 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
       <c r="AA85" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10060,12 +10060,12 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
@@ -13292,10 +13292,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111896670</v>
+        <v>111896615</v>
       </c>
       <c r="B117" t="n">
-        <v>85374</v>
+        <v>90466</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13308,21 +13308,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>3674</v>
+        <v>4769</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -13332,10 +13332,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>574302</v>
+        <v>574241</v>
       </c>
       <c r="R117" t="n">
-        <v>6703457</v>
+        <v>6703470</v>
       </c>
       <c r="S117" t="n">
         <v>25</v>
@@ -13376,7 +13376,6 @@
       <c r="AE117" t="b">
         <v>0</v>
       </c>
-      <c r="AF117" t="inlineStr"/>
       <c r="AG117" t="b">
         <v>0</v>
       </c>
@@ -13395,10 +13394,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111896701</v>
+        <v>111896589</v>
       </c>
       <c r="B118" t="n">
-        <v>98961</v>
+        <v>101581</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -13411,21 +13410,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -13435,10 +13434,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>574224</v>
+        <v>574320</v>
       </c>
       <c r="R118" t="n">
-        <v>6703448</v>
+        <v>6703355</v>
       </c>
       <c r="S118" t="n">
         <v>25</v>
@@ -13497,10 +13496,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111896695</v>
+        <v>111896681</v>
       </c>
       <c r="B119" t="n">
-        <v>98961</v>
+        <v>89100</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -13509,38 +13508,49 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>574529</v>
+        <v>574331</v>
       </c>
       <c r="R119" t="n">
-        <v>6703446</v>
+        <v>6703355</v>
       </c>
       <c r="S119" t="n">
         <v>25</v>
@@ -13581,6 +13591,7 @@
       <c r="AE119" t="b">
         <v>0</v>
       </c>
+      <c r="AF119" t="inlineStr"/>
       <c r="AG119" t="b">
         <v>0</v>
       </c>
@@ -13599,10 +13610,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111896615</v>
+        <v>111896670</v>
       </c>
       <c r="B120" t="n">
-        <v>90466</v>
+        <v>85374</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -13615,21 +13626,21 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>4769</v>
+        <v>3674</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -13639,10 +13650,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>574241</v>
+        <v>574302</v>
       </c>
       <c r="R120" t="n">
-        <v>6703470</v>
+        <v>6703457</v>
       </c>
       <c r="S120" t="n">
         <v>25</v>
@@ -13683,6 +13694,7 @@
       <c r="AE120" t="b">
         <v>0</v>
       </c>
+      <c r="AF120" t="inlineStr"/>
       <c r="AG120" t="b">
         <v>0</v>
       </c>
@@ -13701,10 +13713,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111896589</v>
+        <v>111896701</v>
       </c>
       <c r="B121" t="n">
-        <v>101581</v>
+        <v>98961</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -13717,21 +13729,21 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -13741,10 +13753,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>574320</v>
+        <v>574224</v>
       </c>
       <c r="R121" t="n">
-        <v>6703355</v>
+        <v>6703448</v>
       </c>
       <c r="S121" t="n">
         <v>25</v>
@@ -13803,10 +13815,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111896681</v>
+        <v>111896695</v>
       </c>
       <c r="B122" t="n">
-        <v>89100</v>
+        <v>98961</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -13815,49 +13827,38 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>5754</v>
+        <v>222498</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>574331</v>
+        <v>574529</v>
       </c>
       <c r="R122" t="n">
-        <v>6703355</v>
+        <v>6703446</v>
       </c>
       <c r="S122" t="n">
         <v>25</v>
@@ -13898,7 +13899,6 @@
       <c r="AE122" t="b">
         <v>0</v>
       </c>
-      <c r="AF122" t="inlineStr"/>
       <c r="AG122" t="b">
         <v>0</v>
       </c>
@@ -14989,10 +14989,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>112204496</v>
+        <v>112204527</v>
       </c>
       <c r="B133" t="n">
-        <v>99850</v>
+        <v>93218</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -15005,21 +15005,21 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>221235</v>
+        <v>2813</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -15029,10 +15029,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>574374</v>
+        <v>574434</v>
       </c>
       <c r="R133" t="n">
-        <v>6703549</v>
+        <v>6703389</v>
       </c>
       <c r="S133" t="n">
         <v>15</v>
@@ -15091,10 +15091,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>112204562</v>
+        <v>112204542</v>
       </c>
       <c r="B134" t="n">
-        <v>85374</v>
+        <v>89100</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -15103,38 +15103,49 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>3674</v>
+        <v>5754</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>574316</v>
+        <v>574344</v>
       </c>
       <c r="R134" t="n">
-        <v>6703402</v>
+        <v>6703345</v>
       </c>
       <c r="S134" t="n">
         <v>15</v>
@@ -15175,6 +15186,7 @@
       <c r="AE134" t="b">
         <v>0</v>
       </c>
+      <c r="AF134" t="inlineStr"/>
       <c r="AG134" t="b">
         <v>0</v>
       </c>
@@ -15193,10 +15205,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>112204542</v>
+        <v>112204535</v>
       </c>
       <c r="B135" t="n">
-        <v>89100</v>
+        <v>93206</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -15205,49 +15217,38 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>5754</v>
+        <v>2809</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="N135" t="inlineStr"/>
+          <t>(Hedw.) M.Fleisch.</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>574344</v>
+        <v>574348</v>
       </c>
       <c r="R135" t="n">
-        <v>6703345</v>
+        <v>6703368</v>
       </c>
       <c r="S135" t="n">
         <v>15</v>
@@ -15288,7 +15289,6 @@
       <c r="AE135" t="b">
         <v>0</v>
       </c>
-      <c r="AF135" t="inlineStr"/>
       <c r="AG135" t="b">
         <v>0</v>
       </c>
@@ -15307,10 +15307,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>112204535</v>
+        <v>112204507</v>
       </c>
       <c r="B136" t="n">
-        <v>93206</v>
+        <v>102166</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -15323,21 +15323,21 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2809</v>
+        <v>222412</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -15350,7 +15350,7 @@
         <v>574348</v>
       </c>
       <c r="R136" t="n">
-        <v>6703368</v>
+        <v>6703560</v>
       </c>
       <c r="S136" t="n">
         <v>15</v>
@@ -15409,10 +15409,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>112204507</v>
+        <v>112204496</v>
       </c>
       <c r="B137" t="n">
-        <v>102166</v>
+        <v>99850</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -15425,21 +15425,21 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>222412</v>
+        <v>221235</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -15449,10 +15449,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>574348</v>
+        <v>574374</v>
       </c>
       <c r="R137" t="n">
-        <v>6703560</v>
+        <v>6703549</v>
       </c>
       <c r="S137" t="n">
         <v>15</v>
@@ -15511,10 +15511,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>112204512</v>
+        <v>112204562</v>
       </c>
       <c r="B138" t="n">
-        <v>90466</v>
+        <v>85374</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -15527,21 +15527,21 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>4769</v>
+        <v>3674</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -15551,10 +15551,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>574381</v>
+        <v>574316</v>
       </c>
       <c r="R138" t="n">
-        <v>6703524</v>
+        <v>6703402</v>
       </c>
       <c r="S138" t="n">
         <v>15</v>
@@ -15725,10 +15725,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>112204527</v>
+        <v>112204512</v>
       </c>
       <c r="B140" t="n">
-        <v>93218</v>
+        <v>90466</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -15741,21 +15741,21 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2813</v>
+        <v>4769</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -15765,10 +15765,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>574434</v>
+        <v>574381</v>
       </c>
       <c r="R140" t="n">
-        <v>6703389</v>
+        <v>6703524</v>
       </c>
       <c r="S140" t="n">
         <v>15</v>

--- a/artfynd/A 14918-2023.xlsx
+++ b/artfynd/A 14918-2023.xlsx
@@ -5527,10 +5527,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111896602</v>
+        <v>111886390</v>
       </c>
       <c r="B42" t="n">
-        <v>56575</v>
+        <v>98980</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5539,49 +5539,42 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>103021</v>
+        <v>222498</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>574317</v>
+        <v>574321</v>
       </c>
       <c r="R42" t="n">
-        <v>6703406</v>
+        <v>6703542</v>
       </c>
       <c r="S42" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5608,9 +5601,19 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>11:12</t>
+        </is>
+      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5625,22 +5628,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111896651</v>
+        <v>111886738</v>
       </c>
       <c r="B43" t="n">
-        <v>89317</v>
+        <v>90832</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5649,41 +5652,42 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3215</v>
+        <v>4368</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>574442</v>
+        <v>574247</v>
       </c>
       <c r="R43" t="n">
-        <v>6703459</v>
+        <v>6703547</v>
       </c>
       <c r="S43" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5710,9 +5714,19 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5727,22 +5741,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111896626</v>
+        <v>111886329</v>
       </c>
       <c r="B44" t="n">
-        <v>90466</v>
+        <v>90835</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5755,34 +5769,35 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>574356</v>
+        <v>574258</v>
       </c>
       <c r="R44" t="n">
-        <v>6703378</v>
+        <v>6703499</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5829,22 +5844,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111896668</v>
+        <v>111896715</v>
       </c>
       <c r="B45" t="n">
-        <v>85210</v>
+        <v>98980</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5857,21 +5872,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3762</v>
+        <v>222498</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5881,10 +5896,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>574318</v>
+        <v>574335</v>
       </c>
       <c r="R45" t="n">
-        <v>6703431</v>
+        <v>6703403</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5943,10 +5958,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111896624</v>
+        <v>111896621</v>
       </c>
       <c r="B46" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5986,7 +6001,7 @@
         <v>574320</v>
       </c>
       <c r="R46" t="n">
-        <v>6703403</v>
+        <v>6703356</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -6045,10 +6060,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111896669</v>
+        <v>111896615</v>
       </c>
       <c r="B47" t="n">
-        <v>85374</v>
+        <v>90480</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6061,21 +6076,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3674</v>
+        <v>4769</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6085,7 +6100,7 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>574252</v>
+        <v>574241</v>
       </c>
       <c r="R47" t="n">
         <v>6703470</v>
@@ -6129,7 +6144,6 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6148,10 +6162,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111896684</v>
+        <v>111886713</v>
       </c>
       <c r="B48" t="n">
-        <v>89100</v>
+        <v>90832</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6164,34 +6178,35 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5754</v>
+        <v>4368</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>574299</v>
+        <v>574267</v>
       </c>
       <c r="R48" t="n">
-        <v>6703457</v>
+        <v>6703556</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6238,22 +6253,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111896595</v>
+        <v>111886835</v>
       </c>
       <c r="B49" t="n">
-        <v>102166</v>
+        <v>86371</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6262,38 +6277,39 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>222412</v>
+        <v>4412</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>574247</v>
+        <v>574230</v>
       </c>
       <c r="R49" t="n">
-        <v>6703405</v>
+        <v>6703589</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6323,9 +6339,19 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6340,22 +6366,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111896691</v>
+        <v>111886424</v>
       </c>
       <c r="B50" t="n">
-        <v>90818</v>
+        <v>89047</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6368,34 +6394,44 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4368</v>
+        <v>3286</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>574527</v>
+        <v>574279</v>
       </c>
       <c r="R50" t="n">
-        <v>6703449</v>
+        <v>6703466</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6442,22 +6478,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111896623</v>
+        <v>111896717</v>
       </c>
       <c r="B51" t="n">
-        <v>90466</v>
+        <v>98980</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6470,21 +6506,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6494,10 +6530,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>574296</v>
+        <v>574371</v>
       </c>
       <c r="R51" t="n">
-        <v>6703413</v>
+        <v>6703384</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6556,10 +6592,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111896713</v>
+        <v>111896629</v>
       </c>
       <c r="B52" t="n">
-        <v>98961</v>
+        <v>90480</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6572,21 +6608,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6596,10 +6632,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>574334</v>
+        <v>574410</v>
       </c>
       <c r="R52" t="n">
-        <v>6703424</v>
+        <v>6703385</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6658,10 +6694,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111896714</v>
+        <v>111896602</v>
       </c>
       <c r="B53" t="n">
-        <v>98961</v>
+        <v>56575</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6670,38 +6706,46 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>574320</v>
+        <v>574317</v>
       </c>
       <c r="R53" t="n">
-        <v>6703403</v>
+        <v>6703406</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6760,10 +6804,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111885492</v>
+        <v>111896708</v>
       </c>
       <c r="B54" t="n">
-        <v>99850</v>
+        <v>98980</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6776,35 +6820,34 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>574347</v>
+        <v>574326</v>
       </c>
       <c r="R54" t="n">
-        <v>6703446</v>
+        <v>6703458</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6851,22 +6894,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111896711</v>
+        <v>111896716</v>
       </c>
       <c r="B55" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6903,10 +6946,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>574305</v>
+        <v>574338</v>
       </c>
       <c r="R55" t="n">
-        <v>6703447</v>
+        <v>6703387</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6965,10 +7008,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111886835</v>
+        <v>111896648</v>
       </c>
       <c r="B56" t="n">
-        <v>86357</v>
+        <v>78647</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6977,39 +7020,38 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4412</v>
+        <v>6456</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>574230</v>
+        <v>574528</v>
       </c>
       <c r="R56" t="n">
-        <v>6703589</v>
+        <v>6703436</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -7039,49 +7081,40 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>11:40</t>
-        </is>
-      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>11:40</t>
-        </is>
-      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111886498</v>
+        <v>111896711</v>
       </c>
       <c r="B57" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7112,20 +7145,19 @@
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>574334</v>
+        <v>574305</v>
       </c>
       <c r="R57" t="n">
-        <v>6703523</v>
+        <v>6703447</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7152,19 +7184,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>11:21</t>
-        </is>
-      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>11:21</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7179,22 +7201,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111896581</v>
+        <v>111886372</v>
       </c>
       <c r="B58" t="n">
-        <v>99850</v>
+        <v>90835</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7207,34 +7229,35 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>221235</v>
+        <v>5964</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>574334</v>
+        <v>574261</v>
       </c>
       <c r="R58" t="n">
-        <v>6703424</v>
+        <v>6703463</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7281,22 +7304,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111896716</v>
+        <v>111896701</v>
       </c>
       <c r="B59" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7333,10 +7356,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>574338</v>
+        <v>574224</v>
       </c>
       <c r="R59" t="n">
-        <v>6703387</v>
+        <v>6703448</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7395,10 +7418,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111896707</v>
+        <v>111896680</v>
       </c>
       <c r="B60" t="n">
-        <v>98961</v>
+        <v>89114</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7407,38 +7430,49 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>222498</v>
+        <v>5754</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>574304</v>
+        <v>574324</v>
       </c>
       <c r="R60" t="n">
-        <v>6703456</v>
+        <v>6703369</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7479,6 +7513,7 @@
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -7497,10 +7532,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111896706</v>
+        <v>111896625</v>
       </c>
       <c r="B61" t="n">
-        <v>98961</v>
+        <v>90480</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7513,21 +7548,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7537,10 +7572,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>574290</v>
+        <v>574335</v>
       </c>
       <c r="R61" t="n">
-        <v>6703480</v>
+        <v>6703404</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7599,10 +7634,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111885842</v>
+        <v>111896696</v>
       </c>
       <c r="B62" t="n">
-        <v>101581</v>
+        <v>98980</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7615,35 +7650,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>574290</v>
+        <v>574273</v>
       </c>
       <c r="R62" t="n">
-        <v>6703416</v>
+        <v>6703374</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7690,22 +7724,22 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111896704</v>
+        <v>111896697</v>
       </c>
       <c r="B63" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7742,10 +7776,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>574300</v>
+        <v>574253</v>
       </c>
       <c r="R63" t="n">
-        <v>6703504</v>
+        <v>6703387</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7804,10 +7838,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111896630</v>
+        <v>111896595</v>
       </c>
       <c r="B64" t="n">
-        <v>90466</v>
+        <v>102192</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7820,21 +7854,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7844,10 +7878,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>574437</v>
+        <v>574247</v>
       </c>
       <c r="R64" t="n">
-        <v>6703434</v>
+        <v>6703405</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7906,10 +7940,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111896622</v>
+        <v>111884952</v>
       </c>
       <c r="B65" t="n">
-        <v>90466</v>
+        <v>98980</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7922,34 +7956,35 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Kalkberget (Kalkberget), Gstr</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>574283</v>
+        <v>574449</v>
       </c>
       <c r="R65" t="n">
-        <v>6703417</v>
+        <v>6703528</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -7996,22 +8031,22 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111896712</v>
+        <v>111896713</v>
       </c>
       <c r="B66" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8048,10 +8083,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>574312</v>
+        <v>574334</v>
       </c>
       <c r="R66" t="n">
-        <v>6703436</v>
+        <v>6703424</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8110,10 +8145,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111896627</v>
+        <v>111896622</v>
       </c>
       <c r="B67" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8150,10 +8185,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>574373</v>
+        <v>574283</v>
       </c>
       <c r="R67" t="n">
-        <v>6703376</v>
+        <v>6703417</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8212,10 +8247,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111896650</v>
+        <v>111896619</v>
       </c>
       <c r="B68" t="n">
-        <v>89317</v>
+        <v>90480</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8228,21 +8263,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8252,10 +8287,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>574250</v>
+        <v>574271</v>
       </c>
       <c r="R68" t="n">
-        <v>6703481</v>
+        <v>6703440</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8314,10 +8349,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111896709</v>
+        <v>111896623</v>
       </c>
       <c r="B69" t="n">
-        <v>98961</v>
+        <v>90480</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8330,21 +8365,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8354,10 +8389,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>574320</v>
+        <v>574296</v>
       </c>
       <c r="R69" t="n">
-        <v>6703354</v>
+        <v>6703413</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8416,10 +8451,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111896685</v>
+        <v>111896681</v>
       </c>
       <c r="B70" t="n">
-        <v>89100</v>
+        <v>89114</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8449,17 +8484,28 @@
           <t>(Bres.) Corner</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>574342</v>
+        <v>574331</v>
       </c>
       <c r="R70" t="n">
-        <v>6703452</v>
+        <v>6703355</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8500,6 +8546,7 @@
       <c r="AE70" t="b">
         <v>0</v>
       </c>
+      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
       </c>
@@ -8518,10 +8565,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111896682</v>
+        <v>111896626</v>
       </c>
       <c r="B71" t="n">
-        <v>89100</v>
+        <v>90480</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8530,25 +8577,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8558,10 +8605,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>574256</v>
+        <v>574356</v>
       </c>
       <c r="R71" t="n">
-        <v>6703475</v>
+        <v>6703378</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8620,10 +8667,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111885762</v>
+        <v>111896614</v>
       </c>
       <c r="B72" t="n">
-        <v>90429</v>
+        <v>90480</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8636,35 +8683,34 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4740</v>
+        <v>4769</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Sotriska</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lactarius lignyotus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>574312</v>
+        <v>574229</v>
       </c>
       <c r="R72" t="n">
-        <v>6703438</v>
+        <v>6703430</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8711,22 +8757,22 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111896590</v>
+        <v>111896699</v>
       </c>
       <c r="B73" t="n">
-        <v>101581</v>
+        <v>98980</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8739,21 +8785,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8763,10 +8809,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>574319</v>
+        <v>574219</v>
       </c>
       <c r="R73" t="n">
-        <v>6703403</v>
+        <v>6703421</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -8825,10 +8871,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111896610</v>
+        <v>111896710</v>
       </c>
       <c r="B74" t="n">
-        <v>90466</v>
+        <v>98980</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8841,21 +8887,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8865,10 +8911,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>574272</v>
+        <v>574290</v>
       </c>
       <c r="R74" t="n">
-        <v>6703412</v>
+        <v>6703415</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -8927,10 +8973,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111896708</v>
+        <v>111896712</v>
       </c>
       <c r="B75" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8967,10 +9013,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>574326</v>
+        <v>574312</v>
       </c>
       <c r="R75" t="n">
-        <v>6703458</v>
+        <v>6703436</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9029,10 +9075,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111896632</v>
+        <v>111896714</v>
       </c>
       <c r="B76" t="n">
-        <v>90466</v>
+        <v>98980</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9045,21 +9091,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9069,10 +9115,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>574469</v>
+        <v>574320</v>
       </c>
       <c r="R76" t="n">
-        <v>6703484</v>
+        <v>6703403</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9131,10 +9177,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111896621</v>
+        <v>111896706</v>
       </c>
       <c r="B77" t="n">
-        <v>90466</v>
+        <v>98980</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9147,21 +9193,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9171,10 +9217,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>574320</v>
+        <v>574290</v>
       </c>
       <c r="R77" t="n">
-        <v>6703356</v>
+        <v>6703480</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9233,10 +9279,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111896629</v>
+        <v>111896685</v>
       </c>
       <c r="B78" t="n">
-        <v>90466</v>
+        <v>89114</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9245,25 +9291,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9273,10 +9319,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>574410</v>
+        <v>574342</v>
       </c>
       <c r="R78" t="n">
-        <v>6703385</v>
+        <v>6703452</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9335,10 +9381,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111896631</v>
+        <v>111886198</v>
       </c>
       <c r="B79" t="n">
-        <v>90466</v>
+        <v>89114</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9347,38 +9393,39 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>574456</v>
+        <v>574244</v>
       </c>
       <c r="R79" t="n">
-        <v>6703507</v>
+        <v>6703468</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9425,22 +9472,22 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111896717</v>
+        <v>111896700</v>
       </c>
       <c r="B80" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9477,10 +9524,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>574371</v>
+        <v>574211</v>
       </c>
       <c r="R80" t="n">
-        <v>6703384</v>
+        <v>6703461</v>
       </c>
       <c r="S80" t="n">
         <v>25</v>
@@ -9539,10 +9586,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111896699</v>
+        <v>111896650</v>
       </c>
       <c r="B81" t="n">
-        <v>98961</v>
+        <v>89331</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9555,21 +9602,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>222498</v>
+        <v>3215</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9579,10 +9626,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>574219</v>
+        <v>574250</v>
       </c>
       <c r="R81" t="n">
-        <v>6703421</v>
+        <v>6703481</v>
       </c>
       <c r="S81" t="n">
         <v>25</v>
@@ -9641,10 +9688,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111896671</v>
+        <v>111896695</v>
       </c>
       <c r="B82" t="n">
-        <v>85374</v>
+        <v>98980</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9657,21 +9704,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>3674</v>
+        <v>222498</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9681,10 +9728,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>574320</v>
+        <v>574529</v>
       </c>
       <c r="R82" t="n">
-        <v>6703405</v>
+        <v>6703446</v>
       </c>
       <c r="S82" t="n">
         <v>25</v>
@@ -9725,7 +9772,6 @@
       <c r="AE82" t="b">
         <v>0</v>
       </c>
-      <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="b">
         <v>0</v>
       </c>
@@ -9744,10 +9790,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111886738</v>
+        <v>111896703</v>
       </c>
       <c r="B83" t="n">
-        <v>90818</v>
+        <v>98980</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9756,42 +9802,41 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4368</v>
+        <v>222498</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>574247</v>
+        <v>574310</v>
       </c>
       <c r="R83" t="n">
-        <v>6703547</v>
+        <v>6703519</v>
       </c>
       <c r="S83" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -9818,19 +9863,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>11:36</t>
-        </is>
-      </c>
       <c r="AA83" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB83" t="inlineStr">
-        <is>
-          <t>11:36</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9845,22 +9880,22 @@
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111896588</v>
+        <v>111896590</v>
       </c>
       <c r="B84" t="n">
-        <v>101581</v>
+        <v>101607</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9897,10 +9932,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>574305</v>
+        <v>574319</v>
       </c>
       <c r="R84" t="n">
-        <v>6703455</v>
+        <v>6703403</v>
       </c>
       <c r="S84" t="n">
         <v>25</v>
@@ -9959,10 +9994,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111886358</v>
+        <v>111896671</v>
       </c>
       <c r="B85" t="n">
-        <v>102166</v>
+        <v>85388</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9975,38 +10010,37 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>222412</v>
+        <v>3674</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>574378</v>
+        <v>574320</v>
       </c>
       <c r="R85" t="n">
-        <v>6703531</v>
+        <v>6703405</v>
       </c>
       <c r="S85" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -10033,49 +10067,40 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AA85" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB85" t="inlineStr">
-        <is>
-          <t>11:10</t>
-        </is>
-      </c>
       <c r="AD85" t="b">
         <v>0</v>
       </c>
       <c r="AE85" t="b">
         <v>0</v>
       </c>
+      <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="b">
         <v>0</v>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111896697</v>
+        <v>111896707</v>
       </c>
       <c r="B86" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10112,10 +10137,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>574253</v>
+        <v>574304</v>
       </c>
       <c r="R86" t="n">
-        <v>6703387</v>
+        <v>6703456</v>
       </c>
       <c r="S86" t="n">
         <v>25</v>
@@ -10174,10 +10199,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111896625</v>
+        <v>111896704</v>
       </c>
       <c r="B87" t="n">
-        <v>90466</v>
+        <v>98980</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10190,21 +10215,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10214,10 +10239,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>574335</v>
+        <v>574300</v>
       </c>
       <c r="R87" t="n">
-        <v>6703404</v>
+        <v>6703504</v>
       </c>
       <c r="S87" t="n">
         <v>25</v>
@@ -10276,10 +10301,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111886848</v>
+        <v>111896630</v>
       </c>
       <c r="B88" t="n">
-        <v>86357</v>
+        <v>90480</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10288,42 +10313,41 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>4412</v>
+        <v>4769</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>574237</v>
+        <v>574437</v>
       </c>
       <c r="R88" t="n">
-        <v>6703597</v>
+        <v>6703434</v>
       </c>
       <c r="S88" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -10350,19 +10374,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr">
-        <is>
-          <t>11:42</t>
-        </is>
-      </c>
       <c r="AA88" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB88" t="inlineStr">
-        <is>
-          <t>11:42</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10377,22 +10391,22 @@
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111896683</v>
+        <v>111896684</v>
       </c>
       <c r="B89" t="n">
-        <v>89100</v>
+        <v>89114</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10429,10 +10443,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>574289</v>
+        <v>574299</v>
       </c>
       <c r="R89" t="n">
-        <v>6703480</v>
+        <v>6703457</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -10491,10 +10505,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111896702</v>
+        <v>111896610</v>
       </c>
       <c r="B90" t="n">
-        <v>98961</v>
+        <v>90480</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10507,21 +10521,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10531,10 +10545,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>574285</v>
+        <v>574272</v>
       </c>
       <c r="R90" t="n">
-        <v>6703508</v>
+        <v>6703412</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -10593,10 +10607,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111896680</v>
+        <v>111896601</v>
       </c>
       <c r="B91" t="n">
-        <v>89100</v>
+        <v>56575</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10609,34 +10623,31 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5754</v>
+        <v>103021</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
@@ -10644,10 +10655,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>574324</v>
+        <v>574288</v>
       </c>
       <c r="R91" t="n">
-        <v>6703369</v>
+        <v>6703455</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -10688,7 +10699,6 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
-      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
@@ -10707,10 +10717,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111886424</v>
+        <v>111896588</v>
       </c>
       <c r="B92" t="n">
-        <v>89033</v>
+        <v>101607</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10719,48 +10729,38 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3286</v>
+        <v>222002</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>574279</v>
+        <v>574305</v>
       </c>
       <c r="R92" t="n">
-        <v>6703466</v>
+        <v>6703455</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -10807,22 +10807,22 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111884952</v>
+        <v>111896668</v>
       </c>
       <c r="B93" t="n">
-        <v>98961</v>
+        <v>85224</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10835,35 +10835,34 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>222498</v>
+        <v>3762</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Kalkberget (Kalkberget), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>574449</v>
+        <v>574318</v>
       </c>
       <c r="R93" t="n">
-        <v>6703528</v>
+        <v>6703431</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -10910,22 +10909,22 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111896607</v>
+        <v>111896589</v>
       </c>
       <c r="B94" t="n">
-        <v>90466</v>
+        <v>101607</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -10938,21 +10937,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>4769</v>
+        <v>222002</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10962,10 +10961,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>574467</v>
+        <v>574320</v>
       </c>
       <c r="R94" t="n">
-        <v>6703514</v>
+        <v>6703355</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11024,10 +11023,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111896618</v>
+        <v>111896617</v>
       </c>
       <c r="B95" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11064,10 +11063,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>574292</v>
+        <v>574269</v>
       </c>
       <c r="R95" t="n">
-        <v>6703488</v>
+        <v>6703495</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11126,10 +11125,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111896620</v>
+        <v>111896616</v>
       </c>
       <c r="B96" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11166,10 +11165,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>574293</v>
+        <v>574249</v>
       </c>
       <c r="R96" t="n">
-        <v>6703456</v>
+        <v>6703475</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11228,10 +11227,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111896616</v>
+        <v>111896683</v>
       </c>
       <c r="B97" t="n">
-        <v>90466</v>
+        <v>89114</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11240,25 +11239,25 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11268,10 +11267,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>574249</v>
+        <v>574289</v>
       </c>
       <c r="R97" t="n">
-        <v>6703475</v>
+        <v>6703480</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11330,10 +11329,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111896710</v>
+        <v>111896618</v>
       </c>
       <c r="B98" t="n">
-        <v>98961</v>
+        <v>90480</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11346,21 +11345,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11370,10 +11369,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>574290</v>
+        <v>574292</v>
       </c>
       <c r="R98" t="n">
-        <v>6703415</v>
+        <v>6703488</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11432,10 +11431,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111886713</v>
+        <v>111886848</v>
       </c>
       <c r="B99" t="n">
-        <v>90818</v>
+        <v>86371</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11448,21 +11447,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>4368</v>
+        <v>4412</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11473,13 +11472,13 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>574267</v>
+        <v>574237</v>
       </c>
       <c r="R99" t="n">
-        <v>6703556</v>
+        <v>6703597</v>
       </c>
       <c r="S99" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
@@ -11506,9 +11505,19 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>11:42</t>
+        </is>
+      </c>
       <c r="AA99" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11523,22 +11532,22 @@
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111896715</v>
+        <v>111886358</v>
       </c>
       <c r="B100" t="n">
-        <v>98961</v>
+        <v>102192</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11551,37 +11560,38 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>574335</v>
+        <v>574378</v>
       </c>
       <c r="R100" t="n">
-        <v>6703403</v>
+        <v>6703531</v>
       </c>
       <c r="S100" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -11608,9 +11618,19 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
       <c r="AA100" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11625,22 +11645,22 @@
       <c r="AT100" t="inlineStr"/>
       <c r="AW100" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX100" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111886390</v>
+        <v>111886498</v>
       </c>
       <c r="B101" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11678,10 +11698,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>574321</v>
+        <v>574334</v>
       </c>
       <c r="R101" t="n">
-        <v>6703542</v>
+        <v>6703523</v>
       </c>
       <c r="S101" t="n">
         <v>1</v>
@@ -11713,7 +11733,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -11723,7 +11743,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11750,10 +11770,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111896580</v>
+        <v>111885492</v>
       </c>
       <c r="B102" t="n">
-        <v>99850</v>
+        <v>99874</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11784,16 +11804,17 @@
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>574256</v>
+        <v>574347</v>
       </c>
       <c r="R102" t="n">
-        <v>6703474</v>
+        <v>6703446</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -11840,22 +11861,22 @@
       <c r="AT102" t="inlineStr"/>
       <c r="AW102" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111896608</v>
+        <v>111896624</v>
       </c>
       <c r="B103" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -11892,10 +11913,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>574451</v>
+        <v>574320</v>
       </c>
       <c r="R103" t="n">
-        <v>6703513</v>
+        <v>6703403</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -11954,10 +11975,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111896587</v>
+        <v>111896607</v>
       </c>
       <c r="B104" t="n">
-        <v>101581</v>
+        <v>90480</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -11970,21 +11991,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -11994,10 +12015,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>574292</v>
+        <v>574467</v>
       </c>
       <c r="R104" t="n">
-        <v>6703496</v>
+        <v>6703514</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12056,10 +12077,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111896696</v>
+        <v>111896581</v>
       </c>
       <c r="B105" t="n">
-        <v>98961</v>
+        <v>99874</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12072,21 +12093,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12096,10 +12117,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>574273</v>
+        <v>574334</v>
       </c>
       <c r="R105" t="n">
-        <v>6703374</v>
+        <v>6703424</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12158,10 +12179,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111896617</v>
+        <v>111896709</v>
       </c>
       <c r="B106" t="n">
-        <v>90466</v>
+        <v>98980</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12174,21 +12195,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12198,10 +12219,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>574269</v>
+        <v>574320</v>
       </c>
       <c r="R106" t="n">
-        <v>6703495</v>
+        <v>6703354</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
@@ -12260,10 +12281,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111886198</v>
+        <v>111896627</v>
       </c>
       <c r="B107" t="n">
-        <v>89100</v>
+        <v>90480</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12272,39 +12293,38 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>574244</v>
+        <v>574373</v>
       </c>
       <c r="R107" t="n">
-        <v>6703468</v>
+        <v>6703376</v>
       </c>
       <c r="S107" t="n">
         <v>25</v>
@@ -12351,22 +12371,22 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111896601</v>
+        <v>111896587</v>
       </c>
       <c r="B108" t="n">
-        <v>56575</v>
+        <v>101607</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12375,46 +12395,38 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>103021</v>
+        <v>222002</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>574288</v>
+        <v>574292</v>
       </c>
       <c r="R108" t="n">
-        <v>6703455</v>
+        <v>6703496</v>
       </c>
       <c r="S108" t="n">
         <v>25</v>
@@ -12473,10 +12485,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111896614</v>
+        <v>111896632</v>
       </c>
       <c r="B109" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12513,10 +12525,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>574229</v>
+        <v>574469</v>
       </c>
       <c r="R109" t="n">
-        <v>6703430</v>
+        <v>6703484</v>
       </c>
       <c r="S109" t="n">
         <v>25</v>
@@ -12575,10 +12587,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111896703</v>
+        <v>111896611</v>
       </c>
       <c r="B110" t="n">
-        <v>98961</v>
+        <v>90480</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12591,21 +12603,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12615,10 +12627,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>574310</v>
+        <v>574272</v>
       </c>
       <c r="R110" t="n">
-        <v>6703519</v>
+        <v>6703376</v>
       </c>
       <c r="S110" t="n">
         <v>25</v>
@@ -12677,10 +12689,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111896648</v>
+        <v>111896580</v>
       </c>
       <c r="B111" t="n">
-        <v>78633</v>
+        <v>99874</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12693,21 +12705,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>6456</v>
+        <v>221235</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -12717,10 +12729,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>574528</v>
+        <v>574256</v>
       </c>
       <c r="R111" t="n">
-        <v>6703436</v>
+        <v>6703474</v>
       </c>
       <c r="S111" t="n">
         <v>25</v>
@@ -12761,7 +12773,6 @@
       <c r="AE111" t="b">
         <v>0</v>
       </c>
-      <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="b">
         <v>0</v>
       </c>
@@ -12780,10 +12791,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111896619</v>
+        <v>111885842</v>
       </c>
       <c r="B112" t="n">
-        <v>90466</v>
+        <v>101607</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -12796,34 +12807,35 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4769</v>
+        <v>222002</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>574271</v>
+        <v>574290</v>
       </c>
       <c r="R112" t="n">
-        <v>6703440</v>
+        <v>6703416</v>
       </c>
       <c r="S112" t="n">
         <v>25</v>
@@ -12870,22 +12882,22 @@
       <c r="AT112" t="inlineStr"/>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111886329</v>
+        <v>111896608</v>
       </c>
       <c r="B113" t="n">
-        <v>90821</v>
+        <v>90480</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -12898,35 +12910,34 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Gästrikeleden (Gästrikeleden), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>574258</v>
+        <v>574451</v>
       </c>
       <c r="R113" t="n">
-        <v>6703499</v>
+        <v>6703513</v>
       </c>
       <c r="S113" t="n">
         <v>25</v>
@@ -12973,22 +12984,22 @@
       <c r="AT113" t="inlineStr"/>
       <c r="AW113" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX113" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111896611</v>
+        <v>111896670</v>
       </c>
       <c r="B114" t="n">
-        <v>90466</v>
+        <v>85388</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13001,21 +13012,21 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>4769</v>
+        <v>3674</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13025,10 +13036,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>574272</v>
+        <v>574302</v>
       </c>
       <c r="R114" t="n">
-        <v>6703376</v>
+        <v>6703457</v>
       </c>
       <c r="S114" t="n">
         <v>25</v>
@@ -13069,6 +13080,7 @@
       <c r="AE114" t="b">
         <v>0</v>
       </c>
+      <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="b">
         <v>0</v>
       </c>
@@ -13087,10 +13099,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111896700</v>
+        <v>111896702</v>
       </c>
       <c r="B115" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13127,10 +13139,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>574211</v>
+        <v>574285</v>
       </c>
       <c r="R115" t="n">
-        <v>6703461</v>
+        <v>6703508</v>
       </c>
       <c r="S115" t="n">
         <v>25</v>
@@ -13189,10 +13201,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111886372</v>
+        <v>111896620</v>
       </c>
       <c r="B116" t="n">
-        <v>90821</v>
+        <v>90480</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13205,35 +13217,34 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
-          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
+          <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>574261</v>
+        <v>574293</v>
       </c>
       <c r="R116" t="n">
-        <v>6703463</v>
+        <v>6703456</v>
       </c>
       <c r="S116" t="n">
         <v>25</v>
@@ -13280,22 +13291,22 @@
       <c r="AT116" t="inlineStr"/>
       <c r="AW116" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Patric Engfeldt</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111896615</v>
+        <v>111896669</v>
       </c>
       <c r="B117" t="n">
-        <v>90466</v>
+        <v>85388</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13308,21 +13319,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>4769</v>
+        <v>3674</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -13332,7 +13343,7 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>574241</v>
+        <v>574252</v>
       </c>
       <c r="R117" t="n">
         <v>6703470</v>
@@ -13376,6 +13387,7 @@
       <c r="AE117" t="b">
         <v>0</v>
       </c>
+      <c r="AF117" t="inlineStr"/>
       <c r="AG117" t="b">
         <v>0</v>
       </c>
@@ -13394,10 +13406,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111896589</v>
+        <v>111896691</v>
       </c>
       <c r="B118" t="n">
-        <v>101581</v>
+        <v>90832</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -13406,25 +13418,25 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>222002</v>
+        <v>4368</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -13434,10 +13446,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>574320</v>
+        <v>574527</v>
       </c>
       <c r="R118" t="n">
-        <v>6703355</v>
+        <v>6703449</v>
       </c>
       <c r="S118" t="n">
         <v>25</v>
@@ -13496,10 +13508,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111896681</v>
+        <v>111896651</v>
       </c>
       <c r="B119" t="n">
-        <v>89100</v>
+        <v>89331</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -13508,49 +13520,38 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>5754</v>
+        <v>3215</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
           <t>Kratte masugn, Gstr</t>
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>574331</v>
+        <v>574442</v>
       </c>
       <c r="R119" t="n">
-        <v>6703355</v>
+        <v>6703459</v>
       </c>
       <c r="S119" t="n">
         <v>25</v>
@@ -13591,7 +13592,6 @@
       <c r="AE119" t="b">
         <v>0</v>
       </c>
-      <c r="AF119" t="inlineStr"/>
       <c r="AG119" t="b">
         <v>0</v>
       </c>
@@ -13610,10 +13610,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111896670</v>
+        <v>111896682</v>
       </c>
       <c r="B120" t="n">
-        <v>85374</v>
+        <v>89114</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -13622,25 +13622,25 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>3674</v>
+        <v>5754</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -13650,10 +13650,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>574302</v>
+        <v>574256</v>
       </c>
       <c r="R120" t="n">
-        <v>6703457</v>
+        <v>6703475</v>
       </c>
       <c r="S120" t="n">
         <v>25</v>
@@ -13694,7 +13694,6 @@
       <c r="AE120" t="b">
         <v>0</v>
       </c>
-      <c r="AF120" t="inlineStr"/>
       <c r="AG120" t="b">
         <v>0</v>
       </c>
@@ -13713,10 +13712,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111896701</v>
+        <v>111896631</v>
       </c>
       <c r="B121" t="n">
-        <v>98961</v>
+        <v>90480</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -13729,21 +13728,21 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -13753,10 +13752,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>574224</v>
+        <v>574456</v>
       </c>
       <c r="R121" t="n">
-        <v>6703448</v>
+        <v>6703507</v>
       </c>
       <c r="S121" t="n">
         <v>25</v>
@@ -13815,10 +13814,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111896695</v>
+        <v>111885762</v>
       </c>
       <c r="B122" t="n">
-        <v>98961</v>
+        <v>90443</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -13831,34 +13830,35 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>222498</v>
+        <v>4740</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Sotriska</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius lignyotus</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>Kratte masugn, Gstr</t>
+          <t>Gropbackagruvorna (Gropbackagruvorna), Gstr</t>
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>574529</v>
+        <v>574312</v>
       </c>
       <c r="R122" t="n">
-        <v>6703446</v>
+        <v>6703438</v>
       </c>
       <c r="S122" t="n">
         <v>25</v>
@@ -13905,22 +13905,22 @@
       <c r="AT122" t="inlineStr"/>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Patric Engfeldt</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111886321</v>
+        <v>111885375</v>
       </c>
       <c r="B123" t="n">
-        <v>99850</v>
+        <v>90480</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -13933,21 +13933,21 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>221235</v>
+        <v>4769</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA123" t="inlineStr">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="AB123" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AD123" t="b">
@@ -14030,10 +14030,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111886310</v>
+        <v>111886321</v>
       </c>
       <c r="B124" t="n">
-        <v>102166</v>
+        <v>99874</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14046,21 +14046,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>222412</v>
+        <v>221235</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14106,7 +14106,7 @@
       </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA124" t="inlineStr">
@@ -14116,7 +14116,7 @@
       </c>
       <c r="AB124" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD124" t="b">
@@ -14143,10 +14143,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111885375</v>
+        <v>111886310</v>
       </c>
       <c r="B125" t="n">
-        <v>90466</v>
+        <v>102192</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14159,21 +14159,21 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -14219,7 +14219,7 @@
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
@@ -14229,7 +14229,7 @@
       </c>
       <c r="AB125" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="AD125" t="b">
@@ -14259,7 +14259,7 @@
         <v>111885073</v>
       </c>
       <c r="B126" t="n">
-        <v>90818</v>
+        <v>90832</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -14369,10 +14369,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>112204532</v>
+        <v>112204529</v>
       </c>
       <c r="B127" t="n">
-        <v>90792</v>
+        <v>90826</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -14381,25 +14381,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -14409,10 +14409,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>574168</v>
+        <v>574203</v>
       </c>
       <c r="R127" t="n">
-        <v>6703580</v>
+        <v>6703509</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14471,10 +14471,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>112204520</v>
+        <v>112204557</v>
       </c>
       <c r="B128" t="n">
-        <v>90466</v>
+        <v>98980</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -14487,21 +14487,21 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -14511,10 +14511,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>574432</v>
+        <v>574371</v>
       </c>
       <c r="R128" t="n">
-        <v>6703353</v>
+        <v>6703358</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14573,10 +14573,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>112204548</v>
+        <v>112204494</v>
       </c>
       <c r="B129" t="n">
-        <v>90818</v>
+        <v>90810</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -14585,25 +14585,25 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4368</v>
+        <v>4363</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -14613,10 +14613,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>574278</v>
+        <v>574215</v>
       </c>
       <c r="R129" t="n">
-        <v>6703560</v>
+        <v>6703545</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -14675,10 +14675,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>112204506</v>
+        <v>112204546</v>
       </c>
       <c r="B130" t="n">
-        <v>56430</v>
+        <v>90835</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -14687,46 +14687,38 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>100109</v>
+        <v>5964</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>574248</v>
+        <v>574312</v>
       </c>
       <c r="R130" t="n">
-        <v>6703547</v>
+        <v>6703559</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -14788,7 +14780,7 @@
         <v>112204524</v>
       </c>
       <c r="B131" t="n">
-        <v>98872</v>
+        <v>98891</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -14887,10 +14879,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>112204534</v>
+        <v>112204520</v>
       </c>
       <c r="B132" t="n">
-        <v>85210</v>
+        <v>90480</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -14903,21 +14895,21 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>3762</v>
+        <v>4769</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -14927,10 +14919,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>574275</v>
+        <v>574432</v>
       </c>
       <c r="R132" t="n">
-        <v>6703472</v>
+        <v>6703353</v>
       </c>
       <c r="S132" t="n">
         <v>15</v>
@@ -14989,10 +14981,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>112204527</v>
+        <v>112204496</v>
       </c>
       <c r="B133" t="n">
-        <v>93218</v>
+        <v>99874</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -15005,21 +14997,21 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2813</v>
+        <v>221235</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -15029,10 +15021,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>574434</v>
+        <v>574374</v>
       </c>
       <c r="R133" t="n">
-        <v>6703389</v>
+        <v>6703549</v>
       </c>
       <c r="S133" t="n">
         <v>15</v>
@@ -15091,10 +15083,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>112204542</v>
+        <v>112204507</v>
       </c>
       <c r="B134" t="n">
-        <v>89100</v>
+        <v>102192</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -15103,49 +15095,38 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>5754</v>
+        <v>222412</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="N134" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>574344</v>
+        <v>574348</v>
       </c>
       <c r="R134" t="n">
-        <v>6703345</v>
+        <v>6703560</v>
       </c>
       <c r="S134" t="n">
         <v>15</v>
@@ -15186,7 +15167,6 @@
       <c r="AE134" t="b">
         <v>0</v>
       </c>
-      <c r="AF134" t="inlineStr"/>
       <c r="AG134" t="b">
         <v>0</v>
       </c>
@@ -15205,10 +15185,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>112204535</v>
+        <v>112204499</v>
       </c>
       <c r="B135" t="n">
-        <v>93206</v>
+        <v>5135</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -15221,34 +15201,43 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2809</v>
+        <v>105930</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>574348</v>
+        <v>574257</v>
       </c>
       <c r="R135" t="n">
-        <v>6703368</v>
+        <v>6703569</v>
       </c>
       <c r="S135" t="n">
         <v>15</v>
@@ -15289,6 +15278,7 @@
       <c r="AE135" t="b">
         <v>0</v>
       </c>
+      <c r="AF135" t="inlineStr"/>
       <c r="AG135" t="b">
         <v>0</v>
       </c>
@@ -15307,10 +15297,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>112204507</v>
+        <v>112204558</v>
       </c>
       <c r="B136" t="n">
-        <v>102166</v>
+        <v>85388</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -15323,21 +15313,21 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>222412</v>
+        <v>3674</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -15347,10 +15337,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>574348</v>
+        <v>574268</v>
       </c>
       <c r="R136" t="n">
-        <v>6703560</v>
+        <v>6703487</v>
       </c>
       <c r="S136" t="n">
         <v>15</v>
@@ -15409,10 +15399,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>112204496</v>
+        <v>112204515</v>
       </c>
       <c r="B137" t="n">
-        <v>99850</v>
+        <v>90480</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -15425,21 +15415,21 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>221235</v>
+        <v>4769</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -15449,10 +15439,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>574374</v>
+        <v>574283</v>
       </c>
       <c r="R137" t="n">
-        <v>6703549</v>
+        <v>6703459</v>
       </c>
       <c r="S137" t="n">
         <v>15</v>
@@ -15511,10 +15501,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>112204562</v>
+        <v>112204552</v>
       </c>
       <c r="B138" t="n">
-        <v>85374</v>
+        <v>5113</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -15527,21 +15517,21 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>3674</v>
+        <v>100526</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -15551,10 +15541,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>574316</v>
+        <v>574303</v>
       </c>
       <c r="R138" t="n">
-        <v>6703402</v>
+        <v>6703521</v>
       </c>
       <c r="S138" t="n">
         <v>15</v>
@@ -15613,10 +15603,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>112204509</v>
+        <v>112204513</v>
       </c>
       <c r="B139" t="n">
-        <v>4711</v>
+        <v>90480</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -15629,43 +15619,34 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>100299</v>
+        <v>4769</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>574304</v>
+        <v>574350</v>
       </c>
       <c r="R139" t="n">
-        <v>6703522</v>
+        <v>6703560</v>
       </c>
       <c r="S139" t="n">
         <v>15</v>
@@ -15706,7 +15687,6 @@
       <c r="AE139" t="b">
         <v>0</v>
       </c>
-      <c r="AF139" t="inlineStr"/>
       <c r="AG139" t="b">
         <v>0</v>
       </c>
@@ -15725,10 +15705,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>112204512</v>
+        <v>112204542</v>
       </c>
       <c r="B140" t="n">
-        <v>90466</v>
+        <v>89114</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -15737,38 +15717,49 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4769</v>
+        <v>5754</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>574381</v>
+        <v>574344</v>
       </c>
       <c r="R140" t="n">
-        <v>6703524</v>
+        <v>6703345</v>
       </c>
       <c r="S140" t="n">
         <v>15</v>
@@ -15809,6 +15800,7 @@
       <c r="AE140" t="b">
         <v>0</v>
       </c>
+      <c r="AF140" t="inlineStr"/>
       <c r="AG140" t="b">
         <v>0</v>
       </c>
@@ -15827,10 +15819,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>112204543</v>
+        <v>112204505</v>
       </c>
       <c r="B141" t="n">
-        <v>89100</v>
+        <v>89553</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -15843,21 +15835,21 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>5754</v>
+        <v>1202</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -15867,10 +15859,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>574373</v>
+        <v>574433</v>
       </c>
       <c r="R141" t="n">
-        <v>6703547</v>
+        <v>6703378</v>
       </c>
       <c r="S141" t="n">
         <v>15</v>
@@ -15929,10 +15921,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>112204500</v>
+        <v>112204536</v>
       </c>
       <c r="B142" t="n">
-        <v>94287</v>
+        <v>93220</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -15941,25 +15933,25 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>53</v>
+        <v>2809</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -15969,10 +15961,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>574270</v>
+        <v>574433</v>
       </c>
       <c r="R142" t="n">
-        <v>6703543</v>
+        <v>6703384</v>
       </c>
       <c r="S142" t="n">
         <v>15</v>
@@ -16031,10 +16023,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>112204505</v>
+        <v>112204549</v>
       </c>
       <c r="B143" t="n">
-        <v>89539</v>
+        <v>90832</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -16047,21 +16039,21 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1202</v>
+        <v>4368</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -16071,10 +16063,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>574433</v>
+        <v>574526</v>
       </c>
       <c r="R143" t="n">
-        <v>6703378</v>
+        <v>6703440</v>
       </c>
       <c r="S143" t="n">
         <v>15</v>
@@ -16133,10 +16125,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>112204515</v>
+        <v>112204559</v>
       </c>
       <c r="B144" t="n">
-        <v>90466</v>
+        <v>85388</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -16149,21 +16141,21 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>4769</v>
+        <v>3674</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -16173,10 +16165,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>574283</v>
+        <v>574274</v>
       </c>
       <c r="R144" t="n">
-        <v>6703459</v>
+        <v>6703472</v>
       </c>
       <c r="S144" t="n">
         <v>15</v>
@@ -16235,10 +16227,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>112204528</v>
+        <v>112204527</v>
       </c>
       <c r="B145" t="n">
-        <v>78633</v>
+        <v>93232</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -16251,21 +16243,21 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>6456</v>
+        <v>2813</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -16275,10 +16267,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>574534</v>
+        <v>574434</v>
       </c>
       <c r="R145" t="n">
-        <v>6703436</v>
+        <v>6703389</v>
       </c>
       <c r="S145" t="n">
         <v>15</v>
@@ -16337,10 +16329,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>112204557</v>
+        <v>112204548</v>
       </c>
       <c r="B146" t="n">
-        <v>98961</v>
+        <v>90832</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -16349,25 +16341,25 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>222498</v>
+        <v>4368</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -16377,10 +16369,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>574371</v>
+        <v>574278</v>
       </c>
       <c r="R146" t="n">
-        <v>6703358</v>
+        <v>6703560</v>
       </c>
       <c r="S146" t="n">
         <v>15</v>
@@ -16439,10 +16431,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>112204519</v>
+        <v>112204562</v>
       </c>
       <c r="B147" t="n">
-        <v>90466</v>
+        <v>85388</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -16455,21 +16447,21 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>4769</v>
+        <v>3674</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -16479,10 +16471,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>574416</v>
+        <v>574316</v>
       </c>
       <c r="R147" t="n">
-        <v>6703348</v>
+        <v>6703402</v>
       </c>
       <c r="S147" t="n">
         <v>15</v>
@@ -16541,10 +16533,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>112204536</v>
+        <v>112204509</v>
       </c>
       <c r="B148" t="n">
-        <v>93206</v>
+        <v>4711</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -16557,34 +16549,43 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2809</v>
+        <v>100299</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr"/>
       <c r="P148" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>574433</v>
+        <v>574304</v>
       </c>
       <c r="R148" t="n">
-        <v>6703384</v>
+        <v>6703522</v>
       </c>
       <c r="S148" t="n">
         <v>15</v>
@@ -16625,6 +16626,7 @@
       <c r="AE148" t="b">
         <v>0</v>
       </c>
+      <c r="AF148" t="inlineStr"/>
       <c r="AG148" t="b">
         <v>0</v>
       </c>
@@ -16643,10 +16645,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>112204547</v>
+        <v>112204528</v>
       </c>
       <c r="B149" t="n">
-        <v>90818</v>
+        <v>78647</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -16655,25 +16657,25 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>4368</v>
+        <v>6456</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -16683,10 +16685,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>574347</v>
+        <v>574534</v>
       </c>
       <c r="R149" t="n">
-        <v>6703566</v>
+        <v>6703436</v>
       </c>
       <c r="S149" t="n">
         <v>15</v>
@@ -16745,10 +16747,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>112204522</v>
+        <v>112204497</v>
       </c>
       <c r="B150" t="n">
-        <v>90843</v>
+        <v>99874</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -16757,25 +16759,25 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>5448</v>
+        <v>221235</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -16785,10 +16787,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>574380</v>
+        <v>574347</v>
       </c>
       <c r="R150" t="n">
-        <v>6703524</v>
+        <v>6703560</v>
       </c>
       <c r="S150" t="n">
         <v>15</v>
@@ -16847,10 +16849,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>112204513</v>
+        <v>112204506</v>
       </c>
       <c r="B151" t="n">
-        <v>90466</v>
+        <v>56430</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -16859,38 +16861,46 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>4769</v>
+        <v>100109</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>574350</v>
+        <v>574248</v>
       </c>
       <c r="R151" t="n">
-        <v>6703560</v>
+        <v>6703547</v>
       </c>
       <c r="S151" t="n">
         <v>15</v>
@@ -16949,10 +16959,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>112204556</v>
+        <v>112204522</v>
       </c>
       <c r="B152" t="n">
-        <v>98961</v>
+        <v>90857</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -16961,25 +16971,25 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>222498</v>
+        <v>5448</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -16989,10 +16999,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>574348</v>
+        <v>574380</v>
       </c>
       <c r="R152" t="n">
-        <v>6703560</v>
+        <v>6703524</v>
       </c>
       <c r="S152" t="n">
         <v>15</v>
@@ -17051,10 +17061,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>112204560</v>
+        <v>112204543</v>
       </c>
       <c r="B153" t="n">
-        <v>85374</v>
+        <v>89114</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -17063,25 +17073,25 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>3674</v>
+        <v>5754</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
@@ -17091,10 +17101,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>574298</v>
+        <v>574373</v>
       </c>
       <c r="R153" t="n">
-        <v>6703421</v>
+        <v>6703547</v>
       </c>
       <c r="S153" t="n">
         <v>15</v>
@@ -17153,10 +17163,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>112204499</v>
+        <v>112204560</v>
       </c>
       <c r="B154" t="n">
-        <v>5135</v>
+        <v>85388</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -17169,43 +17179,34 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>105930</v>
+        <v>3674</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N154" t="inlineStr"/>
       <c r="P154" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>574257</v>
+        <v>574298</v>
       </c>
       <c r="R154" t="n">
-        <v>6703569</v>
+        <v>6703421</v>
       </c>
       <c r="S154" t="n">
         <v>15</v>
@@ -17246,7 +17247,6 @@
       <c r="AE154" t="b">
         <v>0</v>
       </c>
-      <c r="AF154" t="inlineStr"/>
       <c r="AG154" t="b">
         <v>0</v>
       </c>
@@ -17268,7 +17268,7 @@
         <v>112204526</v>
       </c>
       <c r="B155" t="n">
-        <v>93218</v>
+        <v>93232</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -17367,10 +17367,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>112204558</v>
+        <v>112204503</v>
       </c>
       <c r="B156" t="n">
-        <v>85374</v>
+        <v>101607</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -17383,21 +17383,21 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>3674</v>
+        <v>222002</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -17407,10 +17407,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>574268</v>
+        <v>574318</v>
       </c>
       <c r="R156" t="n">
-        <v>6703487</v>
+        <v>6703402</v>
       </c>
       <c r="S156" t="n">
         <v>15</v>
@@ -17469,10 +17469,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>112204502</v>
+        <v>112204556</v>
       </c>
       <c r="B157" t="n">
-        <v>101581</v>
+        <v>98980</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -17485,21 +17485,21 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -17509,10 +17509,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>574290</v>
+        <v>574348</v>
       </c>
       <c r="R157" t="n">
-        <v>6703420</v>
+        <v>6703560</v>
       </c>
       <c r="S157" t="n">
         <v>15</v>
@@ -17571,10 +17571,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>112204494</v>
+        <v>112205319</v>
       </c>
       <c r="B158" t="n">
-        <v>90796</v>
+        <v>85324</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -17583,38 +17583,39 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>4363</v>
+        <v>445</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Kopparspindling</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Cortinarius cupreorufus</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>Brandrud</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
-          <t>Kratte Masugn, Gstr</t>
+          <t>Kratte masugn (Kratte masugn), Gstr</t>
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>574215</v>
+        <v>574311</v>
       </c>
       <c r="R158" t="n">
-        <v>6703545</v>
+        <v>6703374</v>
       </c>
       <c r="S158" t="n">
         <v>15</v>
@@ -17644,9 +17645,19 @@
           <t>2023-09-18</t>
         </is>
       </c>
+      <c r="Z158" t="inlineStr">
+        <is>
+          <t>10:32</t>
+        </is>
+      </c>
       <c r="AA158" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB158" t="inlineStr">
+        <is>
+          <t>10:32</t>
         </is>
       </c>
       <c r="AD158" t="b">
@@ -17673,10 +17684,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>112204517</v>
+        <v>112204500</v>
       </c>
       <c r="B159" t="n">
-        <v>90466</v>
+        <v>94301</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -17685,25 +17696,25 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>4769</v>
+        <v>53</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -17713,10 +17724,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>574383</v>
+        <v>574270</v>
       </c>
       <c r="R159" t="n">
-        <v>6703344</v>
+        <v>6703543</v>
       </c>
       <c r="S159" t="n">
         <v>15</v>
@@ -17775,10 +17786,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>112204521</v>
+        <v>112204502</v>
       </c>
       <c r="B160" t="n">
-        <v>90466</v>
+        <v>101607</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -17791,21 +17802,21 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>4769</v>
+        <v>222002</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -17815,10 +17826,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>574423</v>
+        <v>574290</v>
       </c>
       <c r="R160" t="n">
-        <v>6703376</v>
+        <v>6703420</v>
       </c>
       <c r="S160" t="n">
         <v>15</v>
@@ -17877,10 +17888,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>112204546</v>
+        <v>112204519</v>
       </c>
       <c r="B161" t="n">
-        <v>90821</v>
+        <v>90480</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -17893,21 +17904,21 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
@@ -17917,10 +17928,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>574312</v>
+        <v>574416</v>
       </c>
       <c r="R161" t="n">
-        <v>6703559</v>
+        <v>6703348</v>
       </c>
       <c r="S161" t="n">
         <v>15</v>
@@ -17979,10 +17990,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>112204537</v>
+        <v>112204521</v>
       </c>
       <c r="B162" t="n">
-        <v>89090</v>
+        <v>90480</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -17991,25 +18002,25 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>5747</v>
+        <v>4769</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I162" t="inlineStr"/>
@@ -18019,10 +18030,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>574226</v>
+        <v>574423</v>
       </c>
       <c r="R162" t="n">
-        <v>6703548</v>
+        <v>6703376</v>
       </c>
       <c r="S162" t="n">
         <v>15</v>
@@ -18081,10 +18092,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>112205319</v>
+        <v>112204561</v>
       </c>
       <c r="B163" t="n">
-        <v>85310</v>
+        <v>85388</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -18093,39 +18104,38 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>445</v>
+        <v>3674</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Kopparspindling</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Cortinarius cupreorufus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Brandrud</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
       <c r="P163" t="inlineStr">
         <is>
-          <t>Kratte masugn (Kratte masugn), Gstr</t>
+          <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q163" t="n">
         <v>574311</v>
       </c>
       <c r="R163" t="n">
-        <v>6703374</v>
+        <v>6703416</v>
       </c>
       <c r="S163" t="n">
         <v>15</v>
@@ -18155,19 +18165,9 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z163" t="inlineStr">
-        <is>
-          <t>10:32</t>
-        </is>
-      </c>
       <c r="AA163" t="inlineStr">
         <is>
           <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="AB163" t="inlineStr">
-        <is>
-          <t>10:32</t>
         </is>
       </c>
       <c r="AD163" t="b">
@@ -18194,10 +18194,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>112204559</v>
+        <v>112204516</v>
       </c>
       <c r="B164" t="n">
-        <v>85374</v>
+        <v>90480</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -18210,21 +18210,21 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>3674</v>
+        <v>4769</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I164" t="inlineStr"/>
@@ -18234,10 +18234,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>574274</v>
+        <v>574335</v>
       </c>
       <c r="R164" t="n">
-        <v>6703472</v>
+        <v>6703391</v>
       </c>
       <c r="S164" t="n">
         <v>15</v>
@@ -18296,10 +18296,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>112204503</v>
+        <v>112204532</v>
       </c>
       <c r="B165" t="n">
-        <v>101581</v>
+        <v>90806</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -18308,25 +18308,25 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>222002</v>
+        <v>4361</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
@@ -18336,10 +18336,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>574318</v>
+        <v>574168</v>
       </c>
       <c r="R165" t="n">
-        <v>6703402</v>
+        <v>6703580</v>
       </c>
       <c r="S165" t="n">
         <v>15</v>
@@ -18398,10 +18398,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>112204549</v>
+        <v>112204547</v>
       </c>
       <c r="B166" t="n">
-        <v>90818</v>
+        <v>90832</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -18438,10 +18438,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>574526</v>
+        <v>574347</v>
       </c>
       <c r="R166" t="n">
-        <v>6703440</v>
+        <v>6703566</v>
       </c>
       <c r="S166" t="n">
         <v>15</v>
@@ -18500,10 +18500,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>112204516</v>
+        <v>112204535</v>
       </c>
       <c r="B167" t="n">
-        <v>90466</v>
+        <v>93220</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -18516,21 +18516,21 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>4769</v>
+        <v>2809</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
@@ -18540,10 +18540,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>574335</v>
+        <v>574348</v>
       </c>
       <c r="R167" t="n">
-        <v>6703391</v>
+        <v>6703368</v>
       </c>
       <c r="S167" t="n">
         <v>15</v>
@@ -18602,10 +18602,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>112204497</v>
+        <v>112204534</v>
       </c>
       <c r="B168" t="n">
-        <v>99850</v>
+        <v>85224</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -18618,21 +18618,21 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>221235</v>
+        <v>3762</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I168" t="inlineStr"/>
@@ -18642,10 +18642,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>574347</v>
+        <v>574275</v>
       </c>
       <c r="R168" t="n">
-        <v>6703560</v>
+        <v>6703472</v>
       </c>
       <c r="S168" t="n">
         <v>15</v>
@@ -18704,10 +18704,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>112204561</v>
+        <v>112204517</v>
       </c>
       <c r="B169" t="n">
-        <v>85374</v>
+        <v>90480</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -18720,21 +18720,21 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>3674</v>
+        <v>4769</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
@@ -18744,10 +18744,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>574311</v>
+        <v>574383</v>
       </c>
       <c r="R169" t="n">
-        <v>6703416</v>
+        <v>6703344</v>
       </c>
       <c r="S169" t="n">
         <v>15</v>
@@ -18806,10 +18806,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>112204552</v>
+        <v>112204512</v>
       </c>
       <c r="B170" t="n">
-        <v>5113</v>
+        <v>90480</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -18822,21 +18822,21 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>100526</v>
+        <v>4769</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
@@ -18846,10 +18846,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>574303</v>
+        <v>574381</v>
       </c>
       <c r="R170" t="n">
-        <v>6703521</v>
+        <v>6703524</v>
       </c>
       <c r="S170" t="n">
         <v>15</v>
@@ -18908,10 +18908,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>112204529</v>
+        <v>112204537</v>
       </c>
       <c r="B171" t="n">
-        <v>90812</v>
+        <v>89104</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -18920,25 +18920,25 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>4366</v>
+        <v>5747</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
@@ -18948,10 +18948,10 @@
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>574203</v>
+        <v>574226</v>
       </c>
       <c r="R171" t="n">
-        <v>6703509</v>
+        <v>6703548</v>
       </c>
       <c r="S171" t="n">
         <v>15</v>
@@ -19013,7 +19013,7 @@
         <v>112215073</v>
       </c>
       <c r="B172" t="n">
-        <v>85411</v>
+        <v>85425</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>112215002</v>
       </c>
       <c r="B173" t="n">
-        <v>88126</v>
+        <v>88140</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>112214964</v>
       </c>
       <c r="B174" t="n">
-        <v>85434</v>
+        <v>85448</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>

--- a/artfynd/A 14918-2023.xlsx
+++ b/artfynd/A 14918-2023.xlsx
@@ -14369,10 +14369,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>112204529</v>
+        <v>112204562</v>
       </c>
       <c r="B127" t="n">
-        <v>90826</v>
+        <v>85388</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -14385,21 +14385,21 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>4366</v>
+        <v>3674</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -14409,10 +14409,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>574203</v>
+        <v>574316</v>
       </c>
       <c r="R127" t="n">
-        <v>6703509</v>
+        <v>6703402</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14471,10 +14471,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>112204557</v>
+        <v>112204537</v>
       </c>
       <c r="B128" t="n">
-        <v>98980</v>
+        <v>89104</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -14483,25 +14483,25 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>222498</v>
+        <v>5747</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -14511,10 +14511,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>574371</v>
+        <v>574226</v>
       </c>
       <c r="R128" t="n">
-        <v>6703358</v>
+        <v>6703548</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14573,10 +14573,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>112204494</v>
+        <v>112204560</v>
       </c>
       <c r="B129" t="n">
-        <v>90810</v>
+        <v>85388</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -14589,21 +14589,21 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4363</v>
+        <v>3674</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -14613,10 +14613,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>574215</v>
+        <v>574298</v>
       </c>
       <c r="R129" t="n">
-        <v>6703545</v>
+        <v>6703421</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -14675,10 +14675,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>112204546</v>
+        <v>112204521</v>
       </c>
       <c r="B130" t="n">
-        <v>90835</v>
+        <v>90480</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -14691,21 +14691,21 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -14715,10 +14715,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>574312</v>
+        <v>574423</v>
       </c>
       <c r="R130" t="n">
-        <v>6703559</v>
+        <v>6703376</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -14777,10 +14777,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>112204524</v>
+        <v>112205319</v>
       </c>
       <c r="B131" t="n">
-        <v>98891</v>
+        <v>85324</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -14789,38 +14789,39 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>222771</v>
+        <v>445</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Kopparspindling</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Cortinarius cupreorufus</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Brandrud</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>Kratte Masugn, Gstr</t>
+          <t>Kratte masugn (Kratte masugn), Gstr</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>574284</v>
+        <v>574311</v>
       </c>
       <c r="R131" t="n">
-        <v>6703462</v>
+        <v>6703374</v>
       </c>
       <c r="S131" t="n">
         <v>15</v>
@@ -14850,9 +14851,19 @@
           <t>2023-09-18</t>
         </is>
       </c>
+      <c r="Z131" t="inlineStr">
+        <is>
+          <t>10:32</t>
+        </is>
+      </c>
       <c r="AA131" t="inlineStr">
         <is>
           <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AB131" t="inlineStr">
+        <is>
+          <t>10:32</t>
         </is>
       </c>
       <c r="AD131" t="b">
@@ -14879,10 +14890,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>112204520</v>
+        <v>112204528</v>
       </c>
       <c r="B132" t="n">
-        <v>90480</v>
+        <v>78647</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -14895,21 +14906,21 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>4769</v>
+        <v>6456</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -14919,10 +14930,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>574432</v>
+        <v>574534</v>
       </c>
       <c r="R132" t="n">
-        <v>6703353</v>
+        <v>6703436</v>
       </c>
       <c r="S132" t="n">
         <v>15</v>
@@ -14981,7 +14992,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>112204496</v>
+        <v>112204497</v>
       </c>
       <c r="B133" t="n">
         <v>99874</v>
@@ -15021,10 +15032,10 @@
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>574374</v>
+        <v>574347</v>
       </c>
       <c r="R133" t="n">
-        <v>6703549</v>
+        <v>6703560</v>
       </c>
       <c r="S133" t="n">
         <v>15</v>
@@ -15083,10 +15094,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>112204507</v>
+        <v>112204542</v>
       </c>
       <c r="B134" t="n">
-        <v>102192</v>
+        <v>89114</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -15095,38 +15106,49 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>222412</v>
+        <v>5754</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr"/>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>574348</v>
+        <v>574344</v>
       </c>
       <c r="R134" t="n">
-        <v>6703560</v>
+        <v>6703345</v>
       </c>
       <c r="S134" t="n">
         <v>15</v>
@@ -15167,6 +15189,7 @@
       <c r="AE134" t="b">
         <v>0</v>
       </c>
+      <c r="AF134" t="inlineStr"/>
       <c r="AG134" t="b">
         <v>0</v>
       </c>
@@ -15185,10 +15208,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>112204499</v>
+        <v>112204534</v>
       </c>
       <c r="B135" t="n">
-        <v>5135</v>
+        <v>85224</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -15201,43 +15224,34 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>105930</v>
+        <v>3762</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>574257</v>
+        <v>574275</v>
       </c>
       <c r="R135" t="n">
-        <v>6703569</v>
+        <v>6703472</v>
       </c>
       <c r="S135" t="n">
         <v>15</v>
@@ -15278,7 +15292,6 @@
       <c r="AE135" t="b">
         <v>0</v>
       </c>
-      <c r="AF135" t="inlineStr"/>
       <c r="AG135" t="b">
         <v>0</v>
       </c>
@@ -15297,10 +15310,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>112204558</v>
+        <v>112204526</v>
       </c>
       <c r="B136" t="n">
-        <v>85388</v>
+        <v>93232</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -15313,21 +15326,21 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>3674</v>
+        <v>2813</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -15337,10 +15350,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>574268</v>
+        <v>574344</v>
       </c>
       <c r="R136" t="n">
-        <v>6703487</v>
+        <v>6703368</v>
       </c>
       <c r="S136" t="n">
         <v>15</v>
@@ -15399,10 +15412,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>112204515</v>
+        <v>112204532</v>
       </c>
       <c r="B137" t="n">
-        <v>90480</v>
+        <v>90806</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -15411,25 +15424,25 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>4769</v>
+        <v>4361</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -15439,10 +15452,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>574283</v>
+        <v>574168</v>
       </c>
       <c r="R137" t="n">
-        <v>6703459</v>
+        <v>6703580</v>
       </c>
       <c r="S137" t="n">
         <v>15</v>
@@ -15501,10 +15514,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>112204552</v>
+        <v>112204559</v>
       </c>
       <c r="B138" t="n">
-        <v>5113</v>
+        <v>85388</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -15517,21 +15530,21 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>100526</v>
+        <v>3674</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -15541,10 +15554,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>574303</v>
+        <v>574274</v>
       </c>
       <c r="R138" t="n">
-        <v>6703521</v>
+        <v>6703472</v>
       </c>
       <c r="S138" t="n">
         <v>15</v>
@@ -15603,10 +15616,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>112204513</v>
+        <v>112204524</v>
       </c>
       <c r="B139" t="n">
-        <v>90480</v>
+        <v>98891</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -15619,21 +15632,21 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>4769</v>
+        <v>222771</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -15643,10 +15656,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>574350</v>
+        <v>574284</v>
       </c>
       <c r="R139" t="n">
-        <v>6703560</v>
+        <v>6703462</v>
       </c>
       <c r="S139" t="n">
         <v>15</v>
@@ -15705,10 +15718,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>112204542</v>
+        <v>112204512</v>
       </c>
       <c r="B140" t="n">
-        <v>89114</v>
+        <v>90480</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -15717,49 +15730,38 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>574344</v>
+        <v>574381</v>
       </c>
       <c r="R140" t="n">
-        <v>6703345</v>
+        <v>6703524</v>
       </c>
       <c r="S140" t="n">
         <v>15</v>
@@ -15800,7 +15802,6 @@
       <c r="AE140" t="b">
         <v>0</v>
       </c>
-      <c r="AF140" t="inlineStr"/>
       <c r="AG140" t="b">
         <v>0</v>
       </c>
@@ -15819,10 +15820,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>112204505</v>
+        <v>112204502</v>
       </c>
       <c r="B141" t="n">
-        <v>89553</v>
+        <v>101607</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -15831,25 +15832,25 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1202</v>
+        <v>222002</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -15859,10 +15860,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>574433</v>
+        <v>574290</v>
       </c>
       <c r="R141" t="n">
-        <v>6703378</v>
+        <v>6703420</v>
       </c>
       <c r="S141" t="n">
         <v>15</v>
@@ -15921,10 +15922,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>112204536</v>
+        <v>112204548</v>
       </c>
       <c r="B142" t="n">
-        <v>93220</v>
+        <v>90832</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -15933,25 +15934,25 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>2809</v>
+        <v>4368</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -15961,10 +15962,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>574433</v>
+        <v>574278</v>
       </c>
       <c r="R142" t="n">
-        <v>6703384</v>
+        <v>6703560</v>
       </c>
       <c r="S142" t="n">
         <v>15</v>
@@ -16023,10 +16024,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>112204549</v>
+        <v>112204515</v>
       </c>
       <c r="B143" t="n">
-        <v>90832</v>
+        <v>90480</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -16035,25 +16036,25 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4368</v>
+        <v>4769</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -16063,10 +16064,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>574526</v>
+        <v>574283</v>
       </c>
       <c r="R143" t="n">
-        <v>6703440</v>
+        <v>6703459</v>
       </c>
       <c r="S143" t="n">
         <v>15</v>
@@ -16125,10 +16126,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>112204559</v>
+        <v>112204543</v>
       </c>
       <c r="B144" t="n">
-        <v>85388</v>
+        <v>89114</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -16137,25 +16138,25 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>3674</v>
+        <v>5754</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -16165,10 +16166,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>574274</v>
+        <v>574373</v>
       </c>
       <c r="R144" t="n">
-        <v>6703472</v>
+        <v>6703547</v>
       </c>
       <c r="S144" t="n">
         <v>15</v>
@@ -16227,10 +16228,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>112204527</v>
+        <v>112204557</v>
       </c>
       <c r="B145" t="n">
-        <v>93232</v>
+        <v>98980</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -16243,21 +16244,21 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>2813</v>
+        <v>222498</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -16267,10 +16268,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>574434</v>
+        <v>574371</v>
       </c>
       <c r="R145" t="n">
-        <v>6703389</v>
+        <v>6703358</v>
       </c>
       <c r="S145" t="n">
         <v>15</v>
@@ -16329,10 +16330,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>112204548</v>
+        <v>112204505</v>
       </c>
       <c r="B146" t="n">
-        <v>90832</v>
+        <v>89553</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -16345,21 +16346,21 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>4368</v>
+        <v>1202</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -16369,10 +16370,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>574278</v>
+        <v>574433</v>
       </c>
       <c r="R146" t="n">
-        <v>6703560</v>
+        <v>6703378</v>
       </c>
       <c r="S146" t="n">
         <v>15</v>
@@ -16431,10 +16432,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>112204562</v>
+        <v>112204513</v>
       </c>
       <c r="B147" t="n">
-        <v>85388</v>
+        <v>90480</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -16447,21 +16448,21 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>3674</v>
+        <v>4769</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -16471,10 +16472,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>574316</v>
+        <v>574350</v>
       </c>
       <c r="R147" t="n">
-        <v>6703402</v>
+        <v>6703560</v>
       </c>
       <c r="S147" t="n">
         <v>15</v>
@@ -16533,10 +16534,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>112204509</v>
+        <v>112204516</v>
       </c>
       <c r="B148" t="n">
-        <v>4711</v>
+        <v>90480</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -16549,43 +16550,34 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>100299</v>
+        <v>4769</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N148" t="inlineStr"/>
       <c r="P148" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>574304</v>
+        <v>574335</v>
       </c>
       <c r="R148" t="n">
-        <v>6703522</v>
+        <v>6703391</v>
       </c>
       <c r="S148" t="n">
         <v>15</v>
@@ -16626,7 +16618,6 @@
       <c r="AE148" t="b">
         <v>0</v>
       </c>
-      <c r="AF148" t="inlineStr"/>
       <c r="AG148" t="b">
         <v>0</v>
       </c>
@@ -16645,10 +16636,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>112204528</v>
+        <v>112204496</v>
       </c>
       <c r="B149" t="n">
-        <v>78647</v>
+        <v>99874</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -16661,21 +16652,21 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6456</v>
+        <v>221235</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -16685,10 +16676,10 @@
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>574534</v>
+        <v>574374</v>
       </c>
       <c r="R149" t="n">
-        <v>6703436</v>
+        <v>6703549</v>
       </c>
       <c r="S149" t="n">
         <v>15</v>
@@ -16747,10 +16738,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>112204497</v>
+        <v>112204529</v>
       </c>
       <c r="B150" t="n">
-        <v>99874</v>
+        <v>90826</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -16763,21 +16754,21 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>221235</v>
+        <v>4366</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -16787,10 +16778,10 @@
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>574347</v>
+        <v>574203</v>
       </c>
       <c r="R150" t="n">
-        <v>6703560</v>
+        <v>6703509</v>
       </c>
       <c r="S150" t="n">
         <v>15</v>
@@ -16849,10 +16840,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>112204506</v>
+        <v>112204556</v>
       </c>
       <c r="B151" t="n">
-        <v>56430</v>
+        <v>98980</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -16861,46 +16852,38 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>100109</v>
+        <v>222498</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>574248</v>
+        <v>574348</v>
       </c>
       <c r="R151" t="n">
-        <v>6703547</v>
+        <v>6703560</v>
       </c>
       <c r="S151" t="n">
         <v>15</v>
@@ -16959,10 +16942,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>112204522</v>
+        <v>112204517</v>
       </c>
       <c r="B152" t="n">
-        <v>90857</v>
+        <v>90480</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -16971,25 +16954,25 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>5448</v>
+        <v>4769</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -16999,10 +16982,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>574380</v>
+        <v>574383</v>
       </c>
       <c r="R152" t="n">
-        <v>6703524</v>
+        <v>6703344</v>
       </c>
       <c r="S152" t="n">
         <v>15</v>
@@ -17061,10 +17044,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>112204543</v>
+        <v>112204536</v>
       </c>
       <c r="B153" t="n">
-        <v>89114</v>
+        <v>93220</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -17073,25 +17056,25 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>5754</v>
+        <v>2809</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
@@ -17101,10 +17084,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>574373</v>
+        <v>574433</v>
       </c>
       <c r="R153" t="n">
-        <v>6703547</v>
+        <v>6703384</v>
       </c>
       <c r="S153" t="n">
         <v>15</v>
@@ -17163,10 +17146,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>112204560</v>
+        <v>112204547</v>
       </c>
       <c r="B154" t="n">
-        <v>85388</v>
+        <v>90832</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -17175,25 +17158,25 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>3674</v>
+        <v>4368</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
@@ -17203,10 +17186,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>574298</v>
+        <v>574347</v>
       </c>
       <c r="R154" t="n">
-        <v>6703421</v>
+        <v>6703566</v>
       </c>
       <c r="S154" t="n">
         <v>15</v>
@@ -17265,10 +17248,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>112204526</v>
+        <v>112204535</v>
       </c>
       <c r="B155" t="n">
-        <v>93232</v>
+        <v>93220</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -17281,21 +17264,21 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2813</v>
+        <v>2809</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -17305,7 +17288,7 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>574344</v>
+        <v>574348</v>
       </c>
       <c r="R155" t="n">
         <v>6703368</v>
@@ -17367,10 +17350,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>112204503</v>
+        <v>112204520</v>
       </c>
       <c r="B156" t="n">
-        <v>101607</v>
+        <v>90480</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -17383,21 +17366,21 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -17407,10 +17390,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>574318</v>
+        <v>574432</v>
       </c>
       <c r="R156" t="n">
-        <v>6703402</v>
+        <v>6703353</v>
       </c>
       <c r="S156" t="n">
         <v>15</v>
@@ -17469,10 +17452,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>112204556</v>
+        <v>112204503</v>
       </c>
       <c r="B157" t="n">
-        <v>98980</v>
+        <v>101607</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -17485,21 +17468,21 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -17509,10 +17492,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>574348</v>
+        <v>574318</v>
       </c>
       <c r="R157" t="n">
-        <v>6703560</v>
+        <v>6703402</v>
       </c>
       <c r="S157" t="n">
         <v>15</v>
@@ -17571,10 +17554,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>112205319</v>
+        <v>112204509</v>
       </c>
       <c r="B158" t="n">
-        <v>85324</v>
+        <v>4711</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -17583,39 +17566,47 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>445</v>
+        <v>100299</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Kopparspindling</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Cortinarius cupreorufus</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Brandrud</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
-          <t>Kratte masugn (Kratte masugn), Gstr</t>
+          <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>574311</v>
+        <v>574304</v>
       </c>
       <c r="R158" t="n">
-        <v>6703374</v>
+        <v>6703522</v>
       </c>
       <c r="S158" t="n">
         <v>15</v>
@@ -17645,27 +17636,18 @@
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="Z158" t="inlineStr">
-        <is>
-          <t>10:32</t>
-        </is>
-      </c>
       <c r="AA158" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="AB158" t="inlineStr">
-        <is>
-          <t>10:32</t>
-        </is>
-      </c>
       <c r="AD158" t="b">
         <v>0</v>
       </c>
       <c r="AE158" t="b">
         <v>0</v>
       </c>
+      <c r="AF158" t="inlineStr"/>
       <c r="AG158" t="b">
         <v>0</v>
       </c>
@@ -17684,10 +17666,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>112204500</v>
+        <v>112204558</v>
       </c>
       <c r="B159" t="n">
-        <v>94301</v>
+        <v>85388</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -17696,25 +17678,25 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>53</v>
+        <v>3674</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -17724,10 +17706,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>574270</v>
+        <v>574268</v>
       </c>
       <c r="R159" t="n">
-        <v>6703543</v>
+        <v>6703487</v>
       </c>
       <c r="S159" t="n">
         <v>15</v>
@@ -17786,10 +17768,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>112204502</v>
+        <v>112204519</v>
       </c>
       <c r="B160" t="n">
-        <v>101607</v>
+        <v>90480</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -17802,21 +17784,21 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>222002</v>
+        <v>4769</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -17826,10 +17808,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>574290</v>
+        <v>574416</v>
       </c>
       <c r="R160" t="n">
-        <v>6703420</v>
+        <v>6703348</v>
       </c>
       <c r="S160" t="n">
         <v>15</v>
@@ -17888,10 +17870,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>112204519</v>
+        <v>112204494</v>
       </c>
       <c r="B161" t="n">
-        <v>90480</v>
+        <v>90810</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -17904,21 +17886,21 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>4769</v>
+        <v>4363</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
@@ -17928,10 +17910,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>574416</v>
+        <v>574215</v>
       </c>
       <c r="R161" t="n">
-        <v>6703348</v>
+        <v>6703545</v>
       </c>
       <c r="S161" t="n">
         <v>15</v>
@@ -17990,10 +17972,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>112204521</v>
+        <v>112204549</v>
       </c>
       <c r="B162" t="n">
-        <v>90480</v>
+        <v>90832</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -18002,25 +17984,25 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>4769</v>
+        <v>4368</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I162" t="inlineStr"/>
@@ -18030,10 +18012,10 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>574423</v>
+        <v>574526</v>
       </c>
       <c r="R162" t="n">
-        <v>6703376</v>
+        <v>6703440</v>
       </c>
       <c r="S162" t="n">
         <v>15</v>
@@ -18092,10 +18074,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>112204561</v>
+        <v>112204552</v>
       </c>
       <c r="B163" t="n">
-        <v>85388</v>
+        <v>5113</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -18108,21 +18090,21 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>3674</v>
+        <v>100526</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Cortinarius odorifer</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Britzelm.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I163" t="inlineStr"/>
@@ -18132,10 +18114,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>574311</v>
+        <v>574303</v>
       </c>
       <c r="R163" t="n">
-        <v>6703416</v>
+        <v>6703521</v>
       </c>
       <c r="S163" t="n">
         <v>15</v>
@@ -18194,10 +18176,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>112204516</v>
+        <v>112204499</v>
       </c>
       <c r="B164" t="n">
-        <v>90480</v>
+        <v>5135</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -18210,34 +18192,43 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>4769</v>
+        <v>105930</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>574335</v>
+        <v>574257</v>
       </c>
       <c r="R164" t="n">
-        <v>6703391</v>
+        <v>6703569</v>
       </c>
       <c r="S164" t="n">
         <v>15</v>
@@ -18278,6 +18269,7 @@
       <c r="AE164" t="b">
         <v>0</v>
       </c>
+      <c r="AF164" t="inlineStr"/>
       <c r="AG164" t="b">
         <v>0</v>
       </c>
@@ -18296,10 +18288,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>112204532</v>
+        <v>112204500</v>
       </c>
       <c r="B165" t="n">
-        <v>90806</v>
+        <v>94301</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -18312,21 +18304,21 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>4361</v>
+        <v>53</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
@@ -18336,10 +18328,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>574168</v>
+        <v>574270</v>
       </c>
       <c r="R165" t="n">
-        <v>6703580</v>
+        <v>6703543</v>
       </c>
       <c r="S165" t="n">
         <v>15</v>
@@ -18398,10 +18390,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>112204547</v>
+        <v>112204506</v>
       </c>
       <c r="B166" t="n">
-        <v>90832</v>
+        <v>56430</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -18414,34 +18406,42 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>4368</v>
+        <v>100109</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr"/>
       <c r="P166" t="inlineStr">
         <is>
           <t>Kratte Masugn, Gstr</t>
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>574347</v>
+        <v>574248</v>
       </c>
       <c r="R166" t="n">
-        <v>6703566</v>
+        <v>6703547</v>
       </c>
       <c r="S166" t="n">
         <v>15</v>
@@ -18500,10 +18500,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>112204535</v>
+        <v>112204546</v>
       </c>
       <c r="B167" t="n">
-        <v>93220</v>
+        <v>90835</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -18516,21 +18516,21 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>2809</v>
+        <v>5964</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
@@ -18540,10 +18540,10 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>574348</v>
+        <v>574312</v>
       </c>
       <c r="R167" t="n">
-        <v>6703368</v>
+        <v>6703559</v>
       </c>
       <c r="S167" t="n">
         <v>15</v>
@@ -18602,10 +18602,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>112204534</v>
+        <v>112204522</v>
       </c>
       <c r="B168" t="n">
-        <v>85224</v>
+        <v>90857</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -18614,25 +18614,25 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>3762</v>
+        <v>5448</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I168" t="inlineStr"/>
@@ -18642,10 +18642,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>574275</v>
+        <v>574380</v>
       </c>
       <c r="R168" t="n">
-        <v>6703472</v>
+        <v>6703524</v>
       </c>
       <c r="S168" t="n">
         <v>15</v>
@@ -18704,10 +18704,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>112204517</v>
+        <v>112204561</v>
       </c>
       <c r="B169" t="n">
-        <v>90480</v>
+        <v>85388</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -18720,21 +18720,21 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>4769</v>
+        <v>3674</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius odorifer</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Britzelm.</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
@@ -18744,10 +18744,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>574383</v>
+        <v>574311</v>
       </c>
       <c r="R169" t="n">
-        <v>6703344</v>
+        <v>6703416</v>
       </c>
       <c r="S169" t="n">
         <v>15</v>
@@ -18806,10 +18806,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>112204512</v>
+        <v>112204527</v>
       </c>
       <c r="B170" t="n">
-        <v>90480</v>
+        <v>93232</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -18822,21 +18822,21 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>4769</v>
+        <v>2813</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
@@ -18846,10 +18846,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>574381</v>
+        <v>574434</v>
       </c>
       <c r="R170" t="n">
-        <v>6703524</v>
+        <v>6703389</v>
       </c>
       <c r="S170" t="n">
         <v>15</v>
@@ -18908,10 +18908,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>112204537</v>
+        <v>112204507</v>
       </c>
       <c r="B171" t="n">
-        <v>89104</v>
+        <v>102192</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -18920,25 +18920,25 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>5747</v>
+        <v>222412</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
@@ -18948,10 +18948,10 @@
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>574226</v>
+        <v>574348</v>
       </c>
       <c r="R171" t="n">
-        <v>6703548</v>
+        <v>6703560</v>
       </c>
       <c r="S171" t="n">
         <v>15</v>
@@ -19010,10 +19010,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>112215073</v>
+        <v>112215002</v>
       </c>
       <c r="B172" t="n">
-        <v>85425</v>
+        <v>88140</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -19022,30 +19022,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>6003295</v>
+        <v>1593</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Odörspindling</t>
+          <t>Lakritsmusseron</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Cortinarius russeoides</t>
+          <t>Tricholoma apium</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>M.M.Moser</t>
+          <t>Jul.Schäff.</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -19061,13 +19061,13 @@
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>574312</v>
+        <v>574226</v>
       </c>
       <c r="R172" t="n">
-        <v>6703375</v>
+        <v>6703548</v>
       </c>
       <c r="S172" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T172" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
       </c>
       <c r="AC172" t="inlineStr">
         <is>
-          <t>Växte inom några meter ifrån Koppartaggsvamp.</t>
+          <t>Väldigt annorlunda lokal och växtplats för en lakritsmusseron. Mestadels gran men det växte tallar i närheten också. Kalkbarrskog för övrigt och denna växte precis intill en läderdoftande fingersvamp. Fortfarande under mossan. Fruktkroppen hade den tydliga doften lakritsmusseron brukar ha.</t>
         </is>
       </c>
       <c r="AD172" t="b">
@@ -19129,10 +19129,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>112215002</v>
+        <v>112214964</v>
       </c>
       <c r="B173" t="n">
-        <v>88140</v>
+        <v>85448</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -19141,30 +19141,30 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1593</v>
+        <v>3739</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Lakritsmusseron</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Tricholoma apium</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Jul.Schäff.</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -19180,13 +19180,13 @@
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>574226</v>
+        <v>574526</v>
       </c>
       <c r="R173" t="n">
-        <v>6703548</v>
+        <v>6703440</v>
       </c>
       <c r="S173" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T173" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
       </c>
       <c r="AC173" t="inlineStr">
         <is>
-          <t>Väldigt annorlunda lokal och växtplats för en lakritsmusseron. Mestadels gran men det växte tallar i närheten också. Kalkbarrskog för övrigt och denna växte precis intill en läderdoftande fingersvamp. Fortfarande under mossan. Fruktkroppen hade den tydliga doften lakritsmusseron brukar ha.</t>
+          <t>Växte tillsammans med gran och några aspar. Rikligt med dofttaggsvamp intill.</t>
         </is>
       </c>
       <c r="AD173" t="b">
@@ -19248,10 +19248,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>112214964</v>
+        <v>112215073</v>
       </c>
       <c r="B174" t="n">
-        <v>85448</v>
+        <v>85425</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -19264,26 +19264,26 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>3739</v>
+        <v>6003295</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Odörspindling</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Cortinarius russeoides</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>M.M.Moser</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -19299,10 +19299,10 @@
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>574526</v>
+        <v>574312</v>
       </c>
       <c r="R174" t="n">
-        <v>6703440</v>
+        <v>6703375</v>
       </c>
       <c r="S174" t="n">
         <v>25</v>
@@ -19339,7 +19339,7 @@
       </c>
       <c r="AC174" t="inlineStr">
         <is>
-          <t>Växte tillsammans med gran och några aspar. Rikligt med dofttaggsvamp intill.</t>
+          <t>Växte inom några meter ifrån Koppartaggsvamp.</t>
         </is>
       </c>
       <c r="AD174" t="b">
